--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="397">
   <si>
     <t>First Name</t>
   </si>
@@ -56,1105 +56,1153 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Bobbie</t>
-  </si>
-  <si>
-    <t>Gentry</t>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>chasing electronic ghosts</t>
+  </si>
+  <si>
+    <t>commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>plotting criminal schemes</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Cocteau</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>trading innuendo</t>
+  </si>
+  <si>
+    <t>performing serious acting</t>
+  </si>
+  <si>
+    <t>avoiding taxes</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>directing robot movies</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>retiring replicants</t>
+  </si>
+  <si>
+    <t>playing rock guitar</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>making chocolate</t>
+  </si>
+  <si>
+    <t>terrorizing Earth</t>
+  </si>
+  <si>
+    <t>making prank calls</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>smoking cigarettes</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Oliver</t>
+  </si>
+  <si>
+    <t>Cromwell</t>
+  </si>
+  <si>
+    <t>reading self-help books</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>counting money</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t>making soap</t>
+  </si>
+  <si>
+    <t>embezzling tax money</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>going senile</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Weston</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>falling for prank calls</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Forman</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>collecting alimony</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>amassing nuclear weapons</t>
+  </si>
+  <si>
+    <t>publishing newspapers</t>
+  </si>
+  <si>
+    <t>telling zany jokes</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>wallowing in mud</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>throwing Bunga Bunga parties</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>selling illegal alcohol</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>Markie</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>rescuing aristocrats</t>
+  </si>
+  <si>
+    <t>practicing insincerity</t>
+  </si>
+  <si>
+    <t>offering blessings</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Brokaw</t>
+  </si>
+  <si>
+    <t>singing jazz songs</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Hawking</t>
+  </si>
+  <si>
+    <t>undermining authority</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>Hank</t>
+  </si>
+  <si>
+    <t>Ketcham</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>studying mathematics</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Calder</t>
+  </si>
+  <si>
+    <t>campaigning for consumer rights</t>
+  </si>
+  <si>
+    <t>chasing old women</t>
+  </si>
+  <si>
+    <t>making vulgar cartoons</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>Garrett</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>writing purple prose</t>
+  </si>
+  <si>
+    <t>writing romantic fiction</t>
+  </si>
+  <si>
+    <t>leaking state secrets</t>
+  </si>
+  <si>
+    <t>making bizarre movies</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Powell</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>running for the presidency</t>
+  </si>
+  <si>
+    <t>running a smuggling business</t>
+  </si>
+  <si>
+    <t>Patti</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
     <t>starring in romantic comedies</t>
   </si>
   <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Steiner</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>making political gaffes</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Rodgers</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>throwing sex parties</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>Donnie</t>
+  </si>
+  <si>
+    <t>Wahlberg</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>rescuing kids</t>
+  </si>
+  <si>
+    <t>Leno</t>
+  </si>
+  <si>
+    <t>frowning at errant husbands</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>slashing victims</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bynes</t>
+  </si>
+  <si>
+    <t>making madcap comedies</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Bigelow</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Mickey</t>
+  </si>
+  <si>
+    <t>Hart</t>
+  </si>
+  <si>
+    <t>running assembly lines</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Lelouch</t>
+  </si>
+  <si>
+    <t>pulling capers</t>
+  </si>
+  <si>
+    <t>Giorgio</t>
+  </si>
+  <si>
+    <t>Armani</t>
+  </si>
+  <si>
+    <t>attacking consumerism</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Stockman</t>
+  </si>
+  <si>
+    <t>demanding ransoms from the U.N.</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Sanford</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>treating the sick with jokes</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Vereen</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Weisz</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>winning cycling races</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Cohan</t>
+  </si>
+  <si>
+    <t>Sophia</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>performing kung-fu moves</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Tewes</t>
+  </si>
+  <si>
+    <t>selling kitsch</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>starring in musical comedies</t>
+  </si>
+  <si>
+    <t>e.e.</t>
+  </si>
+  <si>
+    <t>cummings</t>
+  </si>
+  <si>
+    <t>flaunting buttocks</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Kerr</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Newsted</t>
   </si>
   <si>
     <t>playing rock music</t>
   </si>
   <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>promoting socialism</t>
+  </si>
+  <si>
+    <t>wearing tights</t>
+  </si>
+  <si>
+    <t>Monet</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Lesley</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Gossett</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Brannon</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Crane</t>
   </si>
   <si>
     <t>writing weird movies</t>
   </si>
   <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>Rice</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>punishing criminals</t>
-  </si>
-  <si>
-    <t>dating young women</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>pushing the hardline</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
+    <t>Koko</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>Jillian</t>
+  </si>
+  <si>
+    <t>promoting American values</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Aguilara</t>
+  </si>
+  <si>
+    <t>Robby</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>Gene</t>
+  </si>
+  <si>
+    <t>Krupa</t>
+  </si>
+  <si>
+    <t>Itzhak</t>
+  </si>
+  <si>
+    <t>Perlman</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>Malcolm-Jamal</t>
+  </si>
+  <si>
+    <t>Warner</t>
+  </si>
+  <si>
+    <t>Merle</t>
+  </si>
+  <si>
+    <t>Haggard</t>
+  </si>
+  <si>
+    <t>Bat</t>
+  </si>
+  <si>
+    <t>Masterson</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>collecting bounties on runaways</t>
+  </si>
+  <si>
+    <t>Tavis</t>
+  </si>
+  <si>
+    <t>Smiley</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Wren</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Mangione</t>
+  </si>
+  <si>
+    <t>J.P.</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>making movies</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Hubble</t>
+  </si>
+  <si>
+    <t>A.A.</t>
+  </si>
+  <si>
+    <t>Milne</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Koufax</t>
+  </si>
+  <si>
+    <t>Moll</t>
+  </si>
+  <si>
+    <t>Nathaniel</t>
+  </si>
+  <si>
+    <t>Hawthorne</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>Dylan</t>
+  </si>
+  <si>
+    <t>Ricci</t>
+  </si>
+  <si>
+    <t>Ernie</t>
+  </si>
+  <si>
+    <t>Banks</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Hopkins</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Raphael</t>
+  </si>
+  <si>
+    <t>Ned</t>
+  </si>
+  <si>
+    <t>Beatty</t>
+  </si>
+  <si>
+    <t>Wilder</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Sullivan</t>
+  </si>
+  <si>
+    <t>Lou</t>
+  </si>
+  <si>
+    <t>Ferrigno</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Murray</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Minnelli</t>
+  </si>
+  <si>
+    <t>Macdonald</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Earhart</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Denholm</t>
+  </si>
+  <si>
+    <t>Elliott</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Bannister</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Bullock</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Doppler</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>Susannah</t>
+  </si>
+  <si>
+    <t>York</t>
+  </si>
+  <si>
+    <t>Nicholson</t>
+  </si>
+  <si>
+    <t>Englund</t>
+  </si>
+  <si>
+    <t>Madeline</t>
+  </si>
+  <si>
+    <t>LEngle</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>McGwire</t>
+  </si>
+  <si>
+    <t>Kirsten</t>
+  </si>
+  <si>
+    <t>Storms</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Rigg</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Neruda</t>
+  </si>
+  <si>
+    <t>Henri</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>insulting celebrities</t>
+  </si>
+  <si>
+    <t>Oscar</t>
+  </si>
+  <si>
+    <t>Wilde</t>
+  </si>
+  <si>
+    <t>Jeri</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Crowe</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Laurentiis</t>
+  </si>
+  <si>
+    <t>Dwight</t>
+  </si>
+  <si>
+    <t>Eisenhower</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Prokofiev</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Reiner</t>
+  </si>
+  <si>
+    <t>Bertrand</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Curry</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Mädchen</t>
+  </si>
+  <si>
+    <t>Amick</t>
+  </si>
+  <si>
+    <t>Eileen</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Hirt</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Dracula</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Burroughs</t>
+  </si>
+  <si>
+    <t>G.</t>
+  </si>
+  <si>
+    <t>Liddy</t>
+  </si>
+  <si>
+    <t>Napolenon</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>composing advertizing jingles</t>
-  </si>
-  <si>
-    <t>leading tour groups</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Salk</t>
-  </si>
-  <si>
-    <t>saying grace</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>making sandwiches</t>
-  </si>
-  <si>
-    <t>going on romantic quests</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>murdering astronauts</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>looking for hidden treasures</t>
-  </si>
-  <si>
-    <t>Pete</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>doing diet commercials</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>plagiarizing political speeches</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Norton</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>performing household chores</t>
-  </si>
-  <si>
-    <t>writing bad movies</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>writing about history</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Quivers</t>
-  </si>
-  <si>
-    <t>bridging cultures</t>
-  </si>
-  <si>
-    <t>spreading philosophy</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>Sir</t>
-  </si>
-  <si>
-    <t>Olivier</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>explaining evolution</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>promoting open-source software</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Sandburg</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Van-Excel</t>
-  </si>
-  <si>
-    <t>delivering forehand slams</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>campaigning for the presidency</t>
-  </si>
-  <si>
-    <t>Stan</t>
-  </si>
-  <si>
-    <t>Kenton</t>
-  </si>
-  <si>
-    <t>abusing minorities</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Updike</t>
-  </si>
-  <si>
-    <t>eating Peking duck</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>mooching from neighbors</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>deep-frying chicken</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Emilio</t>
-  </si>
-  <si>
-    <t>Estevez</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>escaping from reality</t>
-  </si>
-  <si>
-    <t>Bobby</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>extracting confessions</t>
-  </si>
-  <si>
-    <t>issuing threats</t>
-  </si>
-  <si>
-    <t>promoting Objectivism</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>running Ponzi schemes</t>
-  </si>
-  <si>
-    <t>campaigning for consumer rights</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Elia</t>
-  </si>
-  <si>
-    <t>Kazan</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>organizing mass suicides</t>
-  </si>
-  <si>
-    <t>writing historical fiction</t>
-  </si>
-  <si>
-    <t>Sheila</t>
-  </si>
-  <si>
-    <t>MacRae</t>
-  </si>
-  <si>
-    <t>making cartoons</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>making insipid musicals</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>Eva</t>
-  </si>
-  <si>
-    <t>Longoria</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>writing Hollywood movies</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
-    <t>Barrymore</t>
-  </si>
-  <si>
-    <t>drinking Duff beer</t>
-  </si>
-  <si>
-    <t>probing the mind</t>
-  </si>
-  <si>
-    <t>Laurence</t>
-  </si>
-  <si>
-    <t>running pyramid schemes</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Margaux</t>
-  </si>
-  <si>
-    <t>Hemingway</t>
-  </si>
-  <si>
-    <t>getting a nose job</t>
-  </si>
-  <si>
-    <t>acting off-off-Broadway</t>
-  </si>
-  <si>
-    <t>Ernest</t>
-  </si>
-  <si>
-    <t>pouting on camera</t>
-  </si>
-  <si>
-    <t>conducting illicit affairs</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>Rivers</t>
-  </si>
-  <si>
-    <t>Cuomo</t>
-  </si>
-  <si>
-    <t>marrying underage girls</t>
-  </si>
-  <si>
-    <t>launching foreign wars</t>
-  </si>
-  <si>
-    <t>Stevens</t>
-  </si>
-  <si>
-    <t>pulling pranks</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>McCartney</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>running a propaganda machine</t>
-  </si>
-  <si>
-    <t>Chuck</t>
-  </si>
-  <si>
-    <t>Yeager</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>posing as a street thug</t>
-  </si>
-  <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>Lawless</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Wian</t>
-  </si>
-  <si>
-    <t>Bertrand</t>
-  </si>
-  <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>studying magic</t>
-  </si>
-  <si>
-    <t>studying paleontology</t>
-  </si>
-  <si>
-    <t>unearthing ancient tombs</t>
-  </si>
-  <si>
-    <t>Matt</t>
-  </si>
-  <si>
-    <t>Groening</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>writing detective fiction</t>
-  </si>
-  <si>
-    <t>Stonewall</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>writing up case notes</t>
-  </si>
-  <si>
-    <t>digging for antiquities</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Buchanan</t>
-  </si>
-  <si>
-    <t>burning with envy</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Iacocca</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Milton</t>
-  </si>
-  <si>
-    <t>Mickey</t>
-  </si>
-  <si>
-    <t>Rourke</t>
-  </si>
-  <si>
-    <t>Joanna</t>
-  </si>
-  <si>
-    <t>Kerns</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t>Richards</t>
-  </si>
-  <si>
-    <t>Ron</t>
-  </si>
-  <si>
-    <t>Moody</t>
-  </si>
-  <si>
-    <t>writing compelling dialogue</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>playing jazz saxophone</t>
-  </si>
-  <si>
-    <t>Heather</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Super</t>
-  </si>
-  <si>
-    <t>Man</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>defending the innocent</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
-    <t>Owens</t>
-  </si>
-  <si>
-    <t>getting run over by cars</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>Carew</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Dickens</t>
-  </si>
-  <si>
-    <t>playing drums</t>
-  </si>
-  <si>
-    <t>Gypsy</t>
-  </si>
-  <si>
-    <t>Ozzy</t>
-  </si>
-  <si>
-    <t>Osbourne</t>
-  </si>
-  <si>
-    <t>Kareem</t>
-  </si>
-  <si>
-    <t>Abdul-Jabbar</t>
-  </si>
-  <si>
-    <t>Mädchen</t>
-  </si>
-  <si>
-    <t>Amick</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>Bonnie</t>
-  </si>
-  <si>
-    <t>Blair</t>
-  </si>
-  <si>
-    <t>eluding hunters</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Shakespeare</t>
-  </si>
-  <si>
-    <t>promoting healthy eating</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Francis</t>
-  </si>
-  <si>
-    <t>Coppala</t>
-  </si>
-  <si>
-    <t>Kantner</t>
-  </si>
-  <si>
-    <t>breaking records</t>
-  </si>
-  <si>
-    <t>searching for a new world</t>
-  </si>
-  <si>
-    <t>Hurt</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Preston</t>
-  </si>
-  <si>
-    <t>Boris</t>
-  </si>
-  <si>
-    <t>Yeltsin</t>
-  </si>
-  <si>
-    <t>Huston</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
-    <t>Rhea</t>
-  </si>
-  <si>
-    <t>Kat</t>
-  </si>
-  <si>
-    <t>Von-D</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Keaton</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Walston</t>
-  </si>
-  <si>
-    <t>worrying about adultery</t>
-  </si>
-  <si>
-    <t>Marsters</t>
-  </si>
-  <si>
-    <t>Jayne</t>
-  </si>
-  <si>
-    <t>Meadows</t>
-  </si>
-  <si>
-    <t>pinching pennies</t>
-  </si>
-  <si>
-    <t>Unser</t>
-  </si>
-  <si>
-    <t>Dole</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Wren</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Yma</t>
-  </si>
-  <si>
-    <t>Sumac</t>
-  </si>
-  <si>
-    <t>talking in riddles</t>
-  </si>
-  <si>
-    <t>Janet</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Hopkin</t>
-  </si>
-  <si>
-    <t>Gertrude</t>
-  </si>
-  <si>
-    <t>Stein</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Duchovny</t>
-  </si>
-  <si>
-    <t>Stanley</t>
-  </si>
-  <si>
-    <t>Kramer</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Mangione</t>
-  </si>
-  <si>
-    <t>making kitsch</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>Musburger</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>ODonnell</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Gable</t>
-  </si>
-  <si>
-    <t>Julius</t>
-  </si>
-  <si>
-    <t>Erving</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Basie</t>
-  </si>
-  <si>
-    <t>Frost</t>
-  </si>
-  <si>
-    <t>Bedelia</t>
-  </si>
-  <si>
-    <t>Margaret</t>
-  </si>
-  <si>
-    <t>Mead</t>
-  </si>
-  <si>
-    <t>Laverne</t>
-  </si>
-  <si>
-    <t>Andrews</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Crabbe</t>
-  </si>
-  <si>
-    <t>Mariah</t>
-  </si>
-  <si>
-    <t>Carey</t>
-  </si>
-  <si>
-    <t>Monty</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Melvin</t>
-  </si>
-  <si>
-    <t>Peebles</t>
-  </si>
-  <si>
-    <t>Z.Z.</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Aaron</t>
-  </si>
-  <si>
-    <t>Burr</t>
-  </si>
-  <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Hulce</t>
-  </si>
-  <si>
-    <t>Engineer</t>
-  </si>
-  <si>
-    <t>Stulla</t>
-  </si>
-  <si>
-    <t>Lady</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>Lovitz</t>
-  </si>
-  <si>
-    <t>Renée</t>
-  </si>
-  <si>
-    <t>Zellweger</t>
-  </si>
-  <si>
-    <t>Jules</t>
-  </si>
-  <si>
-    <t>Verne</t>
-  </si>
-  <si>
-    <t>Raz</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Burgess</t>
-  </si>
-  <si>
-    <t>Durning</t>
-  </si>
-  <si>
-    <t>Dashiell</t>
-  </si>
-  <si>
-    <t>Hammett</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>Parks</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Gaston</t>
-  </si>
-  <si>
-    <t>Leroux</t>
-  </si>
-  <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Vivaldi</t>
-  </si>
-  <si>
-    <t>Schenkel</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Napolean</t>
-  </si>
-  <si>
-    <t>Bonepart</t>
-  </si>
-  <si>
-    <t>Noël</t>
-  </si>
-  <si>
-    <t>Coward</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>Romano</t>
-  </si>
-  <si>
-    <t>Odetta</t>
-  </si>
-  <si>
-    <t>Donna</t>
-  </si>
-  <si>
-    <t>Karan</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>Tex</t>
-  </si>
-  <si>
-    <t>Ritter</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-  <si>
-    <t>Reiner</t>
-  </si>
-  <si>
-    <t>Lily</t>
-  </si>
-  <si>
-    <t>Allen</t>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>Kathie</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>Kovacs</t>
   </si>
 </sst>
 </file>
@@ -1212,20 +1260,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.57421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="31.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="31.40625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="31.40625" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="31.40625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.99609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="31.99609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="31.56640625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="41.19921875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="30.5625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="31.99609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="31.99609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="31.56640625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="35.5625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1280,7 +1328,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>9.9333099E7</v>
+        <v>6.7220736E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1324,7 +1372,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>4.4402343E7</v>
+        <v>9.9482087E7</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -1368,13 +1416,13 @@
         <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>7.4516594E7</v>
+        <v>2.6570143E7</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1389,7 +1437,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -1412,40 +1460,40 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>2.4265841E7</v>
+        <v>3.1907563E7</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
@@ -1456,216 +1504,216 @@
         <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>2.2381654E7</v>
+        <v>5.4860872E7</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
         <v>63</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
         <v>64</v>
       </c>
-      <c r="I6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
-      </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" t="n">
-        <v>4.5189045E7</v>
+        <v>4.7034844E7</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="N7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C8" t="n">
-        <v>8.1319389E7</v>
+        <v>6.5255154E7</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
         <v>74</v>
       </c>
       <c r="L8" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.6562896E7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
         <v>85</v>
       </c>
-      <c r="B9" t="s">
+      <c r="M9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" t="n">
-        <v>2.8657328E7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="N9" t="s">
         <v>87</v>
-      </c>
-      <c r="H9" t="s">
-        <v>88</v>
-      </c>
-      <c r="I9" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" t="s">
-        <v>82</v>
-      </c>
-      <c r="M9" t="s">
-        <v>80</v>
-      </c>
-      <c r="N9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.6011947E7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
         <v>92</v>
       </c>
-      <c r="B10" t="s">
+      <c r="I10" t="s">
         <v>93</v>
       </c>
-      <c r="C10" t="n">
-        <v>9.0713185E7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
         <v>94</v>
       </c>
-      <c r="H10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>95</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>96</v>
       </c>
-      <c r="L10" t="s">
-        <v>67</v>
-      </c>
       <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
         <v>97</v>
-      </c>
-      <c r="N10" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1676,37 +1724,37 @@
         <v>99</v>
       </c>
       <c r="C11" t="n">
-        <v>7.5869071E7</v>
+        <v>1.3094867E7</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M11" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
         <v>102</v>
@@ -1720,34 +1768,34 @@
         <v>104</v>
       </c>
       <c r="C12" t="n">
-        <v>7.741608E7</v>
+        <v>8.6893627E7</v>
       </c>
       <c r="D12" t="s">
         <v>29</v>
       </c>
       <c r="E12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" t="s">
         <v>105</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" t="s">
         <v>106</v>
       </c>
-      <c r="G12" t="s">
+      <c r="J12" t="s">
         <v>107</v>
       </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>108</v>
       </c>
-      <c r="J12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>109</v>
-      </c>
-      <c r="L12" t="s">
-        <v>48</v>
       </c>
       <c r="M12" t="s">
         <v>110</v>
@@ -1764,216 +1812,216 @@
         <v>113</v>
       </c>
       <c r="C13" t="n">
-        <v>5.6717678E7</v>
+        <v>4.2562462E7</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
+      <c r="K13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" t="s">
         <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" t="s">
-        <v>116</v>
-      </c>
-      <c r="L13" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
         <v>117</v>
       </c>
-      <c r="B14" t="s">
-        <v>118</v>
-      </c>
       <c r="C14" t="n">
-        <v>5.086876E7</v>
+        <v>2.9796569E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
         <v>119</v>
       </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" t="s">
-        <v>120</v>
-      </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="M14" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="N14" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.6156207E7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
         <v>122</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" t="s">
         <v>123</v>
       </c>
-      <c r="C15" t="n">
-        <v>8.3427819E7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="J15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" t="s">
         <v>124</v>
       </c>
-      <c r="F15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" t="s">
         <v>125</v>
-      </c>
-      <c r="I15" t="s">
-        <v>64</v>
-      </c>
-      <c r="J15" t="s">
-        <v>126</v>
-      </c>
-      <c r="K15" t="s">
-        <v>127</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.6952758E7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" t="s">
         <v>129</v>
       </c>
-      <c r="B16" t="s">
+      <c r="G16" t="s">
         <v>130</v>
       </c>
-      <c r="C16" t="n">
-        <v>3.9035456E7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" t="s">
         <v>131</v>
       </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>132</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K16" t="s">
         <v>133</v>
       </c>
-      <c r="I16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
         <v>135</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="n">
+        <v>4.4938895E7</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" t="s">
         <v>136</v>
       </c>
-      <c r="C17" t="n">
-        <v>7.6122515E7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>137</v>
       </c>
-      <c r="F17" t="s">
-        <v>100</v>
-      </c>
-      <c r="G17" t="s">
-        <v>121</v>
-      </c>
       <c r="H17" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
         <v>138</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="K17" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" t="s">
         <v>139</v>
       </c>
-      <c r="L17" t="s">
-        <v>80</v>
-      </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -1984,4029 +2032,4029 @@
         <v>142</v>
       </c>
       <c r="C18" t="n">
-        <v>4.8332796E7</v>
+        <v>2.1359712E7</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="G18" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="N18" t="s">
-        <v>145</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C19" t="n">
-        <v>3.2492784E7</v>
+        <v>6.5007353E7</v>
       </c>
       <c r="D19" t="s">
         <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="G19" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" t="s">
+        <v>150</v>
+      </c>
+      <c r="L19" t="s">
         <v>109</v>
       </c>
-      <c r="H19" t="s">
-        <v>115</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>148</v>
-      </c>
-      <c r="K19" t="s">
-        <v>149</v>
-      </c>
-      <c r="L19" t="s">
-        <v>30</v>
-      </c>
       <c r="M19" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="N19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="C20" t="n">
-        <v>1.8014221E7</v>
+        <v>9.5156109E7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="F20" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="J20" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="M20" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
       <c r="N20" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>158</v>
+      </c>
+      <c r="B21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C21" t="n">
+        <v>5.0647599E7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F21" t="s">
         <v>153</v>
       </c>
-      <c r="B21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.1428691E7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F21" t="s">
-        <v>89</v>
-      </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I21" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="J21" t="s">
-        <v>47</v>
+        <v>162</v>
       </c>
       <c r="K21" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="L21" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="N21" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="C22" t="n">
-        <v>3.0435057E7</v>
+        <v>1.5467971E7</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>158</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G22" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="I22" t="s">
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K22" t="s">
-        <v>72</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="M22" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C23" t="n">
-        <v>4.2063776E7</v>
+        <v>2.8724615E7</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="G23" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>83</v>
+        <v>172</v>
       </c>
       <c r="K23" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L23" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="M23" t="s">
-        <v>55</v>
+        <v>174</v>
       </c>
       <c r="N23" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="C24" t="n">
-        <v>4.0245314E7</v>
+        <v>3.0850273E7</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
       <c r="E24" t="s">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="L24" t="s">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="N24" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C25" t="n">
-        <v>1.1951251E7</v>
+        <v>7.4703435E7</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>52</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="N25" t="s">
-        <v>21</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C26" t="n">
-        <v>2.2652798E7</v>
+        <v>5.7367888E7</v>
       </c>
       <c r="D26" t="s">
         <v>29</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="F26" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="I26" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="K26" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="L26" t="s">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="M26" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="N26" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C27" t="n">
-        <v>6.6957786E7</v>
+        <v>1.4048234E7</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="I27" t="s">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="L27" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="M27" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="N27" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C28" t="n">
-        <v>2.0049434E7</v>
+        <v>2.8483214E7</v>
       </c>
       <c r="D28" t="s">
         <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="J28" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="K28" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="L28" t="s">
-        <v>48</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="N28" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="C29" t="n">
-        <v>2.1550437E7</v>
+        <v>3.1953115E7</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" t="s">
         <v>42</v>
       </c>
-      <c r="H29" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" t="s">
-        <v>106</v>
-      </c>
       <c r="L29" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="M29" t="s">
-        <v>188</v>
+        <v>101</v>
       </c>
       <c r="N29" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C30" t="n">
-        <v>1.801222E7</v>
+        <v>7.8527123E7</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>191</v>
+        <v>46</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="G30" t="s">
-        <v>192</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="I30" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="K30" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L30" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="M30" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="N30" t="s">
-        <v>181</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="C31" t="n">
-        <v>7.9148423E7</v>
+        <v>7.0027282E7</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="J31" t="s">
+        <v>206</v>
+      </c>
+      <c r="K31" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" t="s">
         <v>42</v>
       </c>
-      <c r="K31" t="s">
-        <v>116</v>
-      </c>
-      <c r="L31" t="s">
-        <v>197</v>
-      </c>
       <c r="M31" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="N31" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="B32" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="C32" t="n">
-        <v>2.5955006E7</v>
+        <v>1.4802338E7</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="K32" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="L32" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M32" t="s">
-        <v>121</v>
+        <v>184</v>
       </c>
       <c r="N32" t="s">
-        <v>202</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C33" t="n">
-        <v>7.2752239E7</v>
+        <v>5.2286046E7</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E33" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I33" t="s">
-        <v>65</v>
+        <v>211</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="L33" t="s">
+        <v>30</v>
+      </c>
+      <c r="M33" t="s">
         <v>133</v>
       </c>
-      <c r="M33" t="s">
-        <v>205</v>
-      </c>
       <c r="N33" t="s">
-        <v>131</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>213</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C34" t="n">
-        <v>8.264264E7</v>
+        <v>5.519387E7</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
+        <v>215</v>
+      </c>
+      <c r="I34" t="s">
         <v>96</v>
       </c>
-      <c r="F34" t="s">
-        <v>75</v>
-      </c>
-      <c r="G34" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>74</v>
-      </c>
       <c r="J34" t="s">
-        <v>202</v>
+        <v>124</v>
       </c>
       <c r="K34" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="M34" t="s">
-        <v>21</v>
+        <v>216</v>
       </c>
       <c r="N34" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C35" t="n">
-        <v>4.2397638E7</v>
+        <v>2.1116676E7</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E35" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="J35" t="s">
-        <v>97</v>
+        <v>31</v>
       </c>
       <c r="K35" t="s">
-        <v>126</v>
+        <v>30</v>
       </c>
       <c r="L35" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s">
-        <v>53</v>
+        <v>220</v>
       </c>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="B36" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="C36" t="n">
-        <v>4.6310278E7</v>
+        <v>2.9856137E7</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="J36" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="M36" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N36" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="C37" t="n">
-        <v>2.095321E7</v>
+        <v>9.6145128E7</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G37" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="I37" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="L37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="N37" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="C38" t="n">
-        <v>7.8306275E7</v>
+        <v>8.0062097E7</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G38" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>24</v>
+        <v>182</v>
       </c>
       <c r="I38" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="J38" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="K38" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="M38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" t="s">
         <v>74</v>
-      </c>
-      <c r="N38" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C39" t="n">
-        <v>4.5295357E7</v>
+        <v>7.4920738E7</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>230</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>231</v>
       </c>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="I39" t="s">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="J39" t="s">
-        <v>219</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s">
-        <v>119</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s">
-        <v>215</v>
+        <v>87</v>
       </c>
       <c r="M39" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="N39" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C40" t="n">
-        <v>9.0233136E7</v>
+        <v>4.1044775E7</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="I40" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="J40" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="K40" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s">
-        <v>54</v>
+        <v>235</v>
       </c>
       <c r="M40" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="N40" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="C41" t="n">
-        <v>4.2002896E7</v>
+        <v>9.0562608E7</v>
       </c>
       <c r="D41" t="s">
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
+        <v>155</v>
+      </c>
+      <c r="G41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
+        <v>153</v>
+      </c>
+      <c r="I41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41" t="s">
         <v>31</v>
       </c>
-      <c r="G41" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" t="s">
-        <v>225</v>
-      </c>
-      <c r="I41" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" t="s">
-        <v>89</v>
-      </c>
       <c r="K41" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="L41" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="M41" t="s">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="N41" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="C42" t="n">
-        <v>1.0864631E7</v>
+        <v>5.9464669E7</v>
       </c>
       <c r="D42" t="s">
         <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>242</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J42" t="s">
-        <v>228</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
       <c r="M42" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="N42" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="C43" t="n">
-        <v>4.4729849E7</v>
+        <v>6.1500413E7</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="G43" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>242</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
+        <v>246</v>
       </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="K43" t="s">
-        <v>54</v>
+        <v>247</v>
       </c>
       <c r="L43" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="M43" t="s">
-        <v>19</v>
+        <v>178</v>
       </c>
       <c r="N43" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C44" t="n">
-        <v>9.7307289E7</v>
+        <v>6.8476745E7</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>73</v>
+        <v>206</v>
       </c>
       <c r="F44" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>52</v>
+        <v>227</v>
       </c>
       <c r="H44" t="s">
-        <v>234</v>
+        <v>182</v>
       </c>
       <c r="I44" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="J44" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="K44" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M44" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="N44" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="C45" t="n">
-        <v>3.8615829E7</v>
+        <v>2.0370025E7</v>
       </c>
       <c r="D45" t="s">
         <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="F45" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" t="s">
         <v>34</v>
       </c>
-      <c r="I45" t="s">
-        <v>48</v>
-      </c>
       <c r="J45" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="M45" t="s">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="N45" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="C46" t="n">
-        <v>2.7228101E7</v>
+        <v>9.5173107E7</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F46" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="G46" t="s">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="I46" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="J46" t="s">
-        <v>52</v>
+        <v>254</v>
       </c>
       <c r="K46" t="s">
-        <v>57</v>
+        <v>232</v>
       </c>
       <c r="L46" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M46" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="N46" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C47" t="n">
-        <v>1.2441057E7</v>
+        <v>7.5823579E7</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="G47" t="s">
-        <v>74</v>
+        <v>257</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
       <c r="I47" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="K47" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="L47" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="M47" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="N47" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s">
+        <v>259</v>
+      </c>
+      <c r="C48" t="n">
+        <v>3.3709154E7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>29</v>
+      </c>
+      <c r="E48" t="s">
+        <v>156</v>
+      </c>
+      <c r="F48" t="s">
         <v>241</v>
       </c>
-      <c r="C48" t="n">
-        <v>5.8844124E7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E48" t="s">
-        <v>202</v>
-      </c>
-      <c r="F48" t="s">
-        <v>17</v>
-      </c>
       <c r="G48" t="s">
-        <v>145</v>
+        <v>85</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="I48" t="s">
-        <v>54</v>
+        <v>171</v>
       </c>
       <c r="J48" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="K48" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="L48" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M48" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="N48" t="s">
-        <v>242</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="C49" t="n">
-        <v>4.7547829E7</v>
+        <v>4.4933065E7</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="K49" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="L49" t="s">
-        <v>246</v>
+        <v>183</v>
       </c>
       <c r="M49" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="N49" t="s">
-        <v>38</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="C50" t="n">
-        <v>2.2915391E7</v>
+        <v>7.9302878E7</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>249</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>85</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="J50" t="s">
-        <v>250</v>
+        <v>192</v>
       </c>
       <c r="K50" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L50" t="s">
         <v>155</v>
       </c>
       <c r="M50" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N50" t="s">
-        <v>156</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="C51" t="n">
-        <v>8.2989975E7</v>
+        <v>1.8098803E7</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G51" t="s">
-        <v>245</v>
+        <v>180</v>
       </c>
       <c r="H51" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>115</v>
+        <v>200</v>
       </c>
       <c r="J51" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="L51" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="M51" t="s">
-        <v>44</v>
+        <v>261</v>
       </c>
       <c r="N51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="C52" t="n">
-        <v>1.9862346E7</v>
+        <v>2.4222742E7</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="H52" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="I52" t="s">
-        <v>171</v>
+        <v>32</v>
       </c>
       <c r="J52" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s">
-        <v>90</v>
+        <v>216</v>
       </c>
       <c r="M52" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="N52" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="C53" t="n">
-        <v>7.3342777E7</v>
+        <v>3.2791966E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="G53" t="s">
-        <v>159</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="I53" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>54</v>
+        <v>231</v>
       </c>
       <c r="K53" t="s">
-        <v>257</v>
+        <v>130</v>
       </c>
       <c r="L53" t="s">
-        <v>191</v>
+        <v>82</v>
       </c>
       <c r="M53" t="s">
-        <v>96</v>
+        <v>244</v>
       </c>
       <c r="N53" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="C54" t="n">
-        <v>5.6899842E7</v>
+        <v>2.1482538E7</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>259</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I54" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="J54" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="K54" t="s">
-        <v>250</v>
+        <v>58</v>
       </c>
       <c r="L54" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
       <c r="M54" t="s">
-        <v>196</v>
+        <v>75</v>
       </c>
       <c r="N54" t="s">
-        <v>149</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="C55" t="n">
-        <v>4.0457729E7</v>
+        <v>4.2513656E7</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="J55" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L55" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="N55" t="s">
-        <v>171</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B56" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C56" t="n">
-        <v>8.0615076E7</v>
+        <v>8.1936019E7</v>
       </c>
       <c r="D56" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="G56" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I56" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="K56" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L56" t="s">
-        <v>44</v>
+        <v>90</v>
       </c>
       <c r="M56" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="N56" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="B57" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C57" t="n">
-        <v>5.7374208E7</v>
+        <v>5.9583225E7</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>89</v>
+        <v>261</v>
       </c>
       <c r="F57" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="G57" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
         <v>63</v>
       </c>
-      <c r="I57" t="s">
-        <v>65</v>
-      </c>
       <c r="J57" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>18</v>
+        <v>277</v>
       </c>
       <c r="L57" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="M57" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="N57" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>279</v>
       </c>
       <c r="B58" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="C58" t="n">
-        <v>8.5845875E7</v>
+        <v>6.6919563E7</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>64</v>
+        <v>223</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="I58" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="J58" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="L58" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="M58" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
       <c r="N58" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="C59" t="n">
-        <v>2.5411058E7</v>
+        <v>1.1509718E7</v>
       </c>
       <c r="D59" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G59" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>230</v>
+        <v>68</v>
       </c>
       <c r="I59" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>278</v>
       </c>
       <c r="K59" t="s">
-        <v>197</v>
+        <v>42</v>
       </c>
       <c r="L59" t="s">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="M59" t="s">
-        <v>43</v>
+        <v>203</v>
       </c>
       <c r="N59" t="s">
-        <v>111</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="B60" t="s">
-        <v>35</v>
+        <v>284</v>
       </c>
       <c r="C60" t="n">
-        <v>4.5175234E7</v>
+        <v>1.3082045E7</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="G60" t="s">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="H60" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="I60" t="s">
-        <v>67</v>
+        <v>216</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="L60" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="M60" t="s">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="N60" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="B61" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C61" t="n">
-        <v>6.0601322E7</v>
+        <v>8.8187707E7</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>287</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="G61" t="s">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="H61" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="J61" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="K61" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L61" t="s">
-        <v>164</v>
+        <v>124</v>
       </c>
       <c r="M61" t="s">
-        <v>91</v>
+        <v>242</v>
       </c>
       <c r="N61" t="s">
-        <v>74</v>
+        <v>238</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B62" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="C62" t="n">
-        <v>3.3646454E7</v>
+        <v>1.2460227E7</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" t="s">
+        <v>167</v>
+      </c>
+      <c r="I62" t="s">
         <v>24</v>
       </c>
-      <c r="F62" t="s">
-        <v>201</v>
-      </c>
-      <c r="G62" t="s">
-        <v>242</v>
-      </c>
-      <c r="H62" t="s">
-        <v>173</v>
-      </c>
-      <c r="I62" t="s">
-        <v>54</v>
-      </c>
       <c r="J62" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="K62" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="L62" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M62" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="N62" t="s">
-        <v>89</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B63" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="C63" t="n">
-        <v>7.2237622E7</v>
+        <v>1.7783665E7</v>
       </c>
       <c r="D63" t="s">
         <v>29</v>
       </c>
       <c r="E63" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F63" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>138</v>
       </c>
       <c r="H63" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="J63" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="K63" t="s">
-        <v>187</v>
+        <v>128</v>
       </c>
       <c r="L63" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
       <c r="M63" t="s">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="N63" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="C64" t="n">
-        <v>8.3066249E7</v>
+        <v>8.5899872E7</v>
       </c>
       <c r="D64" t="s">
         <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G64" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="H64" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="J64" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="K64" t="s">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="M64" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="N64" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C65" t="n">
-        <v>3.5730011E7</v>
+        <v>7.6417806E7</v>
       </c>
       <c r="D65" t="s">
         <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="H65" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I65" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="J65" t="s">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="K65" t="s">
-        <v>224</v>
+        <v>129</v>
       </c>
       <c r="L65" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="M65" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>295</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C66" t="n">
-        <v>4.4830416E7</v>
+        <v>7.2342478E7</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="F66" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="G66" t="s">
-        <v>126</v>
+        <v>55</v>
       </c>
       <c r="H66" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
+        <v>75</v>
       </c>
       <c r="J66" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="K66" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="M66" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="N66" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>297</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="C67" t="n">
-        <v>9.2941814E7</v>
+        <v>8.2848628E7</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
       <c r="H67" t="s">
-        <v>72</v>
+        <v>254</v>
       </c>
       <c r="I67" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="J67" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="K67" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="L67" t="s">
-        <v>201</v>
+        <v>131</v>
       </c>
       <c r="M67" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="N67" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C68" t="n">
-        <v>9.0911252E7</v>
+        <v>3.3076348E7</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="F68" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
       <c r="G68" t="s">
-        <v>283</v>
+        <v>69</v>
       </c>
       <c r="H68" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="I68" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="K68" t="s">
-        <v>116</v>
+        <v>200</v>
       </c>
       <c r="L68" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="M68" t="s">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="N68" t="s">
-        <v>228</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="C69" t="n">
-        <v>4.7812262E7</v>
+        <v>1.2850498E7</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E69" t="s">
-        <v>90</v>
+        <v>257</v>
       </c>
       <c r="F69" t="s">
-        <v>192</v>
+        <v>122</v>
       </c>
       <c r="G69" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
       <c r="I69" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="K69" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="L69" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="M69" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="N69" t="s">
-        <v>286</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B70" t="s">
-        <v>194</v>
+        <v>302</v>
       </c>
       <c r="C70" t="n">
-        <v>2.9118265E7</v>
+        <v>7.2826847E7</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>181</v>
+        <v>96</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G70" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="H70" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="J70" t="s">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="K70" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="L70" t="s">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="M70" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="N70" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C71" t="n">
-        <v>2.3910628E7</v>
+        <v>3.7648308E7</v>
       </c>
       <c r="D71" t="s">
         <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>227</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H71" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J71" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>64</v>
+        <v>203</v>
       </c>
       <c r="L71" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="M71" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N71" t="s">
-        <v>59</v>
+        <v>206</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C72" t="n">
-        <v>9.4284306E7</v>
+        <v>7.4215932E7</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="H72" t="s">
-        <v>49</v>
+        <v>203</v>
       </c>
       <c r="I72" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="K72" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="L72" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="M72" t="s">
-        <v>224</v>
+        <v>52</v>
       </c>
       <c r="N72" t="s">
-        <v>106</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C73" t="n">
-        <v>3.8519495E7</v>
+        <v>4.5178146E7</v>
       </c>
       <c r="D73" t="s">
         <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
-        <v>228</v>
+        <v>154</v>
       </c>
       <c r="I73" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J73" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="K73" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" t="s">
+        <v>31</v>
+      </c>
+      <c r="M73" t="s">
         <v>38</v>
       </c>
-      <c r="L73" t="s">
-        <v>34</v>
-      </c>
-      <c r="M73" t="s">
-        <v>35</v>
-      </c>
       <c r="N73" t="s">
-        <v>177</v>
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="C74" t="n">
-        <v>8.8526792E7</v>
+        <v>7.2028632E7</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>286</v>
+        <v>192</v>
       </c>
       <c r="F74" t="s">
-        <v>54</v>
+        <v>139</v>
       </c>
       <c r="G74" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s">
-        <v>58</v>
+        <v>124</v>
       </c>
       <c r="I74" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="J74" t="s">
-        <v>296</v>
+        <v>129</v>
       </c>
       <c r="K74" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="L74" t="s">
-        <v>121</v>
+        <v>244</v>
       </c>
       <c r="M74" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="N74" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C75" t="n">
-        <v>9.000725E7</v>
+        <v>3.2349049E7</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E75" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="F75" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G75" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="H75" t="s">
-        <v>298</v>
+        <v>93</v>
       </c>
       <c r="I75" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>161</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="L75" t="s">
-        <v>256</v>
+        <v>91</v>
       </c>
       <c r="M75" t="s">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="N75" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B76" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C76" t="n">
-        <v>9.5876386E7</v>
+        <v>6.8489602E7</v>
       </c>
       <c r="D76" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="F76" t="s">
-        <v>166</v>
+        <v>58</v>
       </c>
       <c r="G76" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="I76" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
       <c r="J76" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="K76" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="L76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>283</v>
+        <v>68</v>
       </c>
       <c r="N76" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="C77" t="n">
-        <v>6.376764E7</v>
+        <v>8.8747217E7</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>298</v>
+        <v>49</v>
       </c>
       <c r="F77" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="G77" t="s">
-        <v>181</v>
+        <v>21</v>
       </c>
       <c r="H77" t="s">
-        <v>160</v>
+        <v>277</v>
       </c>
       <c r="I77" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="J77" t="s">
+        <v>19</v>
+      </c>
+      <c r="K77" t="s">
         <v>53</v>
       </c>
-      <c r="K77" t="s">
-        <v>18</v>
-      </c>
       <c r="L77" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="M77" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="N77" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C78" t="n">
-        <v>8.5585807E7</v>
+        <v>3.3727902E7</v>
       </c>
       <c r="D78" t="s">
         <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>196</v>
+        <v>91</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="H78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I78" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="J78" t="s">
-        <v>36</v>
+        <v>246</v>
       </c>
       <c r="K78" t="s">
-        <v>177</v>
+        <v>130</v>
       </c>
       <c r="L78" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="M78" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="N78" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B79" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C79" t="n">
-        <v>1.2282659E7</v>
+        <v>9.4961716E7</v>
       </c>
       <c r="D79" t="s">
         <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="F79" t="s">
+        <v>257</v>
+      </c>
+      <c r="G79" t="s">
+        <v>197</v>
+      </c>
+      <c r="H79" t="s">
         <v>30</v>
       </c>
-      <c r="G79" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" t="s">
-        <v>245</v>
-      </c>
       <c r="I79" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J79" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="K79" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="L79" t="s">
-        <v>229</v>
+        <v>37</v>
       </c>
       <c r="M79" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="N79" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B80" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="C80" t="n">
-        <v>8.0045919E7</v>
+        <v>4.0924624E7</v>
       </c>
       <c r="D80" t="s">
         <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="H80" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="I80" t="s">
-        <v>249</v>
+        <v>178</v>
       </c>
       <c r="J80" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="K80" t="s">
-        <v>274</v>
+        <v>109</v>
       </c>
       <c r="L80" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M80" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="N80" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C81" t="n">
-        <v>8.3753831E7</v>
+        <v>6.2444312E7</v>
       </c>
       <c r="D81" t="s">
         <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
-        <v>245</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>124</v>
       </c>
       <c r="H81" t="s">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="I81" t="s">
-        <v>30</v>
+        <v>191</v>
       </c>
       <c r="J81" t="s">
+        <v>83</v>
+      </c>
+      <c r="K81" t="s">
+        <v>287</v>
+      </c>
+      <c r="L81" t="s">
+        <v>243</v>
+      </c>
+      <c r="M81" t="s">
         <v>156</v>
       </c>
-      <c r="K81" t="s">
-        <v>38</v>
-      </c>
-      <c r="L81" t="s">
-        <v>43</v>
-      </c>
-      <c r="M81" t="s">
-        <v>168</v>
-      </c>
       <c r="N81" t="s">
-        <v>116</v>
+        <v>154</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>324</v>
+      </c>
+      <c r="B82" t="s">
+        <v>325</v>
+      </c>
+      <c r="C82" t="n">
+        <v>7.279282E7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>146</v>
+      </c>
+      <c r="F82" t="s">
+        <v>96</v>
+      </c>
+      <c r="G82" t="s">
+        <v>231</v>
+      </c>
+      <c r="H82" t="s">
+        <v>187</v>
+      </c>
+      <c r="I82" t="s">
+        <v>125</v>
+      </c>
+      <c r="J82" t="s">
+        <v>177</v>
+      </c>
+      <c r="K82" t="s">
+        <v>161</v>
+      </c>
+      <c r="L82" t="s">
+        <v>59</v>
+      </c>
+      <c r="M82" t="s">
         <v>243</v>
       </c>
-      <c r="B82" t="s">
-        <v>310</v>
-      </c>
-      <c r="C82" t="n">
-        <v>1.6549728E7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>16</v>
-      </c>
-      <c r="E82" t="s">
-        <v>242</v>
-      </c>
-      <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s">
-        <v>192</v>
-      </c>
-      <c r="H82" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" t="s">
-        <v>145</v>
-      </c>
-      <c r="J82" t="s">
-        <v>181</v>
-      </c>
-      <c r="K82" t="s">
-        <v>24</v>
-      </c>
-      <c r="L82" t="s">
-        <v>119</v>
-      </c>
-      <c r="M82" t="s">
-        <v>205</v>
-      </c>
       <c r="N82" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B83" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="C83" t="n">
-        <v>4.2194206E7</v>
+        <v>2.3152837E7</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="F83" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>274</v>
+        <v>73</v>
       </c>
       <c r="I83" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="J83" t="s">
-        <v>229</v>
+        <v>46</v>
       </c>
       <c r="K83" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="L83" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="M83" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="N83" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B84" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="C84" t="n">
-        <v>7.670862E7</v>
+        <v>2.9298195E7</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c r="H84" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="I84" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="J84" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="K84" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="L84" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="M84" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="N84" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="C85" t="n">
-        <v>2.0698522E7</v>
+        <v>9.3942069E7</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="F85" t="s">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="G85" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="H85" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="I85" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J85" t="s">
-        <v>132</v>
+        <v>55</v>
       </c>
       <c r="K85" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="L85" t="s">
-        <v>202</v>
+        <v>118</v>
       </c>
       <c r="M85" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="N85" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C86" t="n">
-        <v>7.3210364E7</v>
+        <v>3.058263E7</v>
       </c>
       <c r="D86" t="s">
         <v>29</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="J86" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="K86" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L86" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="M86" t="s">
-        <v>167</v>
+        <v>238</v>
       </c>
       <c r="N86" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C87" t="n">
-        <v>9.7418095E7</v>
+        <v>4.6798207E7</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
         <v>80</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="G87" t="s">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="H87" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="I87" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="J87" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="K87" t="s">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="L87" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="M87" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="N87" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C88" t="n">
-        <v>8.1396351E7</v>
+        <v>2.0646286E7</v>
       </c>
       <c r="D88" t="s">
         <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>338</v>
       </c>
       <c r="H88" t="s">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="I88" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="J88" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="K88" t="s">
+        <v>244</v>
+      </c>
+      <c r="L88" t="s">
+        <v>174</v>
+      </c>
+      <c r="M88" t="s">
+        <v>172</v>
+      </c>
+      <c r="N88" t="s">
         <v>188</v>
-      </c>
-      <c r="L88" t="s">
-        <v>30</v>
-      </c>
-      <c r="M88" t="s">
-        <v>84</v>
-      </c>
-      <c r="N88" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="C89" t="n">
-        <v>3.271151E7</v>
+        <v>4.2227512E7</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E89" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
       <c r="F89" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>219</v>
       </c>
       <c r="H89" t="s">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I89" t="s">
-        <v>83</v>
+        <v>244</v>
       </c>
       <c r="J89" t="s">
-        <v>66</v>
+        <v>232</v>
       </c>
       <c r="K89" t="s">
-        <v>163</v>
+        <v>30</v>
       </c>
       <c r="L89" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M89" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="N89" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>71</v>
       </c>
       <c r="B90" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="C90" t="n">
-        <v>7.5231443E7</v>
+        <v>2.9493118E7</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="F90" t="s">
-        <v>225</v>
+        <v>101</v>
       </c>
       <c r="G90" t="s">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="H90" t="s">
-        <v>249</v>
+        <v>59</v>
       </c>
       <c r="I90" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="J90" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="K90" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="L90" t="s">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="M90" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="N90" t="s">
-        <v>38</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>327</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="C91" t="n">
-        <v>3.7822184E7</v>
+        <v>5.9332939E7</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91" t="s">
+        <v>124</v>
+      </c>
+      <c r="G91" t="s">
+        <v>32</v>
+      </c>
+      <c r="H91" t="s">
+        <v>173</v>
+      </c>
+      <c r="I91" t="s">
         <v>139</v>
       </c>
-      <c r="F91" t="s">
-        <v>74</v>
-      </c>
-      <c r="G91" t="s">
-        <v>74</v>
-      </c>
-      <c r="H91" t="s">
-        <v>94</v>
-      </c>
-      <c r="I91" t="s">
-        <v>126</v>
-      </c>
       <c r="J91" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K91" t="s">
-        <v>64</v>
+        <v>188</v>
       </c>
       <c r="L91" t="s">
-        <v>19</v>
+        <v>246</v>
       </c>
       <c r="M91" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="N91" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C92" t="n">
-        <v>3.4942393E7</v>
+        <v>9.8148635E7</v>
       </c>
       <c r="D92" t="s">
         <v>29</v>
       </c>
       <c r="E92" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="F92" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
-        <v>197</v>
+        <v>34</v>
       </c>
       <c r="H92" t="s">
-        <v>168</v>
+        <v>110</v>
       </c>
       <c r="I92" t="s">
-        <v>30</v>
+        <v>153</v>
       </c>
       <c r="J92" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="K92" t="s">
-        <v>44</v>
+        <v>230</v>
       </c>
       <c r="L92" t="s">
-        <v>228</v>
+        <v>162</v>
       </c>
       <c r="M92" t="s">
-        <v>110</v>
+        <v>156</v>
       </c>
       <c r="N92" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>182</v>
+        <v>345</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="C93" t="n">
-        <v>7.11684E7</v>
+        <v>8.0485641E7</v>
       </c>
       <c r="D93" t="s">
         <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>283</v>
+        <v>161</v>
       </c>
       <c r="F93" t="s">
+        <v>153</v>
+      </c>
+      <c r="G93" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" t="s">
+        <v>154</v>
+      </c>
+      <c r="I93" t="s">
+        <v>122</v>
+      </c>
+      <c r="J93" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93" t="s">
+        <v>139</v>
+      </c>
+      <c r="L93" t="s">
+        <v>32</v>
+      </c>
+      <c r="M93" t="s">
         <v>30</v>
       </c>
-      <c r="G93" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-      <c r="I93" t="s">
-        <v>47</v>
-      </c>
-      <c r="J93" t="s">
-        <v>46</v>
-      </c>
-      <c r="K93" t="s">
-        <v>39</v>
-      </c>
-      <c r="L93" t="s">
-        <v>89</v>
-      </c>
-      <c r="M93" t="s">
-        <v>149</v>
-      </c>
       <c r="N93" t="s">
-        <v>228</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="C94" t="n">
-        <v>8.3412055E7</v>
+        <v>9.2431178E7</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="F94" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G94" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="H94" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="I94" t="s">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="J94" t="s">
-        <v>166</v>
+        <v>74</v>
       </c>
       <c r="K94" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="L94" t="s">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="M94" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="N94" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="B95" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="C95" t="n">
-        <v>4.1672394E7</v>
+        <v>7.9045247E7</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="F95" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="G95" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
       <c r="I95" t="s">
-        <v>90</v>
+        <v>47</v>
       </c>
       <c r="J95" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="K95" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="L95" t="s">
-        <v>215</v>
+        <v>101</v>
       </c>
       <c r="M95" t="s">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="N95" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>335</v>
+        <v>351</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>352</v>
       </c>
       <c r="C96" t="n">
-        <v>5.3034138E7</v>
+        <v>4.1243068E7</v>
       </c>
       <c r="D96" t="s">
         <v>29</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="F96" t="s">
+        <v>109</v>
+      </c>
+      <c r="G96" t="s">
+        <v>92</v>
+      </c>
+      <c r="H96" t="s">
+        <v>96</v>
+      </c>
+      <c r="I96" t="s">
+        <v>108</v>
+      </c>
+      <c r="J96" t="s">
+        <v>211</v>
+      </c>
+      <c r="K96" t="s">
         <v>30</v>
       </c>
-      <c r="G96" t="s">
-        <v>177</v>
-      </c>
-      <c r="H96" t="s">
-        <v>274</v>
-      </c>
-      <c r="I96" t="s">
-        <v>250</v>
-      </c>
-      <c r="J96" t="s">
-        <v>89</v>
-      </c>
-      <c r="K96" t="s">
-        <v>155</v>
-      </c>
       <c r="L96" t="s">
-        <v>228</v>
+        <v>188</v>
       </c>
       <c r="M96" t="s">
         <v>110</v>
       </c>
       <c r="N96" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>353</v>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C97" t="n">
-        <v>5.0234697E7</v>
+        <v>7.6762712E7</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>125</v>
+        <v>355</v>
       </c>
       <c r="F97" t="s">
-        <v>64</v>
+        <v>254</v>
       </c>
       <c r="G97" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="H97" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I97" t="s">
-        <v>79</v>
+        <v>212</v>
       </c>
       <c r="J97" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="K97" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="L97" t="s">
-        <v>131</v>
+        <v>35</v>
       </c>
       <c r="M97" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="N97" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="B98" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C98" t="n">
-        <v>8.4369599E7</v>
+        <v>5.9981144E7</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>90</v>
       </c>
       <c r="F98" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="G98" t="s">
-        <v>257</v>
+        <v>338</v>
       </c>
       <c r="H98" t="s">
-        <v>152</v>
+        <v>38</v>
       </c>
       <c r="I98" t="s">
-        <v>158</v>
+        <v>59</v>
       </c>
       <c r="J98" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
       <c r="K98" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="L98" t="s">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="M98" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="N98" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C99" t="n">
-        <v>3.8926058E7</v>
+        <v>5.8379446E7</v>
       </c>
       <c r="D99" t="s">
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="G99" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="H99" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I99" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="J99" t="s">
-        <v>21</v>
+        <v>200</v>
       </c>
       <c r="K99" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="L99" t="s">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="M99" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="N99" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C100" t="n">
-        <v>1.7909418E7</v>
+        <v>4.6001264E7</v>
       </c>
       <c r="D100" t="s">
         <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="F100" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G100" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="H100" t="s">
-        <v>84</v>
+        <v>261</v>
       </c>
       <c r="I100" t="s">
-        <v>205</v>
+        <v>74</v>
       </c>
       <c r="J100" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="K100" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="L100" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="M100" t="s">
-        <v>242</v>
+        <v>181</v>
       </c>
       <c r="N100" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>346</v>
+        <v>71</v>
       </c>
       <c r="B101" t="s">
-        <v>347</v>
+        <v>72</v>
       </c>
       <c r="C101" t="n">
-        <v>4.991545E7</v>
+        <v>3.6936189E7</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="F101" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>74</v>
+        <v>188</v>
       </c>
       <c r="H101" t="s">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="I101" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="J101" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="K101" t="s">
-        <v>192</v>
+        <v>287</v>
       </c>
       <c r="L101" t="s">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="M101" t="s">
-        <v>164</v>
+        <v>235</v>
       </c>
       <c r="N101" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="B102" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C102" t="n">
-        <v>2.2006666E7</v>
+        <v>4.515955E7</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="H102" t="s">
-        <v>257</v>
+        <v>59</v>
       </c>
       <c r="I102" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
       <c r="J102" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K102" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
       <c r="L102" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="M102" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="N102" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="C103" t="n">
-        <v>3.9722648E7</v>
+        <v>9.5521635E7</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="G103" t="s">
-        <v>201</v>
+        <v>124</v>
       </c>
       <c r="H103" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I103" t="s">
-        <v>110</v>
+        <v>246</v>
       </c>
       <c r="J103" t="s">
-        <v>84</v>
+        <v>355</v>
       </c>
       <c r="K103" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="L103" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="M103" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="N103" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B104" t="s">
-        <v>212</v>
+        <v>367</v>
       </c>
       <c r="C104" t="n">
-        <v>1.7999316E7</v>
+        <v>5.9072342E7</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>106</v>
+        <v>184</v>
       </c>
       <c r="F104" t="s">
-        <v>187</v>
+        <v>69</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H104" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="I104" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="J104" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="K104" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="L104" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="M104" t="s">
-        <v>111</v>
+        <v>227</v>
       </c>
       <c r="N104" t="s">
-        <v>259</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="C105" t="n">
-        <v>5.6374933E7</v>
+        <v>3.9266434E7</v>
       </c>
       <c r="D105" t="s">
         <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="F105" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="H105" t="s">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="I105" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="J105" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="K105" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L105" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M105" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N105" t="s">
-        <v>108</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B106" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C106" t="n">
-        <v>6.3686402E7</v>
+        <v>9.9026482E7</v>
       </c>
       <c r="D106" t="s">
         <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>176</v>
+        <v>243</v>
       </c>
       <c r="F106" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="G106" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H106" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="I106" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="K106" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="L106" t="s">
-        <v>246</v>
+        <v>128</v>
       </c>
       <c r="M106" t="s">
-        <v>278</v>
+        <v>109</v>
       </c>
       <c r="N106" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="B107" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="C107" t="n">
-        <v>6.7628747E7</v>
+        <v>5.8361508E7</v>
       </c>
       <c r="D107" t="s">
         <v>29</v>
       </c>
       <c r="E107" t="s">
+        <v>155</v>
+      </c>
+      <c r="F107" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" t="s">
+        <v>197</v>
+      </c>
+      <c r="H107" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" t="s">
+        <v>174</v>
+      </c>
+      <c r="J107" t="s">
         <v>149</v>
       </c>
-      <c r="F107" t="s">
-        <v>114</v>
-      </c>
-      <c r="G107" t="s">
-        <v>187</v>
-      </c>
-      <c r="H107" t="s">
-        <v>155</v>
-      </c>
-      <c r="I107" t="s">
-        <v>48</v>
-      </c>
-      <c r="J107" t="s">
-        <v>74</v>
-      </c>
       <c r="K107" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="L107" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="M107" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="N107" t="s">
-        <v>44</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="B108" t="s">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="C108" t="n">
-        <v>2.0870386E7</v>
+        <v>8.7437015E7</v>
       </c>
       <c r="D108" t="s">
         <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="G108" t="s">
-        <v>259</v>
+        <v>130</v>
       </c>
       <c r="H108" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="I108" t="s">
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="J108" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="K108" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="L108" t="s">
-        <v>246</v>
+        <v>173</v>
       </c>
       <c r="M108" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N108" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="B109" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="C109" t="n">
-        <v>7.9790348E7</v>
+        <v>6.0166517E7</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="F109" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="G109" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="H109" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="I109" t="s">
-        <v>110</v>
+        <v>257</v>
       </c>
       <c r="J109" t="s">
         <v>219</v>
@@ -6015,541 +6063,541 @@
         <v>96</v>
       </c>
       <c r="L109" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="M109" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N109" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>377</v>
       </c>
       <c r="B110" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C110" t="n">
-        <v>3.7369845E7</v>
+        <v>5.0962668E7</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="G110" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="H110" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="I110" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="J110" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="L110" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="M110" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="N110" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="B111" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C111" t="n">
-        <v>6.7374288E7</v>
+        <v>2.6202725E7</v>
       </c>
       <c r="D111" t="s">
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F111" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="G111" t="s">
-        <v>171</v>
+        <v>54</v>
       </c>
       <c r="H111" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="I111" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J111" t="s">
-        <v>158</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="L111" t="s">
-        <v>345</v>
+        <v>20</v>
       </c>
       <c r="M111" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="N111" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="B112" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C112" t="n">
-        <v>7.1467414E7</v>
+        <v>1.2271184E7</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F112" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="H112" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I112" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="J112" t="s">
-        <v>79</v>
+        <v>219</v>
       </c>
       <c r="K112" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="L112" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="M112" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="N112" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="B113" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C113" t="n">
-        <v>4.026872E7</v>
+        <v>9.0251658E7</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="F113" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="G113" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="I113" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J113" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="K113" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="L113" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="M113" t="s">
-        <v>160</v>
+        <v>62</v>
       </c>
       <c r="N113" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C114" t="n">
-        <v>9.9888663E7</v>
+        <v>3.1699725E7</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="F114" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G114" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>21</v>
       </c>
       <c r="I114" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="J114" t="s">
+        <v>68</v>
+      </c>
+      <c r="K114" t="s">
         <v>101</v>
       </c>
-      <c r="K114" t="s">
-        <v>76</v>
-      </c>
       <c r="L114" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="M114" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="N114" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>272</v>
+        <v>387</v>
       </c>
       <c r="B115" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
       <c r="C115" t="n">
-        <v>1.1109709E7</v>
+        <v>1.524252E7</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="F115" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="G115" t="s">
-        <v>286</v>
+        <v>79</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>136</v>
       </c>
       <c r="I115" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="J115" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="K115" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="L115" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M115" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="N115" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="B116" t="s">
-        <v>35</v>
+        <v>390</v>
       </c>
       <c r="C116" t="n">
-        <v>8.9132474E7</v>
+        <v>4.6982975E7</v>
       </c>
       <c r="D116" t="s">
         <v>29</v>
       </c>
       <c r="E116" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="F116" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G116" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="H116" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I116" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="J116" t="s">
-        <v>225</v>
+        <v>30</v>
       </c>
       <c r="K116" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="L116" t="s">
-        <v>228</v>
+        <v>87</v>
       </c>
       <c r="M116" t="s">
-        <v>186</v>
+        <v>338</v>
       </c>
       <c r="N116" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="B117" t="s">
-        <v>373</v>
+        <v>392</v>
       </c>
       <c r="C117" t="n">
-        <v>4.9368603E7</v>
+        <v>6.4939307E7</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
       </c>
       <c r="E117" t="s">
+        <v>200</v>
+      </c>
+      <c r="F117" t="s">
+        <v>62</v>
+      </c>
+      <c r="G117" t="s">
+        <v>68</v>
+      </c>
+      <c r="H117" t="s">
+        <v>56</v>
+      </c>
+      <c r="I117" t="s">
+        <v>58</v>
+      </c>
+      <c r="J117" t="s">
         <v>23</v>
       </c>
-      <c r="F117" t="s">
-        <v>124</v>
-      </c>
-      <c r="G117" t="s">
-        <v>171</v>
-      </c>
-      <c r="H117" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" t="s">
-        <v>22</v>
-      </c>
-      <c r="J117" t="s">
-        <v>88</v>
-      </c>
       <c r="K117" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="L117" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="M117" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="N117" t="s">
-        <v>74</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B118" t="s">
-        <v>374</v>
+        <v>393</v>
       </c>
       <c r="C118" t="n">
-        <v>1.0858574E7</v>
+        <v>8.1916438E7</v>
       </c>
       <c r="D118" t="s">
         <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G118" t="s">
-        <v>158</v>
+        <v>63</v>
       </c>
       <c r="H118" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="I118" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="J118" t="s">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="K118" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="L118" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M118" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="N118" t="s">
-        <v>74</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>375</v>
+        <v>394</v>
       </c>
       <c r="B119" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="C119" t="n">
-        <v>4.4499028E7</v>
+        <v>8.1723685E7</v>
       </c>
       <c r="D119" t="s">
         <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
       <c r="F119" t="s">
-        <v>187</v>
+        <v>92</v>
       </c>
       <c r="G119" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H119" t="s">
-        <v>229</v>
+        <v>161</v>
       </c>
       <c r="I119" t="s">
+        <v>171</v>
+      </c>
+      <c r="J119" t="s">
+        <v>170</v>
+      </c>
+      <c r="K119" t="s">
+        <v>106</v>
+      </c>
+      <c r="L119" t="s">
         <v>197</v>
       </c>
-      <c r="J119" t="s">
-        <v>38</v>
-      </c>
-      <c r="K119" t="s">
-        <v>149</v>
-      </c>
-      <c r="L119" t="s">
-        <v>186</v>
-      </c>
       <c r="M119" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="N119" t="s">
-        <v>274</v>
+        <v>178</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>377</v>
+        <v>259</v>
       </c>
       <c r="B120" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C120" t="n">
-        <v>6.8820717E7</v>
+        <v>8.8537788E7</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="F120" t="s">
-        <v>286</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="H120" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="I120" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="J120" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="K120" t="s">
-        <v>94</v>
+        <v>246</v>
       </c>
       <c r="L120" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="M120" t="s">
-        <v>219</v>
+        <v>153</v>
       </c>
       <c r="N120" t="s">
-        <v>54</v>
+        <v>355</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>379</v>
+        <v>301</v>
       </c>
       <c r="B121" t="s">
-        <v>380</v>
+        <v>396</v>
       </c>
       <c r="C121" t="n">
-        <v>4.883048E7</v>
+        <v>4.8512537E7</v>
       </c>
       <c r="D121" t="s">
         <v>29</v>
       </c>
       <c r="E121" t="s">
-        <v>187</v>
+        <v>110</v>
       </c>
       <c r="F121" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="G121" t="s">
-        <v>109</v>
+        <v>338</v>
       </c>
       <c r="H121" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="I121" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="J121" t="s">
-        <v>39</v>
+        <v>246</v>
       </c>
       <c r="K121" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L121" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="M121" t="s">
-        <v>89</v>
+        <v>235</v>
       </c>
       <c r="N121" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="382">
   <si>
     <t>First Name</t>
   </si>
@@ -56,1153 +56,1108 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Esther</t>
+    <t>Schim</t>
+  </si>
+  <si>
+    <t>Schimmel</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>stabbing in the back</t>
+  </si>
+  <si>
+    <t>winning tennis matches</t>
+  </si>
+  <si>
+    <t>talking up the economy</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>directing weird movies</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Wayans</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>disappointing suitors</t>
+  </si>
+  <si>
+    <t>being condescending to customers</t>
+  </si>
+  <si>
+    <t>providing comic relief</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>spouting movie trivia</t>
+  </si>
+  <si>
+    <t>practicing insincerity</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Abernathy</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>avoiding eye contact</t>
+  </si>
+  <si>
+    <t>gurning for the camera</t>
+  </si>
+  <si>
+    <t>singing reggae songs</t>
+  </si>
+  <si>
+    <t>writing cook books</t>
+  </si>
+  <si>
+    <t>eluding capture</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Dreesen</t>
+  </si>
+  <si>
+    <t>recording history</t>
+  </si>
+  <si>
+    <t>monetizing celebrity status</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>promoting big business</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>running a budget airline</t>
+  </si>
+  <si>
+    <t>Toni</t>
+  </si>
+  <si>
+    <t>Tennille</t>
+  </si>
+  <si>
+    <t>doing the Charleston</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry</t>
+  </si>
+  <si>
+    <t>counting cards</t>
+  </si>
+  <si>
+    <t>making topiary sculptures</t>
+  </si>
+  <si>
+    <t>running a clandestine spy organization</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>waiting for a hero</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Petersen</t>
+  </si>
+  <si>
+    <t>arguing against capitalism</t>
+  </si>
+  <si>
+    <t>singing protest songs</t>
+  </si>
+  <si>
+    <t>running the FBI</t>
+  </si>
+  <si>
+    <t>playing rock piano</t>
+  </si>
+  <si>
+    <t>creating an axis of evil</t>
+  </si>
+  <si>
+    <t>abusing power</t>
+  </si>
+  <si>
+    <t>Vince</t>
+  </si>
+  <si>
+    <t>McMahon</t>
+  </si>
+  <si>
+    <t>popping amphetamines</t>
+  </si>
+  <si>
+    <t>issuing threats</t>
+  </si>
+  <si>
+    <t>writing about social problems</t>
+  </si>
+  <si>
+    <t>telling affable jokes</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>coining sparkling witticisms</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Romo</t>
+  </si>
+  <si>
+    <t>writing pot-boilers</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>chasing after women</t>
+  </si>
+  <si>
+    <t>promoting feminism</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>Alberto</t>
+  </si>
+  <si>
+    <t>Dumont</t>
+  </si>
+  <si>
+    <t>testing new technologies</t>
+  </si>
+  <si>
+    <t>hunting wabbits</t>
+  </si>
+  <si>
+    <t>spitting while speaking</t>
+  </si>
+  <si>
+    <t>embezzling tax money</t>
+  </si>
+  <si>
+    <t>eating donuts</t>
+  </si>
+  <si>
+    <t>cooking chrystal meth</t>
+  </si>
+  <si>
+    <t>over-achieving at school</t>
+  </si>
+  <si>
+    <t>Ira</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Arkin</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>writing historical fiction</t>
+  </si>
+  <si>
+    <t>writing rock songs</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>da-Vinci</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>Claudette</t>
+  </si>
+  <si>
+    <t>Colbert</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>delivering judgments</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Orwell</t>
+  </si>
+  <si>
+    <t>forming new social connections</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Susskind</t>
+  </si>
+  <si>
+    <t>running gentleman's clubs</t>
+  </si>
+  <si>
+    <t>working out</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Jacqueline</t>
+  </si>
+  <si>
+    <t>Onasis</t>
+  </si>
+  <si>
+    <t>making ice sculptures</t>
+  </si>
+  <si>
+    <t>making money</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>Elle</t>
+  </si>
+  <si>
+    <t>Macpherson</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>enjoying ball-room dancing</t>
+  </si>
+  <si>
+    <t>rescuing kids</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>writing legal fiction</t>
+  </si>
+  <si>
+    <t>Cree</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>running for the presidency</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>M.C.</t>
+  </si>
+  <si>
+    <t>Hammer</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Lombardo</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>hosting radio shows</t>
+  </si>
+  <si>
+    <t>using gadgets</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Caro</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>running a hardware company</t>
+  </si>
+  <si>
+    <t>Macdonald</t>
+  </si>
+  <si>
+    <t>Carey</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Leguizamo</t>
+  </si>
+  <si>
+    <t>studying symbols</t>
+  </si>
+  <si>
+    <t>stealing jewels</t>
+  </si>
+  <si>
+    <t>striving for world domination</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>promoting science</t>
+  </si>
+  <si>
+    <t>offering medical opinions</t>
+  </si>
+  <si>
+    <t>drinking tea</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Kasem</t>
+  </si>
+  <si>
+    <t>Serena</t>
   </si>
   <si>
     <t>Williams</t>
   </si>
   <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>playing the piano</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>chasing electronic ghosts</t>
-  </si>
-  <si>
-    <t>commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>plotting criminal schemes</t>
-  </si>
-  <si>
-    <t>eluding imperial storm-troopers</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Cocteau</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>trading innuendo</t>
-  </si>
-  <si>
-    <t>performing serious acting</t>
-  </si>
-  <si>
-    <t>avoiding taxes</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>directing robot movies</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>retiring replicants</t>
+    <t>partying on yachts</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>Suleman</t>
+  </si>
+  <si>
+    <t>octuplets</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Wilford</t>
+  </si>
+  <si>
+    <t>Brimley</t>
+  </si>
+  <si>
+    <t>Dewey</t>
+  </si>
+  <si>
+    <t>Bunnell</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Hooks</t>
+  </si>
+  <si>
+    <t>Fogelberg</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>playing grungy music</t>
+  </si>
+  <si>
+    <t>Hewitt</t>
+  </si>
+  <si>
+    <t>bullying neighboring countries</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
   </si>
   <si>
     <t>playing rock guitar</t>
   </si>
   <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>coining sententious maxims</t>
-  </si>
-  <si>
-    <t>making chocolate</t>
-  </si>
-  <si>
-    <t>terrorizing Earth</t>
-  </si>
-  <si>
-    <t>making prank calls</t>
-  </si>
-  <si>
-    <t>Ann</t>
+    <t>Diane</t>
+  </si>
+  <si>
+    <t>Lane</t>
+  </si>
+  <si>
+    <t>Sherman</t>
+  </si>
+  <si>
+    <t>Hemsley</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>smoking Boyard cigarettes</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Cartwright</t>
+  </si>
+  <si>
+    <t>Jenson</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Rik</t>
+  </si>
+  <si>
+    <t>Mayall</t>
+  </si>
+  <si>
+    <t>Roscoe</t>
+  </si>
+  <si>
+    <t>Browne</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>making movies</t>
+  </si>
+  <si>
+    <t>writing sonnets</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>Orbison</t>
+  </si>
+  <si>
+    <t>Luther</t>
+  </si>
+  <si>
+    <t>Vandross</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Brandeis</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Paxton</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>promoting monetarism</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Biden</t>
+  </si>
+  <si>
+    <t>Tiffani</t>
+  </si>
+  <si>
+    <t>Thiessen</t>
+  </si>
+  <si>
+    <t>working in a freak show</t>
+  </si>
+  <si>
+    <t>E.G.</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Thorogood</t>
+  </si>
+  <si>
+    <t>blowing smoke rings</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Louis-Dreyfus</t>
+  </si>
+  <si>
+    <t>Bryan</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>making sarcastic remarks</t>
+  </si>
+  <si>
+    <t>Billie</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>Nat</t>
+  </si>
+  <si>
+    <t>Cole</t>
+  </si>
+  <si>
+    <t>Davy</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
+    <t>Ames</t>
+  </si>
+  <si>
+    <t>Deborah</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Strawberry</t>
+  </si>
+  <si>
+    <t>selling tat</t>
+  </si>
+  <si>
+    <t>Giorgio</t>
+  </si>
+  <si>
+    <t>Armani</t>
+  </si>
+  <si>
+    <t>building replicants</t>
+  </si>
+  <si>
+    <t>Moby</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>Howie</t>
+  </si>
+  <si>
+    <t>Dorough</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Stanwyck</t>
+  </si>
+  <si>
+    <t>Kate</t>
+  </si>
+  <si>
+    <t>Mulgrew</t>
+  </si>
+  <si>
+    <t>Cullen</t>
+  </si>
+  <si>
+    <t>Chet</t>
+  </si>
+  <si>
+    <t>Atkins</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>Rudolf</t>
+  </si>
+  <si>
+    <t>Nureyev</t>
+  </si>
+  <si>
+    <t>Curly</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Gleason</t>
+  </si>
+  <si>
+    <t>Adelle</t>
   </si>
   <si>
     <t>Davis</t>
   </si>
   <si>
-    <t>amassing ill-gotten wealth</t>
-  </si>
-  <si>
-    <t>smoking cigarettes</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>devising evil schemes</t>
-  </si>
-  <si>
-    <t>working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>unearthing ancient tombs</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Cromwell</t>
-  </si>
-  <si>
-    <t>reading self-help books</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>counting money</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Excel</t>
-  </si>
-  <si>
-    <t>making soap</t>
-  </si>
-  <si>
-    <t>embezzling tax money</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>going senile</t>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Danielle</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Swit</t>
+  </si>
+  <si>
+    <t>promoting liberal values</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Gertrude</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Haydn</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>Peggy</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Heatherton</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>Pompidou</t>
+  </si>
+  <si>
+    <t>Donny</t>
+  </si>
+  <si>
+    <t>Osmond</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Crawford</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Mangione</t>
+  </si>
+  <si>
+    <t>Sousa</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>Keitel</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Shepard</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>Claus</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>Krasinski</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>Peron</t>
+  </si>
+  <si>
+    <t>Arturo</t>
+  </si>
+  <si>
+    <t>Toscanini</t>
+  </si>
+  <si>
+    <t>Hillary</t>
+  </si>
+  <si>
+    <t>Clinton</t>
+  </si>
+  <si>
+    <t>Madame</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>McKnight</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Crosby</t>
+  </si>
+  <si>
+    <t>Sheryl</t>
+  </si>
+  <si>
+    <t>Swoopes</t>
+  </si>
+  <si>
+    <t>Mitzi</t>
+  </si>
+  <si>
+    <t>Gaynor</t>
+  </si>
+  <si>
+    <t>Emerson</t>
   </si>
   <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Weston</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>falling for prank calls</t>
-  </si>
-  <si>
-    <t>Milos</t>
-  </si>
-  <si>
-    <t>Forman</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>collecting alimony</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>amassing nuclear weapons</t>
-  </si>
-  <si>
-    <t>publishing newspapers</t>
-  </si>
-  <si>
-    <t>telling zany jokes</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>selling cheap airline seats</t>
-  </si>
-  <si>
-    <t>running gentleman's clubs</t>
-  </si>
-  <si>
-    <t>Martha</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>wallowing in mud</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>throwing Bunga Bunga parties</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>selling illegal alcohol</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>Markie</t>
-  </si>
-  <si>
-    <t>Post</t>
-  </si>
-  <si>
-    <t>rescuing aristocrats</t>
-  </si>
-  <si>
-    <t>practicing insincerity</t>
-  </si>
-  <si>
-    <t>offering blessings</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Brokaw</t>
-  </si>
-  <si>
-    <t>singing jazz songs</t>
-  </si>
-  <si>
-    <t>slapping soldiers</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>playing the violin</t>
-  </si>
-  <si>
-    <t>Dan</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>representing the disenfranchised</t>
-  </si>
-  <si>
-    <t>flipping hamburgers</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Hawking</t>
-  </si>
-  <si>
-    <t>undermining authority</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>Hank</t>
-  </si>
-  <si>
-    <t>Ketcham</t>
-  </si>
-  <si>
-    <t>hosting a late night chat show</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>studying mathematics</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Calder</t>
-  </si>
-  <si>
-    <t>campaigning for consumer rights</t>
-  </si>
-  <si>
-    <t>chasing old women</t>
-  </si>
-  <si>
-    <t>making vulgar cartoons</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>Garrett</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>writing purple prose</t>
-  </si>
-  <si>
-    <t>writing romantic fiction</t>
-  </si>
-  <si>
-    <t>leaking state secrets</t>
-  </si>
-  <si>
-    <t>making bizarre movies</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Powell</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>running for the presidency</t>
-  </si>
-  <si>
-    <t>running a smuggling business</t>
-  </si>
-  <si>
-    <t>Patti</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>issuing threats</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>giving speeches</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Steiner</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>making political gaffes</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Rodgers</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>playing camp villains</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>Donnie</t>
-  </si>
-  <si>
-    <t>Wahlberg</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>rescuing kids</t>
-  </si>
-  <si>
-    <t>Leno</t>
-  </si>
-  <si>
-    <t>frowning at errant husbands</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>slashing victims</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Bynes</t>
-  </si>
-  <si>
-    <t>making madcap comedies</t>
-  </si>
-  <si>
-    <t>biting opponents</t>
-  </si>
-  <si>
-    <t>Kathryn</t>
-  </si>
-  <si>
-    <t>Bigelow</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>Mickey</t>
-  </si>
-  <si>
-    <t>Hart</t>
-  </si>
-  <si>
-    <t>running assembly lines</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>Claude</t>
-  </si>
-  <si>
-    <t>Lelouch</t>
-  </si>
-  <si>
-    <t>pulling capers</t>
-  </si>
-  <si>
-    <t>Giorgio</t>
-  </si>
-  <si>
-    <t>Armani</t>
-  </si>
-  <si>
-    <t>attacking consumerism</t>
-  </si>
-  <si>
-    <t>Shawn</t>
-  </si>
-  <si>
-    <t>Stockman</t>
-  </si>
-  <si>
-    <t>demanding ransoms from the U.N.</t>
-  </si>
-  <si>
-    <t>Isabel</t>
-  </si>
-  <si>
-    <t>Sanford</t>
-  </si>
-  <si>
-    <t>Nina</t>
-  </si>
-  <si>
-    <t>Simone</t>
-  </si>
-  <si>
-    <t>treating the sick with jokes</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Vereen</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>Rachel</t>
-  </si>
-  <si>
-    <t>Weisz</t>
-  </si>
-  <si>
-    <t>telling epic tales</t>
-  </si>
-  <si>
-    <t>winning cycling races</t>
-  </si>
-  <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>Norman</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Cohan</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Bush</t>
-  </si>
-  <si>
-    <t>performing kung-fu moves</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>Tewes</t>
-  </si>
-  <si>
-    <t>selling kitsch</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>starring in musical comedies</t>
-  </si>
-  <si>
-    <t>e.e.</t>
-  </si>
-  <si>
-    <t>cummings</t>
-  </si>
-  <si>
-    <t>flaunting buttocks</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Kerr</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Newsted</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>promoting socialism</t>
-  </si>
-  <si>
-    <t>wearing tights</t>
-  </si>
-  <si>
-    <t>Monet</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>running races</t>
-  </si>
-  <si>
-    <t>Lesley</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Gossett</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Brannon</t>
-  </si>
-  <si>
-    <t>promoting circus attractions</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Crane</t>
-  </si>
-  <si>
-    <t>writing weird movies</t>
-  </si>
-  <si>
-    <t>Koko</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Jillian</t>
-  </si>
-  <si>
-    <t>promoting American values</t>
-  </si>
-  <si>
-    <t>Christina</t>
-  </si>
-  <si>
-    <t>Aguilara</t>
-  </si>
-  <si>
-    <t>Robby</t>
-  </si>
-  <si>
-    <t>Benson</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Krupa</t>
-  </si>
-  <si>
-    <t>Itzhak</t>
+    <t>Paar</t>
+  </si>
+  <si>
+    <t>Buffalo</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Whoopi</t>
+  </si>
+  <si>
+    <t>Goldberg</t>
+  </si>
+  <si>
+    <t>Concetta</t>
+  </si>
+  <si>
+    <t>Tomei</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
+    <t>Oprah</t>
+  </si>
+  <si>
+    <t>Winfrey</t>
+  </si>
+  <si>
+    <t>Lucille</t>
+  </si>
+  <si>
+    <t>Ball</t>
+  </si>
+  <si>
+    <t>Damian</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Brown</t>
   </si>
   <si>
     <t>Perlman</t>
   </si>
   <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>Malcolm-Jamal</t>
-  </si>
-  <si>
-    <t>Warner</t>
-  </si>
-  <si>
-    <t>Merle</t>
-  </si>
-  <si>
-    <t>Haggard</t>
-  </si>
-  <si>
-    <t>Bat</t>
-  </si>
-  <si>
-    <t>Masterson</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>collecting bounties on runaways</t>
-  </si>
-  <si>
-    <t>Tavis</t>
-  </si>
-  <si>
-    <t>Smiley</t>
-  </si>
-  <si>
-    <t>Christopher</t>
-  </si>
-  <si>
-    <t>Wren</t>
-  </si>
-  <si>
-    <t>Chuck</t>
-  </si>
-  <si>
-    <t>Mangione</t>
-  </si>
-  <si>
-    <t>J.P.</t>
-  </si>
-  <si>
-    <t>Richardson</t>
-  </si>
-  <si>
-    <t>making movies</t>
-  </si>
-  <si>
-    <t>Edwin</t>
-  </si>
-  <si>
-    <t>Hubble</t>
-  </si>
-  <si>
-    <t>A.A.</t>
-  </si>
-  <si>
-    <t>Milne</t>
-  </si>
-  <si>
-    <t>Sandy</t>
-  </si>
-  <si>
-    <t>Koufax</t>
-  </si>
-  <si>
-    <t>Moll</t>
-  </si>
-  <si>
-    <t>Nathaniel</t>
-  </si>
-  <si>
-    <t>Hawthorne</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>Dylan</t>
-  </si>
-  <si>
-    <t>Ricci</t>
-  </si>
-  <si>
-    <t>Ernie</t>
-  </si>
-  <si>
-    <t>Banks</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
-    <t>Sally</t>
-  </si>
-  <si>
-    <t>Raphael</t>
-  </si>
-  <si>
-    <t>Ned</t>
-  </si>
-  <si>
-    <t>Beatty</t>
-  </si>
-  <si>
-    <t>Wilder</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Sullivan</t>
-  </si>
-  <si>
-    <t>Lou</t>
-  </si>
-  <si>
-    <t>Ferrigno</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Murray</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Berry</t>
-  </si>
-  <si>
-    <t>Liza</t>
-  </si>
-  <si>
-    <t>Minnelli</t>
-  </si>
-  <si>
-    <t>Macdonald</t>
-  </si>
-  <si>
-    <t>Carey</t>
-  </si>
-  <si>
-    <t>Amelia</t>
-  </si>
-  <si>
-    <t>Earhart</t>
-  </si>
-  <si>
-    <t>Bonnie</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Denholm</t>
-  </si>
-  <si>
-    <t>Elliott</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Bannister</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Bullock</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Doppler</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>Ho</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>Susannah</t>
-  </si>
-  <si>
-    <t>York</t>
-  </si>
-  <si>
-    <t>Nicholson</t>
-  </si>
-  <si>
-    <t>Englund</t>
-  </si>
-  <si>
-    <t>Madeline</t>
-  </si>
-  <si>
-    <t>LEngle</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>McGwire</t>
-  </si>
-  <si>
-    <t>Kirsten</t>
-  </si>
-  <si>
-    <t>Storms</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Rigg</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Neruda</t>
-  </si>
-  <si>
-    <t>Henri</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>insulting celebrities</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Wilde</t>
-  </si>
-  <si>
-    <t>Jeri</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>Crowe</t>
-  </si>
-  <si>
-    <t>Dino</t>
-  </si>
-  <si>
-    <t>Laurentiis</t>
-  </si>
-  <si>
-    <t>Dwight</t>
-  </si>
-  <si>
-    <t>Eisenhower</t>
-  </si>
-  <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>Prokofiev</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Reiner</t>
-  </si>
-  <si>
-    <t>Bertrand</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Curry</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Mädchen</t>
-  </si>
-  <si>
-    <t>Amick</t>
-  </si>
-  <si>
-    <t>Eileen</t>
-  </si>
-  <si>
-    <t>Brennan</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Hirt</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Dracula</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Burroughs</t>
-  </si>
-  <si>
-    <t>G.</t>
-  </si>
-  <si>
-    <t>Liddy</t>
-  </si>
-  <si>
-    <t>Napolenon</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Valerie</t>
-  </si>
-  <si>
-    <t>Harper</t>
-  </si>
-  <si>
-    <t>Joyce</t>
-  </si>
-  <si>
-    <t>Kathie</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>Kovacs</t>
+    <t>Thumb</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>writing crime stories</t>
+  </si>
+  <si>
+    <t>Arlene</t>
+  </si>
+  <si>
+    <t>Dahl</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>Hilton</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Schlafly</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Michelin</t>
   </si>
 </sst>
 </file>
@@ -1260,20 +1215,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="14.57421875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.99609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="31.99609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="31.56640625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="41.19921875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="30.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="31.99609375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="31.99609375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="31.56640625" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="35.5625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="35.5625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="32.42578125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="32.0859375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="35.4296875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1328,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>6.7220736E7</v>
+        <v>8.271691E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1358,71 +1313,71 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="n">
+        <v>1.3598157E7</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>9.9482087E7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>36</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>38</v>
-      </c>
-      <c r="N3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="n">
+        <v>2.8817331E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>41</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.6570143E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1437,7 +1392,7 @@
         <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -1460,16 +1415,16 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.1907563E7</v>
+        <v>3.7650747E7</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
         <v>53</v>
@@ -1478,550 +1433,550 @@
         <v>54</v>
       </c>
       <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>56</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>57</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>58</v>
-      </c>
-      <c r="M5" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="n">
+        <v>8.5290268E7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
         <v>61</v>
       </c>
-      <c r="C6" t="n">
-        <v>5.4860872E7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>62</v>
       </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="K6" t="s">
         <v>64</v>
       </c>
       <c r="L6" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="n">
-        <v>4.7034844E7</v>
+        <v>5.7473376E7</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" t="s">
         <v>49</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" t="s">
-        <v>68</v>
-      </c>
-      <c r="M7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n">
-        <v>6.5255154E7</v>
+        <v>4.863716E7</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>18</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
-      </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="C9" t="n">
-        <v>9.6562896E7</v>
+        <v>9.0378861E7</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="N9" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C10" t="n">
-        <v>9.6011947E7</v>
+        <v>5.1415808E7</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I10" t="s">
-        <v>93</v>
-      </c>
       <c r="J10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M10" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C11" t="n">
-        <v>1.3094867E7</v>
+        <v>9.2937627E7</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="N11" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C12" t="n">
-        <v>8.6893627E7</v>
+        <v>6.5633528E7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12" t="s">
         <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>96</v>
-      </c>
-      <c r="H12" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" t="s">
-        <v>106</v>
-      </c>
-      <c r="J12" t="s">
-        <v>107</v>
-      </c>
-      <c r="K12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L12" t="s">
-        <v>109</v>
-      </c>
-      <c r="M12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C13" t="n">
-        <v>4.2562462E7</v>
+        <v>7.473264E7</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
         <v>53</v>
       </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>44</v>
-      </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C14" t="n">
-        <v>2.9796569E7</v>
+        <v>7.246881E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="M14" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="N14" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C15" t="n">
-        <v>2.6156207E7</v>
+        <v>5.5237718E7</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="J15" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="K15" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C16" t="n">
-        <v>7.6952758E7</v>
+        <v>2.2176845E7</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" t="n">
-        <v>4.4938895E7</v>
+        <v>2.7218048E7</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
         <v>137</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="J17" t="s">
         <v>30</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="L17" t="s">
+        <v>138</v>
+      </c>
+      <c r="M17" t="s">
         <v>139</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>140</v>
-      </c>
-      <c r="N17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -2032,40 +1987,40 @@
         <v>142</v>
       </c>
       <c r="C18" t="n">
-        <v>2.1359712E7</v>
+        <v>3.5746817E7</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>57</v>
       </c>
       <c r="G18" t="s">
         <v>143</v>
       </c>
       <c r="H18" t="s">
+        <v>73</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+      <c r="J18" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" t="s">
         <v>144</v>
       </c>
-      <c r="I18" t="s">
+      <c r="L18" t="s">
         <v>145</v>
       </c>
-      <c r="J18" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
         <v>146</v>
-      </c>
-      <c r="L18" t="s">
-        <v>84</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -2076,4528 +2031,4528 @@
         <v>148</v>
       </c>
       <c r="C19" t="n">
-        <v>6.5007353E7</v>
+        <v>1.2717799E7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="F19" t="s">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="J19" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>45</v>
       </c>
       <c r="N19" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
         <v>151</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="n">
+        <v>5.054263E7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" t="s">
         <v>152</v>
       </c>
-      <c r="C20" t="n">
-        <v>9.5156109E7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>125</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
         <v>153</v>
       </c>
-      <c r="G20" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
+      <c r="M20" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" t="s">
         <v>154</v>
-      </c>
-      <c r="I20" t="s">
-        <v>155</v>
-      </c>
-      <c r="J20" t="s">
-        <v>130</v>
-      </c>
-      <c r="K20" t="s">
-        <v>146</v>
-      </c>
-      <c r="L20" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" t="s">
-        <v>86</v>
-      </c>
-      <c r="N20" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C21" t="n">
-        <v>5.0647599E7</v>
+        <v>6.4946171E7</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="F21" t="s">
+        <v>25</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L21" t="s">
+        <v>25</v>
+      </c>
+      <c r="M21" t="s">
         <v>153</v>
       </c>
-      <c r="G21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H21" t="s">
-        <v>160</v>
-      </c>
-      <c r="I21" t="s">
-        <v>161</v>
-      </c>
-      <c r="J21" t="s">
-        <v>162</v>
-      </c>
-      <c r="K21" t="s">
-        <v>163</v>
-      </c>
-      <c r="L21" t="s">
-        <v>129</v>
-      </c>
-      <c r="M21" t="s">
-        <v>123</v>
-      </c>
       <c r="N21" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C22" t="n">
-        <v>1.5467971E7</v>
+        <v>2.6649016E7</v>
       </c>
       <c r="D22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>159</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" t="s">
+        <v>110</v>
+      </c>
+      <c r="L22" t="s">
+        <v>105</v>
+      </c>
+      <c r="M22" t="s">
+        <v>85</v>
+      </c>
+      <c r="N22" t="s">
         <v>70</v>
-      </c>
-      <c r="K22" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" t="s">
-        <v>114</v>
-      </c>
-      <c r="M22" t="s">
-        <v>101</v>
-      </c>
-      <c r="N22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C23" t="n">
-        <v>2.8724615E7</v>
+        <v>2.8394369E7</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F23" t="s">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="H23" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I23" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>64</v>
       </c>
       <c r="K23" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="L23" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="N23" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C24" t="n">
-        <v>3.0850273E7</v>
+        <v>3.9482474E7</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="I24" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="K24" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="L24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="N24" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C25" t="n">
-        <v>7.4703435E7</v>
+        <v>6.2552717E7</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>167</v>
       </c>
       <c r="G25" t="s">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
+        <v>171</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>132</v>
       </c>
       <c r="J25" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="L25" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M25" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="N25" t="s">
-        <v>184</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C26" t="n">
-        <v>5.7367888E7</v>
+        <v>2.3486046E7</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>187</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
         <v>31</v>
       </c>
       <c r="G26" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="H26" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J26" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="K26" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="L26" t="s">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="M26" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="N26" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C27" t="n">
-        <v>1.4048234E7</v>
+        <v>8.8581503E7</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="G27" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="H27" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="I27" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="J27" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="K27" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="M27" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="N27" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C28" t="n">
-        <v>2.8483214E7</v>
+        <v>7.1808382E7</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="F28" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="J28" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="K28" t="s">
-        <v>95</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N28" t="s">
-        <v>197</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="C29" t="n">
-        <v>3.1953115E7</v>
+        <v>7.1804542E7</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>159</v>
       </c>
       <c r="F29" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J29" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="K29" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="L29" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="M29" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="N29" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C30" t="n">
-        <v>7.8527123E7</v>
+        <v>2.4234314E7</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F30" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="H30" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="I30" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L30" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="N30" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="C31" t="n">
-        <v>7.0027282E7</v>
+        <v>9.8629595E7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>119</v>
+        <v>33</v>
       </c>
       <c r="F31" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="H31" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="I31" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="J31" t="s">
-        <v>206</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M31" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="N31" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="C32" t="n">
-        <v>1.4802338E7</v>
+        <v>1.9918096E7</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="G32" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="J32" t="s">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="K32" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="L32" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M32" t="s">
-        <v>184</v>
+        <v>74</v>
       </c>
       <c r="N32" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="C33" t="n">
-        <v>5.2286046E7</v>
+        <v>6.0169426E7</v>
       </c>
       <c r="D33" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="I33" t="s">
-        <v>211</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="L33" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="M33" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="N33" t="s">
-        <v>212</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="C34" t="n">
-        <v>5.519387E7</v>
+        <v>9.9084192E7</v>
       </c>
       <c r="D34" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>117</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s">
-        <v>82</v>
+        <v>154</v>
       </c>
       <c r="L34" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="M34" t="s">
-        <v>216</v>
+        <v>47</v>
       </c>
       <c r="N34" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B35" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="C35" t="n">
-        <v>2.1116676E7</v>
+        <v>9.5811314E7</v>
       </c>
       <c r="D35" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s">
-        <v>219</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="K35" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="L35" t="s">
-        <v>140</v>
+        <v>203</v>
       </c>
       <c r="M35" t="s">
-        <v>220</v>
+        <v>56</v>
       </c>
       <c r="N35" t="s">
-        <v>195</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>221</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="C36" t="n">
-        <v>2.9856137E7</v>
+        <v>5.6356114E7</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="H36" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="J36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s">
-        <v>35</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="M36" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="N36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>208</v>
       </c>
       <c r="B37" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C37" t="n">
-        <v>9.6145128E7</v>
+        <v>9.1656765E7</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>108</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="J37" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="L37" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="N37" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C38" t="n">
-        <v>8.0062097E7</v>
+        <v>3.9993132E7</v>
       </c>
       <c r="D38" t="s">
         <v>16</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="G38" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="H38" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="I38" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="J38" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="K38" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="M38" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="N38" t="s">
-        <v>74</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="C39" t="n">
-        <v>7.4920738E7</v>
+        <v>2.7843558E7</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>157</v>
+        <v>53</v>
       </c>
       <c r="F39" t="s">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="G39" t="s">
-        <v>231</v>
+        <v>171</v>
       </c>
       <c r="H39" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>220</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="K39" t="s">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="L39" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="M39" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="N39" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="C40" t="n">
-        <v>4.1044775E7</v>
+        <v>9.2229679E7</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="G40" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="H40" t="s">
-        <v>192</v>
+        <v>117</v>
       </c>
       <c r="I40" t="s">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="J40" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="M40" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="N40" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="C41" t="n">
-        <v>9.0562608E7</v>
+        <v>2.5846747E7</v>
       </c>
       <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
         <v>29</v>
       </c>
-      <c r="E41" t="s">
-        <v>30</v>
-      </c>
-      <c r="F41" t="s">
-        <v>155</v>
-      </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>61</v>
       </c>
       <c r="I41" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>194</v>
       </c>
       <c r="K41" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="L41" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M41" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="N41" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C42" t="n">
-        <v>5.9464669E7</v>
+        <v>1.6650924E7</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="F42" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>23</v>
       </c>
       <c r="H42" t="s">
-        <v>145</v>
+        <v>223</v>
       </c>
       <c r="I42" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
       <c r="J42" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="M42" t="s">
-        <v>244</v>
+        <v>112</v>
       </c>
       <c r="N42" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C43" t="n">
-        <v>6.1500413E7</v>
+        <v>1.3472409E7</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F43" t="s">
-        <v>177</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>171</v>
+        <v>203</v>
       </c>
       <c r="H43" t="s">
-        <v>242</v>
+        <v>56</v>
       </c>
       <c r="I43" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="J43" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="K43" t="s">
-        <v>247</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="M43" t="s">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="N43" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C44" t="n">
-        <v>6.8476745E7</v>
+        <v>3.5807099E7</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>72</v>
       </c>
       <c r="I44" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="J44" t="s">
-        <v>54</v>
+        <v>225</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="L44" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
       <c r="M44" t="s">
-        <v>101</v>
+        <v>191</v>
       </c>
       <c r="N44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="C45" t="n">
-        <v>2.0370025E7</v>
+        <v>7.7156805E7</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="J45" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="K45" t="s">
-        <v>140</v>
+        <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="N45" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="C46" t="n">
-        <v>9.5173107E7</v>
+        <v>6.6251695E7</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="G46" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="H46" t="s">
-        <v>84</v>
+        <v>212</v>
       </c>
       <c r="I46" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="J46" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>85</v>
       </c>
       <c r="L46" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="M46" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="N46" t="s">
-        <v>212</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="C47" t="n">
-        <v>7.5823579E7</v>
+        <v>5.3645167E7</v>
       </c>
       <c r="D47" t="s">
+        <v>28</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" t="s">
         <v>29</v>
       </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" t="s">
-        <v>230</v>
-      </c>
-      <c r="G47" t="s">
-        <v>257</v>
-      </c>
-      <c r="H47" t="s">
-        <v>160</v>
-      </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L47" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="M47" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="N47" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="C48" t="n">
-        <v>3.3709154E7</v>
+        <v>2.3843851E7</v>
       </c>
       <c r="D48" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>241</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
+        <v>238</v>
+      </c>
+      <c r="H48" t="s">
+        <v>223</v>
+      </c>
+      <c r="I48" t="s">
         <v>85</v>
       </c>
-      <c r="H48" t="s">
-        <v>242</v>
-      </c>
-      <c r="I48" t="s">
-        <v>171</v>
-      </c>
       <c r="J48" t="s">
-        <v>232</v>
+        <v>81</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M48" t="s">
-        <v>231</v>
+        <v>18</v>
       </c>
       <c r="N48" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C49" t="n">
-        <v>4.4933065E7</v>
+        <v>2.5156894E7</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G49" t="s">
-        <v>261</v>
+        <v>70</v>
       </c>
       <c r="H49" t="s">
-        <v>52</v>
+        <v>214</v>
       </c>
       <c r="I49" t="s">
-        <v>23</v>
+        <v>149</v>
       </c>
       <c r="J49" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="L49" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="M49" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="N49" t="s">
-        <v>114</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="C50" t="n">
-        <v>7.9302878E7</v>
+        <v>1.3829297E7</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="F50" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>243</v>
+      </c>
+      <c r="J50" t="s">
         <v>85</v>
       </c>
-      <c r="G50" t="s">
-        <v>140</v>
-      </c>
-      <c r="H50" t="s">
-        <v>30</v>
-      </c>
-      <c r="I50" t="s">
-        <v>96</v>
-      </c>
-      <c r="J50" t="s">
-        <v>192</v>
-      </c>
       <c r="K50" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="L50" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="M50" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="N50" t="s">
-        <v>211</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C51" t="n">
-        <v>1.8098803E7</v>
+        <v>2.2330423E7</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="G51" t="s">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="H51" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="I51" t="s">
-        <v>200</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K51" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
       <c r="L51" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M51" t="s">
-        <v>261</v>
+        <v>168</v>
       </c>
       <c r="N51" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="B52" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="C52" t="n">
-        <v>2.4222742E7</v>
+        <v>8.7045205E7</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="F52" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="G52" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="J52" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="K52" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="L52" t="s">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="M52" t="s">
-        <v>153</v>
+        <v>37</v>
       </c>
       <c r="N52" t="s">
-        <v>106</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B53" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C53" t="n">
-        <v>3.2791966E7</v>
+        <v>9.3327861E7</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
-        <v>211</v>
+        <v>82</v>
       </c>
       <c r="G53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H53" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="I53" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="J53" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="K53" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>82</v>
+        <v>213</v>
       </c>
       <c r="M53" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="N53" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="C54" t="n">
-        <v>2.1482538E7</v>
+        <v>2.4258839E7</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="I54" t="s">
-        <v>200</v>
+        <v>101</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>252</v>
       </c>
       <c r="K54" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="L54" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="M54" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="N54" t="s">
-        <v>227</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="C55" t="n">
-        <v>4.2513656E7</v>
+        <v>2.8449492E7</v>
       </c>
       <c r="D55" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="G55" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H55" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="I55" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="J55" t="s">
-        <v>143</v>
+        <v>203</v>
       </c>
       <c r="K55" t="s">
-        <v>129</v>
+        <v>24</v>
       </c>
       <c r="L55" t="s">
-        <v>254</v>
+        <v>117</v>
       </c>
       <c r="M55" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="N55" t="s">
-        <v>241</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="B56" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="C56" t="n">
-        <v>8.1936019E7</v>
+        <v>7.1051605E7</v>
       </c>
       <c r="D56" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="F56" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="K56" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="L56" t="s">
+        <v>48</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
         <v>90</v>
-      </c>
-      <c r="M56" t="s">
-        <v>146</v>
-      </c>
-      <c r="N56" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="C57" t="n">
-        <v>5.9583225E7</v>
+        <v>3.1271603E7</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
+        <v>163</v>
       </c>
       <c r="G57" t="s">
-        <v>118</v>
+        <v>247</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="K57" t="s">
-        <v>277</v>
+        <v>99</v>
       </c>
       <c r="L57" t="s">
-        <v>278</v>
+        <v>61</v>
       </c>
       <c r="M57" t="s">
-        <v>203</v>
+        <v>44</v>
       </c>
       <c r="N57" t="s">
-        <v>206</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C58" t="n">
-        <v>6.6919563E7</v>
+        <v>1.647426E7</v>
       </c>
       <c r="D58" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="F58" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G58" t="s">
-        <v>195</v>
+        <v>18</v>
       </c>
       <c r="H58" t="s">
-        <v>216</v>
+        <v>58</v>
       </c>
       <c r="I58" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="J58" t="s">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="M58" t="s">
-        <v>254</v>
+        <v>110</v>
       </c>
       <c r="N58" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C59" t="n">
-        <v>1.1509718E7</v>
+        <v>7.5440912E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s">
-        <v>68</v>
+        <v>213</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="J59" t="s">
-        <v>278</v>
+        <v>214</v>
       </c>
       <c r="K59" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L59" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="M59" t="s">
-        <v>203</v>
+        <v>133</v>
       </c>
       <c r="N59" t="s">
-        <v>183</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C60" t="n">
-        <v>1.3082045E7</v>
+        <v>4.3322597E7</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F60" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="H60" t="s">
+        <v>167</v>
+      </c>
+      <c r="I60" t="s">
+        <v>53</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>17</v>
+      </c>
+      <c r="L60" t="s">
+        <v>81</v>
+      </c>
+      <c r="M60" t="s">
         <v>124</v>
       </c>
-      <c r="H60" t="s">
-        <v>137</v>
-      </c>
-      <c r="I60" t="s">
-        <v>216</v>
-      </c>
-      <c r="J60" t="s">
-        <v>172</v>
-      </c>
-      <c r="K60" t="s">
-        <v>79</v>
-      </c>
-      <c r="L60" t="s">
-        <v>197</v>
-      </c>
-      <c r="M60" t="s">
-        <v>161</v>
-      </c>
       <c r="N60" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C61" t="n">
-        <v>8.8187707E7</v>
+        <v>7.9121091E7</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>287</v>
+        <v>212</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>223</v>
       </c>
       <c r="G61" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="H61" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="I61" t="s">
-        <v>59</v>
+        <v>205</v>
       </c>
       <c r="J61" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="K61" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="L61" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="M61" t="s">
-        <v>242</v>
+        <v>121</v>
       </c>
       <c r="N61" t="s">
-        <v>238</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B62" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C62" t="n">
-        <v>1.2460227E7</v>
+        <v>1.2424392E7</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
       <c r="G62" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>270</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="K62" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="L62" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="M62" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="N62" t="s">
-        <v>46</v>
+        <v>247</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
       <c r="B63" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C63" t="n">
-        <v>1.7783665E7</v>
+        <v>6.329413E7</v>
       </c>
       <c r="D63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E63" t="s">
+        <v>176</v>
+      </c>
+      <c r="F63" t="s">
+        <v>174</v>
+      </c>
+      <c r="G63" t="s">
+        <v>273</v>
+      </c>
+      <c r="H63" t="s">
+        <v>98</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" t="s">
+        <v>162</v>
+      </c>
+      <c r="K63" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63" t="s">
         <v>29</v>
       </c>
-      <c r="E63" t="s">
-        <v>149</v>
-      </c>
-      <c r="F63" t="s">
-        <v>38</v>
-      </c>
-      <c r="G63" t="s">
-        <v>138</v>
-      </c>
-      <c r="H63" t="s">
-        <v>192</v>
-      </c>
-      <c r="I63" t="s">
-        <v>244</v>
-      </c>
-      <c r="J63" t="s">
-        <v>154</v>
-      </c>
-      <c r="K63" t="s">
-        <v>128</v>
-      </c>
-      <c r="L63" t="s">
-        <v>153</v>
-      </c>
       <c r="M63" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
       <c r="N63" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>202</v>
       </c>
       <c r="C64" t="n">
-        <v>8.5899872E7</v>
+        <v>6.1327824E7</v>
       </c>
       <c r="D64" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="F64" t="s">
-        <v>139</v>
+        <v>275</v>
       </c>
       <c r="G64" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="H64" t="s">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="J64" t="s">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="K64" t="s">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="L64" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="M64" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="N64" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>276</v>
+      </c>
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.2523945E7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>28</v>
+      </c>
+      <c r="E65" t="s">
+        <v>162</v>
+      </c>
+      <c r="F65" t="s">
+        <v>64</v>
+      </c>
+      <c r="G65" t="s">
+        <v>61</v>
+      </c>
+      <c r="H65" t="s">
+        <v>163</v>
+      </c>
+      <c r="I65" t="s">
+        <v>176</v>
+      </c>
+      <c r="J65" t="s">
         <v>164</v>
       </c>
-      <c r="B65" t="s">
-        <v>294</v>
-      </c>
-      <c r="C65" t="n">
-        <v>7.6417806E7</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="K65" t="s">
+        <v>179</v>
+      </c>
+      <c r="L65" t="s">
         <v>29</v>
-      </c>
-      <c r="E65" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
-      </c>
-      <c r="G65" t="s">
-        <v>254</v>
-      </c>
-      <c r="H65" t="s">
-        <v>177</v>
-      </c>
-      <c r="I65" t="s">
-        <v>111</v>
-      </c>
-      <c r="J65" t="s">
-        <v>78</v>
-      </c>
-      <c r="K65" t="s">
-        <v>129</v>
-      </c>
-      <c r="L65" t="s">
-        <v>137</v>
       </c>
       <c r="M65" t="s">
         <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>36</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C66" t="n">
-        <v>7.2342478E7</v>
+        <v>8.3576186E7</v>
       </c>
       <c r="D66" t="s">
         <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="F66" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="G66" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" t="s">
         <v>75</v>
       </c>
-      <c r="J66" t="s">
-        <v>200</v>
-      </c>
-      <c r="K66" t="s">
-        <v>166</v>
-      </c>
       <c r="L66" t="s">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="M66" t="s">
-        <v>19</v>
+        <v>154</v>
       </c>
       <c r="N66" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C67" t="n">
-        <v>8.2848628E7</v>
+        <v>3.457166E7</v>
       </c>
       <c r="D67" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" t="s">
+        <v>164</v>
+      </c>
+      <c r="F67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G67" t="s">
+        <v>247</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>194</v>
+      </c>
+      <c r="J67" t="s">
+        <v>44</v>
+      </c>
+      <c r="K67" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" t="s">
+        <v>100</v>
+      </c>
+      <c r="M67" t="s">
         <v>29</v>
       </c>
-      <c r="E67" t="s">
-        <v>173</v>
-      </c>
-      <c r="F67" t="s">
-        <v>39</v>
-      </c>
-      <c r="G67" t="s">
-        <v>139</v>
-      </c>
-      <c r="H67" t="s">
-        <v>254</v>
-      </c>
-      <c r="I67" t="s">
-        <v>287</v>
-      </c>
-      <c r="J67" t="s">
-        <v>124</v>
-      </c>
-      <c r="K67" t="s">
-        <v>96</v>
-      </c>
-      <c r="L67" t="s">
-        <v>131</v>
-      </c>
-      <c r="M67" t="s">
-        <v>87</v>
-      </c>
       <c r="N67" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B68" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C68" t="n">
-        <v>3.3076348E7</v>
+        <v>8.5680543E7</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E68" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="G68" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>273</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="J68" t="s">
-        <v>166</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="L68" t="s">
-        <v>181</v>
+        <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="N68" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="B69" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="C69" t="n">
-        <v>1.2850498E7</v>
+        <v>7.3993199E7</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>257</v>
+        <v>21</v>
       </c>
       <c r="F69" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="H69" t="s">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="I69" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="J69" t="s">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="K69" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="L69" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="M69" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="N69" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C70" t="n">
-        <v>7.2826847E7</v>
+        <v>5.3620916E7</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="H70" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="J70" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="L70" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="M70" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="N70" t="s">
-        <v>128</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B71" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C71" t="n">
-        <v>3.7648308E7</v>
+        <v>5.8922244E7</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="F71" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G71" t="s">
+        <v>33</v>
+      </c>
+      <c r="H71" t="s">
+        <v>44</v>
+      </c>
+      <c r="I71" t="s">
+        <v>66</v>
+      </c>
+      <c r="J71" t="s">
+        <v>273</v>
+      </c>
+      <c r="K71" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" t="s">
+        <v>97</v>
+      </c>
+      <c r="M71" t="s">
         <v>64</v>
       </c>
-      <c r="H71" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" t="s">
-        <v>19</v>
-      </c>
-      <c r="K71" t="s">
-        <v>203</v>
-      </c>
-      <c r="L71" t="s">
-        <v>57</v>
-      </c>
-      <c r="M71" t="s">
-        <v>45</v>
-      </c>
       <c r="N71" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B72" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C72" t="n">
-        <v>7.4215932E7</v>
+        <v>5.9161866E7</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>90</v>
       </c>
       <c r="F72" t="s">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="G72" t="s">
-        <v>181</v>
+        <v>116</v>
       </c>
       <c r="H72" t="s">
-        <v>203</v>
+        <v>19</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="J72" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K72" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="L72" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M72" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N72" t="s">
-        <v>277</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C73" t="n">
-        <v>4.5178146E7</v>
+        <v>4.6317132E7</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="I73" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J73" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="K73" t="s">
-        <v>172</v>
+        <v>44</v>
       </c>
       <c r="L73" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="M73" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="N73" t="s">
-        <v>110</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="C74" t="n">
-        <v>7.2028632E7</v>
+        <v>9.1196384E7</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="H74" t="s">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="I74" t="s">
-        <v>111</v>
+        <v>67</v>
       </c>
       <c r="J74" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="K74" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="L74" t="s">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="M74" t="s">
-        <v>212</v>
+        <v>30</v>
       </c>
       <c r="N74" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="C75" t="n">
-        <v>3.2349049E7</v>
+        <v>2.2313933E7</v>
       </c>
       <c r="D75" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>212</v>
+        <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="I75" t="s">
-        <v>232</v>
+        <v>101</v>
       </c>
       <c r="J75" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
       <c r="K75" t="s">
-        <v>139</v>
+        <v>66</v>
       </c>
       <c r="L75" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="M75" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="N75" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="C76" t="n">
-        <v>6.8489602E7</v>
+        <v>2.4558828E7</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" t="s">
+        <v>91</v>
+      </c>
+      <c r="G76" t="s">
+        <v>300</v>
+      </c>
+      <c r="H76" t="s">
+        <v>143</v>
+      </c>
+      <c r="I76" t="s">
+        <v>146</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K76" t="s">
         <v>18</v>
       </c>
-      <c r="F76" t="s">
-        <v>58</v>
-      </c>
-      <c r="G76" t="s">
-        <v>167</v>
-      </c>
-      <c r="H76" t="s">
+      <c r="L76" t="s">
         <v>53</v>
       </c>
-      <c r="I76" t="s">
-        <v>261</v>
-      </c>
-      <c r="J76" t="s">
-        <v>183</v>
-      </c>
-      <c r="K76" t="s">
-        <v>206</v>
-      </c>
-      <c r="L76" t="s">
-        <v>42</v>
-      </c>
       <c r="M76" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="N76" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B77" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="C77" t="n">
-        <v>8.8747217E7</v>
+        <v>5.6426176E7</v>
       </c>
       <c r="D77" t="s">
         <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="F77" t="s">
+        <v>203</v>
+      </c>
+      <c r="G77" t="s">
+        <v>144</v>
+      </c>
+      <c r="H77" t="s">
+        <v>171</v>
+      </c>
+      <c r="I77" t="s">
+        <v>54</v>
+      </c>
+      <c r="J77" t="s">
+        <v>121</v>
+      </c>
+      <c r="K77" t="s">
+        <v>124</v>
+      </c>
+      <c r="L77" t="s">
+        <v>25</v>
+      </c>
+      <c r="M77" t="s">
         <v>115</v>
       </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77" t="s">
-        <v>277</v>
-      </c>
-      <c r="I77" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" t="s">
-        <v>19</v>
-      </c>
-      <c r="K77" t="s">
-        <v>53</v>
-      </c>
-      <c r="L77" t="s">
-        <v>68</v>
-      </c>
-      <c r="M77" t="s">
-        <v>261</v>
-      </c>
       <c r="N77" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B78" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="C78" t="n">
-        <v>3.3727902E7</v>
+        <v>2.4920288E7</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="H78" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="I78" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
       <c r="J78" t="s">
-        <v>246</v>
+        <v>65</v>
       </c>
       <c r="K78" t="s">
-        <v>130</v>
+        <v>31</v>
       </c>
       <c r="L78" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="M78" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="N78" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C79" t="n">
-        <v>9.4961716E7</v>
+        <v>6.1316922E7</v>
       </c>
       <c r="D79" t="s">
+        <v>28</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+      <c r="F79" t="s">
+        <v>139</v>
+      </c>
+      <c r="G79" t="s">
+        <v>31</v>
+      </c>
+      <c r="H79" t="s">
         <v>29</v>
       </c>
-      <c r="E79" t="s">
-        <v>96</v>
-      </c>
-      <c r="F79" t="s">
-        <v>257</v>
-      </c>
-      <c r="G79" t="s">
-        <v>197</v>
-      </c>
-      <c r="H79" t="s">
-        <v>30</v>
-      </c>
       <c r="I79" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="J79" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="L79" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="M79" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="N79" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="C80" t="n">
-        <v>4.0924624E7</v>
+        <v>5.6746688E7</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G80" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="H80" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>150</v>
+        <v>83</v>
       </c>
       <c r="K80" t="s">
-        <v>109</v>
+        <v>25</v>
       </c>
       <c r="L80" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="M80" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="N80" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="C81" t="n">
-        <v>6.2444312E7</v>
+        <v>4.5432848E7</v>
       </c>
       <c r="D81" t="s">
+        <v>28</v>
+      </c>
+      <c r="E81" t="s">
+        <v>34</v>
+      </c>
+      <c r="F81" t="s">
+        <v>140</v>
+      </c>
+      <c r="G81" t="s">
+        <v>61</v>
+      </c>
+      <c r="H81" t="s">
+        <v>247</v>
+      </c>
+      <c r="I81" t="s">
         <v>29</v>
       </c>
-      <c r="E81" t="s">
-        <v>244</v>
-      </c>
-      <c r="F81" t="s">
-        <v>36</v>
-      </c>
-      <c r="G81" t="s">
-        <v>124</v>
-      </c>
-      <c r="H81" t="s">
-        <v>124</v>
-      </c>
-      <c r="I81" t="s">
-        <v>191</v>
-      </c>
       <c r="J81" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="K81" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="L81" t="s">
-        <v>243</v>
+        <v>164</v>
       </c>
       <c r="M81" t="s">
-        <v>156</v>
+        <v>97</v>
       </c>
       <c r="N81" t="s">
-        <v>154</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C82" t="n">
-        <v>7.279282E7</v>
+        <v>6.4313202E7</v>
       </c>
       <c r="D82" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="F82" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="G82" t="s">
-        <v>231</v>
+        <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>187</v>
+        <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="J82" t="s">
-        <v>177</v>
+        <v>42</v>
       </c>
       <c r="K82" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L82" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M82" t="s">
-        <v>243</v>
+        <v>43</v>
       </c>
       <c r="N82" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="C83" t="n">
-        <v>2.3152837E7</v>
+        <v>8.5781691E7</v>
       </c>
       <c r="D83" t="s">
         <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G83" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H83" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I83" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="J83" t="s">
-        <v>46</v>
+        <v>285</v>
       </c>
       <c r="K83" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="L83" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="M83" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="N83" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C84" t="n">
-        <v>2.9298195E7</v>
+        <v>3.2923743E7</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>182</v>
+        <v>95</v>
       </c>
       <c r="H84" t="s">
-        <v>118</v>
+        <v>194</v>
       </c>
       <c r="I84" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="J84" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K84" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="L84" t="s">
-        <v>62</v>
+        <v>180</v>
       </c>
       <c r="M84" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="N84" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>330</v>
+        <v>147</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C85" t="n">
-        <v>9.3942069E7</v>
+        <v>6.9145008E7</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="F85" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="G85" t="s">
-        <v>180</v>
+        <v>83</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="J85" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K85" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="L85" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="M85" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
       <c r="N85" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="C86" t="n">
-        <v>3.058263E7</v>
+        <v>9.7612926E7</v>
       </c>
       <c r="D86" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>154</v>
       </c>
       <c r="F86" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="J86" t="s">
-        <v>171</v>
+        <v>24</v>
       </c>
       <c r="K86" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
       <c r="L86" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="M86" t="s">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="N86" t="s">
-        <v>246</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C87" t="n">
-        <v>4.6798207E7</v>
+        <v>6.2904332E7</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E87" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="F87" t="s">
-        <v>84</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>287</v>
+        <v>63</v>
       </c>
       <c r="H87" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="I87" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="J87" t="s">
+        <v>100</v>
+      </c>
+      <c r="K87" t="s">
         <v>36</v>
       </c>
-      <c r="K87" t="s">
-        <v>34</v>
-      </c>
       <c r="L87" t="s">
-        <v>178</v>
+        <v>64</v>
       </c>
       <c r="M87" t="s">
-        <v>85</v>
+        <v>180</v>
       </c>
       <c r="N87" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C88" t="n">
-        <v>2.0646286E7</v>
+        <v>5.2179119E7</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="F88" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="G88" t="s">
-        <v>338</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="J88" t="s">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="K88" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="L88" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="M88" t="s">
-        <v>172</v>
+        <v>47</v>
       </c>
       <c r="N88" t="s">
-        <v>188</v>
+        <v>90</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B89" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="C89" t="n">
-        <v>4.2227512E7</v>
+        <v>3.804312E7</v>
       </c>
       <c r="D89" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="G89" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
       <c r="H89" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="I89" t="s">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="J89" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K89" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L89" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="M89" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="N89" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>325</v>
       </c>
       <c r="B90" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C90" t="n">
-        <v>2.9493118E7</v>
+        <v>8.9796079E7</v>
       </c>
       <c r="D90" t="s">
         <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F90" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="G90" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="H90" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>58</v>
       </c>
       <c r="J90" t="s">
-        <v>78</v>
+        <v>205</v>
       </c>
       <c r="K90" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="L90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M90" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="N90" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B91" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C91" t="n">
-        <v>5.9332939E7</v>
+        <v>8.4466366E7</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="F91" t="s">
-        <v>124</v>
+        <v>223</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="H91" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="J91" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="K91" t="s">
-        <v>188</v>
+        <v>48</v>
       </c>
       <c r="L91" t="s">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="M91" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="N91" t="s">
-        <v>177</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C92" t="n">
-        <v>9.8148635E7</v>
+        <v>3.8638836E7</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>254</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="I92" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="J92" t="s">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="K92" t="s">
-        <v>230</v>
+        <v>96</v>
       </c>
       <c r="L92" t="s">
-        <v>162</v>
+        <v>63</v>
       </c>
       <c r="M92" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="N92" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="B93" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C93" t="n">
-        <v>8.0485641E7</v>
+        <v>5.7490896E7</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>161</v>
+        <v>18</v>
       </c>
       <c r="F93" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="G93" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="H93" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="I93" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="J93" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="K93" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="L93" t="s">
-        <v>32</v>
+        <v>255</v>
       </c>
       <c r="M93" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="N93" t="s">
-        <v>153</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B94" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C94" t="n">
-        <v>9.2431178E7</v>
+        <v>4.360631E7</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F94" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="G94" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>115</v>
       </c>
       <c r="I94" t="s">
-        <v>166</v>
+        <v>54</v>
       </c>
       <c r="J94" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K94" t="s">
-        <v>54</v>
+        <v>212</v>
       </c>
       <c r="L94" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="M94" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="N94" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="B95" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C95" t="n">
-        <v>7.9045247E7</v>
+        <v>1.6718653E7</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>261</v>
+        <v>180</v>
       </c>
       <c r="F95" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="H95" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="J95" t="s">
-        <v>68</v>
+        <v>179</v>
       </c>
       <c r="K95" t="s">
-        <v>118</v>
+        <v>34</v>
       </c>
       <c r="L95" t="s">
-        <v>101</v>
+        <v>247</v>
       </c>
       <c r="M95" t="s">
-        <v>183</v>
+        <v>29</v>
       </c>
       <c r="N95" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>351</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C96" t="n">
-        <v>4.1243068E7</v>
+        <v>2.0051445E7</v>
       </c>
       <c r="D96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="F96" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="H96" t="s">
+        <v>180</v>
+      </c>
+      <c r="I96" t="s">
+        <v>61</v>
+      </c>
+      <c r="J96" t="s">
+        <v>175</v>
+      </c>
+      <c r="K96" t="s">
         <v>96</v>
       </c>
-      <c r="I96" t="s">
-        <v>108</v>
-      </c>
-      <c r="J96" t="s">
-        <v>211</v>
-      </c>
-      <c r="K96" t="s">
-        <v>30</v>
-      </c>
       <c r="L96" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="M96" t="s">
-        <v>110</v>
+        <v>194</v>
       </c>
       <c r="N96" t="s">
-        <v>90</v>
+        <v>247</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B97" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C97" t="n">
-        <v>7.6762712E7</v>
+        <v>7.3033875E7</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>355</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>254</v>
+        <v>73</v>
       </c>
       <c r="G97" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="H97" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="I97" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="J97" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="K97" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="L97" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="M97" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="N97" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="B98" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C98" t="n">
-        <v>5.9981144E7</v>
+        <v>3.9251356E7</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="F98" t="s">
-        <v>125</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>338</v>
+        <v>101</v>
       </c>
       <c r="H98" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="I98" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="J98" t="s">
-        <v>243</v>
+        <v>36</v>
       </c>
       <c r="K98" t="s">
+        <v>175</v>
+      </c>
+      <c r="L98" t="s">
+        <v>139</v>
+      </c>
+      <c r="M98" t="s">
         <v>163</v>
       </c>
-      <c r="L98" t="s">
-        <v>136</v>
-      </c>
-      <c r="M98" t="s">
-        <v>246</v>
-      </c>
       <c r="N98" t="s">
-        <v>162</v>
+        <v>97</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="B99" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="C99" t="n">
-        <v>5.8379446E7</v>
+        <v>4.3082075E7</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>78</v>
+        <v>247</v>
       </c>
       <c r="G99" t="s">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="H99" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I99" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="J99" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
       <c r="K99" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="L99" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="M99" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="N99" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
       <c r="C100" t="n">
-        <v>4.6001264E7</v>
+        <v>6.1118313E7</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E100" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="G100" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="H100" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="I100" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="J100" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K100" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="L100" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M100" t="s">
-        <v>181</v>
+        <v>33</v>
       </c>
       <c r="N100" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>345</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>346</v>
       </c>
       <c r="C101" t="n">
-        <v>3.6936189E7</v>
+        <v>8.0595485E7</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="F101" t="s">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="G101" t="s">
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="H101" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="I101" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="J101" t="s">
-        <v>241</v>
+        <v>168</v>
       </c>
       <c r="K101" t="s">
-        <v>287</v>
+        <v>85</v>
       </c>
       <c r="L101" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M101" t="s">
-        <v>235</v>
+        <v>105</v>
       </c>
       <c r="N101" t="s">
-        <v>219</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="B102" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C102" t="n">
-        <v>4.515955E7</v>
+        <v>7.1671701E7</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E102" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
+        <v>32</v>
+      </c>
+      <c r="G102" t="s">
         <v>33</v>
       </c>
-      <c r="G102" t="s">
-        <v>105</v>
-      </c>
       <c r="H102" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="I102" t="s">
-        <v>174</v>
+        <v>63</v>
       </c>
       <c r="J102" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="K102" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="L102" t="s">
-        <v>212</v>
+        <v>44</v>
       </c>
       <c r="M102" t="s">
-        <v>154</v>
+        <v>61</v>
       </c>
       <c r="N102" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="B103" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C103" t="n">
-        <v>9.5521635E7</v>
+        <v>6.2765678E7</v>
       </c>
       <c r="D103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="F103" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="G103" t="s">
-        <v>124</v>
+        <v>35</v>
       </c>
       <c r="H103" t="s">
-        <v>124</v>
+        <v>63</v>
       </c>
       <c r="I103" t="s">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="J103" t="s">
-        <v>355</v>
+        <v>64</v>
       </c>
       <c r="K103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L103" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M103" t="s">
-        <v>161</v>
+        <v>252</v>
       </c>
       <c r="N103" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B104" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C104" t="n">
-        <v>5.9072342E7</v>
+        <v>3.6743653E7</v>
       </c>
       <c r="D104" t="s">
         <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="F104" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="G104" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H104" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I104" t="s">
-        <v>203</v>
+        <v>17</v>
       </c>
       <c r="J104" t="s">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="K104" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="L104" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="M104" t="s">
-        <v>227</v>
+        <v>71</v>
       </c>
       <c r="N104" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>368</v>
+        <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="C105" t="n">
-        <v>3.9266434E7</v>
+        <v>6.9043146E7</v>
       </c>
       <c r="D105" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="H105" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="I105" t="s">
-        <v>211</v>
+        <v>36</v>
       </c>
       <c r="J105" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="K105" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="L105" t="s">
-        <v>247</v>
+        <v>63</v>
       </c>
       <c r="M105" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="N105" t="s">
-        <v>355</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B106" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C106" t="n">
-        <v>9.9026482E7</v>
+        <v>2.1477264E7</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>243</v>
+        <v>98</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="G106" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="H106" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="I106" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="J106" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="K106" t="s">
-        <v>220</v>
+        <v>33</v>
       </c>
       <c r="L106" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="M106" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="N106" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C107" t="n">
-        <v>5.8361508E7</v>
+        <v>2.9678108E7</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>155</v>
+        <v>17</v>
       </c>
       <c r="F107" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="H107" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="I107" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="J107" t="s">
-        <v>149</v>
+        <v>55</v>
       </c>
       <c r="K107" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="L107" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="M107" t="s">
-        <v>192</v>
+        <v>70</v>
       </c>
       <c r="N107" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C108" t="n">
-        <v>8.7437015E7</v>
+        <v>3.2192817E7</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="F108" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="G108" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
       <c r="H108" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="I108" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="J108" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="K108" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="L108" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="M108" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="N108" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C109" t="n">
-        <v>6.0166517E7</v>
+        <v>8.1056823E7</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>247</v>
       </c>
       <c r="F109" t="s">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="H109" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="I109" t="s">
-        <v>257</v>
+        <v>37</v>
       </c>
       <c r="J109" t="s">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="K109" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="L109" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="M109" t="s">
         <v>139</v>
       </c>
       <c r="N109" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="C110" t="n">
-        <v>5.0962668E7</v>
+        <v>8.8826542E7</v>
       </c>
       <c r="D110" t="s">
         <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>46</v>
+        <v>149</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="G110" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H110" t="s">
-        <v>180</v>
+        <v>56</v>
       </c>
       <c r="I110" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J110" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="K110" t="s">
-        <v>64</v>
+        <v>167</v>
       </c>
       <c r="L110" t="s">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="M110" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="N110" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="C111" t="n">
-        <v>2.6202725E7</v>
+        <v>6.6267669E7</v>
       </c>
       <c r="D111" t="s">
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F111" t="s">
-        <v>52</v>
+        <v>156</v>
       </c>
       <c r="G111" t="s">
-        <v>54</v>
+        <v>154</v>
       </c>
       <c r="H111" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="I111" t="s">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>206</v>
+      </c>
+      <c r="K111" t="s">
         <v>118</v>
       </c>
-      <c r="J111" t="s">
-        <v>102</v>
-      </c>
-      <c r="K111" t="s">
-        <v>42</v>
-      </c>
       <c r="L111" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="M111" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N111" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="B112" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="C112" t="n">
-        <v>1.2271184E7</v>
+        <v>7.5292052E7</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G112" t="s">
-        <v>171</v>
+        <v>133</v>
       </c>
       <c r="H112" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="I112" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="J112" t="s">
-        <v>219</v>
+        <v>149</v>
       </c>
       <c r="K112" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="L112" t="s">
-        <v>110</v>
+        <v>189</v>
       </c>
       <c r="M112" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
       <c r="N112" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="B113" t="s">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="C113" t="n">
-        <v>9.0251658E7</v>
+        <v>4.573013E7</v>
       </c>
       <c r="D113" t="s">
         <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F113" t="s">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s">
         <v>23</v>
       </c>
-      <c r="G113" t="s">
-        <v>181</v>
-      </c>
       <c r="H113" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="I113" t="s">
+        <v>189</v>
+      </c>
+      <c r="J113" t="s">
         <v>73</v>
       </c>
-      <c r="J113" t="s">
-        <v>48</v>
-      </c>
       <c r="K113" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L113" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="M113" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="N113" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>369</v>
       </c>
       <c r="C114" t="n">
-        <v>3.1699725E7</v>
+        <v>5.4447823E7</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="G114" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="H114" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
       <c r="I114" t="s">
-        <v>200</v>
+        <v>156</v>
       </c>
       <c r="J114" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="K114" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="L114" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="M114" t="s">
-        <v>203</v>
+        <v>48</v>
       </c>
       <c r="N114" t="s">
-        <v>114</v>
+        <v>171</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>202</v>
       </c>
       <c r="C115" t="n">
-        <v>1.524252E7</v>
+        <v>7.5685488E7</v>
       </c>
       <c r="D115" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="F115" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="G115" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="I115" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="J115" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="K115" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L115" t="s">
-        <v>216</v>
+        <v>48</v>
       </c>
       <c r="M115" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="N115" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>389</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="C116" t="n">
-        <v>4.6982975E7</v>
+        <v>8.7924943E7</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E116" t="s">
-        <v>238</v>
+        <v>44</v>
       </c>
       <c r="F116" t="s">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="G116" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="H116" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="I116" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="J116" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K116" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="L116" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="M116" t="s">
-        <v>338</v>
+        <v>65</v>
       </c>
       <c r="N116" t="s">
-        <v>287</v>
+        <v>98</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>391</v>
+        <v>334</v>
       </c>
       <c r="B117" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="C117" t="n">
-        <v>6.4939307E7</v>
+        <v>3.1050531E7</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="F117" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="G117" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H117" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I117" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
       <c r="J117" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="K117" t="s">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="L117" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="M117" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="N117" t="s">
-        <v>166</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>374</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="C118" t="n">
-        <v>8.1916438E7</v>
+        <v>9.070402E7</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="G118" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="H118" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="I118" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="J118" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K118" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L118" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="M118" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="N118" t="s">
-        <v>180</v>
+        <v>67</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B119" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="C119" t="n">
-        <v>8.1723685E7</v>
+        <v>9.8651932E7</v>
       </c>
       <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" t="s">
         <v>29</v>
       </c>
-      <c r="E119" t="s">
-        <v>287</v>
-      </c>
       <c r="F119" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="G119" t="s">
-        <v>232</v>
+        <v>44</v>
       </c>
       <c r="H119" t="s">
-        <v>161</v>
+        <v>270</v>
       </c>
       <c r="I119" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="J119" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="K119" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="L119" t="s">
-        <v>197</v>
+        <v>101</v>
       </c>
       <c r="M119" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N119" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="B120" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C120" t="n">
-        <v>8.8537788E7</v>
+        <v>4.3714662E7</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
+        <v>128</v>
+      </c>
+      <c r="F120" t="s">
+        <v>92</v>
+      </c>
+      <c r="G120" t="s">
+        <v>23</v>
+      </c>
+      <c r="H120" t="s">
+        <v>90</v>
+      </c>
+      <c r="I120" t="s">
         <v>124</v>
       </c>
-      <c r="F120" t="s">
-        <v>35</v>
-      </c>
-      <c r="G120" t="s">
-        <v>254</v>
-      </c>
-      <c r="H120" t="s">
-        <v>37</v>
-      </c>
-      <c r="I120" t="s">
-        <v>30</v>
-      </c>
       <c r="J120" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="K120" t="s">
-        <v>246</v>
+        <v>18</v>
       </c>
       <c r="L120" t="s">
-        <v>220</v>
+        <v>85</v>
       </c>
       <c r="M120" t="s">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="N120" t="s">
-        <v>355</v>
+        <v>206</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>301</v>
+        <v>380</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C121" t="n">
-        <v>4.8512537E7</v>
+        <v>8.8264381E7</v>
       </c>
       <c r="D121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E121" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F121" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="G121" t="s">
-        <v>338</v>
+        <v>137</v>
       </c>
       <c r="H121" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="I121" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="J121" t="s">
-        <v>246</v>
+        <v>62</v>
       </c>
       <c r="K121" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="L121" t="s">
-        <v>172</v>
+        <v>33</v>
       </c>
       <c r="M121" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="N121" t="s">
-        <v>241</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="378">
   <si>
     <t>First Name</t>
   </si>
@@ -56,1108 +56,1096 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Schim</t>
-  </si>
-  <si>
-    <t>Schimmel</t>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Phelps</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>being a good neighbor</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>writing in ledgers</t>
+  </si>
+  <si>
+    <t>studying science</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>writing TV comedies</t>
+  </si>
+  <si>
+    <t>writing about sex</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>Chuck</t>
+  </si>
+  <si>
+    <t>Mangione</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>promoting capitalism</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>defending plaintiffs</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>running a technology company</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Picasso</t>
+  </si>
+  <si>
+    <t>looking for love</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>working for the forces of darkness</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>chasing criminals</t>
+  </si>
+  <si>
+    <t>killing murderers</t>
+  </si>
+  <si>
+    <t>smuggling contraband</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>leading revolts</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>chasing flappers</t>
+  </si>
+  <si>
+    <t>frying crabby patties</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>killing people in ingenious ways</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Bon-Jovi</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>promoting Eastern philosophy</t>
+  </si>
+  <si>
+    <t>preaching to presidents</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>making dumb comedies</t>
+  </si>
+  <si>
+    <t>commenting on social issues</t>
+  </si>
+  <si>
+    <t>avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>building a search engine</t>
+  </si>
+  <si>
+    <t>playing basketball</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>singing to teenagers</t>
+  </si>
+  <si>
+    <t>insulting minorities</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>building houses for poor people</t>
+  </si>
+  <si>
+    <t>driving under the influence</t>
+  </si>
+  <si>
+    <t>promoting liberal values</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>wielding political power</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>fighting for the rebel alliance</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>OConnor</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Torme</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>flying into a rage</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>eluding electronic ghosts</t>
+  </si>
+  <si>
+    <t>Wernher</t>
+  </si>
+  <si>
+    <t>Von-Braun</t>
+  </si>
+  <si>
+    <t>plotting election strategies</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>writing mystery stories</t>
+  </si>
+  <si>
+    <t>promoting Fascism</t>
+  </si>
+  <si>
+    <t>making fantasy movies</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>Lena</t>
+  </si>
+  <si>
+    <t>Horne</t>
+  </si>
+  <si>
+    <t>podcasting about movies</t>
+  </si>
+  <si>
     <t>singing pop songs</t>
   </si>
   <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>stabbing in the back</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>talking up the economy</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>starring in indy movies</t>
-  </si>
-  <si>
-    <t>directing weird movies</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Marlon</t>
-  </si>
-  <si>
-    <t>Wayans</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>disappointing suitors</t>
-  </si>
-  <si>
-    <t>being condescending to customers</t>
-  </si>
-  <si>
-    <t>providing comic relief</t>
-  </si>
-  <si>
-    <t>playing God</t>
-  </si>
-  <si>
-    <t>cooking for friends</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Culp</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Temple</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>painting realistic pictures</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Shaffer</t>
+  </si>
+  <si>
+    <t>chasing starlets</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Orton</t>
+  </si>
+  <si>
+    <t>handing out flowers</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>OKeeffe</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Mahalia</t>
+  </si>
+  <si>
+    <t>leaking classified documents</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>promoting air travel</t>
   </si>
   <si>
     <t>playing rock music</t>
   </si>
   <si>
-    <t>foiling the schemes of evil villains</t>
+    <t>Lenny</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>writing comedy</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>Kravitz</t>
+  </si>
+  <si>
+    <t>Felipe</t>
+  </si>
+  <si>
+    <t>Calderón</t>
+  </si>
+  <si>
+    <t>Saget</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>recruiting dissidents</t>
+  </si>
+  <si>
+    <t>Auguste</t>
+  </si>
+  <si>
+    <t>Rodin</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Bernie</t>
+  </si>
+  <si>
+    <t>Mac</t>
+  </si>
+  <si>
+    <t>falling gracefully</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
+    <t>Dourif</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>teaching philosophy</t>
+  </si>
+  <si>
+    <t>lecturing about climate change</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Bix</t>
+  </si>
+  <si>
+    <t>Beiderbecke</t>
+  </si>
+  <si>
+    <t>throwing sex parties</t>
+  </si>
+  <si>
+    <t>campaigning for world peace</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Kardashian</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>robbing banks</t>
+  </si>
+  <si>
+    <t>painting dark pictures</t>
+  </si>
+  <si>
+    <t>developing operating systems</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Hopper</t>
+  </si>
+  <si>
+    <t>representing criminals</t>
+  </si>
+  <si>
+    <t>running a criminal empire</t>
+  </si>
+  <si>
+    <t>Dianna</t>
+  </si>
+  <si>
+    <t>Agron</t>
+  </si>
+  <si>
+    <t>offering medical opinions</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Sinatra</t>
+  </si>
+  <si>
+    <t>performing physical therapy</t>
+  </si>
+  <si>
+    <t>Lovesmith</t>
+  </si>
+  <si>
+    <t>Ripley</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Jimi</t>
+  </si>
+  <si>
+    <t>Hendrix</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Fairbanks</t>
+  </si>
+  <si>
+    <t>Herbert</t>
+  </si>
+  <si>
+    <t>Hoover</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>escaping from water tanks</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Freeman</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Cliburn</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>Beyonce</t>
+  </si>
+  <si>
+    <t>Knowles</t>
+  </si>
+  <si>
+    <t>carrying secret plans</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Stapleton</t>
   </si>
   <si>
     <t>spouting movie trivia</t>
   </si>
   <si>
-    <t>practicing insincerity</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Abernathy</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>running a kingdom</t>
-  </si>
-  <si>
-    <t>avoiding eye contact</t>
-  </si>
-  <si>
-    <t>gurning for the camera</t>
-  </si>
-  <si>
-    <t>singing reggae songs</t>
-  </si>
-  <si>
-    <t>writing cook books</t>
-  </si>
-  <si>
-    <t>eluding capture</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Dreesen</t>
-  </si>
-  <si>
-    <t>recording history</t>
-  </si>
-  <si>
-    <t>monetizing celebrity status</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>promoting big business</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>running a budget airline</t>
-  </si>
-  <si>
-    <t>Toni</t>
-  </si>
-  <si>
-    <t>Tennille</t>
-  </si>
-  <si>
-    <t>doing the Charleston</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry</t>
-  </si>
-  <si>
-    <t>counting cards</t>
-  </si>
-  <si>
-    <t>making topiary sculptures</t>
-  </si>
-  <si>
-    <t>running a clandestine spy organization</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>waiting for a hero</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Petersen</t>
-  </si>
-  <si>
-    <t>arguing against capitalism</t>
-  </si>
-  <si>
-    <t>singing protest songs</t>
-  </si>
-  <si>
-    <t>running the FBI</t>
-  </si>
-  <si>
-    <t>playing rock piano</t>
-  </si>
-  <si>
-    <t>creating an axis of evil</t>
-  </si>
-  <si>
-    <t>abusing power</t>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Ito</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Hoffa</t>
+  </si>
+  <si>
+    <t>convicting criminals</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Grisham</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Gable</t>
+  </si>
+  <si>
+    <t>Abigail</t>
+  </si>
+  <si>
+    <t>Buren</t>
+  </si>
+  <si>
+    <t>making action movies</t>
+  </si>
+  <si>
+    <t>Ike</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Spencer</t>
+  </si>
+  <si>
+    <t>Pratt</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Kaplan</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>X.J.</t>
+  </si>
+  <si>
+    <t>Kennedy</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Degenerous</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Nolte</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Coogan</t>
+  </si>
+  <si>
+    <t>inventing new technologies</t>
+  </si>
+  <si>
+    <t>Keira</t>
+  </si>
+  <si>
+    <t>Knightley</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Audie</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Seton</t>
+  </si>
+  <si>
+    <t>bodybuilding</t>
+  </si>
+  <si>
+    <t>Forrest</t>
+  </si>
+  <si>
+    <t>Gump</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Hagman</t>
+  </si>
+  <si>
+    <t>Jawaharlal</t>
+  </si>
+  <si>
+    <t>Nehru</t>
+  </si>
+  <si>
+    <t>Gandhi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Barton</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Cuban</t>
+  </si>
+  <si>
+    <t>Mugabe</t>
+  </si>
+  <si>
+    <t>Xuxa</t>
+  </si>
+  <si>
+    <t>Duff</t>
+  </si>
+  <si>
+    <t>Goldman</t>
+  </si>
+  <si>
+    <t>making trains run on time</t>
+  </si>
+  <si>
+    <t>Durante</t>
+  </si>
+  <si>
+    <t>Micky</t>
+  </si>
+  <si>
+    <t>Dolenz</t>
+  </si>
+  <si>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Couples</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>OToole</t>
+  </si>
+  <si>
+    <t>preventing terrorism</t>
+  </si>
+  <si>
+    <t>Nik</t>
+  </si>
+  <si>
+    <t>Kershaw</t>
+  </si>
+  <si>
+    <t>making escape plans</t>
+  </si>
+  <si>
+    <t>Bishop</t>
+  </si>
+  <si>
+    <t>Tutu</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Aidan</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Holly</t>
+  </si>
+  <si>
+    <t>Combs</t>
+  </si>
+  <si>
+    <t>Candice</t>
+  </si>
+  <si>
+    <t>Bergen</t>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>smoking herb</t>
+  </si>
+  <si>
+    <t>Naseem</t>
+  </si>
+  <si>
+    <t>Hamed</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Priestley</t>
+  </si>
+  <si>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Chopra</t>
+  </si>
+  <si>
+    <t>Foxy</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>Rosemary</t>
+  </si>
+  <si>
+    <t>Clooney</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Osgood</t>
+  </si>
+  <si>
+    <t>Jeannie</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Balsam</t>
+  </si>
+  <si>
+    <t>Z.Z.</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Webb</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Bledsoe</t>
+  </si>
+  <si>
+    <t>Tibbets</t>
+  </si>
+  <si>
+    <t>Turturro</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Nichols</t>
+  </si>
+  <si>
+    <t>Lebron</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>Walton</t>
+  </si>
+  <si>
+    <t>Coburn</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Mama</t>
+  </si>
+  <si>
+    <t>Elliot</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Lennox</t>
+  </si>
+  <si>
+    <t>Cary</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Burt</t>
+  </si>
+  <si>
+    <t>Bacharach</t>
+  </si>
+  <si>
+    <t>C.</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>Woods</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Isaak</t>
   </si>
   <si>
     <t>Vince</t>
   </si>
   <si>
-    <t>McMahon</t>
-  </si>
-  <si>
-    <t>popping amphetamines</t>
-  </si>
-  <si>
-    <t>issuing threats</t>
-  </si>
-  <si>
-    <t>writing about social problems</t>
-  </si>
-  <si>
-    <t>telling affable jokes</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>coining sparkling witticisms</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Romo</t>
-  </si>
-  <si>
-    <t>writing pot-boilers</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>chasing after women</t>
-  </si>
-  <si>
-    <t>promoting feminism</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>Alberto</t>
-  </si>
-  <si>
-    <t>Dumont</t>
-  </si>
-  <si>
-    <t>testing new technologies</t>
-  </si>
-  <si>
-    <t>hunting wabbits</t>
-  </si>
-  <si>
-    <t>spitting while speaking</t>
-  </si>
-  <si>
-    <t>embezzling tax money</t>
-  </si>
-  <si>
-    <t>eating donuts</t>
-  </si>
-  <si>
-    <t>cooking chrystal meth</t>
-  </si>
-  <si>
-    <t>over-achieving at school</t>
-  </si>
-  <si>
-    <t>Ira</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Arkin</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>writing historical fiction</t>
-  </si>
-  <si>
-    <t>writing rock songs</t>
-  </si>
-  <si>
-    <t>Leonardo</t>
-  </si>
-  <si>
-    <t>da-Vinci</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>playing tough guys</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>Claudette</t>
-  </si>
-  <si>
-    <t>Colbert</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>delivering judgments</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Orwell</t>
-  </si>
-  <si>
-    <t>forming new social connections</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Susskind</t>
-  </si>
-  <si>
-    <t>running gentleman's clubs</t>
-  </si>
-  <si>
-    <t>working out</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Jacqueline</t>
-  </si>
-  <si>
-    <t>Onasis</t>
-  </si>
-  <si>
-    <t>making ice sculptures</t>
-  </si>
-  <si>
-    <t>making money</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>Elle</t>
-  </si>
-  <si>
-    <t>Macpherson</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>enjoying ball-room dancing</t>
-  </si>
-  <si>
-    <t>rescuing kids</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>writing legal fiction</t>
-  </si>
-  <si>
-    <t>Cree</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>running for the presidency</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>M.C.</t>
-  </si>
-  <si>
-    <t>Hammer</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Lombardo</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>hosting radio shows</t>
-  </si>
-  <si>
-    <t>using gadgets</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Caro</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>running a hardware company</t>
-  </si>
-  <si>
-    <t>Macdonald</t>
-  </si>
-  <si>
-    <t>Carey</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Leguizamo</t>
-  </si>
-  <si>
-    <t>studying symbols</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>striving for world domination</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
-    <t>promoting science</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>drinking tea</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Lopez</t>
-  </si>
-  <si>
-    <t>proving math theorems</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>Kasem</t>
-  </si>
-  <si>
-    <t>Serena</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>partying on yachts</t>
-  </si>
-  <si>
-    <t>writing blues songs</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>Suleman</t>
-  </si>
-  <si>
-    <t>octuplets</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Wilford</t>
-  </si>
-  <si>
-    <t>Brimley</t>
-  </si>
-  <si>
-    <t>Dewey</t>
-  </si>
-  <si>
-    <t>Bunnell</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Hooks</t>
-  </si>
-  <si>
-    <t>Fogelberg</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>playing grungy music</t>
-  </si>
-  <si>
-    <t>Hewitt</t>
-  </si>
-  <si>
-    <t>bullying neighboring countries</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>playing rock guitar</t>
-  </si>
-  <si>
-    <t>Diane</t>
-  </si>
-  <si>
-    <t>Lane</t>
-  </si>
-  <si>
-    <t>Sherman</t>
-  </si>
-  <si>
-    <t>Hemsley</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>smoking Boyard cigarettes</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>Angela</t>
-  </si>
-  <si>
-    <t>Cartwright</t>
-  </si>
-  <si>
-    <t>Jenson</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>Rik</t>
-  </si>
-  <si>
-    <t>Mayall</t>
-  </si>
-  <si>
-    <t>Roscoe</t>
-  </si>
-  <si>
-    <t>Browne</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>making movies</t>
-  </si>
-  <si>
-    <t>writing sonnets</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Orbison</t>
-  </si>
-  <si>
-    <t>Luther</t>
-  </si>
-  <si>
-    <t>Vandross</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Brandeis</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>Singh</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Paxton</t>
-  </si>
-  <si>
-    <t>Eddy</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>promoting monetarism</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Biden</t>
-  </si>
-  <si>
-    <t>Tiffani</t>
-  </si>
-  <si>
-    <t>Thiessen</t>
-  </si>
-  <si>
-    <t>working in a freak show</t>
-  </si>
-  <si>
-    <t>E.G.</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Thorogood</t>
-  </si>
-  <si>
-    <t>blowing smoke rings</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Louis-Dreyfus</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Holland</t>
-  </si>
-  <si>
-    <t>making sarcastic remarks</t>
-  </si>
-  <si>
-    <t>Billie</t>
-  </si>
-  <si>
-    <t>Holiday</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>Nat</t>
-  </si>
-  <si>
-    <t>Cole</t>
-  </si>
-  <si>
-    <t>Davy</t>
-  </si>
-  <si>
-    <t>Jones</t>
+    <t>Vaughn</t>
+  </si>
+  <si>
+    <t>Louisa</t>
+  </si>
+  <si>
+    <t>Alcott</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Fonda</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Lyle</t>
+  </si>
+  <si>
+    <t>Talbot</t>
+  </si>
+  <si>
+    <t>Osama</t>
+  </si>
+  <si>
+    <t>bin-Laden</t>
   </si>
   <si>
     <t>Ed</t>
   </si>
   <si>
-    <t>Ames</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Gibson</t>
-  </si>
-  <si>
-    <t>Phil</t>
-  </si>
-  <si>
-    <t>Collins</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>Daryl</t>
-  </si>
-  <si>
-    <t>Strawberry</t>
-  </si>
-  <si>
-    <t>selling tat</t>
-  </si>
-  <si>
-    <t>Giorgio</t>
-  </si>
-  <si>
-    <t>Armani</t>
-  </si>
-  <si>
-    <t>building replicants</t>
-  </si>
-  <si>
-    <t>Moby</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Howie</t>
-  </si>
-  <si>
-    <t>Dorough</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Stanwyck</t>
-  </si>
-  <si>
-    <t>Kate</t>
-  </si>
-  <si>
-    <t>Mulgrew</t>
-  </si>
-  <si>
-    <t>Cullen</t>
-  </si>
-  <si>
-    <t>Chet</t>
-  </si>
-  <si>
-    <t>Atkins</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>Rudolf</t>
-  </si>
-  <si>
-    <t>Nureyev</t>
-  </si>
-  <si>
-    <t>Curly</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Gleason</t>
-  </si>
-  <si>
-    <t>Adelle</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Rob</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Loretta</t>
-  </si>
-  <si>
-    <t>Swit</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>Jeanne</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Burns</t>
-  </si>
-  <si>
-    <t>Frost</t>
-  </si>
-  <si>
-    <t>Gertrude</t>
-  </si>
-  <si>
-    <t>Stein</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Haydn</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Webb</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Perkins</t>
-  </si>
-  <si>
-    <t>Peggy</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Place</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Heatherton</t>
-  </si>
-  <si>
-    <t>Georges</t>
-  </si>
-  <si>
-    <t>Pompidou</t>
-  </si>
-  <si>
-    <t>Donny</t>
-  </si>
-  <si>
-    <t>Osmond</t>
-  </si>
-  <si>
-    <t>Cindy</t>
-  </si>
-  <si>
-    <t>Crawford</t>
-  </si>
-  <si>
-    <t>Chuck</t>
-  </si>
-  <si>
-    <t>Mangione</t>
-  </si>
-  <si>
-    <t>Sousa</t>
-  </si>
-  <si>
-    <t>Harvey</t>
-  </si>
-  <si>
-    <t>Keitel</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Shepard</t>
-  </si>
-  <si>
-    <t>Santa</t>
-  </si>
-  <si>
-    <t>Claus</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Krasinski</t>
-  </si>
-  <si>
-    <t>Juan</t>
-  </si>
-  <si>
-    <t>Peron</t>
-  </si>
-  <si>
-    <t>Arturo</t>
-  </si>
-  <si>
-    <t>Toscanini</t>
-  </si>
-  <si>
-    <t>Hillary</t>
-  </si>
-  <si>
-    <t>Clinton</t>
-  </si>
-  <si>
-    <t>Madame</t>
-  </si>
-  <si>
-    <t>Walker</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>McKnight</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>Crosby</t>
-  </si>
-  <si>
-    <t>Sheryl</t>
-  </si>
-  <si>
-    <t>Swoopes</t>
-  </si>
-  <si>
-    <t>Mitzi</t>
-  </si>
-  <si>
-    <t>Gaynor</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Paar</t>
-  </si>
-  <si>
-    <t>Buffalo</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Whoopi</t>
-  </si>
-  <si>
-    <t>Goldberg</t>
-  </si>
-  <si>
-    <t>Concetta</t>
-  </si>
-  <si>
-    <t>Tomei</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Oprah</t>
-  </si>
-  <si>
-    <t>Winfrey</t>
-  </si>
-  <si>
-    <t>Lucille</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>Damian</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Perlman</t>
-  </si>
-  <si>
-    <t>Thumb</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>writing crime stories</t>
-  </si>
-  <si>
-    <t>Arlene</t>
-  </si>
-  <si>
-    <t>Dahl</t>
-  </si>
-  <si>
-    <t>Conrad</t>
-  </si>
-  <si>
-    <t>Hilton</t>
-  </si>
-  <si>
-    <t>Phyllis</t>
-  </si>
-  <si>
-    <t>Schlafly</t>
-  </si>
-  <si>
-    <t>Andre</t>
-  </si>
-  <si>
-    <t>Michelin</t>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Flynt</t>
+  </si>
+  <si>
+    <t>Alistair</t>
+  </si>
+  <si>
+    <t>Cooke</t>
+  </si>
+  <si>
+    <t>Cyril</t>
+  </si>
+  <si>
+    <t>Ritchard</t>
   </si>
 </sst>
 </file>
@@ -1219,16 +1207,16 @@
     <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="35.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="35.4296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="32.42578125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="35.4296875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.0859375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="35.4296875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="35.4296875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="35.4296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="33.05078125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="34.9609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1283,7 +1271,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>8.271691E7</v>
+        <v>3.374029E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1313,30 +1301,30 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.3598157E7</v>
+        <v>9.1291761E7</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
@@ -1345,54 +1333,54 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
         <v>33</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>35</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>37</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="n">
-        <v>2.8817331E7</v>
+        <v>8.0896466E7</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -1415,271 +1403,271 @@
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>3.7650747E7</v>
+        <v>5.4095161E7</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>56</v>
-      </c>
       <c r="M5" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="N5" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.480471E7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>59</v>
       </c>
-      <c r="B6" t="s">
+      <c r="I6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="n">
-        <v>8.5290268E7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="J6" t="s">
         <v>61</v>
       </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
         <v>62</v>
       </c>
-      <c r="G6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" t="s">
-        <v>66</v>
-      </c>
       <c r="N6" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.9113003E7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
         <v>68</v>
       </c>
-      <c r="B7" t="s">
+      <c r="J7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" t="n">
-        <v>5.7473376E7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="K7" t="s">
         <v>70</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>71</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
         <v>72</v>
       </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="N7" t="s">
         <v>73</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" t="s">
-        <v>75</v>
-      </c>
-      <c r="N7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.79382E7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" t="s">
         <v>76</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" t="s">
         <v>77</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.863716E7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>78</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>79</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>80</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
         <v>82</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C9" t="n">
-        <v>9.0378861E7</v>
+        <v>3.7963849E7</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>89</v>
-      </c>
-      <c r="I9" t="s">
-        <v>90</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>91</v>
-      </c>
-      <c r="M9" t="s">
-        <v>92</v>
-      </c>
-      <c r="N9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
         <v>93</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="n">
+        <v>2.9436106E7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
         <v>94</v>
       </c>
-      <c r="C10" t="n">
-        <v>5.1415808E7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" t="s">
         <v>95</v>
       </c>
-      <c r="G10" t="s">
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
         <v>96</v>
       </c>
-      <c r="H10" t="s">
-        <v>97</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>98</v>
-      </c>
-      <c r="K10" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M10" t="s">
-        <v>100</v>
-      </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>9.2937627E7</v>
+        <v>6.621747E7</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1688,4871 +1676,4871 @@
         <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.3856569E7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>105</v>
+      </c>
+      <c r="I12" t="s">
         <v>106</v>
       </c>
-      <c r="B12" t="s">
+      <c r="J12" t="s">
         <v>107</v>
       </c>
-      <c r="C12" t="n">
-        <v>6.5633528E7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="K12" t="s">
         <v>108</v>
       </c>
-      <c r="G12" t="s">
+      <c r="L12" t="s">
         <v>109</v>
       </c>
-      <c r="H12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="M12" t="s">
         <v>110</v>
       </c>
-      <c r="K12" t="s">
+      <c r="N12" t="s">
         <v>111</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s">
-        <v>43</v>
-      </c>
-      <c r="N12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
         <v>113</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="n">
+        <v>5.6181077E7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" t="s">
         <v>114</v>
       </c>
-      <c r="C13" t="n">
-        <v>7.473264E7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" t="s">
         <v>115</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>116</v>
-      </c>
-      <c r="H13" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" t="s">
-        <v>110</v>
-      </c>
       <c r="M13" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C14" t="n">
-        <v>7.246881E7</v>
+        <v>7.3121108E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>53</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="K14" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C15" t="n">
-        <v>5.5237718E7</v>
+        <v>2.6309761E7</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
+        <v>122</v>
+      </c>
+      <c r="G15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" t="s">
         <v>115</v>
       </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>128</v>
-      </c>
       <c r="M15" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="N15" t="s">
-        <v>49</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5.3116219E7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L16" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" t="s">
         <v>130</v>
-      </c>
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.2176845E7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>132</v>
-      </c>
-      <c r="G16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
-      </c>
-      <c r="I16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" t="s">
-        <v>134</v>
-      </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C17" t="n">
-        <v>2.7218048E7</v>
+        <v>8.7281703E7</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I17" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="M17" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.348989E7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>137</v>
+      </c>
+      <c r="H18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I18" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" t="s">
+        <v>138</v>
+      </c>
+      <c r="L18" t="s">
+        <v>139</v>
+      </c>
+      <c r="M18" t="s">
+        <v>140</v>
+      </c>
+      <c r="N18" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.5746817E7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>143</v>
-      </c>
-      <c r="H18" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18" t="s">
-        <v>144</v>
-      </c>
-      <c r="L18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" t="s">
-        <v>72</v>
-      </c>
-      <c r="N18" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>1.2717799E7</v>
+        <v>1.4185724E7</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" t="s">
+        <v>122</v>
+      </c>
+      <c r="L19" t="s">
+        <v>146</v>
+      </c>
+      <c r="M19" t="s">
         <v>111</v>
       </c>
-      <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L19" t="s">
-        <v>82</v>
-      </c>
-      <c r="M19" t="s">
-        <v>45</v>
-      </c>
       <c r="N19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.4009546E7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s">
         <v>150</v>
       </c>
-      <c r="B20" t="s">
+      <c r="I20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" t="n">
-        <v>5.054263E7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>152</v>
-      </c>
-      <c r="H20" t="s">
-        <v>115</v>
-      </c>
-      <c r="I20" t="s">
-        <v>153</v>
-      </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="M20" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="N20" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C21" t="n">
-        <v>6.4946171E7</v>
+        <v>1.7312558E7</v>
       </c>
       <c r="D21" t="s">
         <v>16</v>
       </c>
       <c r="E21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
         <v>48</v>
       </c>
-      <c r="F21" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-      <c r="H21" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" t="s">
-        <v>156</v>
-      </c>
       <c r="J21" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="L21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" t="n">
-        <v>2.6649016E7</v>
+        <v>9.6395928E7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>49</v>
+        <v>137</v>
       </c>
       <c r="G22" t="s">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="I22" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="L22" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="M22" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="N22" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C23" t="n">
-        <v>2.8394369E7</v>
+        <v>3.4577448E7</v>
       </c>
       <c r="D23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>100</v>
+        <v>157</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="K23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="M23" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="N23" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C24" t="n">
-        <v>3.9482474E7</v>
+        <v>6.4530929E7</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="F24" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>167</v>
+        <v>57</v>
       </c>
       <c r="I24" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="J24" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="L24" t="s">
-        <v>168</v>
+        <v>19</v>
       </c>
       <c r="M24" t="s">
-        <v>44</v>
+        <v>161</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C25" t="n">
-        <v>6.2552717E7</v>
+        <v>5.9648674E7</v>
       </c>
       <c r="D25" t="s">
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>167</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="I25" t="s">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K25" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
       <c r="M25" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N25" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C26" t="n">
-        <v>2.3486046E7</v>
+        <v>6.360778E7</v>
       </c>
       <c r="D26" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="I26" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="M26" t="s">
-        <v>176</v>
+        <v>17</v>
       </c>
       <c r="N26" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C27" t="n">
-        <v>8.8581503E7</v>
+        <v>7.6240548E7</v>
       </c>
       <c r="D27" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>60</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>20</v>
       </c>
       <c r="L27" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="M27" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="N27" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C28" t="n">
-        <v>7.1808382E7</v>
+        <v>2.4479557E7</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="s">
         <v>115</v>
       </c>
-      <c r="G28" t="s">
-        <v>19</v>
-      </c>
       <c r="H28" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>58</v>
+        <v>171</v>
       </c>
       <c r="J28" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s">
-        <v>112</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C29" t="n">
-        <v>7.1804542E7</v>
+        <v>1.6317386E7</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="J29" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="K29" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="C30" t="n">
-        <v>2.4234314E7</v>
+        <v>1.6111808E7</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="G30" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>85</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="K30" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="M30" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="N30" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C31" t="n">
-        <v>9.8629595E7</v>
+        <v>9.9620294E7</v>
       </c>
       <c r="D31" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>194</v>
+        <v>43</v>
       </c>
       <c r="J31" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L31" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="M31" t="s">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="N31" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C32" t="n">
-        <v>1.9918096E7</v>
+        <v>2.1662322E7</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="I32" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="N32" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C33" t="n">
-        <v>6.0169426E7</v>
+        <v>4.4321694E7</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33" t="s">
+        <v>164</v>
+      </c>
+      <c r="M33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" t="s">
         <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" t="s">
-        <v>168</v>
-      </c>
-      <c r="I33" t="s">
-        <v>78</v>
-      </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>132</v>
-      </c>
-      <c r="L33" t="s">
-        <v>53</v>
-      </c>
-      <c r="M33" t="s">
-        <v>112</v>
-      </c>
-      <c r="N33" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C34" t="n">
-        <v>9.9084192E7</v>
+        <v>7.8588821E7</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>23</v>
       </c>
       <c r="H34" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="J34" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M34" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="N34" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C35" t="n">
-        <v>9.5811314E7</v>
+        <v>2.8958852E7</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="F35" t="s">
-        <v>84</v>
+        <v>161</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J35" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="K35" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
       <c r="L35" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="M35" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="N35" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B36" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C36" t="n">
-        <v>5.6356114E7</v>
+        <v>6.490307E7</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>156</v>
+        <v>189</v>
       </c>
       <c r="H36" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I36" t="s">
-        <v>205</v>
+        <v>59</v>
       </c>
       <c r="J36" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="L36" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="M36" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="N36" t="s">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B37" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C37" t="n">
-        <v>9.1656765E7</v>
+        <v>3.5478879E7</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>108</v>
+        <v>203</v>
       </c>
       <c r="H37" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="I37" t="s">
-        <v>143</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="L37" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="M37" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="N37" t="s">
-        <v>17</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C38" t="n">
-        <v>3.9993132E7</v>
+        <v>5.7860918E7</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="F38" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
       <c r="G38" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>119</v>
       </c>
       <c r="K38" t="s">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="L38" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="M38" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="N38" t="s">
-        <v>214</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C39" t="n">
-        <v>2.7843558E7</v>
+        <v>2.9313528E7</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="G39" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>144</v>
       </c>
       <c r="K39" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>72</v>
+        <v>207</v>
       </c>
       <c r="M39" t="s">
-        <v>54</v>
+        <v>208</v>
       </c>
       <c r="N39" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C40" t="n">
-        <v>9.2229679E7</v>
+        <v>8.0064399E7</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="G40" t="s">
         <v>109</v>
       </c>
       <c r="H40" t="s">
-        <v>117</v>
+        <v>21</v>
       </c>
       <c r="I40" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="J40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K40" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="L40" t="s">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="M40" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="N40" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C41" t="n">
-        <v>2.5846747E7</v>
+        <v>6.458997E7</v>
       </c>
       <c r="D41" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="G41" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>214</v>
       </c>
       <c r="I41" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="J41" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L41" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C42" t="n">
-        <v>1.6650924E7</v>
+        <v>3.7880079E7</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>178</v>
       </c>
       <c r="F42" t="s">
-        <v>167</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>23</v>
+        <v>124</v>
       </c>
       <c r="H42" t="s">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="I42" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="K42" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="L42" t="s">
-        <v>225</v>
+        <v>107</v>
       </c>
       <c r="M42" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="N42" t="s">
-        <v>18</v>
+        <v>216</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C43" t="n">
-        <v>1.3472409E7</v>
+        <v>2.2459673E7</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="H43" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="I43" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>193</v>
       </c>
       <c r="L43" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="M43" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="N43" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C44" t="n">
-        <v>3.5807099E7</v>
+        <v>4.1319993E7</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="G44" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>196</v>
       </c>
       <c r="I44" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J44" t="s">
-        <v>225</v>
+        <v>46</v>
       </c>
       <c r="K44" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="M44" t="s">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="N44" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B45" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C45" t="n">
-        <v>7.7156805E7</v>
+        <v>2.2854157E7</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="G45" t="s">
+        <v>115</v>
+      </c>
+      <c r="H45" t="s">
+        <v>216</v>
+      </c>
+      <c r="I45" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" t="s">
         <v>105</v>
       </c>
-      <c r="H45" t="s">
-        <v>85</v>
-      </c>
-      <c r="I45" t="s">
-        <v>152</v>
-      </c>
-      <c r="J45" t="s">
-        <v>73</v>
-      </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M45" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="N45" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C46" t="n">
-        <v>6.6251695E7</v>
+        <v>7.1461395E7</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="G46" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>212</v>
+        <v>61</v>
       </c>
       <c r="I46" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="J46" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="L46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M46" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="N46" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C47" t="n">
-        <v>5.3645167E7</v>
+        <v>8.878543E7</v>
       </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>43</v>
+      </c>
+      <c r="I47" t="s">
+        <v>47</v>
+      </c>
+      <c r="J47" t="s">
+        <v>134</v>
+      </c>
+      <c r="K47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" t="s">
+        <v>60</v>
+      </c>
+      <c r="M47" t="s">
         <v>99</v>
       </c>
-      <c r="F47" t="s">
-        <v>137</v>
-      </c>
-      <c r="G47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H47" t="s">
-        <v>29</v>
-      </c>
-      <c r="I47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J47" t="s">
-        <v>98</v>
-      </c>
-      <c r="K47" t="s">
-        <v>36</v>
-      </c>
-      <c r="L47" t="s">
-        <v>140</v>
-      </c>
-      <c r="M47" t="s">
-        <v>62</v>
-      </c>
       <c r="N47" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C48" t="n">
-        <v>2.3843851E7</v>
+        <v>4.4405752E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>223</v>
+        <v>24</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="J48" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="K48" t="s">
-        <v>212</v>
+        <v>53</v>
       </c>
       <c r="L48" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="M48" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="N48" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C49" t="n">
-        <v>2.5156894E7</v>
+        <v>9.9906218E7</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="G49" t="s">
-        <v>70</v>
+        <v>182</v>
       </c>
       <c r="H49" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="I49" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="J49" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="L49" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="M49" t="s">
-        <v>152</v>
+        <v>81</v>
       </c>
       <c r="N49" t="s">
-        <v>48</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C50" t="n">
-        <v>1.3829297E7</v>
+        <v>1.4555071E7</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F50" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="I50" t="s">
-        <v>243</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>82</v>
+        <v>172</v>
       </c>
       <c r="L50" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M50" t="s">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="N50" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C51" t="n">
-        <v>2.2330423E7</v>
+        <v>7.9979943E7</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E51" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G51" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="H51" t="s">
-        <v>154</v>
+        <v>81</v>
       </c>
       <c r="I51" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="J51" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="K51" t="s">
-        <v>212</v>
+        <v>33</v>
       </c>
       <c r="L51" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="M51" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C52" t="n">
-        <v>8.7045205E7</v>
+        <v>8.0710313E7</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>208</v>
       </c>
       <c r="F52" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
       <c r="G52" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="H52" t="s">
-        <v>247</v>
+        <v>32</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="J52" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="K52" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="L52" t="s">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="M52" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="N52" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C53" t="n">
-        <v>9.3327861E7</v>
+        <v>5.4299482E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>125</v>
       </c>
       <c r="I53" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="J53" t="s">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="M53" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="N53" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C54" t="n">
-        <v>2.4258839E7</v>
+        <v>5.5647288E7</v>
       </c>
       <c r="D54" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s">
+        <v>119</v>
+      </c>
+      <c r="H54" t="s">
+        <v>249</v>
+      </c>
+      <c r="I54" t="s">
+        <v>125</v>
+      </c>
+      <c r="J54" t="s">
+        <v>115</v>
+      </c>
+      <c r="K54" t="s">
+        <v>173</v>
+      </c>
+      <c r="L54" t="s">
+        <v>67</v>
+      </c>
+      <c r="M54" t="s">
+        <v>123</v>
+      </c>
+      <c r="N54" t="s">
         <v>30</v>
-      </c>
-      <c r="H54" t="s">
-        <v>35</v>
-      </c>
-      <c r="I54" t="s">
-        <v>101</v>
-      </c>
-      <c r="J54" t="s">
-        <v>252</v>
-      </c>
-      <c r="K54" t="s">
-        <v>32</v>
-      </c>
-      <c r="L54" t="s">
-        <v>61</v>
-      </c>
-      <c r="M54" t="s">
-        <v>62</v>
-      </c>
-      <c r="N54" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B55" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C55" t="n">
-        <v>2.8449492E7</v>
+        <v>2.1260591E7</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="G55" t="s">
-        <v>42</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I55" t="s">
-        <v>255</v>
+        <v>59</v>
       </c>
       <c r="J55" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="K55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="M55" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="N55" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B56" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C56" t="n">
-        <v>7.1051605E7</v>
+        <v>5.8660627E7</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>23</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="G56" t="s">
+        <v>19</v>
+      </c>
+      <c r="H56" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56" t="s">
+        <v>95</v>
+      </c>
+      <c r="J56" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56" t="s">
+        <v>91</v>
+      </c>
+      <c r="N56" t="s">
         <v>17</v>
-      </c>
-      <c r="H56" t="s">
-        <v>89</v>
-      </c>
-      <c r="I56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" t="s">
-        <v>55</v>
-      </c>
-      <c r="L56" t="s">
-        <v>48</v>
-      </c>
-      <c r="M56" t="s">
-        <v>205</v>
-      </c>
-      <c r="N56" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B57" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C57" t="n">
-        <v>3.1271603E7</v>
+        <v>2.9606574E7</v>
       </c>
       <c r="D57" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F57" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="I57" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J57" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="K57" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M57" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N57" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C58" t="n">
-        <v>1.647426E7</v>
+        <v>9.3225184E7</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="F58" t="s">
-        <v>238</v>
+        <v>133</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="H58" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>168</v>
+        <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="L58" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="M58" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="N58" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C59" t="n">
-        <v>7.5440912E7</v>
+        <v>4.680106E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G59" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="H59" t="s">
-        <v>213</v>
+        <v>86</v>
       </c>
       <c r="I59" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="K59" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L59" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="M59" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="N59" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C60" t="n">
-        <v>4.3322597E7</v>
+        <v>2.9565868E7</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="G60" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="H60" t="s">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="M60" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="N60" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C61" t="n">
-        <v>7.9121091E7</v>
+        <v>3.5933515E7</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>223</v>
+        <v>125</v>
       </c>
       <c r="G61" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="I61" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="K61" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="L61" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M61" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="N61" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C62" t="n">
-        <v>1.2424392E7</v>
+        <v>8.3658636E7</v>
       </c>
       <c r="D62" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H62" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="I62" t="s">
-        <v>180</v>
+        <v>42</v>
       </c>
       <c r="J62" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="L62" t="s">
-        <v>38</v>
+        <v>219</v>
       </c>
       <c r="M62" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="N62" t="s">
-        <v>247</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C63" t="n">
-        <v>6.329413E7</v>
+        <v>4.0174613E7</v>
       </c>
       <c r="D63" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>174</v>
+        <v>95</v>
       </c>
       <c r="G63" t="s">
-        <v>273</v>
+        <v>196</v>
       </c>
       <c r="H63" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K63" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="L63" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="M63" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N63" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>268</v>
       </c>
       <c r="C64" t="n">
-        <v>6.1327824E7</v>
+        <v>6.8818539E7</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="F64" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
+        <v>119</v>
+      </c>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64" t="s">
         <v>17</v>
       </c>
-      <c r="H64" t="s">
-        <v>41</v>
-      </c>
-      <c r="I64" t="s">
-        <v>108</v>
-      </c>
       <c r="J64" t="s">
-        <v>184</v>
+        <v>21</v>
       </c>
       <c r="K64" t="s">
-        <v>205</v>
+        <v>91</v>
       </c>
       <c r="L64" t="s">
-        <v>206</v>
+        <v>90</v>
       </c>
       <c r="M64" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N64" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C65" t="n">
-        <v>2.2523945E7</v>
+        <v>9.1422214E7</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E65" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F65" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s">
-        <v>163</v>
+        <v>109</v>
       </c>
       <c r="I65" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>164</v>
+        <v>32</v>
       </c>
       <c r="K65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="L65" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="M65" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="N65" t="s">
-        <v>270</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C66" t="n">
-        <v>8.3576186E7</v>
+        <v>2.3872788E7</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H66" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="I66" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="J66" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="K66" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L66" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="M66" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="N66" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B67" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C67" t="n">
-        <v>3.457166E7</v>
+        <v>4.6388409E7</v>
       </c>
       <c r="D67" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E67" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" t="s">
+        <v>133</v>
+      </c>
+      <c r="H67" t="s">
         <v>164</v>
       </c>
-      <c r="F67" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" t="s">
-        <v>247</v>
-      </c>
-      <c r="H67" t="s">
-        <v>31</v>
-      </c>
       <c r="I67" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" t="s">
+        <v>86</v>
+      </c>
+      <c r="L67" t="s">
+        <v>23</v>
+      </c>
+      <c r="M67" t="s">
+        <v>20</v>
+      </c>
+      <c r="N67" t="s">
         <v>44</v>
-      </c>
-      <c r="K67" t="s">
-        <v>31</v>
-      </c>
-      <c r="L67" t="s">
-        <v>100</v>
-      </c>
-      <c r="M67" t="s">
-        <v>29</v>
-      </c>
-      <c r="N67" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C68" t="n">
-        <v>8.5680543E7</v>
+        <v>3.413874E7</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E68" t="s">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="F68" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="G68" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="J68" t="s">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s">
-        <v>32</v>
+        <v>141</v>
       </c>
       <c r="M68" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="N68" t="s">
-        <v>97</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="B69" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="C69" t="n">
-        <v>7.3993199E7</v>
+        <v>7.8411728E7</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>161</v>
       </c>
       <c r="F69" t="s">
-        <v>171</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s">
+        <v>219</v>
+      </c>
+      <c r="H69" t="s">
+        <v>99</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+      <c r="J69" t="s">
+        <v>189</v>
+      </c>
+      <c r="K69" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" t="s">
         <v>52</v>
       </c>
-      <c r="H69" t="s">
-        <v>45</v>
-      </c>
-      <c r="I69" t="s">
-        <v>82</v>
-      </c>
-      <c r="J69" t="s">
-        <v>285</v>
-      </c>
-      <c r="K69" t="s">
-        <v>167</v>
-      </c>
-      <c r="L69" t="s">
-        <v>203</v>
-      </c>
       <c r="M69" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="N69" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="C70" t="n">
-        <v>5.3620916E7</v>
+        <v>7.7890265E7</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="H70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s">
+        <v>214</v>
+      </c>
+      <c r="J70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K70" t="s">
         <v>18</v>
       </c>
-      <c r="I70" t="s">
-        <v>71</v>
-      </c>
-      <c r="J70" t="s">
-        <v>91</v>
-      </c>
-      <c r="K70" t="s">
-        <v>152</v>
-      </c>
       <c r="L70" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
       <c r="M70" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
       <c r="N70" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C71" t="n">
-        <v>5.8922244E7</v>
+        <v>7.3563361E7</v>
       </c>
       <c r="D71" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F71" t="s">
-        <v>252</v>
+        <v>129</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="H71" t="s">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="I71" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="J71" t="s">
-        <v>273</v>
+        <v>145</v>
       </c>
       <c r="K71" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="L71" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="N71" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>290</v>
+        <v>226</v>
       </c>
       <c r="B72" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="C72" t="n">
-        <v>5.9161866E7</v>
+        <v>2.7050265E7</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E72" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="G72" t="s">
-        <v>116</v>
+        <v>30</v>
       </c>
       <c r="H72" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="K72" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="M72" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="C73" t="n">
-        <v>4.6317132E7</v>
+        <v>7.2985555E7</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="H73" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
-        <v>81</v>
+        <v>185</v>
       </c>
       <c r="J73" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="K73" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="L73" t="s">
-        <v>214</v>
+        <v>150</v>
       </c>
       <c r="M73" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="N73" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="C74" t="n">
-        <v>9.1196384E7</v>
+        <v>9.944432E7</v>
       </c>
       <c r="D74" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>128</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="G74" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="H74" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="I74" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="J74" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="K74" t="s">
-        <v>99</v>
+        <v>249</v>
       </c>
       <c r="L74" t="s">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="M74" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="N74" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C75" t="n">
-        <v>2.2313933E7</v>
+        <v>5.4668748E7</v>
       </c>
       <c r="D75" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F75" t="s">
-        <v>164</v>
+        <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>61</v>
+        <v>287</v>
       </c>
       <c r="H75" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="I75" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J75" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="K75" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="L75" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="M75" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="N75" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C76" t="n">
-        <v>2.4558828E7</v>
+        <v>2.7067914E7</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>73</v>
+        <v>290</v>
       </c>
       <c r="F76" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>300</v>
+        <v>53</v>
       </c>
       <c r="H76" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="I76" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="J76" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="K76" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="L76" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="M76" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N76" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="B77" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C77" t="n">
-        <v>5.6426176E7</v>
+        <v>6.9446836E7</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E77" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F77" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="G77" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="H77" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="I77" t="s">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="J77" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="K77" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="M77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N77" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B78" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C78" t="n">
-        <v>2.4920288E7</v>
+        <v>1.7737878E7</v>
       </c>
       <c r="D78" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="G78" t="s">
-        <v>163</v>
+        <v>106</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="I78" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="J78" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="K78" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="L78" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="M78" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="N78" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C79" t="n">
-        <v>6.1316922E7</v>
+        <v>2.0439723E7</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E79" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="F79" t="s">
-        <v>139</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>156</v>
       </c>
       <c r="I79" t="s">
-        <v>100</v>
+        <v>216</v>
       </c>
       <c r="J79" t="s">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s">
-        <v>97</v>
+        <v>207</v>
       </c>
       <c r="L79" t="s">
-        <v>181</v>
+        <v>77</v>
       </c>
       <c r="M79" t="s">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="N79" t="s">
-        <v>194</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C80" t="n">
-        <v>5.6746688E7</v>
+        <v>8.379709E7</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F80" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G80" t="s">
-        <v>191</v>
+        <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>249</v>
       </c>
       <c r="J80" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="K80" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s">
-        <v>85</v>
+        <v>36</v>
       </c>
       <c r="M80" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="N80" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C81" t="n">
-        <v>4.5432848E7</v>
+        <v>4.9892455E7</v>
       </c>
       <c r="D81" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="G81" t="s">
-        <v>61</v>
+        <v>219</v>
       </c>
       <c r="H81" t="s">
-        <v>247</v>
+        <v>100</v>
       </c>
       <c r="I81" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J81" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="K81" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="L81" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="M81" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="N81" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C82" t="n">
-        <v>6.4313202E7</v>
+        <v>5.5794124E7</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>167</v>
+        <v>60</v>
       </c>
       <c r="F82" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="G82" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" t="s">
+        <v>86</v>
+      </c>
+      <c r="I82" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" t="s">
+        <v>133</v>
+      </c>
+      <c r="K82" t="s">
+        <v>62</v>
+      </c>
+      <c r="L82" t="s">
         <v>20</v>
       </c>
-      <c r="H82" t="s">
-        <v>17</v>
-      </c>
-      <c r="I82" t="s">
-        <v>213</v>
-      </c>
-      <c r="J82" t="s">
-        <v>42</v>
-      </c>
-      <c r="K82" t="s">
-        <v>154</v>
-      </c>
-      <c r="L82" t="s">
-        <v>54</v>
-      </c>
       <c r="M82" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="N82" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C83" t="n">
-        <v>8.5781691E7</v>
+        <v>7.1071903E7</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>105</v>
+        <v>305</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>216</v>
       </c>
       <c r="G83" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
       <c r="H83" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="I83" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="J83" t="s">
-        <v>285</v>
+        <v>106</v>
       </c>
       <c r="K83" t="s">
-        <v>53</v>
+        <v>306</v>
       </c>
       <c r="L83" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="M83" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="N83" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C84" t="n">
-        <v>3.2923743E7</v>
+        <v>2.2394353E7</v>
       </c>
       <c r="D84" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H84" t="s">
-        <v>194</v>
+        <v>138</v>
       </c>
       <c r="I84" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="J84" t="s">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="K84" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="L84" t="s">
-        <v>180</v>
+        <v>66</v>
       </c>
       <c r="M84" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="N84" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>147</v>
+        <v>309</v>
       </c>
       <c r="B85" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="C85" t="n">
-        <v>6.9145008E7</v>
+        <v>3.162529E7</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="F85" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="G85" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="H85" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K85" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="L85" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M85" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="N85" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B86" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C86" t="n">
-        <v>9.7612926E7</v>
+        <v>3.6351107E7</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G86" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H86" t="s">
+        <v>42</v>
+      </c>
+      <c r="I86" t="s">
+        <v>190</v>
+      </c>
+      <c r="J86" t="s">
+        <v>88</v>
+      </c>
+      <c r="K86" t="s">
+        <v>95</v>
+      </c>
+      <c r="L86" t="s">
+        <v>196</v>
+      </c>
+      <c r="M86" t="s">
+        <v>118</v>
+      </c>
+      <c r="N86" t="s">
         <v>48</v>
-      </c>
-      <c r="I86" t="s">
-        <v>91</v>
-      </c>
-      <c r="J86" t="s">
-        <v>24</v>
-      </c>
-      <c r="K86" t="s">
-        <v>285</v>
-      </c>
-      <c r="L86" t="s">
-        <v>85</v>
-      </c>
-      <c r="M86" t="s">
-        <v>25</v>
-      </c>
-      <c r="N86" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C87" t="n">
-        <v>6.2904332E7</v>
+        <v>6.3597155E7</v>
       </c>
       <c r="D87" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E87" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F87" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="G87" t="s">
-        <v>63</v>
+        <v>211</v>
       </c>
       <c r="H87" t="s">
-        <v>139</v>
+        <v>70</v>
       </c>
       <c r="I87" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="J87" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="K87" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L87" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="M87" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="N87" t="s">
-        <v>163</v>
+        <v>82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C88" t="n">
-        <v>5.2179119E7</v>
+        <v>2.0022171E7</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>223</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="G88" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="H88" t="s">
-        <v>152</v>
+        <v>203</v>
       </c>
       <c r="I88" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="J88" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="K88" t="s">
-        <v>214</v>
+        <v>67</v>
       </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>156</v>
       </c>
       <c r="M88" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="N88" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B89" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C89" t="n">
-        <v>3.804312E7</v>
+        <v>8.4581284E7</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="F89" t="s">
-        <v>300</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
       <c r="H89" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="I89" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J89" t="s">
-        <v>213</v>
+        <v>52</v>
       </c>
       <c r="K89" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="L89" t="s">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="M89" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="N89" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B90" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C90" t="n">
-        <v>8.9796079E7</v>
+        <v>6.7079504E7</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>214</v>
+        <v>68</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="G90" t="s">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="H90" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I90" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J90" t="s">
-        <v>205</v>
+        <v>130</v>
       </c>
       <c r="K90" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="L90" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M90" t="s">
-        <v>213</v>
+        <v>76</v>
       </c>
       <c r="N90" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>172</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C91" t="n">
-        <v>8.4466366E7</v>
+        <v>8.7431577E7</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E91" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="F91" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s">
-        <v>132</v>
+        <v>207</v>
       </c>
       <c r="H91" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="I91" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="J91" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="K91" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="L91" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="M91" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="N91" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C92" t="n">
-        <v>3.8638836E7</v>
+        <v>2.7209519E7</v>
       </c>
       <c r="D92" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>219</v>
       </c>
       <c r="G92" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="H92" t="s">
-        <v>37</v>
+        <v>254</v>
       </c>
       <c r="I92" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="J92" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="K92" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="L92" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="M92" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="N92" t="s">
-        <v>100</v>
+        <v>48</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C93" t="n">
-        <v>5.7490896E7</v>
+        <v>2.8737029E7</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>203</v>
       </c>
       <c r="G93" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="H93" t="s">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="I93" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="K93" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="L93" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="M93" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="N93" t="s">
-        <v>212</v>
+        <v>156</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C94" t="n">
-        <v>4.360631E7</v>
+        <v>1.2535051E7</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E94" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="G94" t="s">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="H94" t="s">
-        <v>115</v>
+        <v>306</v>
       </c>
       <c r="I94" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="J94" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K94" t="s">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="L94" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="M94" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>334</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C95" t="n">
-        <v>1.6718653E7</v>
+        <v>8.7933577E7</v>
       </c>
       <c r="D95" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G95" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H95" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="I95" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="J95" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="K95" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="L95" t="s">
-        <v>247</v>
+        <v>46</v>
       </c>
       <c r="M95" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="N95" t="s">
-        <v>139</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
       <c r="B96" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C96" t="n">
-        <v>2.0051445E7</v>
+        <v>8.4375218E7</v>
       </c>
       <c r="D96" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>180</v>
+        <v>44</v>
       </c>
       <c r="I96" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="J96" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="K96" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="L96" t="s">
-        <v>162</v>
+        <v>91</v>
       </c>
       <c r="M96" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="N96" t="s">
-        <v>247</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B97" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C97" t="n">
-        <v>7.3033875E7</v>
+        <v>5.7660114E7</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G97" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
       <c r="H97" t="s">
-        <v>224</v>
+        <v>143</v>
       </c>
       <c r="I97" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K97" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="L97" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="M97" t="s">
-        <v>90</v>
+        <v>333</v>
       </c>
       <c r="N97" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B98" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C98" t="n">
-        <v>3.9251356E7</v>
+        <v>3.6143258E7</v>
       </c>
       <c r="D98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>140</v>
+        <v>71</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="H98" t="s">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="I98" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="J98" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K98" t="s">
-        <v>175</v>
+        <v>68</v>
       </c>
       <c r="L98" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M98" t="s">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="N98" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C99" t="n">
-        <v>4.3082075E7</v>
+        <v>7.4160085E7</v>
       </c>
       <c r="D99" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F99" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H99" t="s">
-        <v>101</v>
+        <v>196</v>
       </c>
       <c r="I99" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="J99" t="s">
-        <v>17</v>
+        <v>164</v>
       </c>
       <c r="K99" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="L99" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M99" t="s">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="N99" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B100" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C100" t="n">
-        <v>6.1118313E7</v>
+        <v>5.0417091E7</v>
       </c>
       <c r="D100" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="F100" t="s">
-        <v>137</v>
+        <v>60</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="I100" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="J100" t="s">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="K100" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="L100" t="s">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="M100" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N100" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B101" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C101" t="n">
-        <v>8.0595485E7</v>
+        <v>7.0087915E7</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E101" t="s">
-        <v>79</v>
+        <v>249</v>
       </c>
       <c r="F101" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G101" t="s">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="H101" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="I101" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="J101" t="s">
-        <v>168</v>
+        <v>306</v>
       </c>
       <c r="K101" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="L101" t="s">
-        <v>53</v>
+        <v>150</v>
       </c>
       <c r="M101" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="N101" t="s">
-        <v>55</v>
+        <v>246</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>347</v>
+        <v>317</v>
       </c>
       <c r="B102" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C102" t="n">
-        <v>7.1671701E7</v>
+        <v>1.2444283E7</v>
       </c>
       <c r="D102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>156</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>178</v>
       </c>
       <c r="H102" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="I102" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="J102" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="K102" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="L102" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="M102" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="N102" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C103" t="n">
-        <v>6.2765678E7</v>
+        <v>2.0803831E7</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>139</v>
+        <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="H103" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="I103" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="J103" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="K103" t="s">
-        <v>31</v>
+        <v>287</v>
       </c>
       <c r="L103" t="s">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="M103" t="s">
-        <v>252</v>
+        <v>196</v>
       </c>
       <c r="N103" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B104" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C104" t="n">
-        <v>3.6743653E7</v>
+        <v>3.7197286E7</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="F104" t="s">
+        <v>305</v>
+      </c>
+      <c r="G104" t="s">
+        <v>30</v>
+      </c>
+      <c r="H104" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104" t="s">
+        <v>172</v>
+      </c>
+      <c r="J104" t="s">
+        <v>105</v>
+      </c>
+      <c r="K104" t="s">
+        <v>76</v>
+      </c>
+      <c r="L104" t="s">
         <v>22</v>
       </c>
-      <c r="G104" t="s">
-        <v>17</v>
-      </c>
-      <c r="H104" t="s">
-        <v>18</v>
-      </c>
-      <c r="I104" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" t="s">
-        <v>168</v>
-      </c>
-      <c r="K104" t="s">
-        <v>89</v>
-      </c>
-      <c r="L104" t="s">
-        <v>91</v>
-      </c>
       <c r="M104" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="N104" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>346</v>
       </c>
       <c r="B105" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="C105" t="n">
-        <v>6.9043146E7</v>
+        <v>3.8548127E7</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E105" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G105" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="I105" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="J105" t="s">
+        <v>23</v>
+      </c>
+      <c r="K105" t="s">
+        <v>86</v>
+      </c>
+      <c r="L105" t="s">
         <v>101</v>
       </c>
-      <c r="K105" t="s">
-        <v>140</v>
-      </c>
-      <c r="L105" t="s">
-        <v>63</v>
-      </c>
       <c r="M105" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="N105" t="s">
-        <v>163</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B106" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="C106" t="n">
-        <v>2.1477264E7</v>
+        <v>5.8925911E7</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>273</v>
+        <v>107</v>
       </c>
       <c r="H106" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="I106" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="J106" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="K106" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="L106" t="s">
-        <v>32</v>
+        <v>156</v>
       </c>
       <c r="M106" t="s">
-        <v>247</v>
+        <v>35</v>
       </c>
       <c r="N106" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="C107" t="n">
-        <v>2.9678108E7</v>
+        <v>5.5775367E7</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
+        <v>145</v>
       </c>
       <c r="G107" t="s">
-        <v>238</v>
+        <v>32</v>
       </c>
       <c r="H107" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="I107" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J107" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="K107" t="s">
-        <v>81</v>
+        <v>279</v>
       </c>
       <c r="L107" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="M107" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N107" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B108" t="s">
-        <v>359</v>
+        <v>85</v>
       </c>
       <c r="C108" t="n">
-        <v>3.2192817E7</v>
+        <v>5.1670211E7</v>
       </c>
       <c r="D108" t="s">
         <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>223</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
       <c r="H108" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I108" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="J108" t="s">
+        <v>18</v>
+      </c>
+      <c r="K108" t="s">
         <v>88</v>
       </c>
-      <c r="K108" t="s">
-        <v>78</v>
-      </c>
       <c r="L108" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="M108" t="s">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="N108" t="s">
-        <v>189</v>
+        <v>82</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="C109" t="n">
-        <v>8.1056823E7</v>
+        <v>9.7901837E7</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>247</v>
+        <v>118</v>
       </c>
       <c r="F109" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G109" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="H109" t="s">
-        <v>162</v>
+        <v>54</v>
       </c>
       <c r="I109" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="J109" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="K109" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="L109" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="M109" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N109" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
-        <v>202</v>
+        <v>356</v>
       </c>
       <c r="C110" t="n">
-        <v>8.8826542E7</v>
+        <v>1.6511521E7</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
         <v>149</v>
       </c>
       <c r="F110" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="G110" t="s">
-        <v>17</v>
+        <v>158</v>
       </c>
       <c r="H110" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>305</v>
       </c>
       <c r="J110" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="K110" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="L110" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="M110" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="N110" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C111" t="n">
-        <v>6.6267669E7</v>
+        <v>1.0556794E7</v>
       </c>
       <c r="D111" t="s">
         <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>89</v>
+        <v>190</v>
       </c>
       <c r="F111" t="s">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="G111" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="H111" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="I111" t="s">
+        <v>54</v>
+      </c>
+      <c r="J111" t="s">
+        <v>254</v>
+      </c>
+      <c r="K111" t="s">
+        <v>95</v>
+      </c>
+      <c r="L111" t="s">
+        <v>101</v>
+      </c>
+      <c r="M111" t="s">
+        <v>53</v>
+      </c>
+      <c r="N111" t="s">
         <v>17</v>
-      </c>
-      <c r="J111" t="s">
-        <v>206</v>
-      </c>
-      <c r="K111" t="s">
-        <v>118</v>
-      </c>
-      <c r="L111" t="s">
-        <v>115</v>
-      </c>
-      <c r="M111" t="s">
-        <v>23</v>
-      </c>
-      <c r="N111" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C112" t="n">
-        <v>7.5292052E7</v>
+        <v>4.5269614E7</v>
       </c>
       <c r="D112" t="s">
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="F112" t="s">
+        <v>24</v>
+      </c>
+      <c r="G112" t="s">
+        <v>53</v>
+      </c>
+      <c r="H112" t="s">
+        <v>190</v>
+      </c>
+      <c r="I112" t="s">
+        <v>48</v>
+      </c>
+      <c r="J112" t="s">
+        <v>52</v>
+      </c>
+      <c r="K112" t="s">
+        <v>22</v>
+      </c>
+      <c r="L112" t="s">
+        <v>42</v>
+      </c>
+      <c r="M112" t="s">
+        <v>59</v>
+      </c>
+      <c r="N112" t="s">
         <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>133</v>
-      </c>
-      <c r="H112" t="s">
-        <v>25</v>
-      </c>
-      <c r="I112" t="s">
-        <v>110</v>
-      </c>
-      <c r="J112" t="s">
-        <v>149</v>
-      </c>
-      <c r="K112" t="s">
-        <v>105</v>
-      </c>
-      <c r="L112" t="s">
-        <v>189</v>
-      </c>
-      <c r="M112" t="s">
-        <v>17</v>
-      </c>
-      <c r="N112" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="B113" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C113" t="n">
-        <v>4.573013E7</v>
+        <v>5.1972549E7</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="F113" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="G113" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="H113" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="I113" t="s">
-        <v>189</v>
+        <v>249</v>
       </c>
       <c r="J113" t="s">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="K113" t="s">
-        <v>53</v>
+        <v>129</v>
       </c>
       <c r="L113" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="M113" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="N113" t="s">
-        <v>17</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B114" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C114" t="n">
-        <v>5.4447823E7</v>
+        <v>6.3162142E7</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="F114" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="G114" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H114" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="I114" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="J114" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="K114" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="L114" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="M114" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="N114" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s">
-        <v>202</v>
+        <v>366</v>
       </c>
       <c r="C115" t="n">
-        <v>7.5685488E7</v>
+        <v>5.6132998E7</v>
       </c>
       <c r="D115" t="s">
         <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="G115" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="H115" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K115" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="L115" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="M115" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="N115" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="B116" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C116" t="n">
-        <v>8.7924943E7</v>
+        <v>4.289521E7</v>
       </c>
       <c r="D116" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="F116" t="s">
-        <v>97</v>
+        <v>183</v>
       </c>
       <c r="G116" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H116" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="I116" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="J116" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="K116" t="s">
-        <v>252</v>
+        <v>105</v>
       </c>
       <c r="L116" t="s">
-        <v>163</v>
+        <v>36</v>
       </c>
       <c r="M116" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="N116" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="B117" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C117" t="n">
-        <v>3.1050531E7</v>
+        <v>6.3166505E7</v>
       </c>
       <c r="D117" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E117" t="s">
-        <v>115</v>
+        <v>214</v>
       </c>
       <c r="F117" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
-        <v>238</v>
+        <v>75</v>
       </c>
       <c r="H117" t="s">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="I117" t="s">
-        <v>373</v>
+        <v>138</v>
       </c>
       <c r="J117" t="s">
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="K117" t="s">
-        <v>73</v>
+        <v>243</v>
       </c>
       <c r="L117" t="s">
-        <v>71</v>
+        <v>249</v>
       </c>
       <c r="M117" t="s">
-        <v>124</v>
+        <v>69</v>
       </c>
       <c r="N117" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C118" t="n">
-        <v>9.070402E7</v>
+        <v>8.1239329E7</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>95</v>
       </c>
       <c r="F118" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="G118" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="H118" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J118" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="K118" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="L118" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="M118" t="s">
-        <v>164</v>
+        <v>88</v>
       </c>
       <c r="N118" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>376</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C119" t="n">
-        <v>9.8651932E7</v>
+        <v>2.535846E7</v>
       </c>
       <c r="D119" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>179</v>
+        <v>107</v>
       </c>
       <c r="G119" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="H119" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="I119" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="J119" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="K119" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="L119" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="M119" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="N119" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B120" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C120" t="n">
-        <v>4.3714662E7</v>
+        <v>1.8165738E7</v>
       </c>
       <c r="D120" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F120" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="G120" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="H120" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="I120" t="s">
-        <v>124</v>
+        <v>22</v>
       </c>
       <c r="J120" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="K120" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="L120" t="s">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c r="M120" t="s">
-        <v>112</v>
+        <v>208</v>
       </c>
       <c r="N120" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B121" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C121" t="n">
-        <v>8.8264381E7</v>
+        <v>2.8025684E7</v>
       </c>
       <c r="D121" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="F121" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="H121" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I121" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="J121" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="K121" t="s">
-        <v>247</v>
+        <v>133</v>
       </c>
       <c r="L121" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="M121" t="s">
-        <v>194</v>
+        <v>90</v>
       </c>
       <c r="N121" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="377">
   <si>
     <t>First Name</t>
   </si>
@@ -56,640 +56,1063 @@
     <t>Preference 10</t>
   </si>
   <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes</t>
+  </si>
+  <si>
+    <t>running a frontier town</t>
+  </si>
+  <si>
+    <t>trading in wives</t>
+  </si>
+  <si>
+    <t>writing epic poetry</t>
+  </si>
+  <si>
+    <t>spreading political gossip</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>exploring foreign countries</t>
+  </si>
+  <si>
+    <t>singing opera arias</t>
+  </si>
+  <si>
+    <t>Lois</t>
+  </si>
+  <si>
+    <t>Lowry</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>creating dictionaries</t>
+  </si>
+  <si>
+    <t>directing animated films</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>preaching to presidents</t>
+  </si>
+  <si>
+    <t>analyzing the sub-conscious</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Hulce</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>dripping paint onto canvas</t>
+  </si>
+  <si>
+    <t>writing beat fiction</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
+    <t>Boyle</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>climbing down chimneys</t>
+  </si>
+  <si>
+    <t>guarding the galaxy</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>running a school for gifted teens</t>
+  </si>
+  <si>
+    <t>planting daffodils</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>seducing young women</t>
+  </si>
+  <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Forsythe</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>fighting the resistance</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>flaunting foppish fashions</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Maltin</t>
+  </si>
+  <si>
+    <t>spying for the enemy</t>
+  </si>
+  <si>
+    <t>collecting rock samples</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Tilly</t>
+  </si>
+  <si>
+    <t>Research Activity</t>
+  </si>
+  <si>
+    <t>telling dry jokes</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Garcia</t>
+  </si>
+  <si>
+    <t>pursuing criminals</t>
+  </si>
+  <si>
+    <t>gossiping with galpals</t>
+  </si>
+  <si>
+    <t>exorcising demons</t>
+  </si>
+  <si>
+    <t>cleaning floors</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>manipulating political pawns</t>
+  </si>
+  <si>
+    <t>cheating at poker</t>
+  </si>
+  <si>
+    <t>Ken</t>
+  </si>
+  <si>
+    <t>Kesey</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>starring in TV shows</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>throwing fund-raisers for Parkinson's disease</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>fighting with the mob</t>
+  </si>
+  <si>
+    <t>selling perfumes</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>promoting racial harmony</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>creating monsters</t>
+  </si>
+  <si>
+    <t>grabbing power</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Douglas</t>
+  </si>
+  <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>fussing about cleanliness</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>writing experimental songs</t>
+  </si>
+  <si>
+    <t>playing James Bond</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>starring in madcap comedies</t>
+  </si>
+  <si>
+    <t>Gilbert</t>
+  </si>
+  <si>
+    <t>Gottfried</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>warning about totalitarianism</t>
+  </si>
+  <si>
+    <t>winning battles</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>Phelps</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>writing in ledgers</t>
+    <t>Fox</t>
+  </si>
+  <si>
+    <t>searching for the messiah</t>
+  </si>
+  <si>
+    <t>turning it up to 11</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>writing TV comedies</t>
+  </si>
+  <si>
+    <t>falling in love</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>making billions</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Zappa</t>
+  </si>
+  <si>
+    <t>losing court cases</t>
+  </si>
+  <si>
+    <t>manipulating ingenues</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Eddy</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>suppressing violent urges</t>
+  </si>
+  <si>
+    <t>making strategic decisions</t>
+  </si>
+  <si>
+    <t>Stu</t>
+  </si>
+  <si>
+    <t>Unger</t>
+  </si>
+  <si>
+    <t>issuing fatwas</t>
+  </si>
+  <si>
+    <t>inventing electrical marvels</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Conrad</t>
+  </si>
+  <si>
+    <t>looking after children</t>
+  </si>
+  <si>
+    <t>avenging loved ones</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>Patti</t>
+  </si>
+  <si>
+    <t>LaBelle</t>
+  </si>
+  <si>
+    <t>running a tech giant</t>
+  </si>
+  <si>
+    <t>abusing power</t>
+  </si>
+  <si>
+    <t>directing the business of state</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>Lyle</t>
+  </si>
+  <si>
+    <t>Talbot</t>
+  </si>
+  <si>
+    <t>preaching tolerance</t>
+  </si>
+  <si>
+    <t>assassinating presidents</t>
+  </si>
+  <si>
+    <t>Landon</t>
+  </si>
+  <si>
+    <t>suing large corporations</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>ONeill</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>duelling acrobatically</t>
+  </si>
+  <si>
+    <t>Lorne</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Earp</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>Menachem</t>
+  </si>
+  <si>
+    <t>Begin</t>
+  </si>
+  <si>
+    <t>writing erotic fiction</t>
+  </si>
+  <si>
+    <t>singing parody songs</t>
+  </si>
+  <si>
+    <t>selling airline seats</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Ramsey</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Gorshin</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>making dunk shots</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>Gerry</t>
+  </si>
+  <si>
+    <t>Beckley</t>
+  </si>
+  <si>
+    <t>forging art</t>
+  </si>
+  <si>
+    <t>Fairbanks</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>Rupert</t>
+  </si>
+  <si>
+    <t>Grint</t>
+  </si>
+  <si>
+    <t>defending plaintiffs</t>
+  </si>
+  <si>
+    <t>Sherlock</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>campaigning for democracy</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>Bert</t>
+  </si>
+  <si>
+    <t>Lahr</t>
+  </si>
+  <si>
+    <t>competing in the Olympics</t>
+  </si>
+  <si>
+    <t>Timbaland</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>singing melancholy songs</t>
+  </si>
+  <si>
+    <t>Eugene</t>
+  </si>
+  <si>
+    <t>McCarthy</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Lanza</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Leno</t>
+  </si>
+  <si>
+    <t>walking like a man</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Benson</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Rita</t>
+  </si>
+  <si>
+    <t>Moreno</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t>seducing women</t>
   </si>
   <si>
     <t>studying science</t>
   </si>
   <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>writing about sex</t>
-  </si>
-  <si>
-    <t>preparing for war</t>
-  </si>
-  <si>
-    <t>Chuck</t>
-  </si>
-  <si>
-    <t>Mangione</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Picasso</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>killing murderers</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
+    <t>Hayley</t>
+  </si>
+  <si>
+    <t>Mills</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Potter</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Penney</t>
+  </si>
+  <si>
+    <t>promoting pop music</t>
+  </si>
+  <si>
+    <t>Sinise</t>
+  </si>
+  <si>
+    <t>plotting strategies</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Lerner</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Sharapova</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Linkletter</t>
+  </si>
+  <si>
+    <t>running film festivals</t>
+  </si>
+  <si>
+    <t>writing funny movies</t>
+  </si>
+  <si>
+    <t>Estelle</t>
+  </si>
+  <si>
+    <t>Parsons</t>
+  </si>
+  <si>
+    <t>enriching uranium</t>
+  </si>
+  <si>
+    <t>Federico</t>
+  </si>
+  <si>
+    <t>Fellini</t>
+  </si>
+  <si>
+    <t>battling the forces of darkness</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Swit</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>Natalie</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Hirschfeld</t>
+  </si>
+  <si>
+    <t>setting mousetraps</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Patchen</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Mancini</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Galileo</t>
+  </si>
+  <si>
+    <t>Galilei</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>brokering peace deals</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>arresting bootleggers</t>
+  </si>
+  <si>
+    <t>D.H.</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Waits</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Armstrong</t>
+  </si>
+  <si>
+    <t>Turturro</t>
+  </si>
+  <si>
+    <t>Odetta</t>
+  </si>
+  <si>
+    <t>Miriam</t>
+  </si>
+  <si>
+    <t>Makeba</t>
+  </si>
+  <si>
+    <t>telling tall tales</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Greer</t>
+  </si>
+  <si>
+    <t>Garson</t>
+  </si>
+  <si>
+    <t>running theme parks</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Dole</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Ringo</t>
+  </si>
+  <si>
+    <t>Starr</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Copperfield</t>
+  </si>
+  <si>
+    <t>Lucky</t>
+  </si>
+  <si>
+    <t>Luciano</t>
+  </si>
+  <si>
+    <t>Chester</t>
+  </si>
+  <si>
+    <t>Nimitz</t>
+  </si>
+  <si>
+    <t>Willard</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Yehudi</t>
+  </si>
+  <si>
+    <t>Menuhin</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Robinson</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Daws</t>
+  </si>
+  <si>
+    <t>Butler</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Frawley</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Seymore</t>
+  </si>
+  <si>
+    <t>Cokie</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Pryor</t>
+  </si>
+  <si>
+    <t>Galway</t>
+  </si>
+  <si>
+    <t>Liza</t>
+  </si>
+  <si>
+    <t>Minnelli</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Ferraro</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Carroll</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Kala</t>
+  </si>
+  <si>
+    <t>Kauvaka</t>
+  </si>
+  <si>
+    <t>Plimpton</t>
+  </si>
+  <si>
+    <t>Talia</t>
+  </si>
+  <si>
+    <t>Shire</t>
+  </si>
+  <si>
+    <t>Moe</t>
+  </si>
+  <si>
+    <t>Howard</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>Hamill</t>
+  </si>
+  <si>
+    <t>Buren</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Diller</t>
+  </si>
+  <si>
+    <t>Puzo</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Piscopo</t>
+  </si>
+  <si>
+    <t>McDowell</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Wells</t>
+  </si>
+  <si>
+    <t>Regis</t>
+  </si>
+  <si>
+    <t>Philbin</t>
+  </si>
+  <si>
+    <t>Sonia</t>
+  </si>
+  <si>
+    <t>Sotomayor</t>
+  </si>
+  <si>
+    <t>Auguste</t>
+  </si>
+  <si>
+    <t>Rodin</t>
+  </si>
+  <si>
+    <t>Aretha</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Stewart</t>
   </si>
   <si>
     <t>Bob</t>
   </si>
   <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>frying crabby patties</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>Bon-Jovi</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>preaching to presidents</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>commenting on social issues</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>building a search engine</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>building houses for poor people</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>Carroll</t>
-  </si>
-  <si>
-    <t>OConnor</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Torme</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>flying into a rage</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>Wernher</t>
-  </si>
-  <si>
-    <t>Von-Braun</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Horne</t>
-  </si>
-  <si>
-    <t>podcasting about movies</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Culp</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>Shirley</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>painting realistic pictures</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Shaffer</t>
-  </si>
-  <si>
-    <t>chasing starlets</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Randy</t>
-  </si>
-  <si>
-    <t>Orton</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>OKeeffe</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Mahalia</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>seducing emperors</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Lenny</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Kravitz</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Calderón</t>
-  </si>
-  <si>
-    <t>Saget</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>Auguste</t>
-  </si>
-  <si>
-    <t>Rodin</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Bernie</t>
-  </si>
-  <si>
-    <t>Mac</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Edwards</t>
-  </si>
-  <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Dourif</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Buckley</t>
-  </si>
-  <si>
-    <t>teaching philosophy</t>
-  </si>
-  <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Bix</t>
-  </si>
-  <si>
-    <t>Beiderbecke</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Kardashian</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>painting dark pictures</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Hopper</t>
-  </si>
-  <si>
-    <t>representing criminals</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Dianna</t>
-  </si>
-  <si>
-    <t>Agron</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Sinatra</t>
-  </si>
-  <si>
-    <t>performing physical therapy</t>
-  </si>
-  <si>
-    <t>Lovesmith</t>
-  </si>
-  <si>
-    <t>Ripley</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Jimi</t>
-  </si>
-  <si>
-    <t>Hendrix</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Fairbanks</t>
-  </si>
-  <si>
-    <t>Herbert</t>
-  </si>
-  <si>
-    <t>Hoover</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Tiny</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Freeman</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Cliburn</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
-  </si>
-  <si>
-    <t>Knowles</t>
-  </si>
-  <si>
-    <t>carrying secret plans</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Stapleton</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Ito</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>Morris</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Bendell</t>
   </si>
   <si>
     <t>Jimmy</t>
@@ -698,454 +1121,28 @@
     <t>Hoffa</t>
   </si>
   <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Grisham</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Gable</t>
-  </si>
-  <si>
-    <t>Abigail</t>
-  </si>
-  <si>
-    <t>Buren</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>Ike</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>Pratt</t>
-  </si>
-  <si>
-    <t>Gabe</t>
-  </si>
-  <si>
-    <t>Kaplan</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>X.J.</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Ellen</t>
-  </si>
-  <si>
-    <t>Degenerous</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Nolte</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Coogan</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>Keira</t>
-  </si>
-  <si>
-    <t>Knightley</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Audie</t>
-  </si>
-  <si>
-    <t>Murphy</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Seton</t>
-  </si>
-  <si>
-    <t>bodybuilding</t>
-  </si>
-  <si>
-    <t>Forrest</t>
-  </si>
-  <si>
-    <t>Gump</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Hagman</t>
-  </si>
-  <si>
-    <t>Jawaharlal</t>
-  </si>
-  <si>
-    <t>Nehru</t>
-  </si>
-  <si>
-    <t>Gandhi</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Barton</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Mugabe</t>
-  </si>
-  <si>
-    <t>Xuxa</t>
-  </si>
-  <si>
-    <t>Duff</t>
-  </si>
-  <si>
-    <t>Goldman</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Durante</t>
-  </si>
-  <si>
-    <t>Micky</t>
-  </si>
-  <si>
-    <t>Dolenz</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Couples</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>OToole</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>Nik</t>
-  </si>
-  <si>
-    <t>Kershaw</t>
-  </si>
-  <si>
-    <t>making escape plans</t>
-  </si>
-  <si>
-    <t>Bishop</t>
-  </si>
-  <si>
-    <t>Tutu</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Holly</t>
-  </si>
-  <si>
-    <t>Combs</t>
-  </si>
-  <si>
-    <t>Candice</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>Naseem</t>
-  </si>
-  <si>
-    <t>Hamed</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Priestley</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>Chopra</t>
-  </si>
-  <si>
-    <t>Foxy</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Rosemary</t>
-  </si>
-  <si>
-    <t>Clooney</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Osgood</t>
-  </si>
-  <si>
-    <t>Jeannie</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Balsam</t>
-  </si>
-  <si>
-    <t>Z.Z.</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Webb</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
-    <t>Bledsoe</t>
-  </si>
-  <si>
-    <t>Tibbets</t>
-  </si>
-  <si>
-    <t>Turturro</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Nichols</t>
-  </si>
-  <si>
-    <t>Lebron</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Walton</t>
-  </si>
-  <si>
-    <t>Coburn</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>Elliot</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Lennox</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Buttons</t>
-  </si>
-  <si>
-    <t>Burt</t>
-  </si>
-  <si>
-    <t>Bacharach</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Woods</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Isaak</t>
-  </si>
-  <si>
-    <t>Vince</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Louisa</t>
-  </si>
-  <si>
-    <t>Alcott</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Fonda</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Glenn</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Lyle</t>
-  </si>
-  <si>
-    <t>Talbot</t>
-  </si>
-  <si>
-    <t>Osama</t>
-  </si>
-  <si>
-    <t>bin-Laden</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Flynt</t>
-  </si>
-  <si>
-    <t>Alistair</t>
-  </si>
-  <si>
-    <t>Cooke</t>
-  </si>
-  <si>
-    <t>Cyril</t>
-  </si>
-  <si>
-    <t>Ritchard</t>
+    <t>Redi</t>
+  </si>
+  <si>
+    <t>Tlhabi</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Calder</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>Dimebag</t>
+  </si>
+  <si>
+    <t>Abbott</t>
   </si>
 </sst>
 </file>
@@ -1203,20 +1200,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.9453125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.00390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.1015625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="9.11328125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="27.03515625" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="37.46875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1271,7 +1268,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>3.374029E7</v>
+        <v>8.8098114E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1304,33 +1301,33 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="n">
+        <v>9.3867164E7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
-        <v>9.1291761E7</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>32</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -1339,89 +1336,89 @@
         <v>33</v>
       </c>
       <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>35</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="n">
+        <v>9.9573481E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>8.0896466E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
         <v>45</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.4640003E7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" t="s">
+      <c r="H5" t="s">
         <v>51</v>
       </c>
-      <c r="C5" t="n">
-        <v>5.4095161E7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>52</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>53</v>
@@ -1430,1817 +1427,1817 @@
         <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="N5" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C6" t="n">
-        <v>1.480471E7</v>
+        <v>3.9533137E7</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n">
-        <v>1.9113003E7</v>
+        <v>3.6334887E7</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6.2611627E7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.79382E7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
         <v>75</v>
       </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.9097409E7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>64</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.7963849E7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L9" t="s">
-        <v>90</v>
-      </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7.7311875E7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>91</v>
+      </c>
+      <c r="N10" t="s">
         <v>92</v>
-      </c>
-      <c r="B10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.9436106E7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" t="s">
-        <v>95</v>
-      </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>96</v>
-      </c>
-      <c r="N10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9.6307108E7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" t="s">
+        <v>43</v>
+      </c>
+      <c r="M11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.621747E7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>100</v>
-      </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
-      </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C12" t="n">
-        <v>5.3856569E7</v>
+        <v>6.4260302E7</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="H12" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="I12" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="J12" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C13" t="n">
-        <v>5.6181077E7</v>
+        <v>1.4992383E7</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C14" t="n">
-        <v>7.3121108E7</v>
+        <v>9.010413E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n">
-        <v>2.6309761E7</v>
+        <v>6.9721657E7</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C16" t="n">
-        <v>5.3116219E7</v>
+        <v>6.6672615E7</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>123</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C17" t="n">
-        <v>8.7281703E7</v>
+        <v>8.5316151E7</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="M17" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C18" t="n">
-        <v>3.348989E7</v>
+        <v>9.4248891E7</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="C19" t="n">
-        <v>1.4185724E7</v>
+        <v>7.013556E7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="H19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I19" t="s">
+        <v>101</v>
+      </c>
+      <c r="J19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" t="s">
         <v>78</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" t="s">
-        <v>122</v>
-      </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
-        <v>2.4009546E7</v>
+        <v>6.3233763E7</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>115</v>
+        <v>25</v>
       </c>
       <c r="F20" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="L20" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="n">
+        <v>8.6867484E7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>146</v>
+      </c>
+      <c r="G21" t="s">
         <v>147</v>
       </c>
-      <c r="B21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.7312558E7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="K21" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="M21" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.2327398E7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
         <v>153</v>
-      </c>
-      <c r="B22" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" t="n">
-        <v>9.6395928E7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
       </c>
       <c r="J22" t="s">
         <v>31</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C23" t="n">
-        <v>3.4577448E7</v>
+        <v>5.5490938E7</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>157</v>
       </c>
       <c r="H23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" t="s">
+        <v>75</v>
+      </c>
+      <c r="J23" t="s">
+        <v>40</v>
+      </c>
+      <c r="K23" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" t="s">
         <v>158</v>
       </c>
-      <c r="I23" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" t="s">
-        <v>124</v>
-      </c>
-      <c r="K23" t="s">
-        <v>107</v>
-      </c>
-      <c r="L23" t="s">
-        <v>77</v>
-      </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
         <v>159</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="n">
+        <v>9.8857177E7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" t="s">
         <v>160</v>
       </c>
-      <c r="C24" t="n">
-        <v>6.4530929E7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" t="s">
-        <v>52</v>
-      </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>161</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="M24" t="s">
-        <v>161</v>
+        <v>40</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
         <v>163</v>
       </c>
       <c r="C25" t="n">
-        <v>5.9648674E7</v>
+        <v>4.9788872E7</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
         <v>164</v>
       </c>
-      <c r="F25" t="s">
-        <v>25</v>
-      </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C26" t="n">
-        <v>6.360778E7</v>
+        <v>8.5218646E7</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>139</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="L26" t="s">
-        <v>164</v>
+        <v>53</v>
       </c>
       <c r="M26" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N26" t="s">
-        <v>86</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C27" t="n">
-        <v>7.6240548E7</v>
+        <v>8.311237E7</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>172</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="K27" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" t="s">
+        <v>172</v>
+      </c>
+      <c r="M27" t="s">
         <v>20</v>
       </c>
-      <c r="L27" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" t="s">
-        <v>134</v>
-      </c>
       <c r="N27" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C28" t="n">
-        <v>2.4479557E7</v>
+        <v>8.0700551E7</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="G28" t="s">
-        <v>115</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="M28" t="s">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6317386E7</v>
+        <v>9.4373609E7</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>164</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C30" t="n">
-        <v>1.6111808E7</v>
+        <v>6.730939E7</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>31</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="n">
+        <v>1.452686E7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" t="s">
         <v>188</v>
       </c>
-      <c r="C31" t="n">
-        <v>9.9620294E7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="M31" t="s">
+        <v>157</v>
+      </c>
+      <c r="N31" t="s">
         <v>189</v>
-      </c>
-      <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" t="s">
-        <v>91</v>
-      </c>
-      <c r="L31" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" t="s">
-        <v>190</v>
-      </c>
-      <c r="N31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>190</v>
+      </c>
+      <c r="B32" t="s">
         <v>191</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="n">
+        <v>2.673146E7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>133</v>
+      </c>
+      <c r="F32" t="s">
+        <v>168</v>
+      </c>
+      <c r="G32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" t="s">
         <v>192</v>
       </c>
-      <c r="C32" t="n">
-        <v>2.1662322E7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>193</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="J32" t="s">
         <v>101</v>
       </c>
-      <c r="G32" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J32" t="s">
-        <v>25</v>
-      </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>148</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="N32" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" t="n">
+        <v>6.1658619E7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" t="s">
         <v>194</v>
       </c>
-      <c r="B33" t="s">
-        <v>195</v>
-      </c>
-      <c r="C33" t="n">
-        <v>4.4321694E7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="G33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" t="s">
-        <v>100</v>
-      </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>153</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="B34" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" t="n">
+        <v>9.9972269E7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>24</v>
+      </c>
+      <c r="F34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G34" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" t="s">
         <v>197</v>
       </c>
-      <c r="C34" t="n">
-        <v>7.8588821E7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" t="s">
-        <v>101</v>
-      </c>
-      <c r="G34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" t="s">
-        <v>20</v>
-      </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N34" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C35" t="n">
-        <v>2.8958852E7</v>
+        <v>5.8727896E7</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C36" t="n">
-        <v>6.490307E7</v>
+        <v>5.5402516E7</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K36" t="s">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="N36" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C37" t="n">
-        <v>3.5478879E7</v>
+        <v>7.1124838E7</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="M37" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="N37" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>208</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C38" t="n">
-        <v>5.7860918E7</v>
+        <v>3.3281702E7</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s">
-        <v>171</v>
+        <v>105</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="K38" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="N38" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C39" t="n">
-        <v>2.9313528E7</v>
+        <v>6.4140684E7</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
         <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>35</v>
       </c>
       <c r="H39" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="I39" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="J39" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s">
-        <v>207</v>
+        <v>23</v>
       </c>
       <c r="M39" t="s">
-        <v>208</v>
+        <v>65</v>
       </c>
       <c r="N39" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C40" t="n">
-        <v>8.0064399E7</v>
+        <v>9.3212113E7</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="K40" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="M40" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="N40" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C41" t="n">
-        <v>6.458997E7</v>
+        <v>7.3274369E7</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>217</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="H41" t="s">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="M41" t="s">
-        <v>178</v>
+        <v>20</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C42" t="n">
-        <v>3.7880079E7</v>
+        <v>9.4032636E7</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E42" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
         <v>178</v>
       </c>
-      <c r="F42" t="s">
-        <v>32</v>
-      </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>217</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="L42" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C43" t="n">
-        <v>2.2459673E7</v>
+        <v>4.8571266E7</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="K43" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="L43" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>152</v>
       </c>
       <c r="N43" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C44" t="n">
-        <v>4.1319993E7</v>
+        <v>6.2128604E7</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>226</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>148</v>
       </c>
       <c r="L44" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="N44" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>144</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>145</v>
       </c>
       <c r="C45" t="n">
-        <v>2.2854157E7</v>
+        <v>4.7358651E7</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
-        <v>207</v>
+        <v>123</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>63</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K45" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="M45" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C46" t="n">
-        <v>7.1461395E7</v>
+        <v>1.5058313E7</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="H46" t="s">
         <v>61</v>
       </c>
       <c r="I46" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="M46" t="s">
-        <v>229</v>
+        <v>51</v>
       </c>
       <c r="N46" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -3251,40 +3248,40 @@
         <v>231</v>
       </c>
       <c r="C47" t="n">
-        <v>8.878543E7</v>
+        <v>1.9388489E7</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="K47" t="s">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48">
@@ -3295,84 +3292,84 @@
         <v>233</v>
       </c>
       <c r="C48" t="n">
-        <v>4.4405752E7</v>
+        <v>6.0027389E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="I48" t="s">
-        <v>190</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="M48" t="s">
-        <v>40</v>
+        <v>234</v>
       </c>
       <c r="N48" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B49" t="s">
         <v>235</v>
       </c>
       <c r="C49" t="n">
-        <v>9.9906218E7</v>
+        <v>3.6062295E7</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>201</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="N49" t="s">
-        <v>236</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -3383,40 +3380,40 @@
         <v>238</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4555071E7</v>
+        <v>4.9618052E7</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K50" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" t="s">
+        <v>201</v>
+      </c>
+      <c r="M50" t="s">
+        <v>22</v>
+      </c>
+      <c r="N50" t="s">
         <v>172</v>
-      </c>
-      <c r="L50" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" t="s">
-        <v>105</v>
-      </c>
-      <c r="N50" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="51">
@@ -3427,128 +3424,128 @@
         <v>240</v>
       </c>
       <c r="C51" t="n">
-        <v>7.9979943E7</v>
+        <v>9.5150813E7</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="H51" t="s">
+        <v>63</v>
+      </c>
+      <c r="I51" t="s">
+        <v>51</v>
+      </c>
+      <c r="J51" t="s">
+        <v>66</v>
+      </c>
+      <c r="K51" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" t="s">
         <v>81</v>
       </c>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" t="s">
-        <v>37</v>
-      </c>
-      <c r="K51" t="s">
-        <v>33</v>
-      </c>
-      <c r="L51" t="s">
-        <v>70</v>
-      </c>
       <c r="M51" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="N51" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
         <v>241</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="n">
+        <v>4.3973609E7</v>
+      </c>
+      <c r="D52" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+      <c r="F52" t="s">
         <v>242</v>
       </c>
-      <c r="C52" t="n">
-        <v>8.0710313E7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>29</v>
-      </c>
-      <c r="E52" t="s">
-        <v>208</v>
-      </c>
-      <c r="F52" t="s">
-        <v>145</v>
-      </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s">
-        <v>243</v>
+        <v>65</v>
       </c>
       <c r="J52" t="s">
+        <v>66</v>
+      </c>
+      <c r="K52" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" t="s">
+        <v>84</v>
+      </c>
+      <c r="M52" t="s">
+        <v>80</v>
+      </c>
+      <c r="N52" t="s">
         <v>123</v>
-      </c>
-      <c r="K52" t="s">
-        <v>156</v>
-      </c>
-      <c r="L52" t="s">
-        <v>105</v>
-      </c>
-      <c r="M52" t="s">
-        <v>156</v>
-      </c>
-      <c r="N52" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" t="s">
         <v>244</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="n">
+        <v>1.8720103E7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53" t="s">
         <v>245</v>
       </c>
-      <c r="C53" t="n">
-        <v>5.4299482E7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E53" t="s">
-        <v>82</v>
-      </c>
-      <c r="F53" t="s">
-        <v>111</v>
-      </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K53" t="s">
-        <v>105</v>
+        <v>171</v>
       </c>
       <c r="L53" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M53" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="N53" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
     </row>
     <row r="54">
@@ -3559,40 +3556,40 @@
         <v>248</v>
       </c>
       <c r="C54" t="n">
-        <v>5.5647288E7</v>
+        <v>7.5046147E7</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s">
+        <v>185</v>
+      </c>
+      <c r="K54" t="s">
+        <v>116</v>
+      </c>
+      <c r="L54" t="s">
+        <v>236</v>
+      </c>
+      <c r="M54" t="s">
+        <v>44</v>
+      </c>
+      <c r="N54" t="s">
         <v>249</v>
-      </c>
-      <c r="I54" t="s">
-        <v>125</v>
-      </c>
-      <c r="J54" t="s">
-        <v>115</v>
-      </c>
-      <c r="K54" t="s">
-        <v>173</v>
-      </c>
-      <c r="L54" t="s">
-        <v>67</v>
-      </c>
-      <c r="M54" t="s">
-        <v>123</v>
-      </c>
-      <c r="N54" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="55">
@@ -3603,2592 +3600,2592 @@
         <v>251</v>
       </c>
       <c r="C55" t="n">
-        <v>2.1260591E7</v>
+        <v>1.366673E7</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" t="s">
         <v>53</v>
       </c>
-      <c r="F55" t="s">
-        <v>60</v>
-      </c>
-      <c r="G55" t="s">
-        <v>133</v>
-      </c>
       <c r="H55" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="I55" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="J55" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="L55" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="M55" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="N55" t="s">
-        <v>219</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C56" t="n">
-        <v>5.8660627E7</v>
+        <v>9.1150867E7</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="I56" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="J56" t="s">
+        <v>255</v>
+      </c>
+      <c r="K56" t="s">
+        <v>92</v>
+      </c>
+      <c r="L56" t="s">
+        <v>128</v>
+      </c>
+      <c r="M56" t="s">
         <v>43</v>
       </c>
-      <c r="K56" t="s">
-        <v>62</v>
-      </c>
-      <c r="L56" t="s">
-        <v>254</v>
-      </c>
-      <c r="M56" t="s">
-        <v>91</v>
-      </c>
       <c r="N56" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C57" t="n">
-        <v>2.9606574E7</v>
+        <v>6.0374759E7</v>
       </c>
       <c r="D57" t="s">
         <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="M57" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="N57" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>258</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C58" t="n">
-        <v>9.3225184E7</v>
+        <v>4.5986498E7</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>260</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="L58" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="N58" t="s">
-        <v>193</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C59" t="n">
-        <v>4.680106E7</v>
+        <v>4.3506664E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>249</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="L59" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M59" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C60" t="n">
-        <v>2.9565868E7</v>
+        <v>7.3375199E7</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I60" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="L60" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="M60" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="N60" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5933515E7</v>
+        <v>9.3973272E7</v>
       </c>
       <c r="D61" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E61" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
+        <v>57</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="I61" t="s">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="J61" t="s">
-        <v>262</v>
+        <v>61</v>
       </c>
       <c r="K61" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="N61" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C62" t="n">
-        <v>8.3658636E7</v>
+        <v>9.2541703E7</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>184</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="L62" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="M62" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="N62" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C63" t="n">
-        <v>4.0174613E7</v>
+        <v>3.09085E7</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>271</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="J63" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="K63" t="s">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="L63" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M63" t="s">
-        <v>53</v>
+        <v>272</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="C64" t="n">
-        <v>6.8818539E7</v>
+        <v>1.9235489E7</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>234</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="M64" t="s">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N64" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="C65" t="n">
-        <v>9.1422214E7</v>
+        <v>6.8612752E7</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>226</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="H65" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="L65" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="M65" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="N65" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="C66" t="n">
-        <v>2.3872788E7</v>
+        <v>9.2491268E7</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>121</v>
       </c>
       <c r="H66" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="I66" t="s">
-        <v>173</v>
+        <v>214</v>
       </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="K66" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M66" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="N66" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>37</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C67" t="n">
-        <v>4.6388409E7</v>
+        <v>8.9469906E7</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="J67" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="K67" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L67" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M67" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N67" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C68" t="n">
-        <v>3.413874E7</v>
+        <v>5.6332508E7</v>
       </c>
       <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>20</v>
+      </c>
+      <c r="F68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G68" t="s">
+        <v>109</v>
+      </c>
+      <c r="H68" t="s">
+        <v>117</v>
+      </c>
+      <c r="I68" t="s">
+        <v>43</v>
+      </c>
+      <c r="J68" t="s">
         <v>29</v>
       </c>
-      <c r="E68" t="s">
-        <v>225</v>
-      </c>
-      <c r="F68" t="s">
-        <v>151</v>
-      </c>
-      <c r="G68" t="s">
-        <v>114</v>
-      </c>
-      <c r="H68" t="s">
-        <v>140</v>
-      </c>
-      <c r="I68" t="s">
-        <v>150</v>
-      </c>
-      <c r="J68" t="s">
-        <v>32</v>
-      </c>
       <c r="K68" t="s">
-        <v>110</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="M68" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="N68" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C69" t="n">
-        <v>7.8411728E7</v>
+        <v>1.5813494E7</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J69" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K69" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="L69" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M69" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="C70" t="n">
-        <v>7.7890265E7</v>
+        <v>6.1995318E7</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>178</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="I70" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="J70" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>255</v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M70" t="s">
-        <v>173</v>
+        <v>24</v>
       </c>
       <c r="N70" t="s">
-        <v>186</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="C71" t="n">
-        <v>7.3563361E7</v>
+        <v>7.7627944E7</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="G71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H71" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K71" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L71" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="N71" t="s">
-        <v>21</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>289</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="C72" t="n">
-        <v>2.7050265E7</v>
+        <v>7.2299204E7</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>176</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I72" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>275</v>
       </c>
       <c r="K72" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="L72" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="M72" t="s">
+        <v>291</v>
+      </c>
+      <c r="N72" t="s">
         <v>21</v>
-      </c>
-      <c r="N72" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C73" t="n">
-        <v>7.2985555E7</v>
+        <v>2.1434571E7</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I73" t="s">
-        <v>185</v>
+        <v>84</v>
       </c>
       <c r="J73" t="s">
-        <v>236</v>
+        <v>80</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M73" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="N73" t="s">
-        <v>173</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C74" t="n">
-        <v>9.944432E7</v>
+        <v>2.7595818E7</v>
       </c>
       <c r="D74" t="s">
+        <v>16</v>
+      </c>
+      <c r="E74" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" t="s">
         <v>29</v>
       </c>
-      <c r="E74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74" t="s">
-        <v>79</v>
-      </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>130</v>
+        <v>43</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="J74" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="K74" t="s">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="L74" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
       <c r="M74" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="N74" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C75" t="n">
-        <v>5.4668748E7</v>
+        <v>5.3817252E7</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="G75" t="s">
-        <v>287</v>
+        <v>69</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>161</v>
+        <v>36</v>
       </c>
       <c r="M75" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="N75" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="C76" t="n">
-        <v>2.7067914E7</v>
+        <v>9.1633636E7</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>290</v>
+        <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="J76" t="s">
-        <v>133</v>
+        <v>69</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>189</v>
+        <v>30</v>
       </c>
       <c r="M76" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="N76" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C77" t="n">
-        <v>6.9446836E7</v>
+        <v>5.5736774E7</v>
       </c>
       <c r="D77" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
+        <v>65</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>242</v>
       </c>
       <c r="G77" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="H77" t="s">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="I77" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="J77" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="K77" t="s">
-        <v>173</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M77" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="C78" t="n">
-        <v>1.7737878E7</v>
+        <v>1.332181E7</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="J78" t="s">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L78" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="M78" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="N78" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C79" t="n">
-        <v>2.0439723E7</v>
+        <v>6.672778E7</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>204</v>
+      </c>
+      <c r="H79" t="s">
+        <v>172</v>
+      </c>
+      <c r="I79" t="s">
+        <v>160</v>
+      </c>
+      <c r="J79" t="s">
+        <v>17</v>
+      </c>
+      <c r="K79" t="s">
+        <v>188</v>
+      </c>
+      <c r="L79" t="s">
+        <v>23</v>
+      </c>
+      <c r="M79" t="s">
         <v>21</v>
       </c>
-      <c r="F79" t="s">
-        <v>33</v>
-      </c>
-      <c r="G79" t="s">
-        <v>178</v>
-      </c>
-      <c r="H79" t="s">
-        <v>156</v>
-      </c>
-      <c r="I79" t="s">
-        <v>216</v>
-      </c>
-      <c r="J79" t="s">
-        <v>157</v>
-      </c>
-      <c r="K79" t="s">
+      <c r="N79" t="s">
         <v>207</v>
-      </c>
-      <c r="L79" t="s">
-        <v>77</v>
-      </c>
-      <c r="M79" t="s">
-        <v>32</v>
-      </c>
-      <c r="N79" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="C80" t="n">
-        <v>8.379709E7</v>
+        <v>2.6896133E7</v>
       </c>
       <c r="D80" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F80" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="G80" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="I80" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
       <c r="J80" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="K80" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L80" t="s">
-        <v>36</v>
+        <v>220</v>
       </c>
       <c r="M80" t="s">
-        <v>225</v>
+        <v>42</v>
       </c>
       <c r="N80" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C81" t="n">
-        <v>4.9892455E7</v>
+        <v>8.0064346E7</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="F81" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="G81" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="H81" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="K81" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="L81" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="M81" t="s">
-        <v>43</v>
+        <v>214</v>
       </c>
       <c r="N81" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="C82" t="n">
-        <v>5.5794124E7</v>
+        <v>8.4210597E7</v>
       </c>
       <c r="D82" t="s">
         <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>255</v>
       </c>
       <c r="H82" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I82" t="s">
+        <v>249</v>
+      </c>
+      <c r="J82" t="s">
+        <v>95</v>
+      </c>
+      <c r="K82" t="s">
+        <v>35</v>
+      </c>
+      <c r="L82" t="s">
+        <v>172</v>
+      </c>
+      <c r="M82" t="s">
+        <v>29</v>
+      </c>
+      <c r="N82" t="s">
         <v>91</v>
-      </c>
-      <c r="J82" t="s">
-        <v>133</v>
-      </c>
-      <c r="K82" t="s">
-        <v>62</v>
-      </c>
-      <c r="L82" t="s">
-        <v>20</v>
-      </c>
-      <c r="M82" t="s">
-        <v>193</v>
-      </c>
-      <c r="N82" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B83" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="C83" t="n">
-        <v>7.1071903E7</v>
+        <v>1.2930151E7</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>114</v>
       </c>
       <c r="F83" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="H83" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="J83" t="s">
-        <v>106</v>
+        <v>30</v>
       </c>
       <c r="K83" t="s">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="L83" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="M83" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="N83" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="C84" t="n">
-        <v>2.2394353E7</v>
+        <v>1.3694835E7</v>
       </c>
       <c r="D84" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="H84" t="s">
-        <v>138</v>
+        <v>23</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="J84" t="s">
-        <v>107</v>
+        <v>249</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>19</v>
       </c>
       <c r="L84" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="M84" t="s">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="N84" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="C85" t="n">
-        <v>3.162529E7</v>
+        <v>2.5506336E7</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H85" t="s">
-        <v>225</v>
+        <v>146</v>
       </c>
       <c r="I85" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="J85" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="K85" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="L85" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="M85" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="N85" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>213</v>
       </c>
       <c r="C86" t="n">
-        <v>3.6351107E7</v>
+        <v>4.5548048E7</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>74</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="I86" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="L86" t="s">
-        <v>196</v>
+        <v>43</v>
       </c>
       <c r="M86" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="N86" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C87" t="n">
-        <v>6.3597155E7</v>
+        <v>5.1329701E7</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c r="F87" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>18</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>171</v>
       </c>
       <c r="I87" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="J87" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="K87" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="L87" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M87" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="N87" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C88" t="n">
-        <v>2.0022171E7</v>
+        <v>2.6772531E7</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="H88" t="s">
-        <v>203</v>
+        <v>80</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
       <c r="J88" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="L88" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="M88" t="s">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c r="N88" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B89" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C89" t="n">
-        <v>8.4581284E7</v>
+        <v>9.5579929E7</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="H89" t="s">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="I89" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="L89" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M89" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="N89" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C90" t="n">
-        <v>6.7079504E7</v>
+        <v>2.5575213E7</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="G90" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="H90" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="I90" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="J90" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="K90" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L90" t="s">
+        <v>82</v>
+      </c>
+      <c r="M90" t="s">
         <v>105</v>
       </c>
-      <c r="M90" t="s">
-        <v>76</v>
-      </c>
       <c r="N90" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="C91" t="n">
-        <v>8.7431577E7</v>
+        <v>2.0833168E7</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>52</v>
       </c>
       <c r="F91" t="s">
+        <v>122</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+      <c r="H91" t="s">
+        <v>102</v>
+      </c>
+      <c r="I91" t="s">
+        <v>139</v>
+      </c>
+      <c r="J91" t="s">
+        <v>168</v>
+      </c>
+      <c r="K91" t="s">
+        <v>53</v>
+      </c>
+      <c r="L91" t="s">
+        <v>62</v>
+      </c>
+      <c r="M91" t="s">
         <v>79</v>
       </c>
-      <c r="G91" t="s">
-        <v>207</v>
-      </c>
-      <c r="H91" t="s">
-        <v>184</v>
-      </c>
-      <c r="I91" t="s">
-        <v>77</v>
-      </c>
-      <c r="J91" t="s">
-        <v>77</v>
-      </c>
-      <c r="K91" t="s">
-        <v>107</v>
-      </c>
-      <c r="L91" t="s">
-        <v>81</v>
-      </c>
-      <c r="M91" t="s">
-        <v>70</v>
-      </c>
       <c r="N91" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B92" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7209519E7</v>
+        <v>6.7033936E7</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="J92" t="s">
+        <v>84</v>
+      </c>
+      <c r="K92" t="s">
+        <v>123</v>
+      </c>
+      <c r="L92" t="s">
+        <v>146</v>
+      </c>
+      <c r="M92" t="s">
+        <v>168</v>
+      </c>
+      <c r="N92" t="s">
         <v>57</v>
-      </c>
-      <c r="K92" t="s">
-        <v>54</v>
-      </c>
-      <c r="L92" t="s">
-        <v>228</v>
-      </c>
-      <c r="M92" t="s">
-        <v>25</v>
-      </c>
-      <c r="N92" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>325</v>
+        <v>218</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C93" t="n">
-        <v>2.8737029E7</v>
+        <v>3.7826033E7</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="F93" t="s">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="G93" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="I93" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="J93" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K93" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="L93" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="M93" t="s">
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="N93" t="s">
-        <v>156</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B94" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C94" t="n">
-        <v>1.2535051E7</v>
+        <v>1.3257342E7</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="H94" t="s">
-        <v>306</v>
+        <v>94</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="J94" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="K94" t="s">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="L94" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="M94" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="N94" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>218</v>
       </c>
       <c r="B95" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C95" t="n">
-        <v>8.7933577E7</v>
+        <v>1.2724091E7</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="F95" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="G95" t="s">
-        <v>102</v>
+        <v>201</v>
       </c>
       <c r="H95" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="J95" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K95" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="L95" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="M95" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="N95" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C96" t="n">
-        <v>8.4375218E7</v>
+        <v>2.4899265E7</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G96" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H96" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="I96" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="J96" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M96" t="s">
-        <v>134</v>
+        <v>29</v>
       </c>
       <c r="N96" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C97" t="n">
-        <v>5.7660114E7</v>
+        <v>3.8958057E7</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="I97" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J97" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K97" t="s">
+        <v>23</v>
+      </c>
+      <c r="L97" t="s">
+        <v>118</v>
+      </c>
+      <c r="M97" t="s">
+        <v>40</v>
+      </c>
+      <c r="N97" t="s">
         <v>158</v>
-      </c>
-      <c r="L97" t="s">
-        <v>151</v>
-      </c>
-      <c r="M97" t="s">
-        <v>333</v>
-      </c>
-      <c r="N97" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C98" t="n">
-        <v>3.6143258E7</v>
+        <v>5.9254071E7</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="H98" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="J98" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="L98" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="M98" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="N98" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C99" t="n">
-        <v>7.4160085E7</v>
+        <v>2.6241327E7</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>164</v>
       </c>
       <c r="G99" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H99" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="J99" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="K99" t="s">
-        <v>190</v>
+        <v>51</v>
       </c>
       <c r="L99" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="M99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N99" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>149</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C100" t="n">
-        <v>5.0417091E7</v>
+        <v>5.8454468E7</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
+        <v>165</v>
       </c>
       <c r="H100" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="I100" t="s">
-        <v>193</v>
+        <v>62</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="K100" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="L100" t="s">
-        <v>196</v>
+        <v>61</v>
       </c>
       <c r="M100" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="N100" t="s">
-        <v>94</v>
+        <v>260</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C101" t="n">
-        <v>7.0087915E7</v>
+        <v>5.5612399E7</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E101" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="F101" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>242</v>
       </c>
       <c r="H101" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="J101" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="K101" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="L101" t="s">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="M101" t="s">
-        <v>279</v>
+        <v>121</v>
       </c>
       <c r="N101" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2444283E7</v>
+        <v>1.8192852E7</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="G102" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="H102" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="I102" t="s">
         <v>105</v>
       </c>
       <c r="J102" t="s">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="K102" t="s">
-        <v>171</v>
+        <v>49</v>
       </c>
       <c r="L102" t="s">
-        <v>157</v>
+        <v>252</v>
       </c>
       <c r="M102" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N102" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C103" t="n">
-        <v>2.0803831E7</v>
+        <v>7.159872E7</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="H103" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>132</v>
       </c>
       <c r="J103" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="K103" t="s">
-        <v>287</v>
+        <v>84</v>
       </c>
       <c r="L103" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="M103" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="N103" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>273</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C104" t="n">
-        <v>3.7197286E7</v>
+        <v>8.3257662E7</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="F104" t="s">
-        <v>305</v>
+        <v>143</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="I104" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="K104" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="L104" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="M104" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="N104" t="s">
-        <v>225</v>
+        <v>54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C105" t="n">
-        <v>3.8548127E7</v>
+        <v>9.2523347E7</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="F105" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H105" t="s">
-        <v>89</v>
+        <v>181</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="J105" t="s">
-        <v>23</v>
+        <v>260</v>
       </c>
       <c r="K105" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L105" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="M105" t="s">
-        <v>95</v>
+        <v>226</v>
       </c>
       <c r="N105" t="s">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B106" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C106" t="n">
-        <v>5.8925911E7</v>
+        <v>6.0467014E7</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G106" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="H106" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="I106" t="s">
-        <v>69</v>
+        <v>168</v>
       </c>
       <c r="J106" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="K106" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="L106" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="M106" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N106" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B107" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C107" t="n">
-        <v>5.5775367E7</v>
+        <v>9.2558426E7</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E107" t="s">
+        <v>204</v>
+      </c>
+      <c r="F107" t="s">
+        <v>21</v>
+      </c>
+      <c r="G107" t="s">
+        <v>220</v>
+      </c>
+      <c r="H107" t="s">
         <v>108</v>
       </c>
-      <c r="F107" t="s">
-        <v>145</v>
-      </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107" t="s">
-        <v>158</v>
-      </c>
       <c r="I107" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J107" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="K107" t="s">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="L107" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="M107" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="N107" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>355</v>
       </c>
       <c r="C108" t="n">
-        <v>5.1670211E7</v>
+        <v>3.5313605E7</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="G108" t="s">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="I108" t="s">
-        <v>100</v>
+        <v>288</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="K108" t="s">
-        <v>88</v>
+        <v>242</v>
       </c>
       <c r="L108" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="M108" t="s">
-        <v>17</v>
+        <v>226</v>
       </c>
       <c r="N108" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C109" t="n">
-        <v>9.7901837E7</v>
+        <v>4.6147618E7</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
+        <v>153</v>
+      </c>
+      <c r="H109" t="s">
+        <v>88</v>
+      </c>
+      <c r="I109" t="s">
+        <v>22</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+      <c r="K109" t="s">
+        <v>185</v>
+      </c>
+      <c r="L109" t="s">
         <v>89</v>
       </c>
-      <c r="H109" t="s">
-        <v>54</v>
-      </c>
-      <c r="I109" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" t="s">
-        <v>133</v>
-      </c>
-      <c r="K109" t="s">
-        <v>61</v>
-      </c>
-      <c r="L109" t="s">
-        <v>43</v>
-      </c>
       <c r="M109" t="s">
-        <v>134</v>
+        <v>40</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B110" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C110" t="n">
-        <v>1.6511521E7</v>
+        <v>6.8326391E7</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E110" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F110" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="G110" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>22</v>
       </c>
       <c r="I110" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
       <c r="J110" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="K110" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="L110" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M110" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="N110" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>357</v>
+        <v>179</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0556794E7</v>
+        <v>8.5166326E7</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E111" t="s">
-        <v>190</v>
+        <v>82</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>121</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="H111" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="J111" t="s">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="K111" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="L111" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="M111" t="s">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="N111" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>167</v>
       </c>
       <c r="C112" t="n">
-        <v>4.5269614E7</v>
+        <v>6.2793563E7</v>
       </c>
       <c r="D112" t="s">
         <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>114</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="H112" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>188</v>
       </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L112" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="M112" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
       <c r="N112" t="s">
-        <v>25</v>
+        <v>95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B113" t="s">
-        <v>362</v>
+        <v>135</v>
       </c>
       <c r="C113" t="n">
-        <v>5.1972549E7</v>
+        <v>4.6114137E7</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>22</v>
       </c>
       <c r="G113" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H113" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="I113" t="s">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K113" t="s">
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="L113" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="M113" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="N113" t="s">
-        <v>150</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
@@ -6199,40 +6196,40 @@
         <v>364</v>
       </c>
       <c r="C114" t="n">
-        <v>6.3162142E7</v>
+        <v>3.4127343E7</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E114" t="s">
+        <v>79</v>
+      </c>
+      <c r="F114" t="s">
+        <v>81</v>
+      </c>
+      <c r="G114" t="s">
+        <v>50</v>
+      </c>
+      <c r="H114" t="s">
+        <v>139</v>
+      </c>
+      <c r="I114" t="s">
+        <v>146</v>
+      </c>
+      <c r="J114" t="s">
+        <v>125</v>
+      </c>
+      <c r="K114" t="s">
+        <v>65</v>
+      </c>
+      <c r="L114" t="s">
         <v>62</v>
       </c>
-      <c r="F114" t="s">
-        <v>59</v>
-      </c>
-      <c r="G114" t="s">
-        <v>58</v>
-      </c>
-      <c r="H114" t="s">
-        <v>19</v>
-      </c>
-      <c r="I114" t="s">
-        <v>94</v>
-      </c>
-      <c r="J114" t="s">
-        <v>102</v>
-      </c>
-      <c r="K114" t="s">
-        <v>17</v>
-      </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
+        <v>49</v>
+      </c>
+      <c r="N114" t="s">
         <v>133</v>
-      </c>
-      <c r="M114" t="s">
-        <v>91</v>
-      </c>
-      <c r="N114" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="115">
@@ -6243,304 +6240,304 @@
         <v>366</v>
       </c>
       <c r="C115" t="n">
-        <v>5.6132998E7</v>
+        <v>9.5327302E7</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="G115" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="H115" t="s">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="K115" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="L115" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M115" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="N115" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="B116" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="C116" t="n">
-        <v>4.289521E7</v>
+        <v>4.6978086E7</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>288</v>
       </c>
       <c r="F116" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="G116" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="H116" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="I116" t="s">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="J116" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="K116" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L116" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M116" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
       <c r="N116" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C117" t="n">
-        <v>6.3166505E7</v>
+        <v>1.8511605E7</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E117" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="G117" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="I117" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="J117" t="s">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="K117" t="s">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="L117" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="M117" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="N117" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B118" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C118" t="n">
-        <v>8.1239329E7</v>
+        <v>9.1461767E7</v>
       </c>
       <c r="D118" t="s">
         <v>16</v>
       </c>
       <c r="E118" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>255</v>
       </c>
       <c r="H118" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="J118" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="K118" t="s">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="L118" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="M118" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="N118" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>371</v>
       </c>
       <c r="B119" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C119" t="n">
-        <v>2.535846E7</v>
+        <v>3.8455485E7</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="G119" t="s">
+        <v>19</v>
+      </c>
+      <c r="H119" t="s">
+        <v>88</v>
+      </c>
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>204</v>
+      </c>
+      <c r="K119" t="s">
         <v>109</v>
       </c>
-      <c r="H119" t="s">
-        <v>225</v>
-      </c>
-      <c r="I119" t="s">
-        <v>149</v>
-      </c>
-      <c r="J119" t="s">
-        <v>176</v>
-      </c>
-      <c r="K119" t="s">
-        <v>246</v>
-      </c>
       <c r="L119" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
       <c r="M119" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="N119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" t="s">
         <v>374</v>
       </c>
-      <c r="B120" t="s">
-        <v>375</v>
-      </c>
       <c r="C120" t="n">
-        <v>1.8165738E7</v>
+        <v>8.0457523E7</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F120" t="s">
-        <v>225</v>
+        <v>291</v>
       </c>
       <c r="G120" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="I120" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="J120" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K120" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="L120" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="M120" t="s">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="N120" t="s">
-        <v>214</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
+        <v>375</v>
+      </c>
+      <c r="B121" t="s">
         <v>376</v>
       </c>
-      <c r="B121" t="s">
-        <v>377</v>
-      </c>
       <c r="C121" t="n">
-        <v>2.8025684E7</v>
+        <v>8.5657058E7</v>
       </c>
       <c r="D121" t="s">
         <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>185</v>
       </c>
       <c r="F121" t="s">
-        <v>190</v>
+        <v>94</v>
       </c>
       <c r="G121" t="s">
-        <v>161</v>
+        <v>30</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="I121" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>194</v>
       </c>
       <c r="K121" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="L121" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M121" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="N121" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="375">
   <si>
     <t>First Name</t>
   </si>
@@ -56,256 +56,994 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Rob</t>
-  </si>
-  <si>
-    <t>Lowe</t>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>Davis</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>running a multinational corporation</t>
+  </si>
+  <si>
+    <t>starring in comedies</t>
+  </si>
+  <si>
+    <t>avoiding paparazzi</t>
+  </si>
+  <si>
+    <t>building giant walls</t>
+  </si>
+  <si>
+    <t>promoting hair products</t>
+  </si>
+  <si>
+    <t>posing for photographs</t>
+  </si>
+  <si>
+    <t>racing fast cars</t>
+  </si>
+  <si>
+    <t>getting plastic surgery</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
+    <t>MacRae</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>playing aggressive chess</t>
+  </si>
+  <si>
+    <t>knocking out opponents</t>
+  </si>
+  <si>
+    <t>racking up marriages</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>collecting treasures</t>
+  </si>
+  <si>
+    <t>Dickie</t>
+  </si>
+  <si>
+    <t>Moore</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>pretending to wrestle</t>
+  </si>
+  <si>
+    <t>running the FBI</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>speaking with funny accents</t>
+  </si>
+  <si>
+    <t>trading innuendo</t>
+  </si>
+  <si>
+    <t>Shania</t>
+  </si>
+  <si>
+    <t>Twain</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>publishing newspapers</t>
+  </si>
+  <si>
+    <t>making witty remarks</t>
+  </si>
+  <si>
+    <t>ranting about politics</t>
+  </si>
+  <si>
+    <t>making provocative documentaries</t>
+  </si>
+  <si>
+    <t>winning Oscars</t>
+  </si>
+  <si>
+    <t>fighting civil wars</t>
+  </si>
+  <si>
+    <t>terrorizing prostitutes</t>
+  </si>
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>Zane</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>spying for the CIA</t>
+  </si>
+  <si>
+    <t>currying favour</t>
+  </si>
+  <si>
+    <t>hunting serial killers</t>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>practicing insincerity</t>
+  </si>
+  <si>
+    <t>attending cocktail parties</t>
+  </si>
+  <si>
+    <t>raising a family</t>
+  </si>
+  <si>
+    <t>digging for antiquities</t>
+  </si>
+  <si>
+    <t>pulling capers</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Poehler</t>
+  </si>
+  <si>
+    <t>buying on credit</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>picking pockets</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>stealing jewels</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>Meshach</t>
+  </si>
+  <si>
+    <t>Taylor</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>staring at the moon</t>
+  </si>
+  <si>
+    <t>cooking dinners</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Bynes</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes</t>
+  </si>
+  <si>
+    <t>nurturing sibling rivalry</t>
+  </si>
+  <si>
+    <t>making home-made clothes</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>H.P.</t>
+  </si>
+  <si>
+    <t>Lovecraft</t>
+  </si>
+  <si>
+    <t>eating carrots</t>
+  </si>
+  <si>
+    <t>burning the wicked</t>
+  </si>
+  <si>
+    <t>drinking too much red wine</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Edelstein</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>walking like a man</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Esther</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>writing purple prose</t>
+  </si>
+  <si>
     <t>writing plays about the middle classes</t>
   </si>
   <si>
-    <t>running a frontier town</t>
-  </si>
-  <si>
-    <t>trading in wives</t>
-  </si>
-  <si>
-    <t>writing epic poetry</t>
-  </si>
-  <si>
-    <t>spreading political gossip</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>singing opera arias</t>
-  </si>
-  <si>
-    <t>Lois</t>
-  </si>
-  <si>
-    <t>Lowry</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>creating dictionaries</t>
-  </si>
-  <si>
-    <t>directing animated films</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Goldman</t>
   </si>
   <si>
     <t>campaigning for social causes</t>
   </si>
   <si>
-    <t>preaching to presidents</t>
+    <t>starring in sit-coms</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>winning tennis matches</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>promoting the Web</t>
+  </si>
+  <si>
+    <t>managing large development projects</t>
+  </si>
+  <si>
+    <t>singing punk rock songs</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>pedalling furiously</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Daniels</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>writing crime stories</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>Jools</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Oldman</t>
+  </si>
+  <si>
+    <t>selling chrystal meth</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>throwing lavish parties</t>
+  </si>
+  <si>
+    <t>Alain</t>
+  </si>
+  <si>
+    <t>Prost</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
   </si>
   <si>
     <t>analyzing the sub-conscious</t>
   </si>
   <si>
+    <t>solving riddles</t>
+  </si>
+  <si>
+    <t>smoking Laramie Hi-Tars</t>
+  </si>
+  <si>
+    <t>climbing social ladders</t>
+  </si>
+  <si>
+    <t>preventing crime</t>
+  </si>
+  <si>
+    <t>posing riddles</t>
+  </si>
+  <si>
+    <t>Ruth</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>promoting openness</t>
+  </si>
+  <si>
+    <t>Eileen</t>
+  </si>
+  <si>
+    <t>Farrell</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Bochco</t>
+  </si>
+  <si>
+    <t>selling cheap airline seats</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Summerall</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>seeking revenge</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Schulz</t>
+  </si>
+  <si>
+    <t>gyrating hips</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Rod</t>
+  </si>
+  <si>
+    <t>stabbing in the back</t>
+  </si>
+  <si>
+    <t>starring in reality TV shows</t>
+  </si>
+  <si>
+    <t>Hilary</t>
+  </si>
+  <si>
+    <t>Duff</t>
+  </si>
+  <si>
+    <t>delivering presents</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Hopkins</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>smoking during recess</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Copperfield</t>
+  </si>
+  <si>
+    <t>singing experimental songs</t>
+  </si>
+  <si>
+    <t>playing soccer</t>
+  </si>
+  <si>
+    <t>Barkley</t>
+  </si>
+  <si>
+    <t>hosting reality TV shows</t>
+  </si>
+  <si>
+    <t>commiting perjury</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>Napolenon</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>brokering peace deals</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
+  </si>
+  <si>
+    <t>Ronnie</t>
+  </si>
+  <si>
+    <t>Milsap</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies</t>
+  </si>
+  <si>
+    <t>painting dark pictures</t>
+  </si>
+  <si>
+    <t>Ethel</t>
+  </si>
+  <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>running races</t>
+  </si>
+  <si>
+    <t>Lyndon</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>organizing armed robberies</t>
+  </si>
+  <si>
+    <t>Sidney</t>
+  </si>
+  <si>
+    <t>Lumet</t>
+  </si>
+  <si>
+    <t>giving investment advice</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Prokofiev</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Lizzie</t>
+  </si>
+  <si>
+    <t>Borden</t>
+  </si>
+  <si>
+    <t>fomenting social revolution</t>
+  </si>
+  <si>
+    <t>reporting the news</t>
+  </si>
+  <si>
+    <t>Hancock</t>
+  </si>
+  <si>
+    <t>rescuing hostages</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Ebert</t>
+  </si>
+  <si>
+    <t>developing advertising campaigns</t>
+  </si>
+  <si>
+    <t>Gummo</t>
+  </si>
+  <si>
+    <t>Marx</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Ferrell</t>
+  </si>
+  <si>
+    <t>bullying schoolkids</t>
+  </si>
+  <si>
+    <t>disposing of unwanted jewelry</t>
+  </si>
+  <si>
+    <t>Timbaland</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>De-Niro</t>
+  </si>
+  <si>
+    <t>Claudette</t>
+  </si>
+  <si>
+    <t>Colbert</t>
+  </si>
+  <si>
+    <t>promoting big business</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Godunov</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Caviezel</t>
+  </si>
+  <si>
+    <t>Meg</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Gibb</t>
+  </si>
+  <si>
+    <t>impersonating women</t>
+  </si>
+  <si>
+    <t>Cody</t>
+  </si>
+  <si>
+    <t>Madeline</t>
+  </si>
+  <si>
+    <t>Zima</t>
+  </si>
+  <si>
+    <t>commanding a whaling ship</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
+    <t>Pleshette</t>
+  </si>
+  <si>
+    <t>killing demons</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>Seurat</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Tune</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>Dean</t>
+  </si>
+  <si>
+    <t>Stockwell</t>
+  </si>
+  <si>
+    <t>playing everyman characters</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Research Activity</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Bryant</t>
+  </si>
+  <si>
+    <t>seducing young women</t>
+  </si>
+  <si>
+    <t>Kit</t>
+  </si>
+  <si>
+    <t>Carson</t>
+  </si>
+  <si>
+    <t>Fidel</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Heston</t>
+  </si>
+  <si>
+    <t>N.C.</t>
+  </si>
+  <si>
+    <t>Wyeth</t>
+  </si>
+  <si>
+    <t>Larisa</t>
+  </si>
+  <si>
+    <t>Oleynik</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
+    <t>Quaid</t>
+  </si>
+  <si>
+    <t>Coltrane</t>
+  </si>
+  <si>
+    <t>Burghoff</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Burns</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Diego</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Gauguin</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Leakey</t>
+  </si>
+  <si>
+    <t>playing baseball</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>Stockman</t>
+  </si>
+  <si>
+    <t>Parrish</t>
+  </si>
+  <si>
+    <t>Dirk</t>
+  </si>
+  <si>
+    <t>Benedict</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>adopting children</t>
+  </si>
+  <si>
     <t>Tom</t>
   </si>
   <si>
-    <t>Hulce</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>dripping paint onto canvas</t>
-  </si>
-  <si>
-    <t>writing beat fiction</t>
-  </si>
-  <si>
-    <t>Susan</t>
-  </si>
-  <si>
-    <t>Boyle</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>climbing down chimneys</t>
-  </si>
-  <si>
-    <t>guarding the galaxy</t>
-  </si>
-  <si>
-    <t>losing control</t>
-  </si>
-  <si>
-    <t>running a school for gifted teens</t>
-  </si>
-  <si>
-    <t>planting daffodils</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Forsythe</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>playing God</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>running a crime family</t>
-  </si>
-  <si>
-    <t>flaunting foppish fashions</t>
-  </si>
-  <si>
-    <t>Leonard</t>
-  </si>
-  <si>
-    <t>Maltin</t>
-  </si>
-  <si>
-    <t>spying for the enemy</t>
-  </si>
-  <si>
-    <t>collecting rock samples</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Tilly</t>
-  </si>
-  <si>
-    <t>Research Activity</t>
-  </si>
-  <si>
-    <t>telling dry jokes</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Andy</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>pursuing criminals</t>
-  </si>
-  <si>
-    <t>gossiping with galpals</t>
-  </si>
-  <si>
-    <t>exorcising demons</t>
-  </si>
-  <si>
-    <t>cleaning floors</t>
-  </si>
-  <si>
-    <t>winning boxing matches</t>
-  </si>
-  <si>
-    <t>manipulating political pawns</t>
-  </si>
-  <si>
-    <t>cheating at poker</t>
-  </si>
-  <si>
-    <t>Ken</t>
-  </si>
-  <si>
-    <t>Kesey</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs</t>
-  </si>
-  <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>starring in TV shows</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>throwing fund-raisers for Parkinson's disease</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>fighting with the mob</t>
-  </si>
-  <si>
-    <t>selling perfumes</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>promoting racial harmony</t>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Caine</t>
+  </si>
+  <si>
+    <t>making new wave movies</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Hamill</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Herm</t>
+  </si>
+  <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Pulitzer</t>
+  </si>
+  <si>
+    <t>Agee</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Blair</t>
+  </si>
+  <si>
+    <t>starring in daytime soap operas</t>
+  </si>
+  <si>
+    <t>Yasser</t>
+  </si>
+  <si>
+    <t>Arafat</t>
+  </si>
+  <si>
+    <t>Pierce</t>
+  </si>
+  <si>
+    <t>Brosnan</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
+    <t>Croce</t>
+  </si>
+  <si>
+    <t>chasing murderers</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>Belushi</t>
+  </si>
+  <si>
+    <t>Janis</t>
+  </si>
+  <si>
+    <t>Joplin</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>Nolan</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Stravinsky</t>
+  </si>
+  <si>
+    <t>Tibbets</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>Geary</t>
+  </si>
+  <si>
+    <t>Barbara</t>
+  </si>
+  <si>
+    <t>Streisand</t>
+  </si>
+  <si>
+    <t>Mel</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Rip</t>
+  </si>
+  <si>
+    <t>Torn</t>
+  </si>
+  <si>
+    <t>writing short stories</t>
+  </si>
+  <si>
+    <t>Santa</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Tritt</t>
+  </si>
+  <si>
+    <t>Wayans</t>
+  </si>
+  <si>
+    <t>Kristy</t>
+  </si>
+  <si>
+    <t>McNichol</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Schroder</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Fallon</t>
   </si>
   <si>
     <t>Nick</t>
@@ -314,835 +1052,91 @@
     <t>Carter</t>
   </si>
   <si>
-    <t>creating monsters</t>
-  </si>
-  <si>
-    <t>grabbing power</t>
-  </si>
-  <si>
-    <t>exploring darkest Africa</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>MacArthur</t>
-  </si>
-  <si>
-    <t>fussing about cleanliness</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Harvey</t>
-  </si>
-  <si>
-    <t>writing experimental songs</t>
-  </si>
-  <si>
-    <t>playing James Bond</t>
-  </si>
-  <si>
-    <t>promoting Catholic values</t>
-  </si>
-  <si>
-    <t>starring in madcap comedies</t>
-  </si>
-  <si>
-    <t>Gilbert</t>
-  </si>
-  <si>
-    <t>Gottfried</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>warning about totalitarianism</t>
-  </si>
-  <si>
-    <t>winning battles</t>
-  </si>
-  <si>
-    <t>playing the saxophone</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>searching for the messiah</t>
-  </si>
-  <si>
-    <t>turning it up to 11</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>falling in love</t>
-  </si>
-  <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>making billions</t>
-  </si>
-  <si>
-    <t>keeping a diary</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Zappa</t>
-  </si>
-  <si>
-    <t>losing court cases</t>
-  </si>
-  <si>
-    <t>manipulating ingenues</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
+    <t>Jill</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
   </si>
   <si>
     <t>Nelson</t>
   </si>
   <si>
-    <t>Eddy</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>making strategic decisions</t>
-  </si>
-  <si>
-    <t>Stu</t>
-  </si>
-  <si>
-    <t>Unger</t>
-  </si>
-  <si>
-    <t>issuing fatwas</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>Lauren</t>
-  </si>
-  <si>
-    <t>Conrad</t>
-  </si>
-  <si>
-    <t>looking after children</t>
-  </si>
-  <si>
-    <t>avenging loved ones</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>Patti</t>
-  </si>
-  <si>
-    <t>LaBelle</t>
-  </si>
-  <si>
-    <t>running a tech giant</t>
-  </si>
-  <si>
-    <t>abusing power</t>
-  </si>
-  <si>
-    <t>directing the business of state</t>
-  </si>
-  <si>
-    <t>making vulgar jokes</t>
-  </si>
-  <si>
-    <t>Lyle</t>
-  </si>
-  <si>
-    <t>Talbot</t>
-  </si>
-  <si>
-    <t>preaching tolerance</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>Landon</t>
-  </si>
-  <si>
-    <t>suing large corporations</t>
-  </si>
-  <si>
-    <t>writing modern poetry</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>ONeill</t>
-  </si>
-  <si>
-    <t>causing mayhem</t>
-  </si>
-  <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>Lorne</t>
-  </si>
-  <si>
-    <t>Greene</t>
-  </si>
-  <si>
-    <t>teaching the next generation</t>
-  </si>
-  <si>
-    <t>Wyatt</t>
-  </si>
-  <si>
-    <t>Earp</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>singing blues songs</t>
-  </si>
-  <si>
-    <t>Menachem</t>
-  </si>
-  <si>
-    <t>Begin</t>
-  </si>
-  <si>
-    <t>writing erotic fiction</t>
-  </si>
-  <si>
-    <t>singing parody songs</t>
-  </si>
-  <si>
-    <t>selling airline seats</t>
-  </si>
-  <si>
-    <t>hiding from the public</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>Ramsey</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Gorshin</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>making dunk shots</t>
-  </si>
-  <si>
-    <t>winning swimming competitions</t>
-  </si>
-  <si>
-    <t>Gerry</t>
-  </si>
-  <si>
-    <t>Beckley</t>
-  </si>
-  <si>
-    <t>forging art</t>
-  </si>
-  <si>
-    <t>Fairbanks</t>
-  </si>
-  <si>
-    <t>telling epic tales</t>
-  </si>
-  <si>
-    <t>Rupert</t>
-  </si>
-  <si>
-    <t>Grint</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>Sherlock</t>
-  </si>
-  <si>
-    <t>Holmes</t>
-  </si>
-  <si>
-    <t>campaigning for democracy</t>
-  </si>
-  <si>
-    <t>selling comic books</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>Lahr</t>
-  </si>
-  <si>
-    <t>competing in the Olympics</t>
-  </si>
-  <si>
-    <t>Timbaland</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Eugene</t>
-  </si>
-  <si>
-    <t>McCarthy</t>
-  </si>
-  <si>
-    <t>Mario</t>
-  </si>
-  <si>
-    <t>Lanza</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Roberts</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Leno</t>
-  </si>
-  <si>
-    <t>walking like a man</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Benson</t>
-  </si>
-  <si>
-    <t>interviewing politicians</t>
-  </si>
-  <si>
-    <t>Rita</t>
-  </si>
-  <si>
-    <t>Moreno</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>Kevin</t>
-  </si>
-  <si>
-    <t>Bacon</t>
-  </si>
-  <si>
-    <t>seducing women</t>
-  </si>
-  <si>
-    <t>studying science</t>
-  </si>
-  <si>
-    <t>Hayley</t>
-  </si>
-  <si>
-    <t>Mills</t>
-  </si>
-  <si>
-    <t>Grace</t>
-  </si>
-  <si>
-    <t>Potter</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Penney</t>
-  </si>
-  <si>
-    <t>promoting pop music</t>
-  </si>
-  <si>
-    <t>Sinise</t>
-  </si>
-  <si>
-    <t>plotting strategies</t>
+    <t>Pershing</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Heaton</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Hope</t>
+  </si>
+  <si>
+    <t>Bernadette</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>H.R.</t>
+  </si>
+  <si>
+    <t>Giger</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Bellamy</t>
   </si>
   <si>
     <t>Alan</t>
   </si>
   <si>
-    <t>Lerner</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Sharapova</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Linkletter</t>
-  </si>
-  <si>
-    <t>running film festivals</t>
-  </si>
-  <si>
-    <t>writing funny movies</t>
-  </si>
-  <si>
-    <t>Estelle</t>
-  </si>
-  <si>
-    <t>Parsons</t>
-  </si>
-  <si>
-    <t>enriching uranium</t>
-  </si>
-  <si>
-    <t>Federico</t>
-  </si>
-  <si>
-    <t>Fellini</t>
-  </si>
-  <si>
-    <t>battling the forces of darkness</t>
-  </si>
-  <si>
-    <t>Loretta</t>
-  </si>
-  <si>
-    <t>Swit</t>
-  </si>
-  <si>
-    <t>doing raunchy stage acts</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Hirschfeld</t>
-  </si>
-  <si>
-    <t>setting mousetraps</t>
-  </si>
-  <si>
-    <t>Kenneth</t>
-  </si>
-  <si>
-    <t>Patchen</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Mancini</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Galileo</t>
-  </si>
-  <si>
-    <t>Galilei</t>
-  </si>
-  <si>
-    <t>Daryl</t>
-  </si>
-  <si>
-    <t>Hannah</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>brokering peace deals</t>
-  </si>
-  <si>
-    <t>Malcolm</t>
-  </si>
-  <si>
-    <t>Forbes</t>
-  </si>
-  <si>
-    <t>arresting bootleggers</t>
-  </si>
-  <si>
-    <t>D.H.</t>
+    <t>Thicke</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Ritchie</t>
+  </si>
+  <si>
+    <t>Hans</t>
+  </si>
+  <si>
+    <t>Christian-Anderson</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Swayze</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Fries</t>
+  </si>
+  <si>
+    <t>Gaulle</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
   <si>
     <t>Lawrence</t>
   </si>
   <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Rogers</t>
-  </si>
-  <si>
-    <t>Waits</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Armstrong</t>
-  </si>
-  <si>
-    <t>Turturro</t>
-  </si>
-  <si>
-    <t>Odetta</t>
-  </si>
-  <si>
-    <t>Miriam</t>
-  </si>
-  <si>
-    <t>Makeba</t>
-  </si>
-  <si>
-    <t>telling tall tales</t>
-  </si>
-  <si>
-    <t>avoiding growing old</t>
-  </si>
-  <si>
-    <t>Greer</t>
-  </si>
-  <si>
-    <t>Garson</t>
-  </si>
-  <si>
-    <t>running theme parks</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Dole</t>
-  </si>
-  <si>
-    <t>Albert</t>
-  </si>
-  <si>
-    <t>King</t>
-  </si>
-  <si>
-    <t>Ringo</t>
-  </si>
-  <si>
-    <t>Starr</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Copperfield</t>
-  </si>
-  <si>
-    <t>Lucky</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Chester</t>
-  </si>
-  <si>
-    <t>Nimitz</t>
-  </si>
-  <si>
-    <t>Willard</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Yehudi</t>
-  </si>
-  <si>
-    <t>Menuhin</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Robinson</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Daws</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Frawley</t>
-  </si>
-  <si>
-    <t>Jane</t>
-  </si>
-  <si>
-    <t>Seymore</t>
-  </si>
-  <si>
-    <t>Cokie</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Pryor</t>
-  </si>
-  <si>
-    <t>Galway</t>
-  </si>
-  <si>
-    <t>Liza</t>
-  </si>
-  <si>
-    <t>Minnelli</t>
-  </si>
-  <si>
-    <t>Geraldine</t>
-  </si>
-  <si>
-    <t>Ferraro</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Carroll</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Kala</t>
-  </si>
-  <si>
-    <t>Kauvaka</t>
-  </si>
-  <si>
-    <t>Plimpton</t>
-  </si>
-  <si>
-    <t>Talia</t>
-  </si>
-  <si>
-    <t>Shire</t>
-  </si>
-  <si>
-    <t>Moe</t>
-  </si>
-  <si>
-    <t>Howard</t>
-  </si>
-  <si>
-    <t>Dorothy</t>
-  </si>
-  <si>
-    <t>Hamill</t>
-  </si>
-  <si>
-    <t>Buren</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Phyllis</t>
-  </si>
-  <si>
-    <t>Diller</t>
-  </si>
-  <si>
-    <t>Puzo</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Piscopo</t>
-  </si>
-  <si>
-    <t>McDowell</t>
-  </si>
-  <si>
-    <t>Dawn</t>
-  </si>
-  <si>
-    <t>Wells</t>
-  </si>
-  <si>
-    <t>Regis</t>
-  </si>
-  <si>
-    <t>Philbin</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Sotomayor</t>
-  </si>
-  <si>
-    <t>Auguste</t>
-  </si>
-  <si>
-    <t>Rodin</t>
-  </si>
-  <si>
-    <t>Aretha</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>Morris</t>
-  </si>
-  <si>
-    <t>Don</t>
-  </si>
-  <si>
-    <t>Bendell</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Hoffa</t>
-  </si>
-  <si>
-    <t>Redi</t>
-  </si>
-  <si>
-    <t>Tlhabi</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Calder</t>
-  </si>
-  <si>
-    <t>Maya</t>
-  </si>
-  <si>
-    <t>Lin</t>
-  </si>
-  <si>
-    <t>Dimebag</t>
-  </si>
-  <si>
-    <t>Abbott</t>
+    <t>McGovern</t>
   </si>
 </sst>
 </file>
@@ -1201,19 +1195,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="16.63671875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.1015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.11328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="29.07421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="31.51953125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.51953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="31.71875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="37.46875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="27.03515625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="37.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="29.0703125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="31.71875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="29.2734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1268,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>8.8098114E7</v>
+        <v>5.1315727E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1301,42 +1295,42 @@
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>9.3867164E7</v>
+        <v>9.878653E7</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
       </c>
       <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
       </c>
       <c r="L3" t="s">
         <v>34</v>
@@ -1345,51 +1339,51 @@
         <v>35</v>
       </c>
       <c r="N3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="n">
+        <v>8.1394392E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.9573481E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>43</v>
-      </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>33</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N4" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1400,13 +1394,13 @@
         <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>8.4640003E7</v>
+        <v>9.501841E7</v>
       </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
       </c>
       <c r="F5" t="s">
         <v>49</v>
@@ -1424,1820 +1418,1820 @@
         <v>53</v>
       </c>
       <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>55</v>
       </c>
-      <c r="M5" t="s">
-        <v>56</v>
-      </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.0281119E7</v>
+      </c>
+      <c r="D6" t="s">
         <v>58</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>59</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.9533137E7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>49</v>
       </c>
       <c r="F6" t="s">
         <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.8382364E7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
         <v>68</v>
       </c>
-      <c r="C7" t="n">
-        <v>3.6334887E7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s">
-        <v>40</v>
-      </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="M7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="N7" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C8" t="n">
-        <v>6.2611627E7</v>
+        <v>1.23358E7</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" t="s">
         <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.7834261E7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.9097409E7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" t="s">
-        <v>80</v>
-      </c>
-      <c r="H9" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
       <c r="L9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M9" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C10" t="n">
-        <v>7.7311875E7</v>
+        <v>3.4700569E7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="G10" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H10" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L10" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
         <v>89</v>
-      </c>
-      <c r="K10" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>9.6307108E7</v>
+        <v>3.9384913E7</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M11" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="N11" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C12" t="n">
-        <v>6.4260302E7</v>
+        <v>2.8666788E7</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="J12" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="L12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M12" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" t="s">
         <v>102</v>
-      </c>
-      <c r="N12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C13" t="n">
-        <v>1.4992383E7</v>
+        <v>8.4345877E7</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="N13" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5.6756848E7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
         <v>107</v>
       </c>
-      <c r="C14" t="n">
-        <v>9.010413E7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" t="s">
-        <v>109</v>
-      </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="K14" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L14" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="N14" t="s">
-        <v>70</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.692266E7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" t="s">
         <v>113</v>
       </c>
-      <c r="C15" t="n">
-        <v>6.9721657E7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" t="s">
-        <v>116</v>
-      </c>
-      <c r="H15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" t="s">
-        <v>117</v>
-      </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="M15" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="N15" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C16" t="n">
-        <v>6.6672615E7</v>
+        <v>6.1737138E7</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="L16" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="M16" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="N16" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C17" t="n">
-        <v>8.5316151E7</v>
+        <v>4.6010274E7</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="F17" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="H17" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="N17" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C18" t="n">
-        <v>9.4248891E7</v>
+        <v>5.7821267E7</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J18" t="s">
-        <v>52</v>
+        <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="L18" t="s">
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="N18" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C19" t="n">
-        <v>7.013556E7</v>
+        <v>4.0912977E7</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="M19" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C20" t="n">
-        <v>6.3233763E7</v>
+        <v>7.9151251E7</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>65</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="K20" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="L20" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="M20" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="C21" t="n">
-        <v>8.6867484E7</v>
+        <v>4.0231232E7</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N21" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C22" t="n">
-        <v>2.2327398E7</v>
+        <v>1.1509894E7</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="I22" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="K22" t="s">
-        <v>28</v>
+        <v>159</v>
       </c>
       <c r="L22" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="M22" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="N22" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C23" t="n">
-        <v>5.5490938E7</v>
+        <v>2.0584467E7</v>
       </c>
       <c r="D23" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s">
-        <v>34</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>32</v>
       </c>
       <c r="M23" t="s">
-        <v>43</v>
+        <v>163</v>
       </c>
       <c r="N23" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="C24" t="n">
-        <v>9.8857177E7</v>
+        <v>7.6330915E7</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J24" t="s">
         <v>128</v>
       </c>
-      <c r="F24" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" t="s">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s">
-        <v>161</v>
-      </c>
       <c r="K24" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C25" t="n">
-        <v>4.9788872E7</v>
+        <v>1.9025682E7</v>
       </c>
       <c r="D25" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="F25" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H25" t="s">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="J25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="M25" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="N25" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C26" t="n">
-        <v>8.5218646E7</v>
+        <v>1.080719E7</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="G26" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K26" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="L26" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="N26" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C27" t="n">
-        <v>8.311237E7</v>
+        <v>1.6292813E7</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F27" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="G27" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>127</v>
       </c>
       <c r="I27" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J27" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="K27" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="L27" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="M27" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N27" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B28" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C28" t="n">
-        <v>8.0700551E7</v>
+        <v>1.81315E7</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>95</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="L28" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C29" t="n">
-        <v>9.4373609E7</v>
+        <v>4.3801509E7</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s">
-        <v>165</v>
+        <v>121</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>177</v>
       </c>
       <c r="L29" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
       <c r="M29" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C30" t="n">
-        <v>6.730939E7</v>
+        <v>7.428898E7</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F30" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="s">
         <v>43</v>
       </c>
-      <c r="I30" t="s">
-        <v>185</v>
-      </c>
-      <c r="J30" t="s">
-        <v>143</v>
-      </c>
       <c r="K30" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="L30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M30" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="N30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C31" t="n">
-        <v>1.452686E7</v>
+        <v>4.2717106E7</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F31" t="s">
-        <v>160</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>28</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="K31" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="L31" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="M31" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C32" t="n">
-        <v>2.673146E7</v>
+        <v>8.2758356E7</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>168</v>
+        <v>83</v>
       </c>
       <c r="G32" t="s">
-        <v>105</v>
+        <v>196</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>192</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="K32" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="L32" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="M32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N32" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C33" t="n">
-        <v>6.1658619E7</v>
+        <v>3.3479109E7</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="G33" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
       <c r="L33" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="M33" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="N33" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="C34" t="n">
-        <v>9.9972269E7</v>
+        <v>4.0355623E7</v>
       </c>
       <c r="D34" t="s">
         <v>16</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>202</v>
       </c>
       <c r="F34" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="G34" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N34" t="s">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C35" t="n">
-        <v>5.8727896E7</v>
+        <v>6.5073573E7</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="H35" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="I35" t="s">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="J35" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="L35" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="M35" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="N35" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B36" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C36" t="n">
-        <v>5.5402516E7</v>
+        <v>9.2003133E7</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F36" t="s">
-        <v>178</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s">
-        <v>30</v>
+        <v>173</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>169</v>
       </c>
       <c r="L36" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="M36" t="s">
-        <v>197</v>
+        <v>68</v>
       </c>
       <c r="N36" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C37" t="n">
-        <v>7.1124838E7</v>
+        <v>1.6405948E7</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>172</v>
+        <v>107</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="G37" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="H37" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="I37" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K37" t="s">
-        <v>25</v>
+        <v>209</v>
       </c>
       <c r="L37" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="N37" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C38" t="n">
-        <v>3.3281702E7</v>
+        <v>9.6688011E7</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="I38" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="J38" t="s">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="K38" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s">
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="M38" t="s">
-        <v>51</v>
+        <v>88</v>
       </c>
       <c r="N38" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C39" t="n">
-        <v>6.4140684E7</v>
+        <v>6.0905704E7</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>152</v>
       </c>
       <c r="H39" t="s">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="I39" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="J39" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="K39" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
       <c r="L39" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="M39" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="N39" t="s">
-        <v>160</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C40" t="n">
-        <v>9.3212113E7</v>
+        <v>8.7654258E7</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J40" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="L40" t="s">
-        <v>147</v>
+        <v>75</v>
       </c>
       <c r="M40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N40" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C41" t="n">
-        <v>7.3274369E7</v>
+        <v>6.6327231E7</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="I41" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="J41" t="s">
-        <v>162</v>
+        <v>221</v>
       </c>
       <c r="K41" t="s">
-        <v>207</v>
+        <v>74</v>
       </c>
       <c r="L41" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="M41" t="s">
-        <v>20</v>
+        <v>170</v>
       </c>
       <c r="N41" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="C42" t="n">
-        <v>9.4032636E7</v>
+        <v>3.7861133E7</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s">
-        <v>220</v>
+        <v>54</v>
       </c>
       <c r="I42" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="J42" t="s">
-        <v>217</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="L42" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="M42" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="N42" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C43" t="n">
-        <v>4.8571266E7</v>
+        <v>6.4102812E7</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="J43" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="K43" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L43" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="M43" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="N43" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C44" t="n">
-        <v>6.2128604E7</v>
+        <v>6.2373368E7</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>185</v>
       </c>
       <c r="G44" t="s">
-        <v>181</v>
+        <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="I44" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="J44" t="s">
-        <v>226</v>
+        <v>39</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="N44" t="s">
-        <v>56</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>228</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>229</v>
       </c>
       <c r="C45" t="n">
-        <v>4.7358651E7</v>
+        <v>5.4121846E7</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="I45" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="J45" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="L45" t="s">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="M45" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="N45" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B46" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C46" t="n">
-        <v>1.5058313E7</v>
+        <v>7.0290274E7</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="G46" t="s">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="J46" t="s">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="K46" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="L46" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="M46" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="N46" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47">
@@ -3248,40 +3242,40 @@
         <v>231</v>
       </c>
       <c r="C47" t="n">
-        <v>1.9388489E7</v>
+        <v>7.6918467E7</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="F47" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="H47" t="s">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="I47" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="J47" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>84</v>
       </c>
       <c r="L47" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="N47" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
@@ -3292,128 +3286,128 @@
         <v>233</v>
       </c>
       <c r="C48" t="n">
-        <v>6.0027389E7</v>
+        <v>9.2836574E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="H48" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
       <c r="J48" t="s">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="L48" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="M48" t="s">
-        <v>234</v>
+        <v>26</v>
       </c>
       <c r="N48" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C49" t="n">
-        <v>3.6062295E7</v>
+        <v>7.1438106E7</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="F49" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="I49" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="K49" t="s">
-        <v>201</v>
+        <v>76</v>
       </c>
       <c r="L49" t="s">
-        <v>75</v>
+        <v>215</v>
       </c>
       <c r="M49" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="N49" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>109</v>
       </c>
       <c r="B50" t="s">
         <v>238</v>
       </c>
       <c r="C50" t="n">
-        <v>4.9618052E7</v>
+        <v>4.9411752E7</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
       <c r="F50" t="s">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H50" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="I50" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="J50" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="L50" t="s">
-        <v>201</v>
+        <v>71</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N50" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="51">
@@ -3424,128 +3418,128 @@
         <v>240</v>
       </c>
       <c r="C51" t="n">
-        <v>9.5150813E7</v>
+        <v>6.3136409E7</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E51" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="F51" t="s">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="G51" t="s">
-        <v>148</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s">
-        <v>63</v>
+        <v>237</v>
       </c>
       <c r="I51" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="J51" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="L51" t="s">
-        <v>81</v>
+        <v>212</v>
       </c>
       <c r="M51" t="s">
-        <v>82</v>
+        <v>215</v>
       </c>
       <c r="N51" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>242</v>
       </c>
       <c r="B52" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C52" t="n">
-        <v>4.3973609E7</v>
+        <v>1.418407E7</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="F52" t="s">
-        <v>242</v>
+        <v>177</v>
       </c>
       <c r="G52" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="J52" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="K52" t="s">
-        <v>105</v>
+        <v>80</v>
       </c>
       <c r="L52" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="M52" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="N52" t="s">
-        <v>123</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C53" t="n">
-        <v>1.8720103E7</v>
+        <v>2.1932304E7</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E53" t="s">
-        <v>95</v>
+        <v>173</v>
       </c>
       <c r="F53" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="G53" t="s">
+        <v>136</v>
+      </c>
+      <c r="H53" t="s">
+        <v>71</v>
+      </c>
+      <c r="I53" t="s">
+        <v>152</v>
+      </c>
+      <c r="J53" t="s">
+        <v>75</v>
+      </c>
+      <c r="K53" t="s">
+        <v>158</v>
+      </c>
+      <c r="L53" t="s">
         <v>246</v>
       </c>
-      <c r="H53" t="s">
-        <v>143</v>
-      </c>
-      <c r="I53" t="s">
-        <v>160</v>
-      </c>
-      <c r="J53" t="s">
-        <v>168</v>
-      </c>
-      <c r="K53" t="s">
-        <v>171</v>
-      </c>
-      <c r="L53" t="s">
-        <v>24</v>
-      </c>
       <c r="M53" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="N53" t="s">
-        <v>234</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54">
@@ -3556,744 +3550,744 @@
         <v>248</v>
       </c>
       <c r="C54" t="n">
-        <v>7.5046147E7</v>
+        <v>1.8096203E7</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>69</v>
+        <v>146</v>
       </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="I54" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="J54" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="K54" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="L54" t="s">
-        <v>236</v>
+        <v>137</v>
       </c>
       <c r="M54" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="N54" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" t="s">
         <v>250</v>
       </c>
-      <c r="B55" t="s">
-        <v>251</v>
-      </c>
       <c r="C55" t="n">
-        <v>1.366673E7</v>
+        <v>3.1539842E7</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E55" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="G55" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="H55" t="s">
         <v>65</v>
       </c>
       <c r="I55" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="J55" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="K55" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="L55" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="M55" t="s">
-        <v>52</v>
+        <v>251</v>
       </c>
       <c r="N55" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>252</v>
+      </c>
+      <c r="B56" t="s">
         <v>253</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="n">
+        <v>4.2161124E7</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" t="s">
+        <v>31</v>
+      </c>
+      <c r="G56" t="s">
+        <v>101</v>
+      </c>
+      <c r="H56" t="s">
+        <v>84</v>
+      </c>
+      <c r="I56" t="s">
         <v>254</v>
-      </c>
-      <c r="C56" t="n">
-        <v>9.1150867E7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>22</v>
-      </c>
-      <c r="H56" t="s">
-        <v>217</v>
-      </c>
-      <c r="I56" t="s">
-        <v>154</v>
       </c>
       <c r="J56" t="s">
         <v>255</v>
       </c>
       <c r="K56" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="L56" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="M56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N56" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B57" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C57" t="n">
-        <v>6.0374759E7</v>
+        <v>2.7873473E7</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="G57" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="I57" t="s">
-        <v>111</v>
+        <v>259</v>
       </c>
       <c r="J57" t="s">
-        <v>33</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="L57" t="s">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="N57" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B58" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C58" t="n">
-        <v>4.5986498E7</v>
+        <v>7.2251682E7</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E58" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
-        <v>54</v>
+        <v>220</v>
       </c>
       <c r="I58" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="J58" t="s">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="K58" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="L58" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="M58" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="N58" t="s">
-        <v>57</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C59" t="n">
-        <v>4.3506664E7</v>
+        <v>4.6273455E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>246</v>
+        <v>127</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="H59" t="s">
+        <v>202</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>189</v>
+      </c>
+      <c r="K59" t="s">
         <v>25</v>
       </c>
-      <c r="I59" t="s">
-        <v>249</v>
-      </c>
-      <c r="J59" t="s">
-        <v>35</v>
-      </c>
-      <c r="K59" t="s">
-        <v>160</v>
-      </c>
       <c r="L59" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="M59" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="N59" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B60" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C60" t="n">
-        <v>7.3375199E7</v>
+        <v>7.0287424E7</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="G60" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="H60" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="J60" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>73</v>
       </c>
       <c r="L60" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="M60" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="N60" t="s">
-        <v>246</v>
+        <v>93</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C61" t="n">
-        <v>9.3973272E7</v>
+        <v>4.2447092E7</v>
       </c>
       <c r="D61" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E61" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="H61" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="J61" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K61" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="L61" t="s">
-        <v>164</v>
+        <v>67</v>
       </c>
       <c r="M61" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="N61" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C62" t="n">
-        <v>9.2541703E7</v>
+        <v>1.0045165E7</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>184</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="H62" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="I62" t="s">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="J62" t="s">
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="K62" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="L62" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="M62" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N62" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C63" t="n">
-        <v>3.09085E7</v>
+        <v>4.3185894E7</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="G63" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="J63" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="K63" t="s">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="L63" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="M63" t="s">
-        <v>272</v>
+        <v>163</v>
       </c>
       <c r="N63" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C64" t="n">
-        <v>1.9235489E7</v>
+        <v>3.5065185E7</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E64" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="F64" t="s">
-        <v>272</v>
+        <v>75</v>
       </c>
       <c r="G64" t="s">
-        <v>275</v>
+        <v>65</v>
       </c>
       <c r="H64" t="s">
-        <v>171</v>
+        <v>95</v>
       </c>
       <c r="I64" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="J64" t="s">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="K64" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="L64" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="M64" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="N64" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>276</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C65" t="n">
-        <v>6.8612752E7</v>
+        <v>8.620348E7</v>
       </c>
       <c r="D65" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E65" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="F65" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="G65" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="H65" t="s">
-        <v>64</v>
+        <v>215</v>
       </c>
       <c r="I65" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J65" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K65" t="s">
-        <v>148</v>
+        <v>251</v>
       </c>
       <c r="L65" t="s">
-        <v>56</v>
+        <v>145</v>
       </c>
       <c r="M65" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="N65" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C66" t="n">
-        <v>9.2491268E7</v>
+        <v>1.6914553E7</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="F66" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H66" t="s">
-        <v>226</v>
+        <v>29</v>
       </c>
       <c r="I66" t="s">
-        <v>214</v>
+        <v>49</v>
       </c>
       <c r="J66" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="K66" t="s">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="L66" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="M66" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N66" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>276</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C67" t="n">
-        <v>8.9469906E7</v>
+        <v>5.3654606E7</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E67" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="G67" t="s">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="H67" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="I67" t="s">
-        <v>160</v>
+        <v>66</v>
       </c>
       <c r="J67" t="s">
-        <v>117</v>
+        <v>173</v>
       </c>
       <c r="K67" t="s">
-        <v>94</v>
+        <v>212</v>
       </c>
       <c r="L67" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="N67" t="s">
-        <v>36</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B68" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C68" t="n">
-        <v>5.6332508E7</v>
+        <v>2.5051394E7</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G68" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="J68" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="K68" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>170</v>
       </c>
       <c r="M68" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="N68" t="s">
-        <v>188</v>
+        <v>61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C69" t="n">
-        <v>1.5813494E7</v>
+        <v>1.4188888E7</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>177</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="G69" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="H69" t="s">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c r="I69" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="J69" t="s">
-        <v>200</v>
+        <v>54</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="L69" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="M69" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="N69" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
+        <v>282</v>
+      </c>
+      <c r="B70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" t="n">
+        <v>8.8642504E7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>255</v>
+      </c>
+      <c r="F70" t="s">
+        <v>114</v>
+      </c>
+      <c r="G70" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" t="s">
         <v>284</v>
       </c>
-      <c r="B70" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6.1995318E7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>16</v>
-      </c>
-      <c r="E70" t="s">
-        <v>162</v>
-      </c>
-      <c r="F70" t="s">
-        <v>95</v>
-      </c>
-      <c r="G70" t="s">
-        <v>178</v>
-      </c>
-      <c r="H70" t="s">
-        <v>118</v>
-      </c>
       <c r="I70" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="J70" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="K70" t="s">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="L70" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
       <c r="M70" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="N70" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71">
@@ -4304,1096 +4298,1096 @@
         <v>286</v>
       </c>
       <c r="C71" t="n">
-        <v>7.7627944E7</v>
+        <v>7.6547857E7</v>
       </c>
       <c r="D71" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="G71" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="H71" t="s">
-        <v>62</v>
+        <v>199</v>
       </c>
       <c r="I71" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J71" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="K71" t="s">
-        <v>287</v>
+        <v>137</v>
       </c>
       <c r="L71" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="M71" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="N71" t="s">
-        <v>288</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
       <c r="B72" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C72" t="n">
-        <v>7.2299204E7</v>
+        <v>7.7727011E7</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>75</v>
       </c>
       <c r="F72" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="G72" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="H72" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="J72" t="s">
-        <v>275</v>
+        <v>174</v>
       </c>
       <c r="K72" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="L72" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="M72" t="s">
-        <v>291</v>
+        <v>63</v>
       </c>
       <c r="N72" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C73" t="n">
-        <v>2.1434571E7</v>
+        <v>5.4580934E7</v>
       </c>
       <c r="D73" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" t="s">
+        <v>162</v>
+      </c>
+      <c r="H73" t="s">
+        <v>81</v>
+      </c>
+      <c r="I73" t="s">
+        <v>49</v>
+      </c>
+      <c r="J73" t="s">
+        <v>182</v>
+      </c>
+      <c r="K73" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" t="s">
+        <v>54</v>
+      </c>
+      <c r="M73" t="s">
         <v>48</v>
       </c>
-      <c r="E73" t="s">
-        <v>165</v>
-      </c>
-      <c r="F73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G73" t="s">
-        <v>49</v>
-      </c>
-      <c r="H73" t="s">
-        <v>100</v>
-      </c>
-      <c r="I73" t="s">
-        <v>84</v>
-      </c>
-      <c r="J73" t="s">
-        <v>80</v>
-      </c>
-      <c r="K73" t="s">
-        <v>192</v>
-      </c>
-      <c r="L73" t="s">
-        <v>143</v>
-      </c>
-      <c r="M73" t="s">
-        <v>79</v>
-      </c>
       <c r="N73" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>294</v>
+        <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C74" t="n">
-        <v>2.7595818E7</v>
+        <v>6.2638635E7</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>178</v>
       </c>
       <c r="G74" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s">
-        <v>43</v>
+        <v>196</v>
       </c>
       <c r="I74" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="J74" t="s">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="K74" t="s">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="L74" t="s">
-        <v>19</v>
+        <v>291</v>
       </c>
       <c r="M74" t="s">
-        <v>41</v>
+        <v>149</v>
       </c>
       <c r="N74" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C75" t="n">
-        <v>5.3817252E7</v>
+        <v>3.5684528E7</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="F75" t="s">
-        <v>157</v>
+        <v>237</v>
       </c>
       <c r="G75" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="I75" t="s">
-        <v>87</v>
+        <v>136</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>173</v>
       </c>
       <c r="K75" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="L75" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="M75" t="s">
-        <v>25</v>
+        <v>141</v>
       </c>
       <c r="N75" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>298</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C76" t="n">
-        <v>9.1633636E7</v>
+        <v>4.1212133E7</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="F76" t="s">
         <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="I76" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="J76" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="K76" t="s">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="L76" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="M76" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N76" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C77" t="n">
-        <v>5.5736774E7</v>
+        <v>9.8746483E7</v>
       </c>
       <c r="D77" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="G77" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="H77" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="I77" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="J77" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="L77" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="M77" t="s">
-        <v>137</v>
+        <v>64</v>
       </c>
       <c r="N77" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B78" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C78" t="n">
-        <v>1.332181E7</v>
+        <v>6.5257842E7</v>
       </c>
       <c r="D78" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="F78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G78" t="s">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="H78" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" t="s">
         <v>100</v>
       </c>
-      <c r="I78" t="s">
-        <v>53</v>
-      </c>
       <c r="J78" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="K78" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="L78" t="s">
+        <v>113</v>
+      </c>
+      <c r="M78" t="s">
+        <v>54</v>
+      </c>
+      <c r="N78" t="s">
         <v>81</v>
-      </c>
-      <c r="M78" t="s">
-        <v>64</v>
-      </c>
-      <c r="N78" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B79" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C79" t="n">
-        <v>6.672778E7</v>
+        <v>3.7687213E7</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F79" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G79" t="s">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="H79" t="s">
-        <v>172</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="K79" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="L79" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M79" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N79" t="s">
-        <v>207</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B80" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C80" t="n">
-        <v>2.6896133E7</v>
+        <v>5.0641552E7</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s">
-        <v>87</v>
+        <v>25</v>
       </c>
       <c r="L80" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="M80" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="N80" t="s">
-        <v>246</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>230</v>
       </c>
       <c r="B81" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C81" t="n">
-        <v>8.0064346E7</v>
+        <v>3.0060127E7</v>
       </c>
       <c r="D81" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>174</v>
       </c>
       <c r="G81" t="s">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="H81" t="s">
-        <v>227</v>
+        <v>143</v>
       </c>
       <c r="I81" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="J81" t="s">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="K81" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="L81" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="M81" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="N81" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B82" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C82" t="n">
-        <v>8.4210597E7</v>
+        <v>9.629956E7</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>71</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="G82" t="s">
-        <v>255</v>
+        <v>89</v>
       </c>
       <c r="H82" t="s">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="I82" t="s">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="J82" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="K82" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="L82" t="s">
-        <v>172</v>
+        <v>215</v>
       </c>
       <c r="M82" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="N82" t="s">
-        <v>91</v>
+        <v>307</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B83" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C83" t="n">
-        <v>1.2930151E7</v>
+        <v>1.5810404E7</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="F83" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="G83" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="H83" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="I83" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J83" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="K83" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="L83" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="M83" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="N83" t="s">
-        <v>275</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B84" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C84" t="n">
-        <v>1.3694835E7</v>
+        <v>7.2837325E7</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>144</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="H84" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I84" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="J84" t="s">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="K84" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="L84" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="M84" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="N84" t="s">
-        <v>204</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B85" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C85" t="n">
-        <v>2.5506336E7</v>
+        <v>1.2778078E7</v>
       </c>
       <c r="D85" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E85" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="H85" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="I85" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="K85" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L85" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="M85" t="s">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="N85" t="s">
-        <v>61</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>213</v>
+        <v>316</v>
       </c>
       <c r="C86" t="n">
-        <v>4.5548048E7</v>
+        <v>5.6086474E7</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="G86" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="H86" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="I86" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="J86" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="K86" t="s">
-        <v>19</v>
+        <v>130</v>
       </c>
       <c r="L86" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M86" t="s">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="N86" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C87" t="n">
-        <v>5.1329701E7</v>
+        <v>7.901572E7</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>234</v>
+        <v>114</v>
       </c>
       <c r="F87" t="s">
-        <v>184</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H87" t="s">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="I87" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>291</v>
+        <v>39</v>
       </c>
       <c r="K87" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="L87" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="M87" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="N87" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
       <c r="B88" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C88" t="n">
-        <v>2.6772531E7</v>
+        <v>7.0541995E7</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E88" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
       <c r="F88" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="H88" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I88" t="s">
-        <v>53</v>
+        <v>189</v>
       </c>
       <c r="J88" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="K88" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="L88" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="N88" t="s">
-        <v>78</v>
+        <v>320</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" t="s">
-        <v>323</v>
+        <v>233</v>
       </c>
       <c r="C89" t="n">
-        <v>9.5579929E7</v>
+        <v>3.4585764E7</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="H89" t="s">
-        <v>21</v>
+        <v>192</v>
       </c>
       <c r="I89" t="s">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="J89" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="K89" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="L89" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="M89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N89" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B90" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C90" t="n">
-        <v>2.5575213E7</v>
+        <v>1.8213048E7</v>
       </c>
       <c r="D90" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="F90" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G90" t="s">
-        <v>164</v>
+        <v>33</v>
       </c>
       <c r="H90" t="s">
-        <v>65</v>
+        <v>163</v>
       </c>
       <c r="I90" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="J90" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="K90" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="L90" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M90" t="s">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="N90" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="B91" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C91" t="n">
-        <v>2.0833168E7</v>
+        <v>2.6834475E7</v>
       </c>
       <c r="D91" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>52</v>
+        <v>192</v>
       </c>
       <c r="F91" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="H91" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
+        <v>227</v>
       </c>
       <c r="J91" t="s">
-        <v>168</v>
+        <v>121</v>
       </c>
       <c r="K91" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="M91" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="N91" t="s">
-        <v>214</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B92" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C92" t="n">
-        <v>6.7033936E7</v>
+        <v>3.5334829E7</v>
       </c>
       <c r="D92" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G92" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="H92" t="s">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="I92" t="s">
-        <v>132</v>
+        <v>291</v>
       </c>
       <c r="J92" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="K92" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L92" t="s">
-        <v>146</v>
+        <v>210</v>
       </c>
       <c r="M92" t="s">
-        <v>168</v>
+        <v>32</v>
       </c>
       <c r="N92" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>218</v>
+        <v>327</v>
       </c>
       <c r="B93" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C93" t="n">
-        <v>3.7826033E7</v>
+        <v>4.739338E7</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E93" t="s">
+        <v>170</v>
+      </c>
+      <c r="F93" t="s">
+        <v>135</v>
+      </c>
+      <c r="G93" t="s">
+        <v>142</v>
+      </c>
+      <c r="H93" t="s">
+        <v>212</v>
+      </c>
+      <c r="I93" t="s">
+        <v>88</v>
+      </c>
+      <c r="J93" t="s">
+        <v>89</v>
+      </c>
+      <c r="K93" t="s">
         <v>87</v>
       </c>
-      <c r="F93" t="s">
-        <v>75</v>
-      </c>
-      <c r="G93" t="s">
-        <v>197</v>
-      </c>
-      <c r="H93" t="s">
-        <v>94</v>
-      </c>
-      <c r="I93" t="s">
-        <v>17</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="L93" t="s">
+        <v>72</v>
+      </c>
+      <c r="M93" t="s">
         <v>143</v>
       </c>
-      <c r="K93" t="s">
-        <v>41</v>
-      </c>
-      <c r="L93" t="s">
-        <v>153</v>
-      </c>
-      <c r="M93" t="s">
-        <v>204</v>
-      </c>
       <c r="N93" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B94" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C94" t="n">
-        <v>1.3257342E7</v>
+        <v>3.4631594E7</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="F94" t="s">
+        <v>155</v>
+      </c>
+      <c r="G94" t="s">
+        <v>29</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>23</v>
+      </c>
+      <c r="J94" t="s">
+        <v>123</v>
+      </c>
+      <c r="K94" t="s">
+        <v>42</v>
+      </c>
+      <c r="L94" t="s">
+        <v>295</v>
+      </c>
+      <c r="M94" t="s">
         <v>22</v>
       </c>
-      <c r="G94" t="s">
-        <v>176</v>
-      </c>
-      <c r="H94" t="s">
-        <v>94</v>
-      </c>
-      <c r="I94" t="s">
-        <v>204</v>
-      </c>
-      <c r="J94" t="s">
-        <v>152</v>
-      </c>
-      <c r="K94" t="s">
-        <v>234</v>
-      </c>
-      <c r="L94" t="s">
-        <v>177</v>
-      </c>
-      <c r="M94" t="s">
-        <v>189</v>
-      </c>
       <c r="N94" t="s">
-        <v>73</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>218</v>
+        <v>331</v>
       </c>
       <c r="B95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" t="n">
+        <v>6.5238872E7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>16</v>
+      </c>
+      <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
+        <v>54</v>
+      </c>
+      <c r="G95" t="s">
+        <v>181</v>
+      </c>
+      <c r="H95" t="s">
+        <v>99</v>
+      </c>
+      <c r="I95" t="s">
         <v>333</v>
       </c>
-      <c r="C95" t="n">
-        <v>1.2724091E7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>16</v>
-      </c>
-      <c r="E95" t="s">
-        <v>143</v>
-      </c>
-      <c r="F95" t="s">
-        <v>128</v>
-      </c>
-      <c r="G95" t="s">
-        <v>201</v>
-      </c>
-      <c r="H95" t="s">
-        <v>28</v>
-      </c>
-      <c r="I95" t="s">
-        <v>29</v>
-      </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="K95" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L95" t="s">
-        <v>36</v>
+        <v>115</v>
       </c>
       <c r="M95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N95" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96">
@@ -5401,219 +5395,219 @@
         <v>334</v>
       </c>
       <c r="B96" t="s">
-        <v>335</v>
+        <v>184</v>
       </c>
       <c r="C96" t="n">
-        <v>2.4899265E7</v>
+        <v>9.5985018E7</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="F96" t="s">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="H96" t="s">
-        <v>178</v>
+        <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>249</v>
+        <v>119</v>
       </c>
       <c r="J96" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L96" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="M96" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="N96" t="s">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>335</v>
+      </c>
+      <c r="B97" t="s">
         <v>336</v>
       </c>
-      <c r="B97" t="s">
-        <v>337</v>
-      </c>
       <c r="C97" t="n">
-        <v>3.8958057E7</v>
+        <v>1.5673897E7</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F97" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="H97" t="s">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="I97" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="J97" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="L97" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="M97" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="N97" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>338</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C98" t="n">
-        <v>5.9254071E7</v>
+        <v>9.9704378E7</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E98" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" t="s">
+        <v>237</v>
+      </c>
+      <c r="G98" t="s">
+        <v>251</v>
+      </c>
+      <c r="H98" t="s">
+        <v>89</v>
+      </c>
+      <c r="I98" t="s">
+        <v>241</v>
+      </c>
+      <c r="J98" t="s">
+        <v>72</v>
+      </c>
+      <c r="K98" t="s">
         <v>61</v>
       </c>
-      <c r="F98" t="s">
-        <v>51</v>
-      </c>
-      <c r="G98" t="s">
-        <v>54</v>
-      </c>
-      <c r="H98" t="s">
-        <v>84</v>
-      </c>
-      <c r="I98" t="s">
-        <v>139</v>
-      </c>
-      <c r="J98" t="s">
-        <v>55</v>
-      </c>
-      <c r="K98" t="s">
-        <v>79</v>
-      </c>
       <c r="L98" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="M98" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="N98" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="B99" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C99" t="n">
-        <v>2.6241327E7</v>
+        <v>9.4896229E7</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="G99" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
       <c r="I99" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="J99" t="s">
+        <v>25</v>
+      </c>
+      <c r="K99" t="s">
         <v>121</v>
       </c>
-      <c r="K99" t="s">
-        <v>51</v>
-      </c>
       <c r="L99" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M99" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="N99" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="B100" t="s">
         <v>341</v>
       </c>
       <c r="C100" t="n">
-        <v>5.8454468E7</v>
+        <v>8.6952929E7</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E100" t="s">
-        <v>121</v>
+        <v>295</v>
       </c>
       <c r="F100" t="s">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="G100" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="H100" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="I100" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="J100" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K100" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="L100" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M100" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="N100" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101">
@@ -5624,700 +5618,700 @@
         <v>343</v>
       </c>
       <c r="C101" t="n">
-        <v>5.5612399E7</v>
+        <v>9.1097249E7</v>
       </c>
       <c r="D101" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>164</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>146</v>
+        <v>178</v>
       </c>
       <c r="G101" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="H101" t="s">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="I101" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
       <c r="J101" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="K101" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="L101" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="M101" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="N101" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>344</v>
       </c>
       <c r="B102" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C102" t="n">
-        <v>1.8192852E7</v>
+        <v>2.5177945E7</v>
       </c>
       <c r="D102" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F102" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>25</v>
       </c>
       <c r="H102" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="I102" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="J102" t="s">
-        <v>214</v>
+        <v>30</v>
       </c>
       <c r="K102" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="L102" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="M102" t="s">
-        <v>102</v>
+        <v>284</v>
       </c>
       <c r="N102" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B103" t="s">
-        <v>346</v>
+        <v>190</v>
       </c>
       <c r="C103" t="n">
-        <v>7.159872E7</v>
+        <v>3.5823864E7</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E103" t="s">
-        <v>260</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G103" t="s">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="H103" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="I103" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="J103" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="K103" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="L103" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="M103" t="s">
-        <v>148</v>
+        <v>215</v>
       </c>
       <c r="N103" t="s">
-        <v>133</v>
+        <v>246</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>273</v>
+        <v>223</v>
       </c>
       <c r="B104" t="s">
         <v>347</v>
       </c>
       <c r="C104" t="n">
-        <v>8.3257662E7</v>
+        <v>5.4436578E7</v>
       </c>
       <c r="D104" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E104" t="s">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="G104" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="H104" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="I104" t="s">
-        <v>133</v>
+        <v>25</v>
       </c>
       <c r="J104" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="K104" t="s">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="L104" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="M104" t="s">
-        <v>121</v>
+        <v>42</v>
       </c>
       <c r="N104" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>340</v>
+      </c>
+      <c r="B105" t="s">
         <v>348</v>
       </c>
-      <c r="B105" t="s">
-        <v>349</v>
-      </c>
       <c r="C105" t="n">
-        <v>9.2523347E7</v>
+        <v>8.450095E7</v>
       </c>
       <c r="D105" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E105" t="s">
-        <v>139</v>
+        <v>314</v>
       </c>
       <c r="F105" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G105" t="s">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="H105" t="s">
-        <v>181</v>
+        <v>68</v>
       </c>
       <c r="I105" t="s">
-        <v>125</v>
+        <v>158</v>
       </c>
       <c r="J105" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="K105" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="L105" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="M105" t="s">
-        <v>226</v>
+        <v>143</v>
       </c>
       <c r="N105" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>350</v>
+        <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C106" t="n">
-        <v>6.0467014E7</v>
+        <v>2.4498581E7</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F106" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="G106" t="s">
-        <v>28</v>
+        <v>192</v>
       </c>
       <c r="H106" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="J106" t="s">
-        <v>188</v>
+        <v>81</v>
       </c>
       <c r="K106" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="L106" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="M106" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N106" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B107" t="s">
-        <v>353</v>
+        <v>230</v>
       </c>
       <c r="C107" t="n">
-        <v>9.2558426E7</v>
+        <v>9.9739409E7</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c r="F107" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="H107" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="I107" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="J107" t="s">
-        <v>88</v>
+        <v>189</v>
       </c>
       <c r="K107" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="L107" t="s">
-        <v>172</v>
+        <v>35</v>
       </c>
       <c r="M107" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="N107" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B108" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C108" t="n">
-        <v>3.5313605E7</v>
+        <v>2.4628118E7</v>
       </c>
       <c r="D108" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E108" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F108" t="s">
-        <v>252</v>
+        <v>163</v>
       </c>
       <c r="G108" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="H108" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="I108" t="s">
-        <v>288</v>
+        <v>25</v>
       </c>
       <c r="J108" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="K108" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="L108" t="s">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="M108" t="s">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="N108" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B109" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C109" t="n">
-        <v>4.6147618E7</v>
+        <v>2.4227475E7</v>
       </c>
       <c r="D109" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>199</v>
       </c>
       <c r="G109" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="H109" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="I109" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="J109" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="K109" t="s">
-        <v>185</v>
+        <v>89</v>
       </c>
       <c r="L109" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="M109" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="N109" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C110" t="n">
-        <v>6.8326391E7</v>
+        <v>7.7753926E7</v>
       </c>
       <c r="D110" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E110" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="G110" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="H110" t="s">
-        <v>22</v>
+        <v>87</v>
       </c>
       <c r="I110" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="K110" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="L110" t="s">
-        <v>143</v>
+        <v>61</v>
       </c>
       <c r="M110" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="N110" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>179</v>
+        <v>357</v>
       </c>
       <c r="B111" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C111" t="n">
-        <v>8.5166326E7</v>
+        <v>6.8950008E7</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E111" t="s">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="F111" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="G111" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="H111" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="I111" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="J111" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="K111" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="L111" t="s">
-        <v>53</v>
+        <v>177</v>
       </c>
       <c r="M111" t="s">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="N111" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>360</v>
       </c>
       <c r="C112" t="n">
-        <v>6.2793563E7</v>
+        <v>2.0563167E7</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E112" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="F112" t="s">
-        <v>114</v>
+        <v>220</v>
       </c>
       <c r="G112" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="H112" t="s">
-        <v>178</v>
+        <v>88</v>
       </c>
       <c r="I112" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="J112" t="s">
-        <v>255</v>
+        <v>142</v>
       </c>
       <c r="K112" t="s">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="L112" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="M112" t="s">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="N112" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>361</v>
+      </c>
+      <c r="B113" t="s">
         <v>362</v>
       </c>
-      <c r="B113" t="s">
-        <v>135</v>
-      </c>
       <c r="C113" t="n">
-        <v>4.6114137E7</v>
+        <v>9.0227847E7</v>
       </c>
       <c r="D113" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E113" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="G113" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>221</v>
       </c>
       <c r="I113" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="K113" t="s">
-        <v>234</v>
+        <v>67</v>
       </c>
       <c r="L113" t="s">
-        <v>154</v>
+        <v>75</v>
       </c>
       <c r="M113" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="N113" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="B114" t="s">
-        <v>364</v>
+        <v>218</v>
       </c>
       <c r="C114" t="n">
-        <v>3.4127343E7</v>
+        <v>1.5994899E7</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="F114" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G114" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="I114" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="J114" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="K114" t="s">
-        <v>65</v>
+        <v>189</v>
       </c>
       <c r="L114" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="M114" t="s">
-        <v>49</v>
+        <v>182</v>
       </c>
       <c r="N114" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B115" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C115" t="n">
-        <v>9.5327302E7</v>
+        <v>8.2459138E7</v>
       </c>
       <c r="D115" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E115" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="F115" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G115" t="s">
-        <v>242</v>
+        <v>89</v>
       </c>
       <c r="H115" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I115" t="s">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="J115" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="K115" t="s">
-        <v>64</v>
+        <v>212</v>
       </c>
       <c r="L115" t="s">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="M115" t="s">
-        <v>260</v>
+        <v>173</v>
       </c>
       <c r="N115" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="C116" t="n">
-        <v>4.6978086E7</v>
+        <v>9.6817709E7</v>
       </c>
       <c r="D116" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>288</v>
+        <v>129</v>
       </c>
       <c r="F116" t="s">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="G116" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="H116" t="s">
-        <v>66</v>
+        <v>177</v>
       </c>
       <c r="I116" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="J116" t="s">
-        <v>57</v>
+        <v>185</v>
       </c>
       <c r="K116" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="L116" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M116" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
       <c r="N116" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
     </row>
     <row r="117">
@@ -6328,40 +6322,40 @@
         <v>368</v>
       </c>
       <c r="C117" t="n">
-        <v>1.8511605E7</v>
+        <v>4.256496E7</v>
       </c>
       <c r="D117" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="F117" t="s">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="G117" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="H117" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I117" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="J117" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="K117" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="M117" t="s">
-        <v>226</v>
+        <v>103</v>
       </c>
       <c r="N117" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="118">
@@ -6372,172 +6366,172 @@
         <v>370</v>
       </c>
       <c r="C118" t="n">
-        <v>9.1461767E7</v>
+        <v>7.4972571E7</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E118" t="s">
-        <v>29</v>
+        <v>142</v>
       </c>
       <c r="F118" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="G118" t="s">
-        <v>255</v>
+        <v>88</v>
       </c>
       <c r="H118" t="s">
-        <v>23</v>
+        <v>237</v>
       </c>
       <c r="I118" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="J118" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="K118" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="L118" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="M118" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="N118" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
+        <v>160</v>
+      </c>
+      <c r="B119" t="s">
         <v>371</v>
       </c>
-      <c r="B119" t="s">
-        <v>372</v>
-      </c>
       <c r="C119" t="n">
-        <v>3.8455485E7</v>
+        <v>9.2308076E7</v>
       </c>
       <c r="D119" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E119" t="s">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="F119" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="H119" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="I119" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="J119" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="K119" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="L119" t="s">
-        <v>115</v>
+        <v>199</v>
       </c>
       <c r="M119" t="s">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="N119" t="s">
-        <v>20</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
+        <v>372</v>
+      </c>
+      <c r="B120" t="s">
         <v>373</v>
       </c>
-      <c r="B120" t="s">
-        <v>374</v>
-      </c>
       <c r="C120" t="n">
-        <v>8.0457523E7</v>
+        <v>9.6686382E7</v>
       </c>
       <c r="D120" t="s">
         <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="F120" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
       <c r="G120" t="s">
-        <v>157</v>
+        <v>101</v>
       </c>
       <c r="H120" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I120" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="J120" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="K120" t="s">
-        <v>24</v>
+        <v>162</v>
       </c>
       <c r="L120" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="M120" t="s">
-        <v>21</v>
+        <v>284</v>
       </c>
       <c r="N120" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>375</v>
+        <v>274</v>
       </c>
       <c r="B121" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C121" t="n">
-        <v>8.5657058E7</v>
+        <v>7.3497242E7</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E121" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="F121" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G121" t="s">
-        <v>30</v>
+        <v>137</v>
       </c>
       <c r="H121" t="s">
+        <v>174</v>
+      </c>
+      <c r="I121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J121" t="s">
+        <v>96</v>
+      </c>
+      <c r="K121" t="s">
+        <v>143</v>
+      </c>
+      <c r="L121" t="s">
+        <v>73</v>
+      </c>
+      <c r="M121" t="s">
+        <v>67</v>
+      </c>
+      <c r="N121" t="s">
         <v>246</v>
-      </c>
-      <c r="I121" t="s">
-        <v>108</v>
-      </c>
-      <c r="J121" t="s">
-        <v>194</v>
-      </c>
-      <c r="K121" t="s">
-        <v>160</v>
-      </c>
-      <c r="L121" t="s">
-        <v>34</v>
-      </c>
-      <c r="M121" t="s">
-        <v>41</v>
-      </c>
-      <c r="N121" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="388">
   <si>
     <t>First Name</t>
   </si>
@@ -56,238 +56,1042 @@
     <t>Preference 10</t>
   </si>
   <si>
+    <t>Judy</t>
+  </si>
+  <si>
+    <t>Blume</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>promoting logical thinking</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>getting a nose job</t>
+  </si>
+  <si>
+    <t>causing mayhem</t>
+  </si>
+  <si>
+    <t>plotting with the enemy</t>
+  </si>
+  <si>
+    <t>executing morally appalling plans</t>
+  </si>
+  <si>
+    <t>squandering money</t>
+  </si>
+  <si>
+    <t>avoiding growing old</t>
+  </si>
+  <si>
+    <t>Brigitte</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>promoting movie violence</t>
+  </si>
+  <si>
+    <t>running a business empire</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars</t>
+  </si>
+  <si>
+    <t>interpreting evidence</t>
+  </si>
+  <si>
+    <t>telling bad jokes</t>
+  </si>
+  <si>
+    <t>amassing wealth</t>
+  </si>
+  <si>
+    <t>Jay</t>
+  </si>
+  <si>
+    <t>Leno</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>fighting for democracy</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>peacocking in fancy clothes</t>
+  </si>
+  <si>
+    <t>instigating rebellion</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>selling comic books</t>
+  </si>
+  <si>
+    <t>promoting Buddhism</t>
+  </si>
+  <si>
+    <t>starring in cowboy movies</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>eluding the CIA</t>
+  </si>
+  <si>
+    <t>hunting aliens</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Blaha</t>
+  </si>
+  <si>
+    <t>collecting green Kryponite</t>
+  </si>
+  <si>
+    <t>fighting for justice</t>
+  </si>
+  <si>
+    <t>smoking cigarettes</t>
+  </si>
+  <si>
+    <t>developing political strategies</t>
+  </si>
+  <si>
+    <t>commanding Roman legions</t>
+  </si>
+  <si>
     <t>Michael</t>
   </si>
   <si>
-    <t>Phelps</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>being a good neighbor</t>
-  </si>
-  <si>
-    <t>offering advice</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>writing in ledgers</t>
-  </si>
-  <si>
-    <t>studying science</t>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>mangling idioms</t>
+  </si>
+  <si>
+    <t>preparing for war</t>
+  </si>
+  <si>
+    <t>piloting a spaceship</t>
+  </si>
+  <si>
+    <t>teaching the next generation</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>beating menial staff</t>
+  </si>
+  <si>
+    <t>terrorizing employees</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Petersen</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>running a propaganda machine</t>
+  </si>
+  <si>
+    <t>breaking records</t>
+  </si>
+  <si>
+    <t>promoting evolutionary theory</t>
+  </si>
+  <si>
+    <t>winning boxing matches</t>
+  </si>
+  <si>
+    <t>reading braille</t>
+  </si>
+  <si>
+    <t>plagiarizing political speeches</t>
+  </si>
+  <si>
+    <t>Gaston</t>
+  </si>
+  <si>
+    <t>Leroux</t>
+  </si>
+  <si>
+    <t>playing jazz saxophone</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>spreading revolution</t>
+  </si>
+  <si>
+    <t>teaching philosophy to future leaders</t>
+  </si>
+  <si>
+    <t>pushing dodgy operating systems</t>
+  </si>
+  <si>
+    <t>talking in riddles</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>engaging in hapless hijinks</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>Staubach</t>
+  </si>
+  <si>
+    <t>jumping on couches</t>
+  </si>
+  <si>
+    <t>building rocket ships</t>
+  </si>
+  <si>
+    <t>running restaurants</t>
+  </si>
+  <si>
+    <t>painting magazine covers</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>modeling DNA</t>
+  </si>
+  <si>
+    <t>leading an exodus</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>painting church ceilings</t>
+  </si>
+  <si>
+    <t>divorcing husbands</t>
+  </si>
+  <si>
+    <t>singing torch songs</t>
+  </si>
+  <si>
+    <t>playing tough guys</t>
+  </si>
+  <si>
+    <t>cracking the whip</t>
+  </si>
+  <si>
+    <t>opening new markets</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>ranting about liberals</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Spielburg</t>
+  </si>
+  <si>
+    <t>cheating at poker</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>reporting for The Daily Planet</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>Zevon</t>
+  </si>
+  <si>
+    <t>playing the piano</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>proving math theorems</t>
+  </si>
+  <si>
+    <t>making bad movie choices</t>
+  </si>
+  <si>
+    <t>hunting raccoons</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Richardson</t>
+  </si>
+  <si>
+    <t>Isadora</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>selling out</t>
+  </si>
+  <si>
+    <t>Harold</t>
+  </si>
+  <si>
+    <t>Pinter</t>
+  </si>
+  <si>
+    <t>looking for immortality</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Pullman</t>
+  </si>
+  <si>
+    <t>delivering forehand slams</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>Tyson</t>
+  </si>
+  <si>
+    <t>extracting confessions</t>
+  </si>
+  <si>
+    <t>finding clues</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Hexum</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>seducing emperors</t>
+  </si>
+  <si>
+    <t>analyzing the sub-conscious</t>
+  </si>
+  <si>
+    <t>doing raunchy stage acts</t>
+  </si>
+  <si>
+    <t>Lady</t>
+  </si>
+  <si>
+    <t>Gaga</t>
+  </si>
+  <si>
+    <t>raising new-age children</t>
+  </si>
+  <si>
+    <t>promoting communism</t>
+  </si>
+  <si>
+    <t>playing ice hockey</t>
+  </si>
+  <si>
+    <t>Denis</t>
+  </si>
+  <si>
+    <t>Leary</t>
+  </si>
+  <si>
+    <t>writing serialized stories</t>
+  </si>
+  <si>
+    <t>ruling over subjects</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Danson</t>
+  </si>
+  <si>
+    <t>watching TV</t>
+  </si>
+  <si>
+    <t>writing poetry</t>
+  </si>
+  <si>
+    <t>building empires</t>
+  </si>
+  <si>
+    <t>Gena</t>
+  </si>
+  <si>
+    <t>Rowlands</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side</t>
+  </si>
+  <si>
+    <t>singing on TV shows</t>
+  </si>
+  <si>
+    <t>Erma</t>
+  </si>
+  <si>
+    <t>Bombeck</t>
+  </si>
+  <si>
+    <t>modeling clothes</t>
   </si>
   <si>
     <t>cross-dressing in women's clothes</t>
   </si>
   <si>
-    <t>instigating rebellion</t>
-  </si>
-  <si>
-    <t>writing TV comedies</t>
-  </si>
-  <si>
-    <t>writing about sex</t>
-  </si>
-  <si>
-    <t>preparing for war</t>
-  </si>
-  <si>
-    <t>Chuck</t>
-  </si>
-  <si>
-    <t>Mangione</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>recording pop songs</t>
-  </si>
-  <si>
-    <t>promoting capitalism</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>composing classical music</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>defending plaintiffs</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>running a technology company</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Picasso</t>
-  </si>
-  <si>
-    <t>looking for love</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>working for the forces of darkness</t>
-  </si>
-  <si>
-    <t>running a business empire</t>
-  </si>
-  <si>
-    <t>chasing criminals</t>
-  </si>
-  <si>
-    <t>killing murderers</t>
-  </si>
-  <si>
-    <t>smuggling contraband</t>
-  </si>
-  <si>
-    <t>watching the sun rise</t>
+    <t>Koppel</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>giving speeches</t>
+  </si>
+  <si>
+    <t>promoting Catholic values</t>
+  </si>
+  <si>
+    <t>Maya</t>
+  </si>
+  <si>
+    <t>Lin</t>
+  </si>
+  <si>
+    <t>fighting for civil rights</t>
+  </si>
+  <si>
+    <t>keeping a diary</t>
+  </si>
+  <si>
+    <t>monetizing physical assets</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Autry</t>
+  </si>
+  <si>
+    <t>starring in daytime soap operas</t>
+  </si>
+  <si>
+    <t>clipping coupons</t>
+  </si>
+  <si>
+    <t>making prank calls</t>
+  </si>
+  <si>
+    <t>Gina</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>directing bad movies</t>
+  </si>
+  <si>
+    <t>playing the clarinet</t>
+  </si>
+  <si>
+    <t>Nadia</t>
+  </si>
+  <si>
+    <t>Comaneci</t>
+  </si>
+  <si>
+    <t>slapping soldiers</t>
+  </si>
+  <si>
+    <t>singing country music</t>
+  </si>
+  <si>
+    <t>promoting Darwinism</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Owens</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Southern</t>
+  </si>
+  <si>
+    <t>publishing soft pornography</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
+    <t>Widmark</t>
+  </si>
+  <si>
+    <t>running a crime family</t>
+  </si>
+  <si>
+    <t>Jon</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>punishing criminals</t>
+  </si>
+  <si>
+    <t>Mark</t>
+  </si>
+  <si>
+    <t>Gosselaar</t>
+  </si>
+  <si>
+    <t>shopping for shoes</t>
+  </si>
+  <si>
+    <t>signing sports memorabilia</t>
+  </si>
+  <si>
+    <t>Edward</t>
+  </si>
+  <si>
+    <t>Steichen</t>
+  </si>
+  <si>
+    <t>running a media empire</t>
+  </si>
+  <si>
+    <t>Abe</t>
+  </si>
+  <si>
+    <t>Vigoda</t>
+  </si>
+  <si>
+    <t>Grigori</t>
+  </si>
+  <si>
+    <t>Rasputin</t>
+  </si>
+  <si>
+    <t>Halle</t>
+  </si>
+  <si>
+    <t>Berry</t>
+  </si>
+  <si>
+    <t>Lorne</t>
+  </si>
+  <si>
+    <t>Greene</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Herb</t>
+  </si>
+  <si>
+    <t>Alpert</t>
+  </si>
+  <si>
+    <t>developing new technologies</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
+    <t>Coogan</t>
+  </si>
+  <si>
+    <t>painting abstract pictures</t>
+  </si>
+  <si>
+    <t>Pryor</t>
+  </si>
+  <si>
+    <t>giving noogies</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Jr</t>
+  </si>
+  <si>
+    <t>teaching magic</t>
+  </si>
+  <si>
+    <t>B.B.</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Marciano</t>
+  </si>
+  <si>
+    <t>Larry</t>
+  </si>
+  <si>
+    <t>Flynt</t>
+  </si>
+  <si>
+    <t>Terrence</t>
+  </si>
+  <si>
+    <t>Stamp</t>
+  </si>
+  <si>
+    <t>studying gorillas up close</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Hamm</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>Edith</t>
+  </si>
+  <si>
+    <t>Wharton</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>Malcolm</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Foster</t>
+  </si>
+  <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Morey</t>
+  </si>
+  <si>
+    <t>Amsterdam</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Stoltz</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>playing the violin</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Truman</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Andre</t>
+  </si>
+  <si>
+    <t>Previn</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Brady</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>DePalma</t>
+  </si>
+  <si>
+    <t>Carol</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Leonardo</t>
+  </si>
+  <si>
+    <t>Da-Vinci</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>Angel</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Hines</t>
+  </si>
+  <si>
+    <t>Zorro</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Teresa</t>
+  </si>
+  <si>
+    <t>Teng</t>
+  </si>
+  <si>
+    <t>Kaye</t>
+  </si>
+  <si>
+    <t>Ballard</t>
+  </si>
+  <si>
+    <t>Wallace</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t>Thomas</t>
   </si>
   <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>leading revolts</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>chasing flappers</t>
-  </si>
-  <si>
-    <t>frying crabby patties</t>
-  </si>
-  <si>
-    <t>fighting the resistance</t>
-  </si>
-  <si>
-    <t>reporting for The Daily Planet</t>
-  </si>
-  <si>
-    <t>suppressing violent urges</t>
-  </si>
-  <si>
-    <t>killing people in ingenious ways</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>Bon-Jovi</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>promoting Eastern philosophy</t>
-  </si>
-  <si>
-    <t>preaching to presidents</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>starring in action movies</t>
-  </si>
-  <si>
-    <t>making dumb comedies</t>
-  </si>
-  <si>
-    <t>commenting on social issues</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>building a search engine</t>
-  </si>
-  <si>
-    <t>playing basketball</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>singing to teenagers</t>
-  </si>
-  <si>
-    <t>insulting minorities</t>
-  </si>
-  <si>
-    <t>winning Michelin stars</t>
-  </si>
-  <si>
-    <t>building houses for poor people</t>
-  </si>
-  <si>
-    <t>driving under the influence</t>
-  </si>
-  <si>
-    <t>promoting liberal values</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>wielding political power</t>
-  </si>
-  <si>
-    <t>studying magic tricks</t>
-  </si>
-  <si>
-    <t>fighting for the rebel alliance</t>
-  </si>
-  <si>
-    <t>inventing electrical marvels</t>
-  </si>
-  <si>
-    <t>counting tooth picks</t>
+    <t>Eli</t>
+  </si>
+  <si>
+    <t>Wallach</t>
+  </si>
+  <si>
+    <t>crushing dissent</t>
+  </si>
+  <si>
+    <t>Merv</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Greeley</t>
+  </si>
+  <si>
+    <t>Dr.</t>
+  </si>
+  <si>
+    <t>Drew</t>
+  </si>
+  <si>
+    <t>Doris</t>
+  </si>
+  <si>
+    <t>Roberts</t>
+  </si>
+  <si>
+    <t>Peppard</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>Harper</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Donahue</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Seton</t>
+  </si>
+  <si>
+    <t>Della</t>
+  </si>
+  <si>
+    <t>Reese</t>
+  </si>
+  <si>
+    <t>writing about social problems</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Stephan</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Mead</t>
+  </si>
+  <si>
+    <t>Spock</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>Rob</t>
+  </si>
+  <si>
+    <t>Dam</t>
+  </si>
+  <si>
+    <t>making subversive art</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Kemp</t>
+  </si>
+  <si>
+    <t>Miles</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Sandford</t>
+  </si>
+  <si>
+    <t>barking orders at subordinates</t>
+  </si>
+  <si>
+    <t>Dench</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Piquet</t>
+  </si>
+  <si>
+    <t>Cusack</t>
+  </si>
+  <si>
+    <t>Yoko</t>
+  </si>
+  <si>
+    <t>Ono</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Heston</t>
+  </si>
+  <si>
+    <t>Betty</t>
+  </si>
+  <si>
+    <t>Grable</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>DellAbate</t>
+  </si>
+  <si>
+    <t>Irving</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>Norm</t>
+  </si>
+  <si>
+    <t>Hitzges</t>
+  </si>
+  <si>
+    <t>Cloris</t>
+  </si>
+  <si>
+    <t>Leachman</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Sirleaf</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Brody</t>
   </si>
   <si>
     <t>Carroll</t>
@@ -296,856 +1100,82 @@
     <t>OConnor</t>
   </si>
   <si>
-    <t>duelling acrobatically</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>finding clues</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Torme</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>flying into a rage</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>eluding electronic ghosts</t>
-  </si>
-  <si>
-    <t>Wernher</t>
-  </si>
-  <si>
-    <t>Von-Braun</t>
-  </si>
-  <si>
-    <t>plotting election strategies</t>
-  </si>
-  <si>
-    <t>designing clothes</t>
-  </si>
-  <si>
-    <t>writing mystery stories</t>
-  </si>
-  <si>
-    <t>promoting Fascism</t>
-  </si>
-  <si>
-    <t>making fantasy movies</t>
-  </si>
-  <si>
-    <t>pioneering new technologies</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>Lena</t>
-  </si>
-  <si>
-    <t>Horne</t>
-  </si>
-  <si>
-    <t>podcasting about movies</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Culp</t>
-  </si>
-  <si>
-    <t>promoting greed</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>Shirley</t>
-  </si>
-  <si>
-    <t>Temple</t>
-  </si>
-  <si>
-    <t>opening new markets</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>painting realistic pictures</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Shaffer</t>
-  </si>
-  <si>
-    <t>chasing starlets</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>building rocket ships</t>
-  </si>
-  <si>
-    <t>Randy</t>
-  </si>
-  <si>
-    <t>Orton</t>
-  </si>
-  <si>
-    <t>handing out flowers</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>OKeeffe</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>following the money</t>
-  </si>
-  <si>
-    <t>exploring foreign countries</t>
-  </si>
-  <si>
-    <t>painting colorful pictures</t>
-  </si>
-  <si>
-    <t>Mahalia</t>
-  </si>
-  <si>
-    <t>leaking classified documents</t>
-  </si>
-  <si>
-    <t>seducing emperors</t>
-  </si>
-  <si>
-    <t>promoting air travel</t>
-  </si>
-  <si>
-    <t>playing rock music</t>
-  </si>
-  <si>
-    <t>Lenny</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>fighting with swords</t>
-  </si>
-  <si>
-    <t>writing comedy</t>
-  </si>
-  <si>
-    <t>fighting for civil rights</t>
-  </si>
-  <si>
-    <t>Kravitz</t>
-  </si>
-  <si>
-    <t>Felipe</t>
-  </si>
-  <si>
-    <t>Calderón</t>
-  </si>
-  <si>
-    <t>Saget</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>recruiting dissidents</t>
-  </si>
-  <si>
-    <t>Auguste</t>
-  </si>
-  <si>
-    <t>Rodin</t>
-  </si>
-  <si>
-    <t>investigating alien abductions</t>
-  </si>
-  <si>
-    <t>Bernie</t>
-  </si>
-  <si>
-    <t>Mac</t>
-  </si>
-  <si>
-    <t>falling gracefully</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Edwards</t>
-  </si>
-  <si>
-    <t>Brad</t>
-  </si>
-  <si>
-    <t>Dourif</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Buckley</t>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Alba</t>
+  </si>
+  <si>
+    <t>Milton</t>
+  </si>
+  <si>
+    <t>Berle</t>
+  </si>
+  <si>
+    <t>Connie</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Sally</t>
+  </si>
+  <si>
+    <t>Kellerman</t>
+  </si>
+  <si>
+    <t>Arnold</t>
+  </si>
+  <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Amerigo</t>
+  </si>
+  <si>
+    <t>Vespucci</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Elway</t>
+  </si>
+  <si>
+    <t>Claude</t>
+  </si>
+  <si>
+    <t>Lelouch</t>
   </si>
   <si>
     <t>teaching philosophy</t>
   </si>
   <si>
-    <t>lecturing about climate change</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>Bix</t>
-  </si>
-  <si>
-    <t>Beiderbecke</t>
-  </si>
-  <si>
-    <t>throwing sex parties</t>
-  </si>
-  <si>
-    <t>campaigning for world peace</t>
-  </si>
-  <si>
-    <t>running a large metropolitan city</t>
-  </si>
-  <si>
-    <t>singing country music</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Kardashian</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>assassinating presidents</t>
-  </si>
-  <si>
-    <t>robbing banks</t>
-  </si>
-  <si>
-    <t>painting dark pictures</t>
-  </si>
-  <si>
-    <t>developing operating systems</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Hopper</t>
-  </si>
-  <si>
-    <t>representing criminals</t>
-  </si>
-  <si>
-    <t>running a criminal empire</t>
-  </si>
-  <si>
-    <t>Dianna</t>
-  </si>
-  <si>
-    <t>Agron</t>
-  </si>
-  <si>
-    <t>offering medical opinions</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Sinatra</t>
-  </si>
-  <si>
-    <t>performing physical therapy</t>
-  </si>
-  <si>
-    <t>Lovesmith</t>
-  </si>
-  <si>
-    <t>Ripley</t>
-  </si>
-  <si>
-    <t>Van</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Jimi</t>
-  </si>
-  <si>
-    <t>Hendrix</t>
-  </si>
-  <si>
-    <t>running a media empire</t>
-  </si>
-  <si>
-    <t>Fairbanks</t>
-  </si>
-  <si>
-    <t>Herbert</t>
-  </si>
-  <si>
-    <t>Hoover</t>
-  </si>
-  <si>
-    <t>drawing whimsical cartoons</t>
-  </si>
-  <si>
-    <t>singing melancholy songs</t>
-  </si>
-  <si>
-    <t>Tiny</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>escaping from water tanks</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Freeman</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>Cliburn</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>Beyonce</t>
-  </si>
-  <si>
-    <t>Knowles</t>
-  </si>
-  <si>
-    <t>carrying secret plans</t>
-  </si>
-  <si>
-    <t>Jean</t>
-  </si>
-  <si>
-    <t>Stapleton</t>
-  </si>
-  <si>
-    <t>spouting movie trivia</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Ito</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Hoffa</t>
-  </si>
-  <si>
-    <t>convicting criminals</t>
-  </si>
-  <si>
-    <t>moaning about women</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Grisham</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>Gable</t>
-  </si>
-  <si>
-    <t>Abigail</t>
-  </si>
-  <si>
-    <t>Buren</t>
-  </si>
-  <si>
-    <t>making action movies</t>
-  </si>
-  <si>
-    <t>Ike</t>
-  </si>
-  <si>
-    <t>Turner</t>
-  </si>
-  <si>
-    <t>Spencer</t>
-  </si>
-  <si>
-    <t>Pratt</t>
-  </si>
-  <si>
-    <t>Gabe</t>
-  </si>
-  <si>
-    <t>Kaplan</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>X.J.</t>
-  </si>
-  <si>
-    <t>Kennedy</t>
-  </si>
-  <si>
-    <t>doing stand-up</t>
-  </si>
-  <si>
-    <t>Ellen</t>
-  </si>
-  <si>
-    <t>Degenerous</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Nolte</t>
-  </si>
-  <si>
-    <t>Jackie</t>
-  </si>
-  <si>
-    <t>Coogan</t>
-  </si>
-  <si>
-    <t>inventing new technologies</t>
-  </si>
-  <si>
-    <t>Keira</t>
-  </si>
-  <si>
-    <t>Knightley</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Audie</t>
-  </si>
-  <si>
-    <t>Murphy</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Seton</t>
-  </si>
-  <si>
-    <t>bodybuilding</t>
-  </si>
-  <si>
-    <t>Forrest</t>
-  </si>
-  <si>
-    <t>Gump</t>
-  </si>
-  <si>
-    <t>Larry</t>
-  </si>
-  <si>
-    <t>Hagman</t>
-  </si>
-  <si>
-    <t>Jawaharlal</t>
-  </si>
-  <si>
-    <t>Nehru</t>
-  </si>
-  <si>
-    <t>Gandhi</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Clara</t>
-  </si>
-  <si>
-    <t>Barton</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Cuban</t>
-  </si>
-  <si>
-    <t>Mugabe</t>
-  </si>
-  <si>
-    <t>Xuxa</t>
-  </si>
-  <si>
-    <t>Duff</t>
-  </si>
-  <si>
-    <t>Goldman</t>
-  </si>
-  <si>
-    <t>making trains run on time</t>
-  </si>
-  <si>
-    <t>Durante</t>
-  </si>
-  <si>
-    <t>Micky</t>
-  </si>
-  <si>
-    <t>Dolenz</t>
-  </si>
-  <si>
-    <t>Fred</t>
-  </si>
-  <si>
-    <t>Couples</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>OToole</t>
-  </si>
-  <si>
-    <t>preventing terrorism</t>
-  </si>
-  <si>
-    <t>Nik</t>
-  </si>
-  <si>
-    <t>Kershaw</t>
-  </si>
-  <si>
-    <t>making escape plans</t>
-  </si>
-  <si>
-    <t>Bishop</t>
-  </si>
-  <si>
-    <t>Tutu</t>
-  </si>
-  <si>
-    <t>Earl</t>
-  </si>
-  <si>
-    <t>Campbell</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Holly</t>
-  </si>
-  <si>
-    <t>Combs</t>
-  </si>
-  <si>
-    <t>Candice</t>
-  </si>
-  <si>
-    <t>Bergen</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Springer</t>
-  </si>
-  <si>
-    <t>Joe</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>smoking herb</t>
-  </si>
-  <si>
-    <t>Naseem</t>
-  </si>
-  <si>
-    <t>Hamed</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Priestley</t>
-  </si>
-  <si>
-    <t>Deepak</t>
-  </si>
-  <si>
-    <t>Chopra</t>
-  </si>
-  <si>
-    <t>Foxy</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Rosemary</t>
-  </si>
-  <si>
-    <t>Clooney</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Osgood</t>
-  </si>
-  <si>
-    <t>Jeannie</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Balsam</t>
-  </si>
-  <si>
-    <t>Z.Z.</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Webb</t>
-  </si>
-  <si>
-    <t>Drew</t>
-  </si>
-  <si>
-    <t>Bledsoe</t>
-  </si>
-  <si>
-    <t>Tibbets</t>
-  </si>
-  <si>
-    <t>Turturro</t>
-  </si>
-  <si>
-    <t>Jay</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Mike</t>
-  </si>
-  <si>
-    <t>Nichols</t>
-  </si>
-  <si>
-    <t>Lebron</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Walton</t>
-  </si>
-  <si>
-    <t>Coburn</t>
-  </si>
-  <si>
-    <t>Luciano</t>
-  </si>
-  <si>
-    <t>Mama</t>
-  </si>
-  <si>
-    <t>Elliot</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Lennox</t>
-  </si>
-  <si>
-    <t>Cary</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Buttons</t>
-  </si>
-  <si>
-    <t>Burt</t>
-  </si>
-  <si>
-    <t>Bacharach</t>
-  </si>
-  <si>
-    <t>C.</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Woods</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Isaak</t>
-  </si>
-  <si>
-    <t>Vince</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Louisa</t>
-  </si>
-  <si>
-    <t>Alcott</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Fonda</t>
-  </si>
-  <si>
-    <t>Scott</t>
-  </si>
-  <si>
-    <t>Glenn</t>
-  </si>
-  <si>
-    <t>Eddie</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Lyle</t>
-  </si>
-  <si>
-    <t>Talbot</t>
-  </si>
-  <si>
-    <t>Osama</t>
-  </si>
-  <si>
-    <t>bin-Laden</t>
-  </si>
-  <si>
-    <t>Ed</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Flynt</t>
-  </si>
-  <si>
-    <t>Alistair</t>
-  </si>
-  <si>
-    <t>Cooke</t>
-  </si>
-  <si>
-    <t>Cyril</t>
-  </si>
-  <si>
-    <t>Ritchard</t>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Maltin</t>
+  </si>
+  <si>
+    <t>Zubin</t>
+  </si>
+  <si>
+    <t>Mehta</t>
+  </si>
+  <si>
+    <t>Hurley</t>
+  </si>
+  <si>
+    <t>Norman</t>
+  </si>
+  <si>
+    <t>Lear</t>
+  </si>
+  <si>
+    <t>Julie</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
 </sst>
 </file>
@@ -1207,16 +1237,16 @@
     <col min="2" max="2" width="13.54296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.95703125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.69921875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="34.9609375" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="34.9609375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="30.88671875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="30.50390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="34.51171875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="34.51171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="30.88671875" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="31.40625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="34.51171875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="30.88671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1271,7 +1301,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>3.374029E7</v>
+        <v>6.0121495E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1315,22 +1345,22 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>9.1291761E7</v>
+        <v>4.7807962E7</v>
       </c>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
       </c>
       <c r="G3" t="s">
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
         <v>32</v>
@@ -1339,456 +1369,456 @@
         <v>33</v>
       </c>
       <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>35</v>
-      </c>
-      <c r="M3" t="s">
-        <v>36</v>
-      </c>
-      <c r="N3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.3916182E7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>8.0896466E7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>42</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>47</v>
-      </c>
-      <c r="M4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>5.4095161E7</v>
+        <v>3.3535223E7</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" t="s">
         <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" t="s">
-        <v>56</v>
-      </c>
       <c r="C6" t="n">
-        <v>1.480471E7</v>
+        <v>3.8528065E7</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>58</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" t="s">
         <v>60</v>
       </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" t="s">
-        <v>62</v>
-      </c>
       <c r="N6" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="n">
+        <v>9.9433958E7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.9113003E7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
         <v>65</v>
       </c>
-      <c r="F7" t="s">
+      <c r="L7" t="s">
         <v>66</v>
       </c>
-      <c r="G7" t="s">
+      <c r="M7" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" t="s">
         <v>67</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" t="s">
-        <v>69</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>71</v>
-      </c>
-      <c r="M7" t="s">
-        <v>72</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n">
-        <v>1.79382E7</v>
+        <v>4.8634858E7</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" t="s">
         <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C9" t="n">
-        <v>3.7963849E7</v>
+        <v>4.0945533E7</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>86</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C10" t="n">
-        <v>2.9436106E7</v>
+        <v>3.1038925E7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" t="s">
         <v>87</v>
       </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
       <c r="J10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>8.0493531E7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="s">
+      <c r="I11" t="s">
         <v>98</v>
       </c>
-      <c r="C11" t="n">
-        <v>6.621747E7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" t="s">
         <v>99</v>
       </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="M11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K11" t="s">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
-      </c>
       <c r="N11" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.7057541E7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
         <v>103</v>
       </c>
-      <c r="B12" t="s">
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
         <v>104</v>
       </c>
-      <c r="C12" t="n">
-        <v>5.3856569E7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>105</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>106</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
         <v>109</v>
-      </c>
-      <c r="M12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.394799E7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>112</v>
       </c>
-      <c r="B13" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="C13" t="n">
-        <v>5.6181077E7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>114</v>
       </c>
-      <c r="G13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" t="s">
-        <v>33</v>
-      </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="L13" t="s">
         <v>115</v>
       </c>
       <c r="M13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -1799,84 +1829,84 @@
         <v>117</v>
       </c>
       <c r="C14" t="n">
-        <v>7.3121108E7</v>
+        <v>8.3167471E7</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C15" t="n">
-        <v>2.6309761E7</v>
+        <v>1.0089859E7</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="K15" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="L15" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1887,37 +1917,37 @@
         <v>127</v>
       </c>
       <c r="C16" t="n">
-        <v>5.3116219E7</v>
+        <v>2.1810007E7</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="J16" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" t="s">
         <v>129</v>
-      </c>
-      <c r="M16" t="s">
-        <v>77</v>
       </c>
       <c r="N16" t="s">
         <v>130</v>
@@ -1931,216 +1961,216 @@
         <v>132</v>
       </c>
       <c r="C17" t="n">
-        <v>8.7281703E7</v>
+        <v>5.4146855E7</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>33</v>
       </c>
       <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" t="s">
         <v>133</v>
       </c>
-      <c r="G17" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" t="s">
-        <v>53</v>
-      </c>
-      <c r="I17" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K17" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-      <c r="M17" t="s">
-        <v>94</v>
-      </c>
       <c r="N17" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
         <v>135</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="n">
+        <v>9.311477E7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" t="s">
         <v>136</v>
       </c>
-      <c r="C18" t="n">
-        <v>3.348989E7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" t="s">
         <v>137</v>
       </c>
-      <c r="H18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I18" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>105</v>
       </c>
-      <c r="K18" t="s">
-        <v>138</v>
-      </c>
       <c r="L18" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="N18" t="s">
-        <v>141</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C19" t="n">
-        <v>1.4185724E7</v>
+        <v>5.4417441E7</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="F19" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G19" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="H19" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="J19" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="L19" t="s">
-        <v>146</v>
+        <v>59</v>
       </c>
       <c r="M19" t="s">
-        <v>111</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C20" t="n">
+        <v>9.905351E7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>129</v>
+      </c>
+      <c r="H20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" t="s">
         <v>147</v>
       </c>
-      <c r="B20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2.4009546E7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G20" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" t="s">
-        <v>151</v>
-      </c>
-      <c r="J20" t="s">
-        <v>107</v>
-      </c>
-      <c r="K20" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" t="s">
-        <v>67</v>
-      </c>
       <c r="M20" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.6933692E7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>39</v>
+      </c>
+      <c r="L21" t="s">
         <v>152</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.7312558E7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" t="s">
-        <v>134</v>
-      </c>
-      <c r="H21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" t="s">
-        <v>48</v>
-      </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" t="s">
-        <v>87</v>
-      </c>
-      <c r="L21" t="s">
-        <v>20</v>
       </c>
       <c r="M21" t="s">
         <v>46</v>
       </c>
       <c r="N21" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -2151,4396 +2181,4396 @@
         <v>154</v>
       </c>
       <c r="C22" t="n">
-        <v>9.6395928E7</v>
+        <v>6.034552E7</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>33</v>
+        <v>155</v>
       </c>
       <c r="F22" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" t="s">
         <v>137</v>
       </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
       <c r="H22" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="K22" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="L22" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="N22" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C23" t="n">
-        <v>3.4577448E7</v>
+        <v>8.096025E7</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F23" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="G23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="I23" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="L23" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="M23" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="N23" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C24" t="n">
-        <v>6.4530929E7</v>
+        <v>6.9904643E7</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L24" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M24" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="N24" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C25" t="n">
-        <v>5.9648674E7</v>
+        <v>9.073338E7</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>164</v>
+        <v>95</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>136</v>
       </c>
       <c r="H25" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="K25" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s">
-        <v>52</v>
+        <v>169</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="N25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C26" t="n">
-        <v>6.360778E7</v>
+        <v>1.9463172E7</v>
       </c>
       <c r="D26" t="s">
         <v>16</v>
       </c>
       <c r="E26" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" t="s">
+        <v>31</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" t="s">
+        <v>59</v>
+      </c>
+      <c r="M26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N26" t="s">
         <v>18</v>
-      </c>
-      <c r="F26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" t="s">
-        <v>161</v>
-      </c>
-      <c r="L26" t="s">
-        <v>164</v>
-      </c>
-      <c r="M26" t="s">
-        <v>17</v>
-      </c>
-      <c r="N26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B27" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C27" t="n">
-        <v>7.6240548E7</v>
+        <v>3.1607246E7</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="G27" t="s">
-        <v>90</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="I27" t="s">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="L27" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="M27" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="N27" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C28" t="n">
-        <v>2.4479557E7</v>
+        <v>9.3990324E7</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>176</v>
+      </c>
+      <c r="I28" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" t="s">
+        <v>91</v>
+      </c>
+      <c r="K28" t="s">
         <v>78</v>
       </c>
-      <c r="G28" t="s">
-        <v>115</v>
-      </c>
-      <c r="H28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I28" t="s">
-        <v>171</v>
-      </c>
-      <c r="J28" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" t="s">
-        <v>73</v>
-      </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="M28" t="s">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="N28" t="s">
-        <v>31</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C29" t="n">
-        <v>1.6317386E7</v>
+        <v>7.4398528E7</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="G29" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="I29" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="K29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="N29" t="s">
-        <v>128</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B30" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C30" t="n">
-        <v>1.6111808E7</v>
+        <v>3.9775597E7</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="J30" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="L30" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C31" t="n">
-        <v>9.9620294E7</v>
+        <v>2.2386787E7</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="K31" t="s">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="L31" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="M31" t="s">
-        <v>190</v>
+        <v>76</v>
       </c>
       <c r="N31" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C32" t="n">
-        <v>2.1662322E7</v>
+        <v>2.5899708E7</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="H32" t="s">
-        <v>23</v>
+        <v>194</v>
       </c>
       <c r="I32" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="J32" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="L32" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="M32" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="N32" t="s">
-        <v>86</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C33" t="n">
-        <v>4.4321694E7</v>
+        <v>9.6662773E7</v>
       </c>
       <c r="D33" t="s">
         <v>16</v>
       </c>
       <c r="E33" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
+        <v>199</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
         <v>53</v>
       </c>
-      <c r="G33" t="s">
-        <v>99</v>
-      </c>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
       <c r="I33" t="s">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>19</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="L33" t="s">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="M33" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C34" t="n">
-        <v>7.8588821E7</v>
+        <v>7.5015232E7</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F34" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G34" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I34" t="s">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="J34" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M34" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="N34" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B35" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C35" t="n">
-        <v>2.8958852E7</v>
+        <v>2.6318249E7</v>
       </c>
       <c r="D35" t="s">
         <v>16</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>161</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H35" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="J35" t="s">
-        <v>47</v>
+        <v>205</v>
       </c>
       <c r="K35" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="N35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C36" t="n">
-        <v>6.490307E7</v>
+        <v>4.7913699E7</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
       </c>
       <c r="E36" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s">
-        <v>189</v>
+        <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="K36" t="s">
-        <v>190</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M36" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C37" t="n">
-        <v>3.5478879E7</v>
+        <v>5.0223815E7</v>
       </c>
       <c r="D37" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="F37" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="G37" t="s">
-        <v>203</v>
+        <v>97</v>
       </c>
       <c r="H37" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="K37" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="M37" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N37" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C38" t="n">
-        <v>5.7860918E7</v>
+        <v>7.0940928E7</v>
       </c>
       <c r="D38" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="G38" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="I38" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>195</v>
       </c>
       <c r="K38" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="L38" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="M38" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="N38" t="s">
-        <v>72</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C39" t="n">
-        <v>2.9313528E7</v>
+        <v>3.1354779E7</v>
       </c>
       <c r="D39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H39" t="s">
+        <v>156</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" t="s">
+        <v>121</v>
+      </c>
+      <c r="K39" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39" t="s">
+        <v>160</v>
+      </c>
+      <c r="M39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" t="s">
         <v>79</v>
-      </c>
-      <c r="I39" t="s">
-        <v>179</v>
-      </c>
-      <c r="J39" t="s">
-        <v>144</v>
-      </c>
-      <c r="K39" t="s">
-        <v>115</v>
-      </c>
-      <c r="L39" t="s">
-        <v>207</v>
-      </c>
-      <c r="M39" t="s">
-        <v>208</v>
-      </c>
-      <c r="N39" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="B40" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C40" t="n">
-        <v>8.0064399E7</v>
+        <v>2.0983301E7</v>
       </c>
       <c r="D40" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
         <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s">
-        <v>21</v>
+        <v>173</v>
       </c>
       <c r="I40" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="J40" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="K40" t="s">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="L40" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="M40" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="N40" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C41" t="n">
-        <v>6.458997E7</v>
+        <v>5.0031293E7</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="H41" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="I41" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="J41" t="s">
-        <v>211</v>
+        <v>161</v>
       </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="L41" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="M41" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="N41" t="s">
-        <v>31</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="C42" t="n">
-        <v>3.7880079E7</v>
+        <v>8.7506289E7</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E42" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H42" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="J42" t="s">
-        <v>145</v>
+        <v>225</v>
       </c>
       <c r="K42" t="s">
-        <v>68</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M42" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C43" t="n">
-        <v>2.2459673E7</v>
+        <v>3.1211931E7</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E43" t="s">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="J43" t="s">
-        <v>49</v>
+        <v>168</v>
       </c>
       <c r="K43" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
       <c r="L43" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
       <c r="M43" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="N43" t="s">
-        <v>219</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C44" t="n">
-        <v>4.1319993E7</v>
+        <v>2.3683875E7</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
       <c r="J44" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="L44" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="M44" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="N44" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C45" t="n">
-        <v>2.2854157E7</v>
+        <v>3.0933655E7</v>
       </c>
       <c r="D45" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E45" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F45" t="s">
-        <v>207</v>
+        <v>18</v>
       </c>
       <c r="G45" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="H45" t="s">
-        <v>216</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>53</v>
       </c>
       <c r="K45" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="M45" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
       <c r="N45" t="s">
-        <v>109</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C46" t="n">
-        <v>7.1461395E7</v>
+        <v>7.9891856E7</v>
       </c>
       <c r="D46" t="s">
         <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>228</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>219</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" t="s">
+        <v>141</v>
+      </c>
+      <c r="J46" t="s">
         <v>19</v>
       </c>
-      <c r="H46" t="s">
-        <v>61</v>
-      </c>
-      <c r="I46" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" t="s">
-        <v>53</v>
-      </c>
       <c r="K46" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="M46" t="s">
-        <v>229</v>
+        <v>56</v>
       </c>
       <c r="N46" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="C47" t="n">
-        <v>8.878543E7</v>
+        <v>7.0529383E7</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="G47" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="H47" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="I47" t="s">
+        <v>196</v>
+      </c>
+      <c r="J47" t="s">
+        <v>97</v>
+      </c>
+      <c r="K47" t="s">
+        <v>120</v>
+      </c>
+      <c r="L47" t="s">
         <v>47</v>
       </c>
-      <c r="J47" t="s">
-        <v>134</v>
-      </c>
-      <c r="K47" t="s">
-        <v>20</v>
-      </c>
-      <c r="L47" t="s">
-        <v>60</v>
-      </c>
       <c r="M47" t="s">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="N47" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="C48" t="n">
-        <v>4.4405752E7</v>
+        <v>1.0486772E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H48" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="I48" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="J48" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="L48" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="M48" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N48" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="C49" t="n">
-        <v>9.9906218E7</v>
+        <v>9.0104075E7</v>
       </c>
       <c r="D49" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="F49" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s">
-        <v>182</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>108</v>
       </c>
       <c r="I49" t="s">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="J49" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="K49" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="M49" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="N49" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="C50" t="n">
-        <v>1.4555071E7</v>
+        <v>6.694544E7</v>
       </c>
       <c r="D50" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="G50" t="s">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>247</v>
       </c>
       <c r="I50" t="s">
-        <v>77</v>
+        <v>190</v>
       </c>
       <c r="J50" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="K50" t="s">
-        <v>172</v>
+        <v>79</v>
       </c>
       <c r="L50" t="s">
-        <v>111</v>
+        <v>195</v>
       </c>
       <c r="M50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N50" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C51" t="n">
-        <v>7.9979943E7</v>
+        <v>5.4869274E7</v>
       </c>
       <c r="D51" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I51" t="s">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="J51" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="K51" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="L51" t="s">
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="M51" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N51" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C52" t="n">
-        <v>8.0710313E7</v>
+        <v>9.2837864E7</v>
       </c>
       <c r="D52" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s">
-        <v>208</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="G52" t="s">
-        <v>109</v>
+        <v>44</v>
       </c>
       <c r="H52" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="I52" t="s">
-        <v>243</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="K52" t="s">
-        <v>156</v>
+        <v>253</v>
       </c>
       <c r="L52" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="M52" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="N52" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C53" t="n">
-        <v>5.4299482E7</v>
+        <v>7.5013147E7</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>82</v>
+        <v>235</v>
       </c>
       <c r="F53" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="G53" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="H53" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="I53" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="J53" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="L53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M53" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="N53" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C54" t="n">
-        <v>5.5647288E7</v>
+        <v>2.7467972E7</v>
       </c>
       <c r="D54" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="G54" t="s">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>249</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="J54" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="L54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M54" t="s">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="N54" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C55" t="n">
-        <v>2.1260591E7</v>
+        <v>1.594793E7</v>
       </c>
       <c r="D55" t="s">
         <v>16</v>
       </c>
       <c r="E55" t="s">
+        <v>260</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" t="s">
         <v>53</v>
       </c>
-      <c r="F55" t="s">
+      <c r="K55" t="s">
+        <v>53</v>
+      </c>
+      <c r="L55" t="s">
+        <v>238</v>
+      </c>
+      <c r="M55" t="s">
         <v>60</v>
       </c>
-      <c r="G55" t="s">
-        <v>133</v>
-      </c>
-      <c r="H55" t="s">
-        <v>53</v>
-      </c>
-      <c r="I55" t="s">
-        <v>59</v>
-      </c>
-      <c r="J55" t="s">
-        <v>91</v>
-      </c>
-      <c r="K55" t="s">
-        <v>22</v>
-      </c>
-      <c r="L55" t="s">
-        <v>99</v>
-      </c>
-      <c r="M55" t="s">
-        <v>46</v>
-      </c>
       <c r="N55" t="s">
-        <v>219</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C56" t="n">
-        <v>5.8660627E7</v>
+        <v>3.0993076E7</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E56" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="F56" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>41</v>
       </c>
       <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
         <v>95</v>
       </c>
-      <c r="J56" t="s">
-        <v>43</v>
-      </c>
       <c r="K56" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="M56" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="N56" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="C57" t="n">
-        <v>2.9606574E7</v>
+        <v>3.552856E7</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G57" t="s">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s">
-        <v>26</v>
+        <v>265</v>
       </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
       <c r="K57" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="L57" t="s">
-        <v>42</v>
+        <v>266</v>
       </c>
       <c r="M57" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="N57" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="B58" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C58" t="n">
-        <v>9.3225184E7</v>
+        <v>1.3416355E7</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="F58" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="G58" t="s">
-        <v>118</v>
+        <v>39</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="K58" t="s">
-        <v>161</v>
+        <v>104</v>
       </c>
       <c r="L58" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
       <c r="N58" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B59" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C59" t="n">
-        <v>4.680106E7</v>
+        <v>3.6576606E7</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E59" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="J59" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="K59" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="L59" t="s">
-        <v>219</v>
+        <v>120</v>
       </c>
       <c r="M59" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="N59" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="C60" t="n">
-        <v>2.9565868E7</v>
+        <v>8.9520167E7</v>
       </c>
       <c r="D60" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E60" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="F60" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="H60" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
-        <v>30</v>
+        <v>226</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="K60" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="L60" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="M60" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="N60" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="B61" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="C61" t="n">
-        <v>3.5933515E7</v>
+        <v>9.5599302E7</v>
       </c>
       <c r="D61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G61" t="s">
+        <v>66</v>
+      </c>
+      <c r="H61" t="s">
+        <v>31</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>165</v>
+      </c>
+      <c r="K61" t="s">
+        <v>19</v>
+      </c>
+      <c r="L61" t="s">
         <v>29</v>
       </c>
-      <c r="E61" t="s">
-        <v>211</v>
-      </c>
-      <c r="F61" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" t="s">
-        <v>105</v>
-      </c>
-      <c r="H61" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s">
-        <v>140</v>
-      </c>
-      <c r="J61" t="s">
-        <v>262</v>
-      </c>
-      <c r="K61" t="s">
-        <v>172</v>
-      </c>
-      <c r="L61" t="s">
-        <v>32</v>
-      </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>51</v>
       </c>
       <c r="N61" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B62" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="C62" t="n">
-        <v>8.3658636E7</v>
+        <v>1.3260211E7</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E62" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F62" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="G62" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>78</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="L62" t="s">
-        <v>219</v>
+        <v>39</v>
       </c>
       <c r="M62" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="N62" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="C63" t="n">
-        <v>4.0174613E7</v>
+        <v>6.0751135E7</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="F63" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="H63" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="J63" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="K63" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s">
-        <v>60</v>
+        <v>173</v>
       </c>
       <c r="M63" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="N63" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C64" t="n">
-        <v>6.8818539E7</v>
+        <v>9.6796487E7</v>
       </c>
       <c r="D64" t="s">
         <v>16</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="G64" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="J64" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="K64" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="M64" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="N64" t="s">
-        <v>22</v>
+        <v>112</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="B65" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C65" t="n">
-        <v>9.1422214E7</v>
+        <v>2.0880571E7</v>
       </c>
       <c r="D65" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E65" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G65" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="H65" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>91</v>
       </c>
       <c r="K65" t="s">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="L65" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="N65" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C66" t="n">
-        <v>2.3872788E7</v>
+        <v>8.094857E7</v>
       </c>
       <c r="D66" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="G66" t="s">
+        <v>31</v>
+      </c>
+      <c r="H66" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" t="s">
         <v>35</v>
       </c>
-      <c r="H66" t="s">
-        <v>75</v>
-      </c>
-      <c r="I66" t="s">
-        <v>173</v>
-      </c>
       <c r="J66" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="K66" t="s">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="M66" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="N66" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C67" t="n">
-        <v>4.6388409E7</v>
+        <v>1.9280044E7</v>
       </c>
       <c r="D67" t="s">
         <v>16</v>
       </c>
       <c r="E67" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="F67" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="I67" t="s">
-        <v>196</v>
+        <v>71</v>
       </c>
       <c r="J67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K67" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="M67" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="N67" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C68" t="n">
-        <v>3.413874E7</v>
+        <v>2.9556552E7</v>
       </c>
       <c r="D68" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>43</v>
       </c>
       <c r="G68" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="H68" t="s">
-        <v>140</v>
+        <v>86</v>
       </c>
       <c r="I68" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="J68" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L68" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="M68" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="N68" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>290</v>
       </c>
       <c r="C69" t="n">
-        <v>7.8411728E7</v>
+        <v>7.6021762E7</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>161</v>
+        <v>65</v>
       </c>
       <c r="F69" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="H69" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="I69" t="s">
-        <v>101</v>
+        <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K69" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M69" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="N69" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="B70" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="C70" t="n">
-        <v>7.7890265E7</v>
+        <v>6.3379287E7</v>
       </c>
       <c r="D70" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="F70" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="G70" t="s">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="I70" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="J70" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K70" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L70" t="s">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="M70" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
       <c r="N70" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="C71" t="n">
-        <v>7.3563361E7</v>
+        <v>4.8569718E7</v>
       </c>
       <c r="D71" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E71" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="F71" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="H71" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="I71" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="J71" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="K71" t="s">
-        <v>279</v>
+        <v>195</v>
       </c>
       <c r="L71" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="M71" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="N71" t="s">
-        <v>21</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>226</v>
+        <v>294</v>
       </c>
       <c r="B72" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C72" t="n">
-        <v>2.7050265E7</v>
+        <v>7.4683111E7</v>
       </c>
       <c r="D72" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="H72" t="s">
-        <v>83</v>
+        <v>199</v>
       </c>
       <c r="I72" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="J72" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="K72" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L72" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="M72" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="N72" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="B73" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="C73" t="n">
-        <v>7.2985555E7</v>
+        <v>9.619435E7</v>
       </c>
       <c r="D73" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="G73" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="H73" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>185</v>
+        <v>32</v>
       </c>
       <c r="J73" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="K73" t="s">
-        <v>30</v>
+        <v>298</v>
       </c>
       <c r="L73" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="M73" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="N73" t="s">
-        <v>173</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="B74" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="C74" t="n">
-        <v>9.944432E7</v>
+        <v>4.8748146E7</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="F74" t="s">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="G74" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74" t="s">
+        <v>202</v>
+      </c>
+      <c r="J74" t="s">
+        <v>109</v>
+      </c>
+      <c r="K74" t="s">
         <v>130</v>
       </c>
-      <c r="I74" t="s">
-        <v>78</v>
-      </c>
-      <c r="J74" t="s">
-        <v>186</v>
-      </c>
-      <c r="K74" t="s">
-        <v>249</v>
-      </c>
       <c r="L74" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M74" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="N74" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="B75" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
       <c r="C75" t="n">
-        <v>5.4668748E7</v>
+        <v>3.8800326E7</v>
       </c>
       <c r="D75" t="s">
         <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="G75" t="s">
-        <v>287</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="I75" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="K75" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L75" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="M75" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="N75" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="B76" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="C76" t="n">
-        <v>2.7067914E7</v>
+        <v>8.3682148E7</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E76" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="H76" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="I76" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="J76" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="K76" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="L76" t="s">
-        <v>189</v>
+        <v>42</v>
       </c>
       <c r="M76" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="N76" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B77" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="C77" t="n">
-        <v>6.9446836E7</v>
+        <v>6.2673703E7</v>
       </c>
       <c r="D77" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" t="s">
+        <v>199</v>
+      </c>
+      <c r="F77" t="s">
+        <v>67</v>
+      </c>
+      <c r="G77" t="s">
+        <v>26</v>
+      </c>
+      <c r="H77" t="s">
         <v>29</v>
       </c>
-      <c r="E77" t="s">
-        <v>177</v>
-      </c>
-      <c r="F77" t="s">
-        <v>108</v>
-      </c>
-      <c r="G77" t="s">
-        <v>65</v>
-      </c>
-      <c r="H77" t="s">
-        <v>211</v>
-      </c>
       <c r="I77" t="s">
-        <v>172</v>
+        <v>66</v>
       </c>
       <c r="J77" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="K77" t="s">
-        <v>173</v>
+        <v>53</v>
       </c>
       <c r="L77" t="s">
         <v>32</v>
       </c>
       <c r="M77" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="N77" t="s">
-        <v>68</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C78" t="n">
-        <v>1.7737878E7</v>
+        <v>9.9968873E7</v>
       </c>
       <c r="D78" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="G78" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="H78" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="I78" t="s">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="J78" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K78" t="s">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="L78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M78" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="N78" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="B79" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="C79" t="n">
-        <v>2.0439723E7</v>
+        <v>4.0298235E7</v>
       </c>
       <c r="D79" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>173</v>
       </c>
       <c r="G79" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="H79" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="I79" t="s">
-        <v>216</v>
+        <v>103</v>
       </c>
       <c r="J79" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="K79" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="L79" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="M79" t="s">
-        <v>32</v>
+        <v>145</v>
       </c>
       <c r="N79" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C80" t="n">
-        <v>8.379709E7</v>
+        <v>8.1919358E7</v>
       </c>
       <c r="D80" t="s">
+        <v>16</v>
+      </c>
+      <c r="E80" t="s">
+        <v>59</v>
+      </c>
+      <c r="F80" t="s">
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>51</v>
+      </c>
+      <c r="H80" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
+        <v>141</v>
+      </c>
+      <c r="K80" t="s">
+        <v>260</v>
+      </c>
+      <c r="L80" t="s">
         <v>29</v>
       </c>
-      <c r="E80" t="s">
-        <v>35</v>
-      </c>
-      <c r="F80" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s">
-        <v>72</v>
-      </c>
-      <c r="H80" t="s">
-        <v>32</v>
-      </c>
-      <c r="I80" t="s">
-        <v>249</v>
-      </c>
-      <c r="J80" t="s">
-        <v>111</v>
-      </c>
-      <c r="K80" t="s">
-        <v>110</v>
-      </c>
-      <c r="L80" t="s">
-        <v>36</v>
-      </c>
       <c r="M80" t="s">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="N80" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B81" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="C81" t="n">
-        <v>4.9892455E7</v>
+        <v>1.2958053E7</v>
       </c>
       <c r="D81" t="s">
         <v>16</v>
       </c>
       <c r="E81" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" t="s">
+        <v>57</v>
+      </c>
+      <c r="G81" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" t="s">
         <v>19</v>
       </c>
-      <c r="F81" t="s">
-        <v>95</v>
-      </c>
-      <c r="G81" t="s">
-        <v>219</v>
-      </c>
-      <c r="H81" t="s">
-        <v>100</v>
-      </c>
       <c r="I81" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K81" t="s">
+        <v>52</v>
+      </c>
+      <c r="L81" t="s">
         <v>18</v>
       </c>
-      <c r="L81" t="s">
-        <v>25</v>
-      </c>
       <c r="M81" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="N81" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>301</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C82" t="n">
-        <v>5.5794124E7</v>
+        <v>6.5559112E7</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E82" t="s">
-        <v>60</v>
+        <v>211</v>
       </c>
       <c r="F82" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="H82" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="I82" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J82" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="K82" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="L82" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M82" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="N82" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B83" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C83" t="n">
-        <v>7.1071903E7</v>
+        <v>3.8863344E7</v>
       </c>
       <c r="D83" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E83" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="F83" t="s">
-        <v>216</v>
+        <v>123</v>
       </c>
       <c r="G83" t="s">
-        <v>72</v>
+        <v>316</v>
       </c>
       <c r="H83" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
       <c r="I83" t="s">
-        <v>107</v>
+        <v>195</v>
       </c>
       <c r="J83" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="K83" t="s">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="L83" t="s">
+        <v>41</v>
+      </c>
+      <c r="M83" t="s">
+        <v>109</v>
+      </c>
+      <c r="N83" t="s">
         <v>137</v>
-      </c>
-      <c r="M83" t="s">
-        <v>114</v>
-      </c>
-      <c r="N83" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B84" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="C84" t="n">
-        <v>2.2394353E7</v>
+        <v>6.3058017E7</v>
       </c>
       <c r="D84" t="s">
+        <v>16</v>
+      </c>
+      <c r="E84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F84" t="s">
         <v>29</v>
       </c>
-      <c r="E84" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" t="s">
-        <v>30</v>
-      </c>
       <c r="G84" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="H84" t="s">
-        <v>138</v>
+        <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="J84" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="K84" t="s">
-        <v>183</v>
+        <v>33</v>
       </c>
       <c r="L84" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M84" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="N84" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B85" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C85" t="n">
-        <v>3.162529E7</v>
+        <v>3.7216404E7</v>
       </c>
       <c r="D85" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="H85" t="s">
-        <v>225</v>
+        <v>50</v>
       </c>
       <c r="I85" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K85" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="L85" t="s">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="M85" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N85" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="B86" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C86" t="n">
-        <v>3.6351107E7</v>
+        <v>9.3425206E7</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E86" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="F86" t="s">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="G86" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H86" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="I86" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="J86" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
       <c r="K86" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="L86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M86" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="N86" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="B87" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="C87" t="n">
-        <v>6.3597155E7</v>
+        <v>5.2879758E7</v>
       </c>
       <c r="D87" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E87" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="F87" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="I87" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="J87" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="K87" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="L87" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M87" t="s">
-        <v>137</v>
+        <v>43</v>
       </c>
       <c r="N87" t="s">
-        <v>82</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B88" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C88" t="n">
-        <v>2.0022171E7</v>
+        <v>2.3171785E7</v>
       </c>
       <c r="D88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="H88" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="I88" t="s">
-        <v>183</v>
+        <v>120</v>
       </c>
       <c r="J88" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="K88" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="L88" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="M88" t="s">
-        <v>107</v>
+        <v>327</v>
       </c>
       <c r="N88" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B89" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C89" t="n">
-        <v>8.4581284E7</v>
+        <v>3.8382561E7</v>
       </c>
       <c r="D89" t="s">
         <v>16</v>
       </c>
       <c r="E89" t="s">
-        <v>254</v>
+        <v>53</v>
       </c>
       <c r="F89" t="s">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>118</v>
+        <v>199</v>
       </c>
       <c r="H89" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="I89" t="s">
-        <v>94</v>
+        <v>298</v>
       </c>
       <c r="J89" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K89" t="s">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="L89" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="M89" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N89" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>319</v>
+        <v>73</v>
       </c>
       <c r="B90" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C90" t="n">
-        <v>6.7079504E7</v>
+        <v>4.5463325E7</v>
       </c>
       <c r="D90" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E90" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>143</v>
+        <v>26</v>
       </c>
       <c r="G90" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="H90" t="s">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="J90" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="K90" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="L90" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="M90" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="N90" t="s">
-        <v>156</v>
+        <v>19</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="B91" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="C91" t="n">
-        <v>8.7431577E7</v>
+        <v>2.1222383E7</v>
       </c>
       <c r="D91" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E91" t="s">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="F91" t="s">
-        <v>79</v>
+        <v>265</v>
       </c>
       <c r="G91" t="s">
-        <v>207</v>
+        <v>333</v>
       </c>
       <c r="H91" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="I91" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J91" t="s">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="K91" t="s">
-        <v>107</v>
+        <v>224</v>
       </c>
       <c r="L91" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="M91" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="N91" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>323</v>
+        <v>14</v>
       </c>
       <c r="B92" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="C92" t="n">
-        <v>2.7209519E7</v>
+        <v>3.7813998E7</v>
       </c>
       <c r="D92" t="s">
         <v>16</v>
       </c>
       <c r="E92" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>219</v>
+        <v>133</v>
       </c>
       <c r="G92" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H92" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
       <c r="I92" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="J92" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="K92" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="L92" t="s">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="M92" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="N92" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C93" t="n">
-        <v>2.8737029E7</v>
+        <v>2.058177E7</v>
       </c>
       <c r="D93" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E93" t="s">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="F93" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="G93" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H93" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="I93" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="J93" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="K93" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="L93" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="M93" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="N93" t="s">
-        <v>156</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>327</v>
+        <v>280</v>
       </c>
       <c r="B94" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="C94" t="n">
-        <v>1.2535051E7</v>
+        <v>2.46658E7</v>
       </c>
       <c r="D94" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E94" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="F94" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>105</v>
       </c>
       <c r="H94" t="s">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="I94" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="J94" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="K94" t="s">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="L94" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="M94" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="N94" t="s">
-        <v>177</v>
+        <v>107</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>126</v>
+        <v>331</v>
       </c>
       <c r="B95" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C95" t="n">
-        <v>8.7933577E7</v>
+        <v>2.9050633E7</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="F95" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="G95" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="H95" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="I95" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J95" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="K95" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="L95" t="s">
-        <v>46</v>
+        <v>199</v>
       </c>
       <c r="M95" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N95" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="B96" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="C96" t="n">
-        <v>8.4375218E7</v>
+        <v>1.9867286E7</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s">
+        <v>173</v>
+      </c>
+      <c r="F96" t="s">
+        <v>97</v>
+      </c>
+      <c r="G96" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
+        <v>145</v>
+      </c>
+      <c r="J96" t="s">
         <v>100</v>
       </c>
-      <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" t="s">
-        <v>44</v>
-      </c>
-      <c r="I96" t="s">
-        <v>118</v>
-      </c>
-      <c r="J96" t="s">
-        <v>53</v>
-      </c>
       <c r="K96" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="L96" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M96" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="N96" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B97" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C97" t="n">
-        <v>5.7660114E7</v>
+        <v>2.6382675E7</v>
       </c>
       <c r="D97" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="F97" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="G97" t="s">
-        <v>243</v>
+        <v>180</v>
       </c>
       <c r="H97" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="I97" t="s">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="J97" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="K97" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="L97" t="s">
-        <v>151</v>
+        <v>33</v>
       </c>
       <c r="M97" t="s">
-        <v>333</v>
+        <v>106</v>
       </c>
       <c r="N97" t="s">
-        <v>30</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C98" t="n">
-        <v>3.6143258E7</v>
+        <v>8.0397575E7</v>
       </c>
       <c r="D98" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E98" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="I98" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="J98" t="s">
-        <v>32</v>
+        <v>120</v>
       </c>
       <c r="K98" t="s">
-        <v>68</v>
+        <v>119</v>
       </c>
       <c r="L98" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="M98" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="N98" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="C99" t="n">
-        <v>7.4160085E7</v>
+        <v>8.1756944E7</v>
       </c>
       <c r="D99" t="s">
         <v>16</v>
       </c>
       <c r="E99" t="s">
-        <v>94</v>
+        <v>205</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G99" t="s">
-        <v>161</v>
+        <v>51</v>
       </c>
       <c r="H99" t="s">
-        <v>196</v>
+        <v>63</v>
       </c>
       <c r="I99" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="J99" t="s">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="K99" t="s">
-        <v>190</v>
+        <v>59</v>
       </c>
       <c r="L99" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="M99" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="N99" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>338</v>
+        <v>197</v>
       </c>
       <c r="B100" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="C100" t="n">
-        <v>5.0417091E7</v>
+        <v>3.7871504E7</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E100" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>265</v>
       </c>
       <c r="G100" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="H100" t="s">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>193</v>
+        <v>97</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="K100" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="L100" t="s">
-        <v>196</v>
+        <v>99</v>
       </c>
       <c r="M100" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="N100" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="B101" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C101" t="n">
-        <v>7.0087915E7</v>
+        <v>3.503968E7</v>
       </c>
       <c r="D101" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E101" t="s">
-        <v>249</v>
+        <v>327</v>
       </c>
       <c r="F101" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="H101" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="I101" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="J101" t="s">
-        <v>306</v>
+        <v>156</v>
       </c>
       <c r="K101" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="L101" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="M101" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="N101" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="B102" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C102" t="n">
-        <v>1.2444283E7</v>
+        <v>8.8823708E7</v>
       </c>
       <c r="D102" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E102" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="F102" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="G102" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="H102" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="I102" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="J102" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="K102" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="L102" t="s">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="M102" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="N102" t="s">
-        <v>145</v>
+        <v>316</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B103" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C103" t="n">
-        <v>2.0803831E7</v>
+        <v>5.0839007E7</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E103" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="G103" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="H103" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="I103" t="s">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J103" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="K103" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="L103" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="M103" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="N103" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B104" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C104" t="n">
-        <v>3.7197286E7</v>
+        <v>7.6240721E7</v>
       </c>
       <c r="D104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>305</v>
+        <v>99</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="I104" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="K104" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="L104" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="M104" t="s">
-        <v>158</v>
+        <v>44</v>
       </c>
       <c r="N104" t="s">
-        <v>225</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B105" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C105" t="n">
-        <v>3.8548127E7</v>
+        <v>7.5836507E7</v>
       </c>
       <c r="D105" t="s">
         <v>16</v>
       </c>
       <c r="E105" t="s">
+        <v>60</v>
+      </c>
+      <c r="F105" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" t="s">
+        <v>140</v>
+      </c>
+      <c r="H105" t="s">
+        <v>53</v>
+      </c>
+      <c r="I105" t="s">
+        <v>57</v>
+      </c>
+      <c r="J105" t="s">
+        <v>20</v>
+      </c>
+      <c r="K105" t="s">
+        <v>187</v>
+      </c>
+      <c r="L105" t="s">
+        <v>65</v>
+      </c>
+      <c r="M105" t="s">
         <v>59</v>
       </c>
-      <c r="F105" t="s">
-        <v>91</v>
-      </c>
-      <c r="G105" t="s">
-        <v>45</v>
-      </c>
-      <c r="H105" t="s">
-        <v>89</v>
-      </c>
-      <c r="I105" t="s">
-        <v>46</v>
-      </c>
-      <c r="J105" t="s">
-        <v>23</v>
-      </c>
-      <c r="K105" t="s">
-        <v>86</v>
-      </c>
-      <c r="L105" t="s">
-        <v>101</v>
-      </c>
-      <c r="M105" t="s">
-        <v>95</v>
-      </c>
       <c r="N105" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="B106" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="C106" t="n">
-        <v>5.8925911E7</v>
+        <v>6.1831759E7</v>
       </c>
       <c r="D106" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E106" t="s">
-        <v>186</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="H106" t="s">
+        <v>130</v>
+      </c>
+      <c r="I106" t="s">
+        <v>150</v>
+      </c>
+      <c r="J106" t="s">
+        <v>147</v>
+      </c>
+      <c r="K106" t="s">
         <v>75</v>
       </c>
-      <c r="I106" t="s">
-        <v>69</v>
-      </c>
-      <c r="J106" t="s">
-        <v>106</v>
-      </c>
-      <c r="K106" t="s">
-        <v>144</v>
-      </c>
       <c r="L106" t="s">
-        <v>156</v>
+        <v>17</v>
       </c>
       <c r="M106" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="N106" t="s">
-        <v>214</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B107" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C107" t="n">
-        <v>5.5775367E7</v>
+        <v>6.1790031E7</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E107" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F107" t="s">
+        <v>147</v>
+      </c>
+      <c r="G107" t="s">
+        <v>196</v>
+      </c>
+      <c r="H107" t="s">
+        <v>43</v>
+      </c>
+      <c r="I107" t="s">
+        <v>169</v>
+      </c>
+      <c r="J107" t="s">
         <v>145</v>
       </c>
-      <c r="G107" t="s">
-        <v>32</v>
-      </c>
-      <c r="H107" t="s">
-        <v>158</v>
-      </c>
-      <c r="I107" t="s">
-        <v>22</v>
-      </c>
-      <c r="J107" t="s">
-        <v>77</v>
-      </c>
       <c r="K107" t="s">
-        <v>279</v>
+        <v>137</v>
       </c>
       <c r="L107" t="s">
-        <v>30</v>
+        <v>118</v>
       </c>
       <c r="M107" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="N107" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B108" t="s">
-        <v>85</v>
+        <v>363</v>
       </c>
       <c r="C108" t="n">
-        <v>5.1670211E7</v>
+        <v>3.1205947E7</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F108" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="G108" t="s">
-        <v>99</v>
+        <v>226</v>
       </c>
       <c r="H108" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="I108" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="J108" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="K108" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="L108" t="s">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="M108" t="s">
-        <v>17</v>
+        <v>324</v>
       </c>
       <c r="N108" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C109" t="n">
-        <v>9.7901837E7</v>
+        <v>9.4500934E7</v>
       </c>
       <c r="D109" t="s">
         <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F109" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="G109" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="H109" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I109" t="s">
+        <v>53</v>
+      </c>
+      <c r="J109" t="s">
+        <v>52</v>
+      </c>
+      <c r="K109" t="s">
         <v>20</v>
       </c>
-      <c r="J109" t="s">
-        <v>133</v>
-      </c>
-      <c r="K109" t="s">
-        <v>61</v>
-      </c>
       <c r="L109" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M109" t="s">
-        <v>134</v>
+        <v>30</v>
       </c>
       <c r="N109" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="B110" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="C110" t="n">
-        <v>1.6511521E7</v>
+        <v>1.7114349E7</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E110" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F110" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G110" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="H110" t="s">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="I110" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="J110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K110" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="L110" t="s">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="M110" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="N110" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="C111" t="n">
-        <v>1.0556794E7</v>
+        <v>3.9741623E7</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E111" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F111" t="s">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="G111" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="H111" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="I111" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J111" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="K111" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="L111" t="s">
-        <v>101</v>
+        <v>212</v>
       </c>
       <c r="M111" t="s">
-        <v>53</v>
+        <v>182</v>
       </c>
       <c r="N111" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="B112" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="C112" t="n">
-        <v>4.5269614E7</v>
+        <v>7.8982494E7</v>
       </c>
       <c r="D112" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="F112" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="G112" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="I112" t="s">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="J112" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>176</v>
       </c>
       <c r="L112" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="M112" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="N112" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B113" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="C113" t="n">
-        <v>5.1972549E7</v>
+        <v>3.8926525E7</v>
       </c>
       <c r="D113" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E113" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="F113" t="s">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="G113" t="s">
-        <v>111</v>
+        <v>194</v>
       </c>
       <c r="H113" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="I113" t="s">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="J113" t="s">
-        <v>21</v>
+        <v>180</v>
       </c>
       <c r="K113" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="L113" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="M113" t="s">
-        <v>123</v>
+        <v>226</v>
       </c>
       <c r="N113" t="s">
-        <v>150</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>363</v>
+        <v>69</v>
       </c>
       <c r="B114" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C114" t="n">
-        <v>6.3162142E7</v>
+        <v>1.7172982E7</v>
       </c>
       <c r="D114" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E114" t="s">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G114" t="s">
-        <v>58</v>
+        <v>107</v>
       </c>
       <c r="H114" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="I114" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="J114" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K114" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="L114" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="M114" t="s">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="N114" t="s">
-        <v>161</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="B115" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="C115" t="n">
-        <v>5.6132998E7</v>
+        <v>8.522826E7</v>
       </c>
       <c r="D115" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="F115" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="G115" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H115" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="I115" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="J115" t="s">
         <v>43</v>
       </c>
       <c r="K115" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="L115" t="s">
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="M115" t="s">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="N115" t="s">
-        <v>57</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B116" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="C116" t="n">
-        <v>4.289521E7</v>
+        <v>8.8360116E7</v>
       </c>
       <c r="D116" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E116" t="s">
-        <v>106</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>183</v>
+        <v>94</v>
       </c>
       <c r="G116" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="H116" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="I116" t="s">
-        <v>30</v>
+        <v>147</v>
       </c>
       <c r="J116" t="s">
-        <v>107</v>
+        <v>161</v>
       </c>
       <c r="K116" t="s">
-        <v>105</v>
+        <v>194</v>
       </c>
       <c r="L116" t="s">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="M116" t="s">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="N116" t="s">
-        <v>123</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B117" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="C117" t="n">
-        <v>6.3166505E7</v>
+        <v>3.9635624E7</v>
       </c>
       <c r="D117" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>186</v>
       </c>
       <c r="G117" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="H117" t="s">
-        <v>140</v>
+        <v>26</v>
       </c>
       <c r="I117" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="J117" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="K117" t="s">
-        <v>243</v>
+        <v>19</v>
       </c>
       <c r="L117" t="s">
-        <v>249</v>
+        <v>56</v>
       </c>
       <c r="M117" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N117" t="s">
-        <v>119</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B118" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="C118" t="n">
-        <v>8.1239329E7</v>
+        <v>1.5915531E7</v>
       </c>
       <c r="D118" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E118" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="F118" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="G118" t="s">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="H118" t="s">
-        <v>102</v>
+        <v>190</v>
       </c>
       <c r="I118" t="s">
+        <v>45</v>
+      </c>
+      <c r="J118" t="s">
+        <v>109</v>
+      </c>
+      <c r="K118" t="s">
         <v>43</v>
       </c>
-      <c r="J118" t="s">
-        <v>99</v>
-      </c>
-      <c r="K118" t="s">
-        <v>21</v>
-      </c>
       <c r="L118" t="s">
-        <v>164</v>
+        <v>324</v>
       </c>
       <c r="M118" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="N118" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
       <c r="B119" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C119" t="n">
-        <v>2.535846E7</v>
+        <v>6.7642355E7</v>
       </c>
       <c r="D119" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F119" t="s">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c r="G119" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H119" t="s">
-        <v>225</v>
+        <v>181</v>
       </c>
       <c r="I119" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="J119" t="s">
-        <v>176</v>
+        <v>78</v>
       </c>
       <c r="K119" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
       <c r="L119" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="M119" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="N119" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B120" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C120" t="n">
-        <v>1.8165738E7</v>
+        <v>1.260038E7</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E120" t="s">
+        <v>88</v>
+      </c>
+      <c r="F120" t="s">
+        <v>378</v>
+      </c>
+      <c r="G120" t="s">
+        <v>119</v>
+      </c>
+      <c r="H120" t="s">
+        <v>212</v>
+      </c>
+      <c r="I120" t="s">
         <v>129</v>
       </c>
-      <c r="F120" t="s">
-        <v>225</v>
-      </c>
-      <c r="G120" t="s">
-        <v>123</v>
-      </c>
-      <c r="H120" t="s">
-        <v>140</v>
-      </c>
-      <c r="I120" t="s">
-        <v>22</v>
-      </c>
       <c r="J120" t="s">
-        <v>246</v>
+        <v>81</v>
       </c>
       <c r="K120" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="L120" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="M120" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="N120" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="C121" t="n">
-        <v>2.8025684E7</v>
+        <v>8.5007086E7</v>
       </c>
       <c r="D121" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E121" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="F121" t="s">
-        <v>190</v>
+        <v>152</v>
       </c>
       <c r="G121" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="H121" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="I121" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="K121" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="L121" t="s">
-        <v>19</v>
+        <v>155</v>
       </c>
       <c r="M121" t="s">
-        <v>90</v>
+        <v>42</v>
       </c>
       <c r="N121" t="s">
-        <v>60</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/StudentPreference120.xlsx
+++ b/StudentPreference120.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="372">
   <si>
     <t>First Name</t>
   </si>
@@ -56,1087 +56,1078 @@
     <t>Preference 10</t>
   </si>
   <si>
-    <t>Ann</t>
+    <t>Debby</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>designing clothes</t>
+  </si>
+  <si>
+    <t>starring in action movies</t>
+  </si>
+  <si>
+    <t>telling epic tales</t>
+  </si>
+  <si>
+    <t>painting folksy pictures</t>
+  </si>
+  <si>
+    <t>playing James Bond</t>
+  </si>
+  <si>
+    <t>promoting new technologies</t>
+  </si>
+  <si>
+    <t>writing folksy fiction</t>
+  </si>
+  <si>
+    <t>leading revolts</t>
+  </si>
+  <si>
+    <t>hosting a late night chat show</t>
+  </si>
+  <si>
+    <t>coasting on past glories</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Baldwin</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>hosting educational films</t>
+  </si>
+  <si>
+    <t>solving mysteries</t>
+  </si>
+  <si>
+    <t>getting run over by cars</t>
+  </si>
+  <si>
+    <t>fussing about cleanliness</t>
+  </si>
+  <si>
+    <t>phoning home</t>
+  </si>
+  <si>
+    <t>unearthing ancient tombs</t>
+  </si>
+  <si>
+    <t>representing the disenfranchised</t>
+  </si>
+  <si>
+    <t>handing out flowers</t>
+  </si>
+  <si>
+    <t>flipping hamburgers</t>
+  </si>
+  <si>
+    <t>condescending to customers</t>
+  </si>
+  <si>
+    <t>Teddy</t>
+  </si>
+  <si>
+    <t>Pendergrass</t>
+  </si>
+  <si>
+    <t>running a large metropolitan city</t>
+  </si>
+  <si>
+    <t>dating supermodels</t>
+  </si>
+  <si>
+    <t>scandalizing polite society</t>
+  </si>
+  <si>
+    <t>running film festivals</t>
+  </si>
+  <si>
+    <t>offering advice</t>
+  </si>
+  <si>
+    <t>commanding a spaceship</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Cruise</t>
+  </si>
+  <si>
+    <t>pushing anti-trust legislation</t>
+  </si>
+  <si>
+    <t>singing pop songs</t>
+  </si>
+  <si>
+    <t>singing romantic songs</t>
+  </si>
+  <si>
+    <t>making unauthorized sex tapes</t>
+  </si>
+  <si>
+    <t>writing modern fiction</t>
+  </si>
+  <si>
+    <t>playing camp villains</t>
+  </si>
+  <si>
+    <t>moaning about men</t>
+  </si>
+  <si>
+    <t>Bucky</t>
+  </si>
+  <si>
+    <t>Lasek</t>
+  </si>
+  <si>
+    <t>pioneering new technologies</t>
+  </si>
+  <si>
+    <t>using gadgets</t>
+  </si>
+  <si>
+    <t>killing teenagers</t>
+  </si>
+  <si>
+    <t>devising evil schemes</t>
+  </si>
+  <si>
+    <t>playing pranks</t>
+  </si>
+  <si>
+    <t>studying magic tricks</t>
+  </si>
+  <si>
+    <t>complaining about everything</t>
+  </si>
+  <si>
+    <t>leading tour groups</t>
+  </si>
+  <si>
+    <t>Don</t>
+  </si>
+  <si>
+    <t>Knotts</t>
+  </si>
+  <si>
+    <t>developing military strategies</t>
+  </si>
+  <si>
+    <t>waxing a surfboard</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies</t>
+  </si>
+  <si>
+    <t>running for the senate</t>
+  </si>
+  <si>
+    <t>going slowly mad</t>
+  </si>
+  <si>
+    <t>winning swimming competitions</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Bacall</t>
+  </si>
+  <si>
+    <t>writing plays</t>
+  </si>
+  <si>
+    <t>running a criminal enterprise</t>
+  </si>
+  <si>
+    <t>piquing public interest</t>
+  </si>
+  <si>
+    <t>running a software company</t>
+  </si>
+  <si>
+    <t>singing rock songs</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>Bronte</t>
+  </si>
+  <si>
+    <t>solving crimes</t>
+  </si>
+  <si>
+    <t>collecting stamps</t>
+  </si>
+  <si>
+    <t>starring in animated movies</t>
+  </si>
+  <si>
+    <t>amassing ill-gotten wealth</t>
+  </si>
+  <si>
+    <t>running an empire</t>
+  </si>
+  <si>
+    <t>Harry</t>
+  </si>
+  <si>
+    <t>Caray</t>
+  </si>
+  <si>
+    <t>fighting for the resistance</t>
+  </si>
+  <si>
+    <t>planning assassinations</t>
+  </si>
+  <si>
+    <t>losing control</t>
+  </si>
+  <si>
+    <t>moaning about women</t>
+  </si>
+  <si>
+    <t>standing up to bullies</t>
+  </si>
+  <si>
+    <t>searching for the messiah</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Roker</t>
+  </si>
+  <si>
+    <t>playing the banjo</t>
+  </si>
+  <si>
+    <t>painting colorful pictures</t>
+  </si>
+  <si>
+    <t>doing stand-up</t>
+  </si>
+  <si>
+    <t>making science fiction movies</t>
+  </si>
+  <si>
+    <t>designing modern buildings</t>
+  </si>
+  <si>
+    <t>investing in real estate</t>
+  </si>
+  <si>
+    <t>making vulgar jokes</t>
+  </si>
+  <si>
+    <t>B.</t>
+  </si>
+  <si>
+    <t>Skinner</t>
+  </si>
+  <si>
+    <t>making provocative documentaries</t>
+  </si>
+  <si>
+    <t>writing modern poetry</t>
+  </si>
+  <si>
+    <t>chasing interns</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>McMahon</t>
+  </si>
+  <si>
+    <t>promoting conservative values</t>
+  </si>
+  <si>
+    <t>pushing haute couture</t>
+  </si>
+  <si>
+    <t>defending the weak</t>
+  </si>
+  <si>
+    <t>playing classical piano</t>
+  </si>
+  <si>
+    <t>F.W.</t>
+  </si>
+  <si>
+    <t>deKlerk</t>
+  </si>
+  <si>
+    <t>Phil</t>
+  </si>
+  <si>
+    <t>Collins</t>
+  </si>
+  <si>
+    <t>delivering presents</t>
+  </si>
+  <si>
+    <t>coining sententious maxims</t>
+  </si>
+  <si>
+    <t>treating diseases</t>
+  </si>
+  <si>
+    <t>cooking for friends</t>
+  </si>
+  <si>
+    <t>Yvette</t>
+  </si>
+  <si>
+    <t>Mimieux</t>
+  </si>
+  <si>
+    <t>eluding the public gaze</t>
+  </si>
+  <si>
+    <t>fighting with swords</t>
+  </si>
+  <si>
+    <t>hiding from the public</t>
+  </si>
+  <si>
+    <t>writing epic poetry</t>
+  </si>
+  <si>
+    <t>fighting civil wars</t>
+  </si>
+  <si>
+    <t>arresting criminals</t>
+  </si>
+  <si>
+    <t>Cindy</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>writing pop songs</t>
+  </si>
+  <si>
+    <t>changing privacy settings</t>
+  </si>
+  <si>
+    <t>composing classical music</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Godunov</t>
+  </si>
+  <si>
+    <t>studying symbols</t>
+  </si>
+  <si>
+    <t>watching the sun rise</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Bumbry</t>
+  </si>
+  <si>
+    <t>test-driving cars</t>
+  </si>
+  <si>
+    <t>drawing whimsical cartoons</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>painting dark pictures</t>
+  </si>
+  <si>
+    <t>campaigning for social causes</t>
+  </si>
+  <si>
+    <t>performing moon walks</t>
+  </si>
+  <si>
+    <t>Daryl</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>tricking criminals</t>
+  </si>
+  <si>
+    <t>investigating alien abductions</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>letting one's hair down</t>
+  </si>
+  <si>
+    <t>extracting Radium from pitchblend</t>
+  </si>
+  <si>
+    <t>Hilary</t>
+  </si>
+  <si>
+    <t>Swank</t>
+  </si>
+  <si>
+    <t>Jozef</t>
+  </si>
+  <si>
+    <t>Sabovcik</t>
+  </si>
+  <si>
+    <t>starring in indy movies</t>
+  </si>
+  <si>
+    <t>winning tennis tournaments</t>
+  </si>
+  <si>
+    <t>biting opponents</t>
+  </si>
+  <si>
+    <t>following the money</t>
+  </si>
+  <si>
+    <t>interviewing celebrities</t>
+  </si>
+  <si>
+    <t>Renee</t>
+  </si>
+  <si>
+    <t>Zellweger</t>
+  </si>
+  <si>
+    <t>pulling dirty political tricks</t>
+  </si>
+  <si>
+    <t>creating an axis of evil</t>
+  </si>
+  <si>
+    <t>writing blues songs</t>
+  </si>
+  <si>
+    <t>Dimebag</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>writing rap songs</t>
+  </si>
+  <si>
+    <t>Geraldine</t>
+  </si>
+  <si>
+    <t>Ferraro</t>
+  </si>
+  <si>
+    <t>winning Michelin stars</t>
+  </si>
+  <si>
+    <t>defending freedom</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Benny</t>
+  </si>
+  <si>
+    <t>Goodman</t>
+  </si>
+  <si>
+    <t>Kane</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>performing magic tricks</t>
+  </si>
+  <si>
+    <t>playing rock music</t>
+  </si>
+  <si>
+    <t>Marlon</t>
+  </si>
+  <si>
+    <t>Brando</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>plotting mutinies</t>
+  </si>
+  <si>
+    <t>Napolenon</t>
+  </si>
+  <si>
+    <t>playing the saxophone</t>
+  </si>
+  <si>
+    <t>studying icons</t>
+  </si>
+  <si>
+    <t>Donnie</t>
+  </si>
+  <si>
+    <t>Wahlberg</t>
+  </si>
+  <si>
+    <t>interviewing politicians</t>
+  </si>
+  <si>
+    <t>Kirk</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>bridging cultures</t>
+  </si>
+  <si>
+    <t>campaigning for the presidency</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Silveria</t>
+  </si>
+  <si>
+    <t>promoting greed</t>
+  </si>
+  <si>
+    <t>Linda</t>
+  </si>
+  <si>
+    <t>Ellerbee</t>
+  </si>
+  <si>
+    <t>making insipid musicals</t>
+  </si>
+  <si>
+    <t>living amongst apes</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>winning cycling races</t>
+  </si>
+  <si>
+    <t>recording pop songs</t>
+  </si>
+  <si>
+    <t>Howie</t>
+  </si>
+  <si>
+    <t>Mandel</t>
+  </si>
+  <si>
+    <t>crooning love songs</t>
+  </si>
+  <si>
+    <t>Arness</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Winehouse</t>
+  </si>
+  <si>
+    <t>Loretta</t>
+  </si>
+  <si>
+    <t>Swit</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Wyatt</t>
+  </si>
+  <si>
+    <t>performing stand-up</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Bixby</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators</t>
+  </si>
+  <si>
+    <t>Pat</t>
+  </si>
+  <si>
+    <t>Harrington</t>
+  </si>
+  <si>
+    <t>counting tooth picks</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
+    <t>Burl</t>
+  </si>
+  <si>
+    <t>Ives</t>
+  </si>
+  <si>
+    <t>commiting perjury</t>
+  </si>
+  <si>
+    <t>Tab</t>
+  </si>
+  <si>
+    <t>Hunter</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Adrienne</t>
+  </si>
+  <si>
+    <t>Barbeau</t>
+  </si>
+  <si>
+    <t>playing intense characters</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Foxworthy</t>
+  </si>
+  <si>
+    <t>Morley</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Capra</t>
+  </si>
+  <si>
+    <t>Edwin</t>
+  </si>
+  <si>
+    <t>Newman</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
+    <t>Nesmith</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>Naismith</t>
+  </si>
+  <si>
+    <t>Dan</t>
+  </si>
+  <si>
+    <t>Jansen</t>
+  </si>
+  <si>
+    <t>Stan</t>
+  </si>
+  <si>
+    <t>Laurel</t>
+  </si>
+  <si>
+    <t>Abraham</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>selling consumer goods</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>promoting circus attractions</t>
+  </si>
+  <si>
+    <t>riding a bicycle</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Ginsberg</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Bana</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>Orlando</t>
+  </si>
+  <si>
+    <t>running a kingdom</t>
+  </si>
+  <si>
+    <t>Wooden</t>
+  </si>
+  <si>
+    <t>Yogi</t>
+  </si>
+  <si>
+    <t>Berra</t>
+  </si>
+  <si>
+    <t>expressing violent urges</t>
+  </si>
+  <si>
+    <t>Tucker</t>
+  </si>
+  <si>
+    <t>Juliette</t>
+  </si>
+  <si>
+    <t>Binoche</t>
+  </si>
+  <si>
+    <t>fighting for liberty</t>
+  </si>
+  <si>
+    <t>Zsa</t>
+  </si>
+  <si>
+    <t>Gabor</t>
+  </si>
+  <si>
+    <t>Raz</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Electra</t>
+  </si>
+  <si>
+    <t>singing blues songs</t>
+  </si>
+  <si>
+    <t>Walsh</t>
+  </si>
+  <si>
+    <t>Davidson</t>
+  </si>
+  <si>
+    <t>Earl</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Judge</t>
+  </si>
+  <si>
+    <t>Sheindlin</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
+  </si>
+  <si>
+    <t>Franklin</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Trotsky</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Cohen</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Vermeer</t>
+  </si>
+  <si>
+    <t>Glenn</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Eva</t>
+  </si>
+  <si>
+    <t>Longoria</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>exploring darkest Africa</t>
+  </si>
+  <si>
+    <t>Reasoner</t>
+  </si>
+  <si>
+    <t>Tina</t>
+  </si>
+  <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>making maverick choices</t>
+  </si>
+  <si>
+    <t>Yankovic</t>
+  </si>
+  <si>
+    <t>Emerson</t>
+  </si>
+  <si>
+    <t>Fittipaldi</t>
+  </si>
+  <si>
+    <t>producing Hipbop records</t>
+  </si>
+  <si>
+    <t>Nicholson</t>
+  </si>
+  <si>
+    <t>Carl</t>
+  </si>
+  <si>
+    <t>Yastrzemski</t>
+  </si>
+  <si>
+    <t>making suspense movies</t>
+  </si>
+  <si>
+    <t>Alicia</t>
+  </si>
+  <si>
+    <t>Silverstone</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Aniston</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Dole</t>
+  </si>
+  <si>
+    <t>Guy</t>
+  </si>
+  <si>
+    <t>Pearce</t>
+  </si>
+  <si>
+    <t>Licon</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Burghoff</t>
+  </si>
+  <si>
+    <t>Curt</t>
+  </si>
+  <si>
+    <t>Gowdy</t>
+  </si>
+  <si>
+    <t>Dave</t>
+  </si>
+  <si>
+    <t>Letterman</t>
+  </si>
+  <si>
+    <t>playing God</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Ponty</t>
+  </si>
+  <si>
+    <t>Clark</t>
+  </si>
+  <si>
+    <t>Gable</t>
+  </si>
+  <si>
+    <t>Dick</t>
+  </si>
+  <si>
+    <t>Cavett</t>
+  </si>
+  <si>
+    <t>Brigitte</t>
+  </si>
+  <si>
+    <t>Bardot</t>
+  </si>
+  <si>
+    <t>Joanne</t>
+  </si>
+  <si>
+    <t>Woodward</t>
+  </si>
+  <si>
+    <t>Andy</t>
+  </si>
+  <si>
+    <t>Summers</t>
+  </si>
+  <si>
+    <t>Jessica</t>
+  </si>
+  <si>
+    <t>Simpson</t>
+  </si>
+  <si>
+    <t>Chr�tien</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
+    <t>Wynette</t>
+  </si>
+  <si>
+    <t>Sammy</t>
   </si>
   <si>
     <t>Davis</t>
   </si>
   <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>running a multinational corporation</t>
-  </si>
-  <si>
-    <t>starring in comedies</t>
-  </si>
-  <si>
-    <t>avoiding paparazzi</t>
-  </si>
-  <si>
-    <t>building giant walls</t>
-  </si>
-  <si>
-    <t>promoting hair products</t>
-  </si>
-  <si>
-    <t>posing for photographs</t>
-  </si>
-  <si>
-    <t>racing fast cars</t>
-  </si>
-  <si>
-    <t>getting plastic surgery</t>
-  </si>
-  <si>
-    <t>singing pop songs</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes</t>
-  </si>
-  <si>
-    <t>Sheila</t>
-  </si>
-  <si>
-    <t>MacRae</t>
-  </si>
-  <si>
-    <t>writing pop songs</t>
-  </si>
-  <si>
-    <t>playing aggressive chess</t>
-  </si>
-  <si>
-    <t>knocking out opponents</t>
-  </si>
-  <si>
-    <t>racking up marriages</t>
-  </si>
-  <si>
-    <t>making suspense movies</t>
-  </si>
-  <si>
-    <t>writing modern fiction</t>
-  </si>
-  <si>
-    <t>collecting treasures</t>
-  </si>
-  <si>
-    <t>Dickie</t>
-  </si>
-  <si>
-    <t>Moore</t>
-  </si>
-  <si>
-    <t>promoting communism</t>
-  </si>
-  <si>
-    <t>pretending to wrestle</t>
-  </si>
-  <si>
-    <t>running the FBI</t>
-  </si>
-  <si>
-    <t>building empires</t>
-  </si>
-  <si>
-    <t>writing plays</t>
-  </si>
-  <si>
-    <t>singing rock songs</t>
-  </si>
-  <si>
-    <t>speaking with funny accents</t>
-  </si>
-  <si>
-    <t>trading innuendo</t>
-  </si>
-  <si>
-    <t>Shania</t>
-  </si>
-  <si>
-    <t>Twain</t>
-  </si>
-  <si>
-    <t>singing torch songs</t>
-  </si>
-  <si>
-    <t>publishing newspapers</t>
-  </si>
-  <si>
-    <t>making witty remarks</t>
-  </si>
-  <si>
-    <t>ranting about politics</t>
-  </si>
-  <si>
-    <t>making provocative documentaries</t>
-  </si>
-  <si>
-    <t>winning Oscars</t>
-  </si>
-  <si>
-    <t>fighting civil wars</t>
-  </si>
-  <si>
-    <t>terrorizing prostitutes</t>
-  </si>
-  <si>
-    <t>Billy</t>
-  </si>
-  <si>
-    <t>Zane</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>spying for the CIA</t>
-  </si>
-  <si>
-    <t>currying favour</t>
-  </si>
-  <si>
-    <t>hunting serial killers</t>
-  </si>
-  <si>
-    <t>performing magic tricks</t>
-  </si>
-  <si>
-    <t>practicing insincerity</t>
-  </si>
-  <si>
-    <t>attending cocktail parties</t>
-  </si>
-  <si>
-    <t>raising a family</t>
-  </si>
-  <si>
-    <t>digging for antiquities</t>
-  </si>
-  <si>
-    <t>pulling capers</t>
-  </si>
-  <si>
-    <t>mangling idioms</t>
-  </si>
-  <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>Poehler</t>
-  </si>
-  <si>
-    <t>buying on credit</t>
-  </si>
-  <si>
-    <t>clipping coupons</t>
-  </si>
-  <si>
-    <t>picking pockets</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains</t>
-  </si>
-  <si>
-    <t>stealing jewels</t>
-  </si>
-  <si>
-    <t>running a criminal enterprise</t>
-  </si>
-  <si>
-    <t>fighting for justice</t>
-  </si>
-  <si>
-    <t>Meshach</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>ruling over subjects</t>
-  </si>
-  <si>
-    <t>staring at the moon</t>
-  </si>
-  <si>
-    <t>cooking dinners</t>
-  </si>
-  <si>
-    <t>living amongst apes</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies</t>
-  </si>
-  <si>
-    <t>Amanda</t>
-  </si>
-  <si>
-    <t>Bynes</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes</t>
-  </si>
-  <si>
-    <t>nurturing sibling rivalry</t>
-  </si>
-  <si>
-    <t>making home-made clothes</t>
-  </si>
-  <si>
-    <t>solving mysteries</t>
-  </si>
-  <si>
-    <t>H.P.</t>
-  </si>
-  <si>
-    <t>Lovecraft</t>
-  </si>
-  <si>
-    <t>eating carrots</t>
-  </si>
-  <si>
-    <t>burning the wicked</t>
-  </si>
-  <si>
-    <t>drinking too much red wine</t>
-  </si>
-  <si>
-    <t>defending the weak</t>
-  </si>
-  <si>
-    <t>Lisa</t>
-  </si>
-  <si>
-    <t>Edelstein</t>
-  </si>
-  <si>
-    <t>developing military strategies</t>
-  </si>
-  <si>
-    <t>hunting raccoons</t>
-  </si>
-  <si>
-    <t>walking like a man</t>
-  </si>
-  <si>
-    <t>ranting about liberals</t>
-  </si>
-  <si>
-    <t>interviewing celebrities</t>
-  </si>
-  <si>
-    <t>Esther</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>scandalizing polite society</t>
-  </si>
-  <si>
-    <t>writing purple prose</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Goldman</t>
-  </si>
-  <si>
-    <t>campaigning for social causes</t>
-  </si>
-  <si>
-    <t>starring in sit-coms</t>
-  </si>
-  <si>
-    <t>pulling dirty political tricks</t>
-  </si>
-  <si>
-    <t>signing sports memorabilia</t>
-  </si>
-  <si>
-    <t>painting abstract pictures</t>
-  </si>
-  <si>
-    <t>winning tennis matches</t>
-  </si>
-  <si>
-    <t>Carl</t>
-  </si>
-  <si>
-    <t>Jung</t>
-  </si>
-  <si>
-    <t>promoting the Web</t>
-  </si>
-  <si>
-    <t>managing large development projects</t>
-  </si>
-  <si>
-    <t>singing punk rock songs</t>
-  </si>
-  <si>
-    <t>developing new technologies</t>
-  </si>
-  <si>
-    <t>singing romantic songs</t>
-  </si>
-  <si>
-    <t>pedalling furiously</t>
-  </si>
-  <si>
-    <t>Jeff</t>
-  </si>
-  <si>
-    <t>Daniels</t>
-  </si>
-  <si>
-    <t>fighting for democracy</t>
-  </si>
-  <si>
-    <t>writing crime stories</t>
-  </si>
-  <si>
-    <t>selling consumer goods</t>
-  </si>
-  <si>
-    <t>making unauthorized sex tapes</t>
-  </si>
-  <si>
-    <t>Jools</t>
-  </si>
-  <si>
-    <t>Holland</t>
-  </si>
-  <si>
-    <t>Gary</t>
-  </si>
-  <si>
-    <t>Oldman</t>
-  </si>
-  <si>
-    <t>selling chrystal meth</t>
-  </si>
-  <si>
-    <t>piloting a spaceship</t>
-  </si>
-  <si>
-    <t>throwing lavish parties</t>
-  </si>
-  <si>
-    <t>Alain</t>
-  </si>
-  <si>
-    <t>Prost</t>
-  </si>
-  <si>
-    <t>promoting logical thinking</t>
-  </si>
-  <si>
-    <t>analyzing the sub-conscious</t>
-  </si>
-  <si>
-    <t>solving riddles</t>
-  </si>
-  <si>
-    <t>smoking Laramie Hi-Tars</t>
-  </si>
-  <si>
-    <t>climbing social ladders</t>
-  </si>
-  <si>
-    <t>preventing crime</t>
-  </si>
-  <si>
-    <t>posing riddles</t>
-  </si>
-  <si>
-    <t>Ruth</t>
-  </si>
-  <si>
-    <t>Gordon</t>
-  </si>
-  <si>
-    <t>promoting openness</t>
-  </si>
-  <si>
-    <t>Eileen</t>
-  </si>
-  <si>
-    <t>Farrell</t>
-  </si>
-  <si>
-    <t>commanding a spaceship</t>
-  </si>
-  <si>
-    <t>Steven</t>
-  </si>
-  <si>
-    <t>Bochco</t>
-  </si>
-  <si>
-    <t>selling cheap airline seats</t>
-  </si>
-  <si>
-    <t>Pat</t>
-  </si>
-  <si>
-    <t>Summerall</t>
-  </si>
-  <si>
-    <t>phoning home</t>
-  </si>
-  <si>
-    <t>seeking revenge</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Schulz</t>
-  </si>
-  <si>
-    <t>gyrating hips</t>
-  </si>
-  <si>
-    <t>running an empire</t>
-  </si>
-  <si>
-    <t>Rod</t>
-  </si>
-  <si>
-    <t>stabbing in the back</t>
-  </si>
-  <si>
-    <t>starring in reality TV shows</t>
-  </si>
-  <si>
-    <t>Hilary</t>
-  </si>
-  <si>
-    <t>Duff</t>
-  </si>
-  <si>
-    <t>delivering presents</t>
-  </si>
-  <si>
-    <t>complaining about everything</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Hopkins</t>
-  </si>
-  <si>
-    <t>spreading revolution</t>
-  </si>
-  <si>
-    <t>smoking during recess</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Copperfield</t>
-  </si>
-  <si>
-    <t>singing experimental songs</t>
-  </si>
-  <si>
-    <t>playing soccer</t>
-  </si>
-  <si>
-    <t>Barkley</t>
-  </si>
-  <si>
-    <t>hosting reality TV shows</t>
-  </si>
-  <si>
-    <t>commiting perjury</t>
-  </si>
-  <si>
-    <t>designing modern buildings</t>
-  </si>
-  <si>
-    <t>Napolenon</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>brokering peace deals</t>
-  </si>
-  <si>
-    <t>modeling clothes</t>
-  </si>
-  <si>
-    <t>Ronnie</t>
-  </si>
-  <si>
-    <t>Milsap</t>
-  </si>
-  <si>
-    <t>peacocking in fancy clothes</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies</t>
-  </si>
-  <si>
-    <t>painting dark pictures</t>
-  </si>
-  <si>
-    <t>Ethel</t>
-  </si>
-  <si>
-    <t>Waters</t>
-  </si>
-  <si>
-    <t>running races</t>
-  </si>
-  <si>
-    <t>Lyndon</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>organizing armed robberies</t>
-  </si>
-  <si>
-    <t>Sidney</t>
-  </si>
-  <si>
-    <t>Lumet</t>
-  </si>
-  <si>
-    <t>giving investment advice</t>
-  </si>
-  <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>Prokofiev</t>
-  </si>
-  <si>
-    <t>Tab</t>
-  </si>
-  <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Lizzie</t>
-  </si>
-  <si>
-    <t>Borden</t>
-  </si>
-  <si>
-    <t>fomenting social revolution</t>
-  </si>
-  <si>
-    <t>reporting the news</t>
-  </si>
-  <si>
-    <t>Hancock</t>
-  </si>
-  <si>
-    <t>rescuing hostages</t>
-  </si>
-  <si>
-    <t>Roger</t>
-  </si>
-  <si>
-    <t>Ebert</t>
-  </si>
-  <si>
-    <t>developing advertising campaigns</t>
-  </si>
-  <si>
-    <t>Gummo</t>
-  </si>
-  <si>
-    <t>Marx</t>
-  </si>
-  <si>
-    <t>Will</t>
-  </si>
-  <si>
-    <t>Ferrell</t>
-  </si>
-  <si>
-    <t>bullying schoolkids</t>
-  </si>
-  <si>
-    <t>disposing of unwanted jewelry</t>
-  </si>
-  <si>
-    <t>Timbaland</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>De-Niro</t>
-  </si>
-  <si>
-    <t>Claudette</t>
-  </si>
-  <si>
-    <t>Colbert</t>
-  </si>
-  <si>
-    <t>promoting big business</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Godunov</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Caviezel</t>
-  </si>
-  <si>
-    <t>Meg</t>
-  </si>
-  <si>
-    <t>Ryan</t>
-  </si>
-  <si>
-    <t>studying gorillas up close</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>Gibb</t>
-  </si>
-  <si>
-    <t>impersonating women</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Madeline</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>commanding a whaling ship</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Bloomberg</t>
-  </si>
-  <si>
-    <t>Suzanne</t>
-  </si>
-  <si>
-    <t>Pleshette</t>
-  </si>
-  <si>
-    <t>killing demons</t>
-  </si>
-  <si>
-    <t>Georges</t>
-  </si>
-  <si>
-    <t>Seurat</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Tune</t>
-  </si>
-  <si>
-    <t>solving crimes</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Stockwell</t>
-  </si>
-  <si>
-    <t>playing everyman characters</t>
-  </si>
-  <si>
-    <t>moaning about men</t>
-  </si>
-  <si>
-    <t>Research Activity</t>
+    <t>MoNique</t>
   </si>
   <si>
     <t>Paul</t>
   </si>
   <si>
-    <t>Bryant</t>
-  </si>
-  <si>
-    <t>seducing young women</t>
-  </si>
-  <si>
-    <t>Kit</t>
-  </si>
-  <si>
-    <t>Carson</t>
-  </si>
-  <si>
-    <t>Fidel</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Charlton</t>
-  </si>
-  <si>
-    <t>Heston</t>
-  </si>
-  <si>
-    <t>N.C.</t>
-  </si>
-  <si>
-    <t>Wyeth</t>
-  </si>
-  <si>
-    <t>Larisa</t>
-  </si>
-  <si>
-    <t>Oleynik</t>
-  </si>
-  <si>
-    <t>Randy</t>
-  </si>
-  <si>
-    <t>Quaid</t>
-  </si>
-  <si>
-    <t>Coltrane</t>
-  </si>
-  <si>
-    <t>Burghoff</t>
-  </si>
-  <si>
-    <t>George</t>
-  </si>
-  <si>
-    <t>Burns</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
-    <t>Diego</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Gauguin</t>
-  </si>
-  <si>
-    <t>writing poetry</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Leakey</t>
-  </si>
-  <si>
-    <t>playing baseball</t>
-  </si>
-  <si>
-    <t>Shawn</t>
-  </si>
-  <si>
-    <t>Stockman</t>
-  </si>
-  <si>
-    <t>Parrish</t>
-  </si>
-  <si>
-    <t>Dirk</t>
-  </si>
-  <si>
-    <t>Benedict</t>
-  </si>
-  <si>
-    <t>Swift</t>
-  </si>
-  <si>
-    <t>adopting children</t>
-  </si>
-  <si>
-    <t>Tom</t>
-  </si>
-  <si>
-    <t>Mix</t>
-  </si>
-  <si>
-    <t>Caine</t>
-  </si>
-  <si>
-    <t>making new wave movies</t>
-  </si>
-  <si>
-    <t>Mark</t>
-  </si>
-  <si>
-    <t>Hamill</t>
-  </si>
-  <si>
-    <t>Kirk</t>
-  </si>
-  <si>
-    <t>Cameron</t>
-  </si>
-  <si>
-    <t>Herm</t>
-  </si>
-  <si>
-    <t>Edwards</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Pulitzer</t>
-  </si>
-  <si>
-    <t>Agee</t>
-  </si>
-  <si>
-    <t>Tony</t>
-  </si>
-  <si>
-    <t>Blair</t>
-  </si>
-  <si>
-    <t>starring in daytime soap operas</t>
-  </si>
-  <si>
-    <t>Yasser</t>
-  </si>
-  <si>
-    <t>Arafat</t>
-  </si>
-  <si>
-    <t>Pierce</t>
-  </si>
-  <si>
-    <t>Brosnan</t>
-  </si>
-  <si>
-    <t>Jim</t>
-  </si>
-  <si>
-    <t>Croce</t>
-  </si>
-  <si>
-    <t>chasing murderers</t>
-  </si>
-  <si>
-    <t>Jack</t>
-  </si>
-  <si>
-    <t>Benny</t>
-  </si>
-  <si>
-    <t>Belushi</t>
-  </si>
-  <si>
-    <t>Janis</t>
-  </si>
-  <si>
-    <t>Joplin</t>
-  </si>
-  <si>
-    <t>promoting conservative values</t>
-  </si>
-  <si>
-    <t>Nolan</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Stravinsky</t>
-  </si>
-  <si>
-    <t>Tibbets</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Geary</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Streisand</t>
-  </si>
-  <si>
-    <t>Mel</t>
-  </si>
-  <si>
-    <t>Gibson</t>
-  </si>
-  <si>
-    <t>Rip</t>
-  </si>
-  <si>
-    <t>Torn</t>
-  </si>
-  <si>
-    <t>writing short stories</t>
-  </si>
-  <si>
-    <t>Santa</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Tritt</t>
-  </si>
-  <si>
-    <t>Wayans</t>
-  </si>
-  <si>
-    <t>Kristy</t>
-  </si>
-  <si>
-    <t>McNichol</t>
-  </si>
-  <si>
-    <t>Rick</t>
-  </si>
-  <si>
-    <t>Schroder</t>
-  </si>
-  <si>
-    <t>Jimmy</t>
-  </si>
-  <si>
-    <t>Fallon</t>
-  </si>
-  <si>
-    <t>Nick</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>Jill</t>
-  </si>
-  <si>
-    <t>Guillaume</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Pershing</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Patricia</t>
-  </si>
-  <si>
-    <t>Heaton</t>
-  </si>
-  <si>
-    <t>Bob</t>
-  </si>
-  <si>
-    <t>Hope</t>
-  </si>
-  <si>
-    <t>Bernadette</t>
-  </si>
-  <si>
-    <t>Peters</t>
-  </si>
-  <si>
-    <t>H.R.</t>
-  </si>
-  <si>
-    <t>Giger</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Bellamy</t>
+    <t>Novello</t>
   </si>
   <si>
     <t>Alan</t>
   </si>
   <si>
-    <t>Thicke</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Ritchie</t>
-  </si>
-  <si>
-    <t>Hans</t>
-  </si>
-  <si>
-    <t>Christian-Anderson</t>
-  </si>
-  <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Swayze</t>
-  </si>
-  <si>
-    <t>Bill</t>
-  </si>
-  <si>
-    <t>Fries</t>
-  </si>
-  <si>
-    <t>Gaulle</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>McGovern</t>
+    <t>Shepard</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Ho</t>
+  </si>
+  <si>
+    <t>Minh</t>
   </si>
 </sst>
 </file>
@@ -1195,19 +1186,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.63671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.00390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="9.1015625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="9.11328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="29.07421875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="31.51953125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.51953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="29.0703125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="31.71875" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="28.765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="28.765625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="29.2734375" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="27.546875" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="28.765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1262,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>5.1315727E7</v>
+        <v>8.6126625E7</v>
       </c>
       <c r="D2" t="s">
         <v>16</v>
@@ -1306,151 +1297,151 @@
         <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>9.878653E7</v>
+        <v>1.4878437E7</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
-        <v>8.1394392E7</v>
+        <v>3.4440454E7</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>9.501841E7</v>
+        <v>3.7206331E7</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" t="s">
-        <v>51</v>
-      </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="L5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0281119E7</v>
+        <v>8.0114121E7</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>62</v>
@@ -1482,37 +1473,37 @@
         <v>70</v>
       </c>
       <c r="C7" t="n">
-        <v>1.8382364E7</v>
+        <v>1.7934849E7</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
         <v>71</v>
       </c>
       <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
         <v>72</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" t="s">
         <v>73</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>74</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="K7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>62</v>
       </c>
       <c r="N7" t="s">
         <v>77</v>
@@ -1526,7 +1517,7 @@
         <v>79</v>
       </c>
       <c r="C8" t="n">
-        <v>1.23358E7</v>
+        <v>5.3124666E7</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1535,31 +1526,31 @@
         <v>80</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>83</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>84</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -1570,656 +1561,656 @@
         <v>86</v>
       </c>
       <c r="C9" t="n">
-        <v>1.7834261E7</v>
+        <v>1.3019863E7</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>87</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10" t="n">
-        <v>3.4700569E7</v>
+        <v>7.0660903E7</v>
       </c>
       <c r="D10" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
         <v>61</v>
       </c>
-      <c r="I10" t="s">
-        <v>73</v>
-      </c>
       <c r="J10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K10" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="L10" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C11" t="n">
-        <v>3.9384913E7</v>
+        <v>5.9701143E7</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>103</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C12" t="n">
-        <v>2.8666788E7</v>
+        <v>8.4672272E7</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="G12" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="M12" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C13" t="n">
-        <v>8.4345877E7</v>
+        <v>8.4750382E7</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="J13" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="M13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C14" t="n">
-        <v>5.6756848E7</v>
+        <v>1.0752135E7</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6.9954566E7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>62</v>
+      </c>
+      <c r="K15" t="s">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="L15" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="n">
-        <v>3.692266E7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="M15" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" t="s">
         <v>127</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" t="s">
-        <v>113</v>
-      </c>
-      <c r="J15" t="s">
-        <v>128</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s">
-        <v>25</v>
-      </c>
-      <c r="M15" t="s">
-        <v>129</v>
-      </c>
-      <c r="N15" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="n">
+        <v>6.4874482E7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>54</v>
+      </c>
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
         <v>131</v>
       </c>
-      <c r="B16" t="s">
+      <c r="H16" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" t="s">
         <v>132</v>
       </c>
-      <c r="C16" t="n">
-        <v>6.1737138E7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" t="s">
-        <v>29</v>
-      </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="L16" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C17" t="n">
-        <v>4.6010274E7</v>
+        <v>1.7779259E7</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" t="s">
+        <v>139</v>
+      </c>
+      <c r="I17" t="s">
+        <v>76</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
         <v>77</v>
       </c>
-      <c r="G17" t="s">
-        <v>73</v>
-      </c>
-      <c r="H17" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s">
-        <v>136</v>
-      </c>
-      <c r="M17" t="s">
-        <v>137</v>
-      </c>
       <c r="N17" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C18" t="n">
-        <v>5.7821267E7</v>
+        <v>5.8895291E7</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="I18" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
         <v>143</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="L18" t="s">
         <v>144</v>
       </c>
       <c r="M18" t="s">
-        <v>145</v>
+        <v>34</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.2464084E7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" t="s">
         <v>147</v>
       </c>
-      <c r="B19" t="s">
+      <c r="J19" t="s">
+        <v>82</v>
+      </c>
+      <c r="K19" t="s">
         <v>148</v>
       </c>
-      <c r="C19" t="n">
-        <v>4.0912977E7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>149</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" t="s">
-        <v>119</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>43</v>
-      </c>
       <c r="L19" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M19" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="N19" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
         <v>150</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="n">
+        <v>1.0943899E7</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" t="n">
-        <v>7.9151251E7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>62</v>
-      </c>
       <c r="G20" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="K20" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="M20" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C21" t="n">
-        <v>4.0231232E7</v>
+        <v>3.3409973E7</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="J21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="L21" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="M21" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="N21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C22" t="n">
-        <v>1.1509894E7</v>
+        <v>6.4060568E7</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="H22" t="s">
-        <v>158</v>
+        <v>111</v>
       </c>
       <c r="I22" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L22" t="s">
+        <v>130</v>
+      </c>
+      <c r="M22" t="s">
         <v>71</v>
       </c>
-      <c r="K22" t="s">
-        <v>159</v>
-      </c>
-      <c r="L22" t="s">
-        <v>95</v>
-      </c>
-      <c r="M22" t="s">
-        <v>145</v>
-      </c>
       <c r="N22" t="s">
-        <v>135</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C23" t="n">
-        <v>2.0584467E7</v>
+        <v>2.4361272E7</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="K23" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24">
@@ -2227,263 +2218,263 @@
         <v>164</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>165</v>
       </c>
       <c r="C24" t="n">
-        <v>7.6330915E7</v>
+        <v>1.470942E7</v>
       </c>
       <c r="D24" t="s">
         <v>16</v>
       </c>
       <c r="E24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
         <v>83</v>
       </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>80</v>
-      </c>
       <c r="H24" t="s">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="I24" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="L24" t="s">
-        <v>165</v>
+        <v>54</v>
       </c>
       <c r="M24" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C25" t="n">
-        <v>1.9025682E7</v>
+        <v>1.4804398E7</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" t="s">
+        <v>130</v>
+      </c>
+      <c r="J25" t="s">
+        <v>55</v>
+      </c>
+      <c r="K25" t="s">
         <v>73</v>
       </c>
-      <c r="F25" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="L25" t="s">
+        <v>48</v>
+      </c>
+      <c r="M25" t="s">
+        <v>175</v>
+      </c>
+      <c r="N25" t="s">
         <v>152</v>
-      </c>
-      <c r="I25" t="s">
-        <v>68</v>
-      </c>
-      <c r="J25" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" t="s">
-        <v>169</v>
-      </c>
-      <c r="L25" t="s">
-        <v>76</v>
-      </c>
-      <c r="M25" t="s">
-        <v>145</v>
-      </c>
-      <c r="N25" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C26" t="n">
-        <v>1.080719E7</v>
+        <v>2.2831885E7</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="H26" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="L26" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="N26" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C27" t="n">
-        <v>1.6292813E7</v>
+        <v>5.2193101E7</v>
       </c>
       <c r="D27" t="s">
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="I27" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="L27" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="M27" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>182</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C28" t="n">
-        <v>1.81315E7</v>
+        <v>6.0192199E7</v>
       </c>
       <c r="D28" t="s">
         <v>16</v>
       </c>
       <c r="E28" t="s">
-        <v>180</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G28" t="s">
-        <v>163</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="I28" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="M28" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="N28" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C29" t="n">
-        <v>4.3801509E7</v>
+        <v>8.3864745E7</v>
       </c>
       <c r="D29" t="s">
         <v>16</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="H29" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="J29" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s">
-        <v>177</v>
+        <v>21</v>
       </c>
       <c r="L29" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="M29" t="s">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="N29" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -2494,524 +2485,524 @@
         <v>188</v>
       </c>
       <c r="C30" t="n">
-        <v>7.428898E7</v>
+        <v>3.3696852E7</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E30" t="s">
         <v>189</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="K30" t="s">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C31" t="n">
-        <v>4.2717106E7</v>
+        <v>4.020613E7</v>
       </c>
       <c r="D31" t="s">
         <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="F31" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
-        <v>192</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="K31" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="L31" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="M31" t="s">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="N31" t="s">
-        <v>149</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B32" t="s">
         <v>194</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="n">
+        <v>2.4119591E7</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>44</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
+        <v>117</v>
+      </c>
+      <c r="K32" t="s">
+        <v>111</v>
+      </c>
+      <c r="L32" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" t="s">
         <v>195</v>
       </c>
-      <c r="C32" t="n">
-        <v>8.2758356E7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F32" t="s">
-        <v>83</v>
-      </c>
-      <c r="G32" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" t="s">
-        <v>50</v>
-      </c>
-      <c r="J32" t="s">
-        <v>116</v>
-      </c>
-      <c r="K32" t="s">
-        <v>84</v>
-      </c>
-      <c r="L32" t="s">
-        <v>181</v>
-      </c>
-      <c r="M32" t="s">
-        <v>52</v>
-      </c>
       <c r="N32" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" t="n">
+        <v>4.9642146E7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" t="s">
         <v>197</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+      <c r="K33" t="s">
         <v>198</v>
       </c>
-      <c r="C33" t="n">
-        <v>3.3479109E7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-      <c r="G33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" t="s">
-        <v>76</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="L33" t="s">
+        <v>190</v>
+      </c>
+      <c r="M33" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" t="s">
         <v>96</v>
-      </c>
-      <c r="J33" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33" t="s">
-        <v>68</v>
-      </c>
-      <c r="L33" t="s">
-        <v>135</v>
-      </c>
-      <c r="M33" t="s">
-        <v>88</v>
-      </c>
-      <c r="N33" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
         <v>200</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="n">
+        <v>8.9960459E7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" t="s">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s">
         <v>201</v>
       </c>
-      <c r="C34" t="n">
-        <v>4.0355623E7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" t="s">
-        <v>112</v>
-      </c>
-      <c r="G34" t="s">
-        <v>80</v>
-      </c>
-      <c r="H34" t="s">
-        <v>35</v>
-      </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>84</v>
       </c>
       <c r="J34" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="L34" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="M34" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
       <c r="N34" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" t="s">
         <v>203</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="n">
+        <v>3.1619514E7</v>
+      </c>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
         <v>204</v>
       </c>
-      <c r="C35" t="n">
-        <v>6.5073573E7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>42</v>
-      </c>
       <c r="F35" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="I35" t="s">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="J35" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="L35" t="s">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N35" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C36" t="n">
-        <v>9.2003133E7</v>
+        <v>3.1851452E7</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F36" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" t="s">
+        <v>90</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36" t="s">
         <v>66</v>
       </c>
-      <c r="F36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" t="s">
-        <v>74</v>
-      </c>
-      <c r="J36" t="s">
-        <v>173</v>
-      </c>
-      <c r="K36" t="s">
-        <v>169</v>
-      </c>
       <c r="L36" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M36" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N36" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C37" t="n">
-        <v>1.6405948E7</v>
+        <v>4.1970652E7</v>
       </c>
       <c r="D37" t="s">
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="F37" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="H37" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="J37" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L37" t="s">
+        <v>102</v>
+      </c>
+      <c r="M37" t="s">
         <v>181</v>
       </c>
-      <c r="M37" t="s">
-        <v>163</v>
-      </c>
       <c r="N37" t="s">
-        <v>210</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" t="n">
+        <v>8.1603203E7</v>
+      </c>
+      <c r="D38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s">
+        <v>140</v>
+      </c>
+      <c r="F38" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>214</v>
+      </c>
+      <c r="I38" t="s">
         <v>211</v>
       </c>
-      <c r="C38" t="n">
-        <v>9.6688011E7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E38" t="s">
-        <v>84</v>
-      </c>
-      <c r="F38" t="s">
-        <v>135</v>
-      </c>
-      <c r="G38" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" t="s">
-        <v>212</v>
-      </c>
-      <c r="I38" t="s">
-        <v>173</v>
-      </c>
       <c r="J38" t="s">
+        <v>205</v>
+      </c>
+      <c r="K38" t="s">
+        <v>215</v>
+      </c>
+      <c r="L38" t="s">
+        <v>77</v>
+      </c>
+      <c r="M38" t="s">
         <v>76</v>
       </c>
-      <c r="K38" t="s">
-        <v>137</v>
-      </c>
-      <c r="L38" t="s">
-        <v>146</v>
-      </c>
-      <c r="M38" t="s">
-        <v>88</v>
-      </c>
       <c r="N38" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C39" t="n">
-        <v>6.0905704E7</v>
+        <v>1.4058632E7</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>18</v>
       </c>
       <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>82</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" t="s">
+        <v>73</v>
+      </c>
+      <c r="L39" t="s">
+        <v>218</v>
+      </c>
+      <c r="M39" t="s">
         <v>152</v>
       </c>
-      <c r="H39" t="s">
-        <v>169</v>
-      </c>
-      <c r="I39" t="s">
-        <v>64</v>
-      </c>
-      <c r="J39" t="s">
-        <v>143</v>
-      </c>
-      <c r="K39" t="s">
-        <v>215</v>
-      </c>
-      <c r="L39" t="s">
-        <v>88</v>
-      </c>
-      <c r="M39" t="s">
-        <v>170</v>
-      </c>
       <c r="N39" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>216</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C40" t="n">
-        <v>8.7654258E7</v>
+        <v>4.5959394E7</v>
       </c>
       <c r="D40" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="F40" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="J40" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="K40" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="M40" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="N40" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C41" t="n">
-        <v>6.6327231E7</v>
+        <v>5.1545458E7</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G41" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="I41" t="s">
-        <v>199</v>
+        <v>36</v>
       </c>
       <c r="J41" t="s">
-        <v>221</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="L41" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="M41" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="N41" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42">
@@ -3019,1935 +3010,1935 @@
         <v>222</v>
       </c>
       <c r="B42" t="s">
-        <v>184</v>
+        <v>223</v>
       </c>
       <c r="C42" t="n">
-        <v>3.7861133E7</v>
+        <v>5.8523935E7</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>21</v>
+        <v>157</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="J42" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="K42" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="L42" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="M42" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="N42" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C43" t="n">
-        <v>6.4102812E7</v>
+        <v>7.8686678E7</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="G43" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="H43" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="K43" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="M43" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="N43" t="s">
-        <v>55</v>
+        <v>201</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C44" t="n">
-        <v>6.2373368E7</v>
+        <v>9.6485544E7</v>
       </c>
       <c r="D44" t="s">
         <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>229</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="G44" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" t="s">
+        <v>215</v>
+      </c>
+      <c r="I44" t="s">
+        <v>113</v>
+      </c>
+      <c r="J44" t="s">
+        <v>112</v>
+      </c>
+      <c r="K44" t="s">
         <v>18</v>
       </c>
-      <c r="H44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I44" t="s">
-        <v>128</v>
-      </c>
-      <c r="J44" t="s">
-        <v>39</v>
-      </c>
-      <c r="K44" t="s">
-        <v>32</v>
-      </c>
       <c r="L44" t="s">
-        <v>34</v>
+        <v>153</v>
       </c>
       <c r="M44" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="N44" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C45" t="n">
-        <v>5.4121846E7</v>
+        <v>4.8008886E7</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="H45" t="s">
-        <v>45</v>
+        <v>190</v>
       </c>
       <c r="I45" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J45" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="L45" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="N45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C46" t="n">
-        <v>7.0290274E7</v>
+        <v>6.1826499E7</v>
       </c>
       <c r="D46" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="F46" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="H46" t="s">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="I46" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
       <c r="J46" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="K46" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="L46" t="s">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c r="M46" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="N46" t="s">
-        <v>63</v>
+        <v>168</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C47" t="n">
-        <v>7.6918467E7</v>
+        <v>6.201443E7</v>
       </c>
       <c r="D47" t="s">
         <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G47" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="I47" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="L47" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="M47" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="N47" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="C48" t="n">
-        <v>9.2836574E7</v>
+        <v>2.4108034E7</v>
       </c>
       <c r="D48" t="s">
         <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="F48" t="s">
-        <v>234</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H48" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" t="s">
+        <v>48</v>
+      </c>
+      <c r="J48" t="s">
         <v>31</v>
       </c>
-      <c r="I48" t="s">
-        <v>38</v>
-      </c>
-      <c r="J48" t="s">
-        <v>124</v>
-      </c>
       <c r="K48" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M48" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="N48" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C49" t="n">
-        <v>7.1438106E7</v>
+        <v>2.1356087E7</v>
       </c>
       <c r="D49" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="G49" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="H49" t="s">
-        <v>90</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="J49" t="s">
-        <v>143</v>
+        <v>47</v>
       </c>
       <c r="K49" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L49" t="s">
-        <v>215</v>
+        <v>140</v>
       </c>
       <c r="M49" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="N49" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C50" t="n">
-        <v>4.9411752E7</v>
+        <v>8.7757645E7</v>
       </c>
       <c r="D50" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>201</v>
       </c>
       <c r="F50" t="s">
-        <v>84</v>
+        <v>174</v>
       </c>
       <c r="G50" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="H50" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="J50" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="K50" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="M50" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="N50" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C51" t="n">
-        <v>6.3136409E7</v>
+        <v>8.2395026E7</v>
       </c>
       <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>246</v>
+      </c>
+      <c r="F51" t="s">
         <v>58</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>53</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" t="s">
+        <v>161</v>
+      </c>
+      <c r="K51" t="s">
         <v>152</v>
       </c>
-      <c r="F51" t="s">
-        <v>241</v>
-      </c>
-      <c r="G51" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" t="s">
-        <v>237</v>
-      </c>
-      <c r="I51" t="s">
-        <v>173</v>
-      </c>
-      <c r="J51" t="s">
-        <v>60</v>
-      </c>
-      <c r="K51" t="s">
-        <v>73</v>
-      </c>
       <c r="L51" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="M51" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
       <c r="N51" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B52" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C52" t="n">
-        <v>1.418407E7</v>
+        <v>2.1178943E7</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="G52" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="I52" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>215</v>
       </c>
       <c r="K52" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="L52" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="M52" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="N52" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C53" t="n">
-        <v>2.1932304E7</v>
+        <v>8.5191534E7</v>
       </c>
       <c r="D53" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E53" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="F53" t="s">
-        <v>142</v>
+        <v>198</v>
       </c>
       <c r="G53" t="s">
-        <v>136</v>
+        <v>32</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="I53" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="J53" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="K53" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="L53" t="s">
-        <v>246</v>
+        <v>124</v>
       </c>
       <c r="M53" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="N53" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B54" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C54" t="n">
-        <v>1.8096203E7</v>
+        <v>4.5948867E7</v>
       </c>
       <c r="D54" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>148</v>
       </c>
       <c r="I54" t="s">
-        <v>174</v>
+        <v>17</v>
       </c>
       <c r="J54" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="K54" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="L54" t="s">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="M54" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="N54" t="s">
-        <v>212</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C55" t="n">
-        <v>3.1539842E7</v>
+        <v>4.5688518E7</v>
       </c>
       <c r="D55" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E55" t="s">
         <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>144</v>
       </c>
       <c r="G55" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="H55" t="s">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="I55" t="s">
-        <v>170</v>
+        <v>95</v>
       </c>
       <c r="J55" t="s">
+        <v>37</v>
+      </c>
+      <c r="K55" t="s">
         <v>63</v>
       </c>
-      <c r="K55" t="s">
-        <v>143</v>
-      </c>
       <c r="L55" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M55" t="s">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="N55" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C56" t="n">
-        <v>4.2161124E7</v>
+        <v>7.3531421E7</v>
       </c>
       <c r="D56" t="s">
         <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="G56" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="H56" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="I56" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="J56" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="K56" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="L56" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="M56" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="N56" t="s">
-        <v>256</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C57" t="n">
-        <v>2.7873473E7</v>
+        <v>3.6698287E7</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>140</v>
+        <v>39</v>
       </c>
       <c r="H57" t="s">
+        <v>190</v>
+      </c>
+      <c r="I57" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" t="s">
+        <v>232</v>
+      </c>
+      <c r="K57" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" t="s">
+        <v>34</v>
+      </c>
+      <c r="M57" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57" t="s">
         <v>143</v>
-      </c>
-      <c r="I57" t="s">
-        <v>259</v>
-      </c>
-      <c r="J57" t="s">
-        <v>93</v>
-      </c>
-      <c r="K57" t="s">
-        <v>137</v>
-      </c>
-      <c r="L57" t="s">
-        <v>142</v>
-      </c>
-      <c r="M57" t="s">
-        <v>90</v>
-      </c>
-      <c r="N57" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>260</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C58" t="n">
-        <v>7.2251682E7</v>
+        <v>3.3746051E7</v>
       </c>
       <c r="D58" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H58" t="s">
+        <v>25</v>
+      </c>
+      <c r="I58" t="s">
         <v>58</v>
       </c>
-      <c r="E58" t="s">
-        <v>141</v>
-      </c>
-      <c r="F58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G58" t="s">
-        <v>96</v>
-      </c>
-      <c r="H58" t="s">
-        <v>220</v>
-      </c>
-      <c r="I58" t="s">
-        <v>221</v>
-      </c>
       <c r="J58" t="s">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="K58" t="s">
-        <v>75</v>
+        <v>237</v>
       </c>
       <c r="L58" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="M58" t="s">
-        <v>67</v>
+        <v>229</v>
       </c>
       <c r="N58" t="s">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B59" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C59" t="n">
-        <v>4.6273455E7</v>
+        <v>9.2142587E7</v>
       </c>
       <c r="D59" t="s">
         <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="G59" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H59" t="s">
-        <v>202</v>
+        <v>169</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>106</v>
       </c>
       <c r="J59" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="K59" t="s">
-        <v>25</v>
+        <v>72</v>
       </c>
       <c r="L59" t="s">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="M59" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="N59" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C60" t="n">
-        <v>7.0287424E7</v>
+        <v>7.7847852E7</v>
       </c>
       <c r="D60" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E60" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="G60" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H60" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="J60" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="K60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L60" t="s">
-        <v>141</v>
+        <v>197</v>
       </c>
       <c r="M60" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="N60" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B61" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C61" t="n">
-        <v>4.2447092E7</v>
+        <v>8.8121041E7</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>95</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="G61" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="H61" t="s">
+        <v>44</v>
+      </c>
+      <c r="I61" t="s">
+        <v>61</v>
+      </c>
+      <c r="J61" t="s">
         <v>77</v>
       </c>
-      <c r="I61" t="s">
-        <v>142</v>
-      </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
+        <v>26</v>
+      </c>
+      <c r="L61" t="s">
+        <v>82</v>
+      </c>
+      <c r="M61" t="s">
         <v>73</v>
       </c>
-      <c r="K61" t="s">
-        <v>174</v>
-      </c>
-      <c r="L61" t="s">
-        <v>67</v>
-      </c>
-      <c r="M61" t="s">
-        <v>143</v>
-      </c>
       <c r="N61" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" t="n">
+        <v>8.1716815E7</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>148</v>
+      </c>
+      <c r="J62" t="s">
+        <v>215</v>
+      </c>
+      <c r="K62" t="s">
+        <v>133</v>
+      </c>
+      <c r="L62" t="s">
+        <v>43</v>
+      </c>
+      <c r="M62" t="s">
+        <v>160</v>
+      </c>
+      <c r="N62" t="s">
         <v>268</v>
-      </c>
-      <c r="B62" t="s">
-        <v>269</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1.0045165E7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" t="s">
-        <v>41</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>234</v>
-      </c>
-      <c r="H62" t="s">
-        <v>128</v>
-      </c>
-      <c r="I62" t="s">
-        <v>149</v>
-      </c>
-      <c r="J62" t="s">
-        <v>165</v>
-      </c>
-      <c r="K62" t="s">
-        <v>182</v>
-      </c>
-      <c r="L62" t="s">
-        <v>163</v>
-      </c>
-      <c r="M62" t="s">
-        <v>29</v>
-      </c>
-      <c r="N62" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>269</v>
+      </c>
+      <c r="B63" t="s">
         <v>270</v>
       </c>
-      <c r="B63" t="s">
-        <v>271</v>
-      </c>
       <c r="C63" t="n">
-        <v>4.3185894E7</v>
+        <v>4.1625322E7</v>
       </c>
       <c r="D63" t="s">
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>42</v>
+        <v>237</v>
       </c>
       <c r="F63" t="s">
-        <v>24</v>
+        <v>268</v>
       </c>
       <c r="G63" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="I63" t="s">
-        <v>114</v>
+        <v>229</v>
       </c>
       <c r="J63" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="K63" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="L63" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="M63" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="N63" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="B64" t="s">
         <v>272</v>
       </c>
       <c r="C64" t="n">
-        <v>3.5065185E7</v>
+        <v>4.6771804E7</v>
       </c>
       <c r="D64" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E64" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="G64" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H64" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="I64" t="s">
-        <v>170</v>
+        <v>64</v>
       </c>
       <c r="J64" t="s">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="K64" t="s">
-        <v>212</v>
+        <v>35</v>
       </c>
       <c r="L64" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="M64" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="N64" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>273</v>
+      </c>
+      <c r="B65" t="s">
+        <v>274</v>
+      </c>
+      <c r="C65" t="n">
+        <v>7.5399656E7</v>
+      </c>
+      <c r="D65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" t="s">
+        <v>201</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
         <v>133</v>
       </c>
-      <c r="B65" t="s">
-        <v>273</v>
-      </c>
-      <c r="C65" t="n">
-        <v>8.620348E7</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="I65" t="s">
         <v>58</v>
       </c>
-      <c r="E65" t="s">
-        <v>246</v>
-      </c>
-      <c r="F65" t="s">
-        <v>158</v>
-      </c>
-      <c r="G65" t="s">
-        <v>63</v>
-      </c>
-      <c r="H65" t="s">
-        <v>215</v>
-      </c>
-      <c r="I65" t="s">
-        <v>90</v>
-      </c>
       <c r="J65" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="K65" t="s">
-        <v>251</v>
+        <v>55</v>
       </c>
       <c r="L65" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="M65" t="s">
-        <v>237</v>
+        <v>57</v>
       </c>
       <c r="N65" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>274</v>
+        <v>193</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C66" t="n">
-        <v>1.6914553E7</v>
+        <v>7.9220783E7</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E66" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="G66" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="H66" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I66" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="J66" t="s">
-        <v>21</v>
+        <v>232</v>
       </c>
       <c r="K66" t="s">
-        <v>128</v>
+        <v>190</v>
       </c>
       <c r="L66" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M66" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="N66" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B67" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C67" t="n">
-        <v>5.3654606E7</v>
+        <v>3.5324803E7</v>
       </c>
       <c r="D67" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="F67" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="G67" t="s">
+        <v>37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>31</v>
+      </c>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>65</v>
+      </c>
+      <c r="K67" t="s">
+        <v>88</v>
+      </c>
+      <c r="L67" t="s">
+        <v>126</v>
+      </c>
+      <c r="M67" t="s">
         <v>89</v>
       </c>
-      <c r="H67" t="s">
-        <v>68</v>
-      </c>
-      <c r="I67" t="s">
-        <v>66</v>
-      </c>
-      <c r="J67" t="s">
-        <v>173</v>
-      </c>
-      <c r="K67" t="s">
-        <v>212</v>
-      </c>
-      <c r="L67" t="s">
-        <v>174</v>
-      </c>
-      <c r="M67" t="s">
-        <v>61</v>
-      </c>
       <c r="N67" t="s">
-        <v>152</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C68" t="n">
-        <v>2.5051394E7</v>
+        <v>6.9045893E7</v>
       </c>
       <c r="D68" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E68" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="F68" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G68" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="K68" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="L68" t="s">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="M68" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="N68" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C69" t="n">
-        <v>1.4188888E7</v>
+        <v>2.6437898E7</v>
       </c>
       <c r="D69" t="s">
         <v>16</v>
       </c>
       <c r="E69" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
       <c r="G69" t="s">
-        <v>25</v>
+        <v>132</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I69" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="K69" t="s">
-        <v>124</v>
+        <v>283</v>
       </c>
       <c r="L69" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="M69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N69" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B70" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C70" t="n">
-        <v>8.8642504E7</v>
+        <v>6.3136346E7</v>
       </c>
       <c r="D70" t="s">
         <v>16</v>
       </c>
       <c r="E70" t="s">
-        <v>255</v>
+        <v>170</v>
       </c>
       <c r="F70" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s">
-        <v>155</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>284</v>
+        <v>103</v>
       </c>
       <c r="I70" t="s">
-        <v>192</v>
+        <v>48</v>
       </c>
       <c r="J70" t="s">
-        <v>54</v>
+        <v>132</v>
       </c>
       <c r="K70" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="L70" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M70" t="s">
-        <v>196</v>
+        <v>53</v>
       </c>
       <c r="N70" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B71" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C71" t="n">
-        <v>7.6547857E7</v>
+        <v>5.8365921E7</v>
       </c>
       <c r="D71" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E71" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="F71" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G71" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H71" t="s">
-        <v>199</v>
+        <v>113</v>
       </c>
       <c r="I71" t="s">
-        <v>64</v>
+        <v>116</v>
       </c>
       <c r="J71" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="K71" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="L71" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M71" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="N71" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="B72" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C72" t="n">
-        <v>7.7727011E7</v>
+        <v>4.6734421E7</v>
       </c>
       <c r="D72" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E72" t="s">
         <v>75</v>
       </c>
       <c r="F72" t="s">
+        <v>53</v>
+      </c>
+      <c r="G72" t="s">
         <v>215</v>
       </c>
-      <c r="G72" t="s">
-        <v>74</v>
-      </c>
       <c r="H72" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="I72" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="J72" t="s">
-        <v>174</v>
+        <v>56</v>
       </c>
       <c r="K72" t="s">
-        <v>237</v>
+        <v>81</v>
       </c>
       <c r="L72" t="s">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="M72" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N72" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C73" t="n">
-        <v>5.4580934E7</v>
+        <v>9.1162352E7</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E73" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="G73" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="H73" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I73" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="J73" t="s">
-        <v>182</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="L73" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="M73" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N73" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C74" t="n">
-        <v>6.2638635E7</v>
+        <v>6.1494282E7</v>
       </c>
       <c r="D74" t="s">
         <v>16</v>
       </c>
       <c r="E74" t="s">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="F74" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="G74" t="s">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="H74" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="J74" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="K74" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="L74" t="s">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="M74" t="s">
-        <v>149</v>
+        <v>49</v>
       </c>
       <c r="N74" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C75" t="n">
-        <v>3.5684528E7</v>
+        <v>9.4188605E7</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E75" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F75" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="G75" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="I75" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="J75" t="s">
-        <v>173</v>
+        <v>91</v>
       </c>
       <c r="K75" t="s">
-        <v>72</v>
+        <v>267</v>
       </c>
       <c r="L75" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="M75" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="N75" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>295</v>
       </c>
       <c r="B76" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C76" t="n">
-        <v>4.1212133E7</v>
+        <v>8.0864116E7</v>
       </c>
       <c r="D76" t="s">
         <v>16</v>
       </c>
       <c r="E76" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>103</v>
+        <v>212</v>
       </c>
       <c r="J76" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="K76" t="s">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="L76" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M76" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="N76" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B77" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C77" t="n">
-        <v>9.8746483E7</v>
+        <v>6.8224699E7</v>
       </c>
       <c r="D77" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="F77" t="s">
-        <v>212</v>
+        <v>52</v>
       </c>
       <c r="G77" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
-        <v>136</v>
+        <v>73</v>
       </c>
       <c r="I77" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="K77" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="L77" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M77" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="N77" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B78" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C78" t="n">
-        <v>6.5257842E7</v>
+        <v>2.5713469E7</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E78" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="F78" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="G78" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="H78" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="I78" t="s">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="J78" t="s">
-        <v>120</v>
+        <v>31</v>
       </c>
       <c r="K78" t="s">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="L78" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="M78" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="N78" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B79" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C79" t="n">
-        <v>3.7687213E7</v>
+        <v>5.6368619E7</v>
       </c>
       <c r="D79" t="s">
         <v>16</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G79" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J79" t="s">
-        <v>111</v>
+        <v>275</v>
       </c>
       <c r="K79" t="s">
-        <v>234</v>
+        <v>104</v>
       </c>
       <c r="L79" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="M79" t="s">
-        <v>32</v>
+        <v>173</v>
       </c>
       <c r="N79" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B80" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C80" t="n">
-        <v>5.0641552E7</v>
+        <v>8.9625581E7</v>
       </c>
       <c r="D80" t="s">
         <v>16</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s">
-        <v>295</v>
+        <v>23</v>
       </c>
       <c r="G80" t="s">
-        <v>32</v>
+        <v>195</v>
       </c>
       <c r="H80" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="J80" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80" t="s">
         <v>107</v>
       </c>
-      <c r="K80" t="s">
-        <v>25</v>
-      </c>
       <c r="L80" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="M80" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="N80" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="B81" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C81" t="n">
-        <v>3.0060127E7</v>
+        <v>6.8080821E7</v>
       </c>
       <c r="D81" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E81" t="s">
-        <v>251</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s">
-        <v>140</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I81" t="s">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="J81" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="K81" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
       <c r="L81" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="M81" t="s">
-        <v>241</v>
+        <v>125</v>
       </c>
       <c r="N81" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B82" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C82" t="n">
-        <v>9.629956E7</v>
+        <v>9.9107924E7</v>
       </c>
       <c r="D82" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E82" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F82" t="s">
-        <v>87</v>
+        <v>290</v>
       </c>
       <c r="G82" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="I82" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="J82" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="K82" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="L82" t="s">
-        <v>215</v>
+        <v>52</v>
       </c>
       <c r="M82" t="s">
-        <v>88</v>
+        <v>275</v>
       </c>
       <c r="N82" t="s">
-        <v>307</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B83" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C83" t="n">
-        <v>1.5810404E7</v>
+        <v>2.8589065E7</v>
       </c>
       <c r="D83" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E83" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="F83" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="G83" t="s">
-        <v>237</v>
+        <v>65</v>
       </c>
       <c r="H83" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="I83" t="s">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="J83" t="s">
+        <v>38</v>
+      </c>
+      <c r="K83" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" t="s">
         <v>62</v>
       </c>
-      <c r="K83" t="s">
-        <v>67</v>
-      </c>
-      <c r="L83" t="s">
-        <v>169</v>
-      </c>
       <c r="M83" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="N83" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C84" t="n">
-        <v>7.2837325E7</v>
+        <v>8.2937137E7</v>
       </c>
       <c r="D84" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E84" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>142</v>
+        <v>62</v>
       </c>
       <c r="G84" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H84" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="I84" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="J84" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L84" t="s">
-        <v>170</v>
+        <v>33</v>
       </c>
       <c r="M84" t="s">
-        <v>88</v>
+        <v>313</v>
       </c>
       <c r="N84" t="s">
-        <v>251</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>312</v>
+        <v>92</v>
       </c>
       <c r="B85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C85" t="n">
-        <v>1.2778078E7</v>
+        <v>4.7393809E7</v>
       </c>
       <c r="D85" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="H85" t="s">
+        <v>126</v>
+      </c>
+      <c r="I85" t="s">
         <v>90</v>
       </c>
-      <c r="I85" t="s">
-        <v>136</v>
-      </c>
       <c r="J85" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="K85" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="L85" t="s">
-        <v>158</v>
+        <v>190</v>
       </c>
       <c r="M85" t="s">
-        <v>314</v>
+        <v>127</v>
       </c>
       <c r="N85" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86">
@@ -4958,1052 +4949,1052 @@
         <v>316</v>
       </c>
       <c r="C86" t="n">
-        <v>5.6086474E7</v>
+        <v>8.0463119E7</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="F86" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="G86" t="s">
-        <v>113</v>
+        <v>48</v>
       </c>
       <c r="H86" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="J86" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L86" t="s">
-        <v>34</v>
+        <v>317</v>
       </c>
       <c r="M86" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="N86" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>317</v>
+        <v>233</v>
       </c>
       <c r="C87" t="n">
-        <v>7.901572E7</v>
+        <v>9.1595954E7</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="H87" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>116</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="K87" t="s">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="L87" t="s">
-        <v>192</v>
+        <v>73</v>
       </c>
       <c r="M87" t="s">
-        <v>84</v>
+        <v>166</v>
       </c>
       <c r="N87" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
         <v>318</v>
       </c>
-      <c r="B88" t="s">
-        <v>319</v>
-      </c>
       <c r="C88" t="n">
-        <v>7.0541995E7</v>
+        <v>7.9944971E7</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I88" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="J88" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="K88" t="s">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="L88" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="M88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N88" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" t="s">
+        <v>320</v>
+      </c>
+      <c r="C89" t="n">
+        <v>3.366548E7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>16</v>
+      </c>
+      <c r="E89" t="s">
+        <v>214</v>
+      </c>
+      <c r="F89" t="s">
+        <v>212</v>
+      </c>
+      <c r="G89" t="s">
+        <v>173</v>
+      </c>
+      <c r="H89" t="s">
+        <v>21</v>
+      </c>
+      <c r="I89" t="s">
         <v>321</v>
       </c>
-      <c r="B89" t="s">
-        <v>233</v>
-      </c>
-      <c r="C89" t="n">
-        <v>3.4585764E7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>16</v>
-      </c>
-      <c r="E89" t="s">
-        <v>44</v>
-      </c>
-      <c r="F89" t="s">
-        <v>34</v>
-      </c>
-      <c r="G89" t="s">
-        <v>115</v>
-      </c>
-      <c r="H89" t="s">
-        <v>192</v>
-      </c>
-      <c r="I89" t="s">
-        <v>52</v>
-      </c>
       <c r="J89" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="K89" t="s">
+        <v>118</v>
+      </c>
+      <c r="L89" t="s">
+        <v>201</v>
+      </c>
+      <c r="M89" t="s">
+        <v>106</v>
+      </c>
+      <c r="N89" t="s">
         <v>43</v>
-      </c>
-      <c r="L89" t="s">
-        <v>128</v>
-      </c>
-      <c r="M89" t="s">
-        <v>32</v>
-      </c>
-      <c r="N89" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" t="s">
         <v>322</v>
       </c>
-      <c r="B90" t="s">
-        <v>323</v>
-      </c>
       <c r="C90" t="n">
-        <v>1.8213048E7</v>
+        <v>1.1088738E7</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E90" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="H90" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="I90" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="J90" t="s">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="K90" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="L90" t="s">
-        <v>84</v>
+        <v>189</v>
       </c>
       <c r="M90" t="s">
-        <v>155</v>
+        <v>91</v>
       </c>
       <c r="N90" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>257</v>
+        <v>323</v>
       </c>
       <c r="B91" t="s">
         <v>324</v>
       </c>
       <c r="C91" t="n">
-        <v>2.6834475E7</v>
+        <v>7.4504895E7</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
       </c>
       <c r="E91" t="s">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="F91" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="I91" t="s">
-        <v>227</v>
+        <v>25</v>
       </c>
       <c r="J91" t="s">
-        <v>121</v>
+        <v>57</v>
       </c>
       <c r="K91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L91" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M91" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="N91" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
+        <v>149</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.6910541E7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>16</v>
+      </c>
+      <c r="E92" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" t="s">
+        <v>56</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92" t="s">
+        <v>246</v>
+      </c>
+      <c r="I92" t="s">
+        <v>48</v>
+      </c>
+      <c r="J92" t="s">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s">
+        <v>201</v>
+      </c>
+      <c r="L92" t="s">
         <v>325</v>
       </c>
-      <c r="B92" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" t="n">
-        <v>3.5334829E7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>16</v>
-      </c>
-      <c r="E92" t="s">
-        <v>119</v>
-      </c>
-      <c r="F92" t="s">
-        <v>103</v>
-      </c>
-      <c r="G92" t="s">
-        <v>18</v>
-      </c>
-      <c r="H92" t="s">
-        <v>155</v>
-      </c>
-      <c r="I92" t="s">
-        <v>291</v>
-      </c>
-      <c r="J92" t="s">
-        <v>108</v>
-      </c>
-      <c r="K92" t="s">
-        <v>122</v>
-      </c>
-      <c r="L92" t="s">
-        <v>210</v>
-      </c>
       <c r="M92" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="N92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>326</v>
+      </c>
+      <c r="B93" t="s">
         <v>327</v>
       </c>
-      <c r="B93" t="s">
-        <v>328</v>
-      </c>
       <c r="C93" t="n">
-        <v>4.739338E7</v>
+        <v>7.6098393E7</v>
       </c>
       <c r="D93" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E93" t="s">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="F93" t="s">
-        <v>135</v>
+        <v>197</v>
       </c>
       <c r="G93" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H93" t="s">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="I93" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="J93" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="K93" t="s">
+        <v>144</v>
+      </c>
+      <c r="L93" t="s">
+        <v>96</v>
+      </c>
+      <c r="M93" t="s">
         <v>87</v>
       </c>
-      <c r="L93" t="s">
-        <v>72</v>
-      </c>
-      <c r="M93" t="s">
-        <v>143</v>
-      </c>
       <c r="N93" t="s">
-        <v>215</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
+        <v>328</v>
+      </c>
+      <c r="B94" t="s">
         <v>329</v>
       </c>
-      <c r="B94" t="s">
-        <v>330</v>
-      </c>
       <c r="C94" t="n">
-        <v>3.4631594E7</v>
+        <v>5.7152445E7</v>
       </c>
       <c r="D94" t="s">
         <v>16</v>
       </c>
       <c r="E94" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="G94" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="H94" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="I94" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="J94" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="K94" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="L94" t="s">
-        <v>295</v>
+        <v>84</v>
       </c>
       <c r="M94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N94" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>330</v>
+      </c>
+      <c r="B95" t="s">
         <v>331</v>
       </c>
-      <c r="B95" t="s">
-        <v>332</v>
-      </c>
       <c r="C95" t="n">
-        <v>6.5238872E7</v>
+        <v>2.1446802E7</v>
       </c>
       <c r="D95" t="s">
         <v>16</v>
       </c>
       <c r="E95" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="G95" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="H95" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="I95" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="K95" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L95" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="M95" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="N95" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>333</v>
       </c>
       <c r="C96" t="n">
-        <v>9.5985018E7</v>
+        <v>5.5993475E7</v>
       </c>
       <c r="D96" t="s">
         <v>16</v>
       </c>
       <c r="E96" t="s">
-        <v>254</v>
+        <v>131</v>
       </c>
       <c r="F96" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s">
-        <v>178</v>
+        <v>104</v>
       </c>
       <c r="H96" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="I96" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K96" t="s">
-        <v>55</v>
+        <v>181</v>
       </c>
       <c r="L96" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="M96" t="s">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="N96" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="B97" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C97" t="n">
-        <v>1.5673897E7</v>
+        <v>3.3609177E7</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>139</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>116</v>
       </c>
       <c r="G97" t="s">
-        <v>182</v>
+        <v>48</v>
       </c>
       <c r="H97" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="I97" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="J97" t="s">
-        <v>20</v>
+        <v>201</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="L97" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="M97" t="s">
-        <v>121</v>
+        <v>47</v>
       </c>
       <c r="N97" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C98" t="n">
-        <v>9.9704378E7</v>
+        <v>5.5151762E7</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F98" t="s">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="G98" t="s">
-        <v>251</v>
+        <v>63</v>
       </c>
       <c r="H98" t="s">
-        <v>89</v>
+        <v>189</v>
       </c>
       <c r="I98" t="s">
-        <v>241</v>
+        <v>61</v>
       </c>
       <c r="J98" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="K98" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L98" t="s">
-        <v>76</v>
+        <v>132</v>
       </c>
       <c r="M98" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="N98" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
+        <v>337</v>
+      </c>
+      <c r="B99" t="s">
         <v>338</v>
       </c>
-      <c r="B99" t="s">
-        <v>339</v>
-      </c>
       <c r="C99" t="n">
-        <v>9.4896229E7</v>
+        <v>4.2412377E7</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="G99" t="s">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="H99" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="I99" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="J99" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="K99" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
       <c r="L99" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="M99" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="N99" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
+        <v>339</v>
+      </c>
+      <c r="B100" t="s">
         <v>340</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="n">
+        <v>9.633213E7</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100" t="s">
+        <v>34</v>
+      </c>
+      <c r="F100" t="s">
+        <v>63</v>
+      </c>
+      <c r="G100" t="s">
+        <v>39</v>
+      </c>
+      <c r="H100" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s">
+        <v>88</v>
+      </c>
+      <c r="K100" t="s">
+        <v>90</v>
+      </c>
+      <c r="L100" t="s">
+        <v>31</v>
+      </c>
+      <c r="M100" t="s">
+        <v>96</v>
+      </c>
+      <c r="N100" t="s">
         <v>341</v>
-      </c>
-      <c r="C100" t="n">
-        <v>8.6952929E7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>16</v>
-      </c>
-      <c r="E100" t="s">
-        <v>295</v>
-      </c>
-      <c r="F100" t="s">
-        <v>210</v>
-      </c>
-      <c r="G100" t="s">
-        <v>177</v>
-      </c>
-      <c r="H100" t="s">
-        <v>189</v>
-      </c>
-      <c r="I100" t="s">
-        <v>17</v>
-      </c>
-      <c r="J100" t="s">
-        <v>99</v>
-      </c>
-      <c r="K100" t="s">
-        <v>178</v>
-      </c>
-      <c r="L100" t="s">
-        <v>23</v>
-      </c>
-      <c r="M100" t="s">
-        <v>281</v>
-      </c>
-      <c r="N100" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" t="s">
         <v>342</v>
       </c>
-      <c r="B101" t="s">
-        <v>343</v>
-      </c>
       <c r="C101" t="n">
-        <v>9.1097249E7</v>
+        <v>1.8547707E7</v>
       </c>
       <c r="D101" t="s">
         <v>16</v>
       </c>
       <c r="E101" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
-        <v>178</v>
+        <v>105</v>
       </c>
       <c r="G101" t="s">
-        <v>202</v>
+        <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>209</v>
+        <v>53</v>
       </c>
       <c r="I101" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
       <c r="J101" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="K101" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="L101" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="M101" t="s">
-        <v>29</v>
+        <v>275</v>
       </c>
       <c r="N101" t="s">
-        <v>255</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
+        <v>343</v>
+      </c>
+      <c r="B102" t="s">
         <v>344</v>
       </c>
-      <c r="B102" t="s">
-        <v>345</v>
-      </c>
       <c r="C102" t="n">
-        <v>2.5177945E7</v>
+        <v>1.6884708E7</v>
       </c>
       <c r="D102" t="s">
         <v>16</v>
       </c>
       <c r="E102" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="F102" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G102" t="s">
-        <v>25</v>
+        <v>138</v>
       </c>
       <c r="H102" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="I102" t="s">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="J102" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="K102" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="L102" t="s">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="M102" t="s">
-        <v>284</v>
+        <v>20</v>
       </c>
       <c r="N102" t="s">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>345</v>
+      </c>
+      <c r="B103" t="s">
         <v>346</v>
       </c>
-      <c r="B103" t="s">
-        <v>190</v>
-      </c>
       <c r="C103" t="n">
-        <v>3.5823864E7</v>
+        <v>9.7175852E7</v>
       </c>
       <c r="D103" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>88</v>
+        <v>290</v>
       </c>
       <c r="F103" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="G103" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H103" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="I103" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="J103" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="K103" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="L103" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="M103" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="N103" t="s">
-        <v>246</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>223</v>
+        <v>347</v>
       </c>
       <c r="B104" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C104" t="n">
-        <v>5.4436578E7</v>
+        <v>5.0328345E7</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>190</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G104" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H104" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="J104" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="K104" t="s">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="L104" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="M104" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="N104" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B105" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C105" t="n">
-        <v>8.450095E7</v>
+        <v>4.9543445E7</v>
       </c>
       <c r="D105" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="F105" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="H105" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="I105" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="J105" t="s">
-        <v>246</v>
+        <v>90</v>
       </c>
       <c r="K105" t="s">
-        <v>71</v>
+        <v>208</v>
       </c>
       <c r="L105" t="s">
-        <v>169</v>
+        <v>35</v>
       </c>
       <c r="M105" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N105" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>190</v>
+        <v>351</v>
       </c>
       <c r="B106" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="C106" t="n">
-        <v>2.4498581E7</v>
+        <v>4.7449651E7</v>
       </c>
       <c r="D106" t="s">
         <v>16</v>
       </c>
       <c r="E106" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="F106" t="s">
+        <v>87</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" t="s">
+        <v>178</v>
+      </c>
+      <c r="I106" t="s">
         <v>18</v>
       </c>
-      <c r="G106" t="s">
-        <v>192</v>
-      </c>
-      <c r="H106" t="s">
-        <v>29</v>
-      </c>
-      <c r="I106" t="s">
-        <v>52</v>
-      </c>
       <c r="J106" t="s">
-        <v>81</v>
+        <v>290</v>
       </c>
       <c r="K106" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="L106" t="s">
-        <v>26</v>
+        <v>168</v>
       </c>
       <c r="M106" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="N106" t="s">
-        <v>149</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s">
-        <v>230</v>
+        <v>354</v>
       </c>
       <c r="C107" t="n">
-        <v>9.9739409E7</v>
+        <v>9.0535052E7</v>
       </c>
       <c r="D107" t="s">
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="G107" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="H107" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" t="s">
+        <v>43</v>
+      </c>
+      <c r="J107" t="s">
+        <v>148</v>
+      </c>
+      <c r="K107" t="s">
+        <v>54</v>
+      </c>
+      <c r="L107" t="s">
+        <v>130</v>
+      </c>
+      <c r="M107" t="s">
         <v>25</v>
       </c>
-      <c r="I107" t="s">
-        <v>165</v>
-      </c>
-      <c r="J107" t="s">
-        <v>189</v>
-      </c>
-      <c r="K107" t="s">
-        <v>99</v>
-      </c>
-      <c r="L107" t="s">
-        <v>35</v>
-      </c>
-      <c r="M107" t="s">
-        <v>185</v>
-      </c>
       <c r="N107" t="s">
-        <v>107</v>
+        <v>140</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>285</v>
       </c>
       <c r="C108" t="n">
-        <v>2.4628118E7</v>
+        <v>3.2753433E7</v>
       </c>
       <c r="D108" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F108" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H108" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="J108" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K108" t="s">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="L108" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="M108" t="s">
-        <v>155</v>
+        <v>64</v>
       </c>
       <c r="N108" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>353</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="C109" t="n">
-        <v>2.4227475E7</v>
+        <v>7.7844809E7</v>
       </c>
       <c r="D109" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E109" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="F109" t="s">
-        <v>199</v>
+        <v>84</v>
       </c>
       <c r="G109" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="H109" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="I109" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="J109" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K109" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="L109" t="s">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c r="M109" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="N109" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
     </row>
     <row r="110">
@@ -6014,260 +6005,260 @@
         <v>356</v>
       </c>
       <c r="C110" t="n">
-        <v>7.7753926E7</v>
+        <v>9.960858E7</v>
       </c>
       <c r="D110" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>64</v>
       </c>
       <c r="F110" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="G110" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="H110" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="I110" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J110" t="s">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="K110" t="s">
-        <v>246</v>
+        <v>67</v>
       </c>
       <c r="L110" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="M110" t="s">
-        <v>89</v>
+        <v>341</v>
       </c>
       <c r="N110" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>343</v>
+      </c>
+      <c r="B111" t="s">
         <v>357</v>
       </c>
-      <c r="B111" t="s">
-        <v>358</v>
-      </c>
       <c r="C111" t="n">
-        <v>6.8950008E7</v>
+        <v>9.4947651E7</v>
       </c>
       <c r="D111" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G111" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="H111" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="J111" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="K111" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="L111" t="s">
-        <v>177</v>
+        <v>38</v>
       </c>
       <c r="M111" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="N111" t="s">
-        <v>112</v>
+        <v>61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
+        <v>358</v>
+      </c>
+      <c r="B112" t="s">
         <v>359</v>
       </c>
-      <c r="B112" t="s">
-        <v>360</v>
-      </c>
       <c r="C112" t="n">
-        <v>2.0563167E7</v>
+        <v>5.4722739E7</v>
       </c>
       <c r="D112" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E112" t="s">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
       <c r="G112" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="H112" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="I112" t="s">
-        <v>93</v>
+        <v>167</v>
       </c>
       <c r="J112" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="K112" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="L112" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="M112" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="N112" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>360</v>
+      </c>
+      <c r="B113" t="s">
         <v>361</v>
       </c>
-      <c r="B113" t="s">
-        <v>362</v>
-      </c>
       <c r="C113" t="n">
-        <v>9.0227847E7</v>
+        <v>7.4448799E7</v>
       </c>
       <c r="D113" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E113" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="F113" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>68</v>
+        <v>190</v>
       </c>
       <c r="H113" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="I113" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="J113" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="K113" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="L113" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M113" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="N113" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s">
-        <v>218</v>
+        <v>363</v>
       </c>
       <c r="C114" t="n">
-        <v>1.5994899E7</v>
+        <v>7.9936305E7</v>
       </c>
       <c r="D114" t="s">
         <v>16</v>
       </c>
       <c r="E114" t="s">
-        <v>122</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G114" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="H114" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I114" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="J114" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="K114" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="L114" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
       <c r="M114" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="N114" t="s">
-        <v>129</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B115" t="s">
-        <v>364</v>
+        <v>188</v>
       </c>
       <c r="C115" t="n">
-        <v>8.2459138E7</v>
+        <v>6.5687071E7</v>
       </c>
       <c r="D115" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E115" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="F115" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="G115" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H115" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="I115" t="s">
-        <v>259</v>
+        <v>48</v>
       </c>
       <c r="J115" t="s">
+        <v>17</v>
+      </c>
+      <c r="K115" t="s">
+        <v>201</v>
+      </c>
+      <c r="L115" t="s">
         <v>170</v>
       </c>
-      <c r="K115" t="s">
-        <v>212</v>
-      </c>
-      <c r="L115" t="s">
-        <v>241</v>
-      </c>
       <c r="M115" t="s">
-        <v>173</v>
+        <v>20</v>
       </c>
       <c r="N115" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="116">
@@ -6275,263 +6266,263 @@
         <v>365</v>
       </c>
       <c r="B116" t="s">
-        <v>366</v>
+        <v>137</v>
       </c>
       <c r="C116" t="n">
-        <v>9.6817709E7</v>
+        <v>9.5076957E7</v>
       </c>
       <c r="D116" t="s">
         <v>16</v>
       </c>
       <c r="E116" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="F116" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="G116" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="H116" t="s">
-        <v>177</v>
+        <v>46</v>
       </c>
       <c r="I116" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="J116" t="s">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="K116" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="L116" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M116" t="s">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="N116" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>367</v>
+        <v>69</v>
       </c>
       <c r="B117" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C117" t="n">
-        <v>4.256496E7</v>
+        <v>3.3551623E7</v>
       </c>
       <c r="D117" t="s">
         <v>16</v>
       </c>
       <c r="E117" t="s">
-        <v>178</v>
+        <v>275</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
+        <v>215</v>
       </c>
       <c r="G117" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="H117" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="I117" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="J117" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="K117" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="L117" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="M117" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="N117" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B118" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C118" t="n">
-        <v>7.4972571E7</v>
+        <v>7.8171729E7</v>
       </c>
       <c r="D118" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E118" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="F118" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="H118" t="s">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="I118" t="s">
-        <v>170</v>
+        <v>94</v>
       </c>
       <c r="J118" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="K118" t="s">
-        <v>212</v>
+        <v>18</v>
       </c>
       <c r="L118" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="M118" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="N118" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>160</v>
+        <v>345</v>
       </c>
       <c r="B119" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="C119" t="n">
-        <v>9.2308076E7</v>
+        <v>1.1917135E7</v>
       </c>
       <c r="D119" t="s">
+        <v>16</v>
+      </c>
+      <c r="E119" t="s">
+        <v>104</v>
+      </c>
+      <c r="F119" t="s">
         <v>58</v>
       </c>
-      <c r="E119" t="s">
+      <c r="G119" t="s">
+        <v>237</v>
+      </c>
+      <c r="H119" t="s">
+        <v>57</v>
+      </c>
+      <c r="I119" t="s">
+        <v>25</v>
+      </c>
+      <c r="J119" t="s">
+        <v>73</v>
+      </c>
+      <c r="K119" t="s">
+        <v>113</v>
+      </c>
+      <c r="L119" t="s">
         <v>76</v>
       </c>
-      <c r="F119" t="s">
-        <v>60</v>
-      </c>
-      <c r="G119" t="s">
-        <v>77</v>
-      </c>
-      <c r="H119" t="s">
-        <v>68</v>
-      </c>
-      <c r="I119" t="s">
-        <v>170</v>
-      </c>
-      <c r="J119" t="s">
-        <v>173</v>
-      </c>
-      <c r="K119" t="s">
-        <v>136</v>
-      </c>
-      <c r="L119" t="s">
-        <v>199</v>
-      </c>
       <c r="M119" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="N119" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B120" t="s">
-        <v>373</v>
+        <v>137</v>
       </c>
       <c r="C120" t="n">
-        <v>9.6686382E7</v>
+        <v>7.9295046E7</v>
       </c>
       <c r="D120" t="s">
         <v>16</v>
       </c>
       <c r="E120" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F120" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="G120" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="H120" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="J120" t="s">
-        <v>227</v>
+        <v>81</v>
       </c>
       <c r="K120" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="L120" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="M120" t="s">
-        <v>284</v>
+        <v>131</v>
       </c>
       <c r="N120" t="s">
-        <v>29</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>274</v>
+        <v>370</v>
       </c>
       <c r="B121" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C121" t="n">
-        <v>7.3497242E7</v>
+        <v>1.3199158E7</v>
       </c>
       <c r="D121" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="E121" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="F121" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="G121" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="H121" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="I121" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="J121" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="K121" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="L121" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="M121" t="s">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="N121" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
